--- a/data-export/export_202110/sum_tagged_nonagri_detail.xlsx
+++ b/data-export/export_202110/sum_tagged_nonagri_detail.xlsx
@@ -474,10 +474,10 @@
         </is>
       </c>
       <c r="G2">
-        <v>10668492363.82</v>
+        <v>6552959889.657929</v>
       </c>
       <c r="H2">
-        <v>3195915176.08</v>
+        <v>2097983131.007991</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>7472577187.74</v>
+        <v>4454976758.649939</v>
       </c>
       <c r="O2">
-        <v>-6.340269464999437e-08</v>
+        <v>-2.848260337421415e-08</v>
       </c>
       <c r="P2">
-        <v>7472577187.74</v>
+        <v>4454976758.649939</v>
       </c>
       <c r="Q2">
         <v>591</v>
@@ -1797,10 +1797,10 @@
         </is>
       </c>
       <c r="G23">
-        <v>3307838405.93</v>
+        <v>3292187984.547166</v>
       </c>
       <c r="H23">
-        <v>2638198329.29</v>
+        <v>2626858667.259491</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>1</v>
       </c>
       <c r="L23">
-        <v>893</v>
+        <v>891.9399999963416</v>
       </c>
       <c r="M23">
         <v>10</v>
       </c>
       <c r="N23">
-        <v>332353229.82</v>
+        <v>328349115.48</v>
       </c>
       <c r="O23">
         <v>-5.238689482212067e-09</v>
       </c>
       <c r="P23">
-        <v>669640076.64</v>
+        <v>665329317.2876743</v>
       </c>
       <c r="Q23">
         <v>2695</v>
@@ -1860,10 +1860,10 @@
         </is>
       </c>
       <c r="G24">
-        <v>660178024.88</v>
+        <v>649217234.88</v>
       </c>
       <c r="H24">
-        <v>460751315.97</v>
+        <v>451721818.97</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1881,13 +1881,13 @@
         <v>2</v>
       </c>
       <c r="N24">
-        <v>118992443.07</v>
+        <v>117061150.07</v>
       </c>
       <c r="O24">
         <v>-9.313225746154785e-10</v>
       </c>
       <c r="P24">
-        <v>199426708.91</v>
+        <v>197495415.91</v>
       </c>
       <c r="Q24">
         <v>212</v>
@@ -2049,10 +2049,10 @@
         </is>
       </c>
       <c r="G27">
-        <v>354861177.54</v>
+        <v>312419115.8628342</v>
       </c>
       <c r="H27">
-        <v>242836349.26</v>
+        <v>209175340.2605085</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -2064,19 +2064,19 @@
         <v>0</v>
       </c>
       <c r="L27">
-        <v>8</v>
+        <v>2.060000003658426</v>
       </c>
       <c r="M27">
         <v>0</v>
       </c>
       <c r="N27">
-        <v>109256534.41</v>
+        <v>102668058.75</v>
       </c>
       <c r="O27">
         <v>1.396983861923218e-09</v>
       </c>
       <c r="P27">
-        <v>112024828.28</v>
+        <v>103243775.6023257</v>
       </c>
       <c r="Q27">
         <v>204</v>
@@ -2364,10 +2364,10 @@
         </is>
       </c>
       <c r="G32">
-        <v>9884060094.190001</v>
+        <v>9723084549.105</v>
       </c>
       <c r="H32">
-        <v>8401451079.46</v>
+        <v>8264621866.145</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -2391,7 +2391,7 @@
         <v>0</v>
       </c>
       <c r="P32">
-        <v>1482609014.73</v>
+        <v>1458462682.96</v>
       </c>
       <c r="Q32">
         <v>28</v>
@@ -2427,10 +2427,10 @@
         </is>
       </c>
       <c r="G33">
-        <v>16640918613.61</v>
+        <v>16258187056.13755</v>
       </c>
       <c r="H33">
-        <v>14144780820.65</v>
+        <v>13819458996.81999</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -2454,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="P33">
-        <v>2496137792.96</v>
+        <v>2438728059.317557</v>
       </c>
       <c r="Q33">
         <v>36</v>
@@ -2490,10 +2490,10 @@
         </is>
       </c>
       <c r="G34">
-        <v>19938942006.39</v>
+        <v>18226516770.36745</v>
       </c>
       <c r="H34">
-        <v>16948100704.31</v>
+        <v>15492539253.76501</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -2517,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="P34">
-        <v>2990841302.08</v>
+        <v>2733977516.602443</v>
       </c>
       <c r="Q34">
         <v>40</v>
@@ -2868,19 +2868,19 @@
         </is>
       </c>
       <c r="G40">
-        <v>1641978892.91</v>
+        <v>1610950579.695</v>
       </c>
       <c r="H40">
-        <v>1395682058.88</v>
+        <v>1369307992.65</v>
       </c>
       <c r="I40">
-        <v>82098944.64</v>
+        <v>80547528.98</v>
       </c>
       <c r="J40">
         <v>0</v>
       </c>
       <c r="K40">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -2895,7 +2895,7 @@
         <v>0</v>
       </c>
       <c r="P40">
-        <v>246296834.0299999</v>
+        <v>241642587.0449999</v>
       </c>
       <c r="Q40">
         <v>21</v>
@@ -3057,19 +3057,19 @@
         </is>
       </c>
       <c r="G43">
-        <v>15359469140.63</v>
+        <v>15328440827.415</v>
       </c>
       <c r="H43">
-        <v>12973930754.57</v>
+        <v>12947556688.34</v>
       </c>
       <c r="I43">
-        <v>751649854.78</v>
+        <v>750098439.12</v>
       </c>
       <c r="J43">
         <v>0</v>
       </c>
       <c r="K43">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="L43">
         <v>0</v>
@@ -3084,7 +3084,7 @@
         <v>0</v>
       </c>
       <c r="P43">
-        <v>2385538386.06</v>
+        <v>2380884139.075</v>
       </c>
       <c r="Q43">
         <v>614</v>
@@ -4191,10 +4191,10 @@
         </is>
       </c>
       <c r="G61">
-        <v>690009106.55</v>
+        <v>683999555.4102353</v>
       </c>
       <c r="H61">
-        <v>345004552.64</v>
+        <v>341999777.0789792</v>
       </c>
       <c r="I61">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="K61">
-        <v>214</v>
+        <v>212.9776999979373</v>
       </c>
       <c r="L61">
         <v>0</v>
@@ -4212,13 +4212,13 @@
         <v>0</v>
       </c>
       <c r="N61">
-        <v>104896790.88</v>
+        <v>103772016.8809517</v>
       </c>
       <c r="O61">
-        <v>240107763.03</v>
+        <v>238227761.4503044</v>
       </c>
       <c r="P61">
-        <v>345004553.91</v>
+        <v>341999778.3312562</v>
       </c>
       <c r="Q61">
         <v>454</v>
@@ -4317,10 +4317,10 @@
         </is>
       </c>
       <c r="G63">
-        <v>341082946.07</v>
+        <v>337275478.7997647</v>
       </c>
       <c r="H63">
-        <v>170541472.88</v>
+        <v>168637739.2510208</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -4329,7 +4329,7 @@
         <v>0</v>
       </c>
       <c r="K63">
-        <v>82</v>
+        <v>81.02230000206265</v>
       </c>
       <c r="L63">
         <v>0</v>
@@ -4338,13 +4338,13 @@
         <v>0</v>
       </c>
       <c r="N63">
-        <v>51295331.38</v>
+        <v>50739978.34904829</v>
       </c>
       <c r="O63">
-        <v>119246141.81</v>
+        <v>117897761.1996955</v>
       </c>
       <c r="P63">
-        <v>170541473.19</v>
+        <v>168637739.5487438</v>
       </c>
       <c r="Q63">
         <v>106</v>
@@ -4821,10 +4821,10 @@
         </is>
       </c>
       <c r="G71">
-        <v>13612726923.24</v>
+        <v>8794719092.155001</v>
       </c>
       <c r="H71">
-        <v>5712814534.61</v>
+        <v>3850585082.325</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -4842,13 +4842,13 @@
         <v>0</v>
       </c>
       <c r="N71">
-        <v>7899912388.63</v>
+        <v>4944134009.83</v>
       </c>
       <c r="O71">
-        <v>-5.613765097223222e-08</v>
+        <v>-3.703280526679009e-08</v>
       </c>
       <c r="P71">
-        <v>7899912388.63</v>
+        <v>4944134009.83</v>
       </c>
       <c r="Q71">
         <v>1914</v>
@@ -4884,10 +4884,10 @@
         </is>
       </c>
       <c r="G72">
-        <v>10549932635.61</v>
+        <v>6696996957.425</v>
       </c>
       <c r="H72">
-        <v>3316536697.19</v>
+        <v>2369283668.3</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -4905,13 +4905,13 @@
         <v>0</v>
       </c>
       <c r="N72">
-        <v>7233395938.42</v>
+        <v>4327713289.125</v>
       </c>
       <c r="O72">
-        <v>-7.014023140072823e-08</v>
+        <v>-3.390596248209476e-08</v>
       </c>
       <c r="P72">
-        <v>7233395938.42</v>
+        <v>4327713289.125</v>
       </c>
       <c r="Q72">
         <v>413</v>
@@ -5010,13 +5010,13 @@
         </is>
       </c>
       <c r="G74">
-        <v>8808682672.940001</v>
+        <v>8543763783.294912</v>
       </c>
       <c r="H74">
-        <v>7107192942.42</v>
+        <v>6883704533.730116</v>
       </c>
       <c r="I74">
-        <v>1262594997.87</v>
+        <v>1234410461.519026</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -5028,16 +5028,16 @@
         <v>0</v>
       </c>
       <c r="M74">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N74">
-        <v>407749583.16</v>
+        <v>395123655.94077</v>
       </c>
       <c r="O74">
-        <v>1143452703.87</v>
+        <v>1118200849.639026</v>
       </c>
       <c r="P74">
-        <v>1701489730.52</v>
+        <v>1660059249.564796</v>
       </c>
       <c r="Q74">
         <v>99</v>
@@ -5073,13 +5073,13 @@
         </is>
       </c>
       <c r="G75">
-        <v>705123253.71</v>
+        <v>664418952.1573431</v>
       </c>
       <c r="H75">
-        <v>588746953.6900001</v>
+        <v>554148297.3891417</v>
       </c>
       <c r="I75">
-        <v>85237602.48999999</v>
+        <v>81167172.32913432</v>
       </c>
       <c r="J75">
         <v>0</v>
@@ -5091,7 +5091,7 @@
         <v>0</v>
       </c>
       <c r="M75">
-        <v>62</v>
+        <v>59.20000000009239</v>
       </c>
       <c r="N75">
         <v>4832709.34</v>
@@ -5100,7 +5100,7 @@
         <v>12779442.12</v>
       </c>
       <c r="P75">
-        <v>116376300.02</v>
+        <v>110270654.7682015</v>
       </c>
       <c r="Q75">
         <v>17</v>
@@ -5262,10 +5262,10 @@
         </is>
       </c>
       <c r="G78">
-        <v>1733868108.61</v>
+        <v>460020251.6399525</v>
       </c>
       <c r="H78">
-        <v>1100826887.58</v>
+        <v>289893607.9861853</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -5283,13 +5283,13 @@
         <v>0</v>
       </c>
       <c r="N78">
-        <v>633041221.03</v>
+        <v>170126643.6537672</v>
       </c>
       <c r="O78">
-        <v>5.347828846424818e-09</v>
+        <v>2.938579302732237e-10</v>
       </c>
       <c r="P78">
-        <v>633041221.03</v>
+        <v>170126643.6537672</v>
       </c>
       <c r="Q78">
         <v>630</v>
@@ -5325,13 +5325,13 @@
         </is>
       </c>
       <c r="G79">
-        <v>1444731537</v>
+        <v>1293463250.739088</v>
       </c>
       <c r="H79">
-        <v>1135145120.98</v>
+        <v>1008259725.179884</v>
       </c>
       <c r="I79">
-        <v>242750427.98</v>
+        <v>225930951.966974</v>
       </c>
       <c r="J79">
         <v>0</v>
@@ -5343,16 +5343,16 @@
         <v>0</v>
       </c>
       <c r="M79">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N79">
-        <v>65595953.27</v>
+        <v>58652556.20722999</v>
       </c>
       <c r="O79">
-        <v>220683293.73</v>
+        <v>206796499.836974</v>
       </c>
       <c r="P79">
-        <v>309586416.02</v>
+        <v>285203525.559204</v>
       </c>
       <c r="Q79">
         <v>15</v>
@@ -5388,13 +5388,13 @@
         </is>
       </c>
       <c r="G80">
-        <v>1702156194.09</v>
+        <v>1581471932.260347</v>
       </c>
       <c r="H80">
-        <v>1389733328.77</v>
+        <v>1292588824.640405</v>
       </c>
       <c r="I80">
-        <v>188919475.79</v>
+        <v>174352467.790293</v>
       </c>
       <c r="J80">
         <v>0</v>
@@ -5406,16 +5406,16 @@
         <v>0</v>
       </c>
       <c r="M80">
-        <v>164</v>
+        <v>151.7212225696989</v>
       </c>
       <c r="N80">
-        <v>12348213.02</v>
+        <v>11523584.06502884</v>
       </c>
       <c r="O80">
-        <v>33637552.48999999</v>
+        <v>31988294.6063634</v>
       </c>
       <c r="P80">
-        <v>312422865.32</v>
+        <v>288883107.6199419</v>
       </c>
       <c r="Q80">
         <v>47</v>
@@ -5451,13 +5451,13 @@
         </is>
       </c>
       <c r="G81">
-        <v>1003665898.43</v>
+        <v>1000801482.7</v>
       </c>
       <c r="H81">
-        <v>716187801.64</v>
+        <v>714107949.385</v>
       </c>
       <c r="I81">
-        <v>287478096.79</v>
+        <v>286693533.315</v>
       </c>
       <c r="J81">
         <v>0</v>
@@ -5478,7 +5478,7 @@
         <v>0</v>
       </c>
       <c r="P81">
-        <v>287478096.79</v>
+        <v>286693533.315</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -5514,10 +5514,10 @@
         </is>
       </c>
       <c r="G82">
-        <v>7450922047.34</v>
+        <v>7027140135.545106</v>
       </c>
       <c r="H82">
-        <v>4352433110.39</v>
+        <v>4079121139.744005</v>
       </c>
       <c r="I82">
         <v>0</v>
@@ -5535,13 +5535,13 @@
         <v>0</v>
       </c>
       <c r="N82">
-        <v>3098488936.95</v>
+        <v>2948018995.801101</v>
       </c>
       <c r="O82">
-        <v>-1.643275027163327e-08</v>
+        <v>-1.770884385407701e-08</v>
       </c>
       <c r="P82">
-        <v>3098488936.95</v>
+        <v>2948018995.801101</v>
       </c>
       <c r="Q82">
         <v>2161</v>
@@ -5640,13 +5640,13 @@
         </is>
       </c>
       <c r="G84">
-        <v>5864484926.06</v>
+        <v>5327492016.276</v>
       </c>
       <c r="H84">
-        <v>4560813750.98</v>
+        <v>4104369777.7</v>
       </c>
       <c r="I84">
-        <v>1022795280.66</v>
+        <v>969095989.684</v>
       </c>
       <c r="J84">
         <v>0</v>
@@ -5661,13 +5661,13 @@
         <v>119</v>
       </c>
       <c r="N84">
-        <v>111803732.39</v>
+        <v>84954086.862</v>
       </c>
       <c r="O84">
-        <v>373457025.09</v>
+        <v>319757734.114</v>
       </c>
       <c r="P84">
-        <v>1303671175.08</v>
+        <v>1223122238.576</v>
       </c>
       <c r="Q84">
         <v>33</v>
@@ -5703,13 +5703,13 @@
         </is>
       </c>
       <c r="G85">
-        <v>401679445.13</v>
+        <v>186860660.1723098</v>
       </c>
       <c r="H85">
-        <v>324035697.39</v>
+        <v>151555666.6304531</v>
       </c>
       <c r="I85">
-        <v>45322510.13</v>
+        <v>22910130.08057265</v>
       </c>
       <c r="J85">
         <v>0</v>
@@ -5721,16 +5721,16 @@
         <v>0</v>
       </c>
       <c r="M85">
-        <v>39</v>
+        <v>15.07877743020874</v>
       </c>
       <c r="N85">
-        <v>4424654.32</v>
+        <v>3995367.444971155</v>
       </c>
       <c r="O85">
-        <v>8849308.560000004</v>
+        <v>7990734.823636593</v>
       </c>
       <c r="P85">
-        <v>77643747.73999999</v>
+        <v>35304993.54185666</v>
       </c>
       <c r="Q85">
         <v>11</v>
@@ -5766,13 +5766,13 @@
         </is>
       </c>
       <c r="G86">
-        <v>5728831.459999999</v>
+        <v>2864415.73</v>
       </c>
       <c r="H86">
-        <v>4159704.51</v>
+        <v>2079852.255</v>
       </c>
       <c r="I86">
-        <v>1569126.95</v>
+        <v>784563.475</v>
       </c>
       <c r="J86">
         <v>0</v>
@@ -5793,7 +5793,7 @@
         <v>0</v>
       </c>
       <c r="P86">
-        <v>1569126.95</v>
+        <v>784563.4749999999</v>
       </c>
       <c r="Q86">
         <v>1</v>
@@ -5892,10 +5892,10 @@
         </is>
       </c>
       <c r="G88">
-        <v>758838053.86</v>
+        <v>749602718.98</v>
       </c>
       <c r="H88">
-        <v>379419026.45</v>
+        <v>374801359.03</v>
       </c>
       <c r="I88">
         <v>0</v>
@@ -5904,7 +5904,7 @@
         <v>0</v>
       </c>
       <c r="K88">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="L88">
         <v>0</v>
@@ -5913,13 +5913,13 @@
         <v>0</v>
       </c>
       <c r="N88">
-        <v>75883806.23999999</v>
+        <v>74960272.73</v>
       </c>
       <c r="O88">
-        <v>303535221.17</v>
+        <v>299841087.22</v>
       </c>
       <c r="P88">
-        <v>379419027.41</v>
+        <v>374801359.95</v>
       </c>
       <c r="Q88">
         <v>88</v>
@@ -6018,10 +6018,10 @@
         </is>
       </c>
       <c r="G90">
-        <v>366882494.46</v>
+        <v>366355738.108</v>
       </c>
       <c r="H90">
-        <v>198756144.57</v>
+        <v>198442829.894</v>
       </c>
       <c r="I90">
         <v>0</v>
@@ -6039,13 +6039,13 @@
         <v>0</v>
       </c>
       <c r="N90">
-        <v>168126349.89</v>
+        <v>167912908.214</v>
       </c>
       <c r="O90">
         <v>1.047737896442413e-09</v>
       </c>
       <c r="P90">
-        <v>168126349.89</v>
+        <v>167912908.214</v>
       </c>
       <c r="Q90">
         <v>117</v>
@@ -6144,10 +6144,10 @@
         </is>
       </c>
       <c r="G92">
-        <v>9631683540.5</v>
+        <v>4818417238.25</v>
       </c>
       <c r="H92">
-        <v>3722509449.82</v>
+        <v>1862413685.51</v>
       </c>
       <c r="I92">
         <v>0</v>
@@ -6165,13 +6165,13 @@
         <v>0</v>
       </c>
       <c r="N92">
-        <v>5909174090.68</v>
+        <v>2956003552.74</v>
       </c>
       <c r="O92">
-        <v>-3.820969141088426e-08</v>
+        <v>-1.910484570544213e-08</v>
       </c>
       <c r="P92">
-        <v>5909174090.68</v>
+        <v>2956003552.74</v>
       </c>
       <c r="Q92">
         <v>1261</v>
@@ -6396,10 +6396,10 @@
         </is>
       </c>
       <c r="G96">
-        <v>730439578.51</v>
+        <v>722794485.9490119</v>
       </c>
       <c r="H96">
-        <v>299469583.89</v>
+        <v>295610293.2928183</v>
       </c>
       <c r="I96">
         <v>0</v>
@@ -6417,13 +6417,13 @@
         <v>0</v>
       </c>
       <c r="N96">
-        <v>430969994.62</v>
+        <v>427184192.6561936</v>
       </c>
       <c r="O96">
-        <v>-2.264278009533882e-08</v>
+        <v>-2.253643004218428e-08</v>
       </c>
       <c r="P96">
-        <v>430969994.62</v>
+        <v>427184192.6561936</v>
       </c>
       <c r="Q96">
         <v>276</v>
@@ -7971,13 +7971,13 @@
         </is>
       </c>
       <c r="G121">
-        <v>3741850082.69</v>
+        <v>3730633276.166</v>
       </c>
       <c r="H121">
-        <v>3180572569.34</v>
+        <v>3171038283.804</v>
       </c>
       <c r="I121">
-        <v>358528829.28</v>
+        <v>357967988.949</v>
       </c>
       <c r="J121">
         <v>0</v>
@@ -7986,7 +7986,7 @@
         <v>25</v>
       </c>
       <c r="L121">
-        <v>276</v>
+        <v>274.8</v>
       </c>
       <c r="M121">
         <v>0</v>
@@ -7998,7 +7998,7 @@
         <v>0</v>
       </c>
       <c r="P121">
-        <v>561277513.35</v>
+        <v>559594992.362</v>
       </c>
       <c r="Q121">
         <v>492</v>
@@ -8412,13 +8412,13 @@
         </is>
       </c>
       <c r="G128">
-        <v>156471609.64</v>
+        <v>142748684.974</v>
       </c>
       <c r="H128">
-        <v>133000868.11</v>
+        <v>121336382.156</v>
       </c>
       <c r="I128">
-        <v>7823580.5</v>
+        <v>7137434.261</v>
       </c>
       <c r="J128">
         <v>0</v>
@@ -8427,7 +8427,7 @@
         <v>3</v>
       </c>
       <c r="L128">
-        <v>18</v>
+        <v>16.2</v>
       </c>
       <c r="M128">
         <v>0</v>
@@ -8439,7 +8439,7 @@
         <v>0</v>
       </c>
       <c r="P128">
-        <v>23470741.53</v>
+        <v>21412302.818</v>
       </c>
       <c r="Q128">
         <v>48</v>
@@ -9546,13 +9546,13 @@
         </is>
       </c>
       <c r="G146">
-        <v>2060497380.5</v>
+        <v>2047488108.061222</v>
       </c>
       <c r="H146">
-        <v>1672093622.83</v>
+        <v>1661536598.624383</v>
       </c>
       <c r="I146">
-        <v>388403757.67</v>
+        <v>385951509.436839</v>
       </c>
       <c r="J146">
         <v>0</v>
@@ -9573,7 +9573,7 @@
         <v>0</v>
       </c>
       <c r="P146">
-        <v>388403757.67</v>
+        <v>385951509.436839</v>
       </c>
       <c r="Q146">
         <v>26</v>
@@ -9609,13 +9609,13 @@
         </is>
       </c>
       <c r="G147">
-        <v>11170877.63</v>
+        <v>1481304.097543579</v>
       </c>
       <c r="H147">
-        <v>9065166.460000001</v>
+        <v>1202078.183464526</v>
       </c>
       <c r="I147">
-        <v>2105711.17</v>
+        <v>279225.9140790526</v>
       </c>
       <c r="J147">
         <v>0</v>
@@ -9636,7 +9636,7 @@
         <v>0</v>
       </c>
       <c r="P147">
-        <v>2105711.17</v>
+        <v>279225.9140790527</v>
       </c>
       <c r="Q147">
         <v>6</v>
@@ -9672,13 +9672,13 @@
         </is>
       </c>
       <c r="G148">
-        <v>1629579450.57</v>
+        <v>1628667119.720215</v>
       </c>
       <c r="H148">
-        <v>1341510543</v>
+        <v>1340759489.443177</v>
       </c>
       <c r="I148">
-        <v>288068907.57</v>
+        <v>287907630.277038</v>
       </c>
       <c r="J148">
         <v>0</v>
@@ -9699,7 +9699,7 @@
         <v>0</v>
       </c>
       <c r="P148">
-        <v>288068907.57</v>
+        <v>287907630.277038</v>
       </c>
       <c r="Q148">
         <v>3</v>
@@ -9735,13 +9735,13 @@
         </is>
       </c>
       <c r="G149">
-        <v>612479658.1799999</v>
+        <v>600398633.9557805</v>
       </c>
       <c r="H149">
-        <v>520607708.87</v>
+        <v>510338838.4150292</v>
       </c>
       <c r="I149">
-        <v>66689341.37</v>
+        <v>65005618.90124533</v>
       </c>
       <c r="J149">
         <v>0</v>
@@ -9762,7 +9762,7 @@
         <v>0</v>
       </c>
       <c r="P149">
-        <v>91871949.31</v>
+        <v>90059795.54075132</v>
       </c>
       <c r="Q149">
         <v>3</v>
@@ -9924,10 +9924,10 @@
         </is>
       </c>
       <c r="G152">
-        <v>221053185.13</v>
+        <v>110526592.5104128</v>
       </c>
       <c r="H152">
-        <v>110526592.54</v>
+        <v>55263296.2427064</v>
       </c>
       <c r="I152">
         <v>0</v>
@@ -9936,7 +9936,7 @@
         <v>0</v>
       </c>
       <c r="K152">
-        <v>11</v>
+        <v>5.499999997283643</v>
       </c>
       <c r="L152">
         <v>0</v>
@@ -9951,7 +9951,7 @@
         <v>0</v>
       </c>
       <c r="P152">
-        <v>110526592.59</v>
+        <v>55263296.26770639</v>
       </c>
       <c r="Q152">
         <v>1</v>
@@ -9987,13 +9987,13 @@
         </is>
       </c>
       <c r="G153">
-        <v>1433187084.06</v>
+        <v>1423498228.376008</v>
       </c>
       <c r="H153">
-        <v>1218209019.77</v>
+        <v>1209973492.508382</v>
       </c>
       <c r="I153">
-        <v>214978064.29</v>
+        <v>213524735.8676262</v>
       </c>
       <c r="J153">
         <v>0</v>
@@ -10014,7 +10014,7 @@
         <v>0</v>
       </c>
       <c r="P153">
-        <v>214978064.29</v>
+        <v>213524735.8676262</v>
       </c>
       <c r="Q153">
         <v>65</v>
@@ -10050,13 +10050,13 @@
         </is>
       </c>
       <c r="G154">
-        <v>1219528156.62</v>
+        <v>1218524729.072</v>
       </c>
       <c r="H154">
-        <v>1036598931.73</v>
+        <v>1035746018.32</v>
       </c>
       <c r="I154">
-        <v>182929224.89</v>
+        <v>182778710.752</v>
       </c>
       <c r="J154">
         <v>0</v>
@@ -10077,7 +10077,7 @@
         <v>0</v>
       </c>
       <c r="P154">
-        <v>182929224.89</v>
+        <v>182778710.752</v>
       </c>
       <c r="Q154">
         <v>102</v>
@@ -10365,13 +10365,13 @@
         </is>
       </c>
       <c r="G159">
-        <v>130782746.46</v>
+        <v>121211948.2571746</v>
       </c>
       <c r="H159">
-        <v>106130198.26</v>
+        <v>98363495.80389132</v>
       </c>
       <c r="I159">
-        <v>24652548.2</v>
+        <v>22848452.45328327</v>
       </c>
       <c r="J159">
         <v>0</v>
@@ -10392,7 +10392,7 @@
         <v>0</v>
       </c>
       <c r="P159">
-        <v>24652548.2</v>
+        <v>22848452.45328326</v>
       </c>
       <c r="Q159">
         <v>10</v>
@@ -10428,13 +10428,13 @@
         </is>
       </c>
       <c r="G160">
-        <v>5192182.2</v>
+        <v>382097.921991938</v>
       </c>
       <c r="H160">
-        <v>4213455.58</v>
+        <v>310072.4444898126</v>
       </c>
       <c r="I160">
-        <v>978726.62</v>
+        <v>72025.47750212539</v>
       </c>
       <c r="J160">
         <v>0</v>
@@ -10455,7 +10455,7 @@
         <v>0</v>
       </c>
       <c r="P160">
-        <v>978726.6200000001</v>
+        <v>72025.4775021254</v>
       </c>
       <c r="Q160">
         <v>3</v>
@@ -10554,13 +10554,13 @@
         </is>
       </c>
       <c r="G162">
-        <v>39261334.58</v>
+        <v>2854299.024405497</v>
       </c>
       <c r="H162">
-        <v>33372133.92</v>
+        <v>2426154.136357572</v>
       </c>
       <c r="I162">
-        <v>5889200.66</v>
+        <v>428144.8880479246</v>
       </c>
       <c r="J162">
         <v>0</v>
@@ -10581,7 +10581,7 @@
         <v>0</v>
       </c>
       <c r="P162">
-        <v>5889200.659999999</v>
+        <v>428144.8880479245</v>
       </c>
       <c r="Q162">
         <v>1</v>
@@ -10743,10 +10743,10 @@
         </is>
       </c>
       <c r="G165">
-        <v>221053185.13</v>
+        <v>110526592.6195872</v>
       </c>
       <c r="H165">
-        <v>110526592.54</v>
+        <v>55263296.29729361</v>
       </c>
       <c r="I165">
         <v>0</v>
@@ -10755,7 +10755,7 @@
         <v>0</v>
       </c>
       <c r="K165">
-        <v>11</v>
+        <v>5.500000002716357</v>
       </c>
       <c r="L165">
         <v>0</v>
@@ -10770,7 +10770,7 @@
         <v>0</v>
       </c>
       <c r="P165">
-        <v>110526592.59</v>
+        <v>55263296.32229361</v>
       </c>
       <c r="Q165">
         <v>1</v>
@@ -10806,13 +10806,13 @@
         </is>
       </c>
       <c r="G166">
-        <v>107283568.69</v>
+        <v>74305171.96399206</v>
       </c>
       <c r="H166">
-        <v>91191032.48999999</v>
+        <v>63159395.60161825</v>
       </c>
       <c r="I166">
-        <v>16092536.2</v>
+        <v>11145776.36237381</v>
       </c>
       <c r="J166">
         <v>0</v>
@@ -10833,7 +10833,7 @@
         <v>0</v>
       </c>
       <c r="P166">
-        <v>16092536.2</v>
+        <v>11145776.36237381</v>
       </c>
       <c r="Q166">
         <v>23</v>
@@ -10869,13 +10869,13 @@
         </is>
       </c>
       <c r="G167">
-        <v>31892241.8</v>
+        <v>27878531.608</v>
       </c>
       <c r="H167">
-        <v>27108405.46</v>
+        <v>23696751.82</v>
       </c>
       <c r="I167">
-        <v>4783836.34</v>
+        <v>4181779.788</v>
       </c>
       <c r="J167">
         <v>0</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="P167">
-        <v>4783836.34</v>
+        <v>4181779.787999999</v>
       </c>
       <c r="Q167">
         <v>11</v>
@@ -11058,13 +11058,13 @@
         </is>
       </c>
       <c r="G170">
-        <v>11170877.63</v>
+        <v>1863402.015803666</v>
       </c>
       <c r="H170">
-        <v>9065166.460000001</v>
+        <v>1512150.624925942</v>
       </c>
       <c r="I170">
-        <v>2105711.17</v>
+        <v>351251.390877724</v>
       </c>
       <c r="J170">
         <v>0</v>
@@ -11085,7 +11085,7 @@
         <v>0</v>
       </c>
       <c r="P170">
-        <v>2105711.17</v>
+        <v>351251.390877724</v>
       </c>
       <c r="Q170">
         <v>6</v>
@@ -11121,13 +11121,13 @@
         </is>
       </c>
       <c r="G171">
-        <v>66386377.16</v>
+        <v>56694636.24626448</v>
       </c>
       <c r="H171">
-        <v>53872544.24</v>
+        <v>46007697.12884566</v>
       </c>
       <c r="I171">
-        <v>12513832.92</v>
+        <v>10686939.11741882</v>
       </c>
       <c r="J171">
         <v>0</v>
@@ -11148,7 +11148,7 @@
         <v>0</v>
       </c>
       <c r="P171">
-        <v>12513832.92</v>
+        <v>10686939.11741882</v>
       </c>
       <c r="Q171">
         <v>8</v>
@@ -11184,13 +11184,13 @@
         </is>
       </c>
       <c r="G172">
-        <v>28532549.38</v>
+        <v>20321571.72978491</v>
       </c>
       <c r="H172">
-        <v>23488707.77</v>
+        <v>16729225.75682293</v>
       </c>
       <c r="I172">
-        <v>5043841.61</v>
+        <v>3592345.972961977</v>
       </c>
       <c r="J172">
         <v>0</v>
@@ -11211,7 +11211,7 @@
         <v>0</v>
       </c>
       <c r="P172">
-        <v>5043841.61</v>
+        <v>3592345.972961977</v>
       </c>
       <c r="Q172">
         <v>2</v>
@@ -11247,13 +11247,13 @@
         </is>
       </c>
       <c r="G173">
-        <v>207145387.01</v>
+        <v>9226725.199814001</v>
       </c>
       <c r="H173">
-        <v>176073578.41</v>
+        <v>7842716.318613252</v>
       </c>
       <c r="I173">
-        <v>5889200.66</v>
+        <v>1255577.58070675</v>
       </c>
       <c r="J173">
         <v>0</v>
@@ -11274,7 +11274,7 @@
         <v>0</v>
       </c>
       <c r="P173">
-        <v>31071808.59999999</v>
+        <v>1384008.88120075</v>
       </c>
       <c r="Q173">
         <v>2</v>
@@ -11814,34 +11814,34 @@
         </is>
       </c>
       <c r="G182">
-        <v>666873033.54</v>
+        <v>248894126.9089259</v>
       </c>
       <c r="H182">
-        <v>604826731.4299999</v>
+        <v>225525984.9077564</v>
       </c>
       <c r="I182">
-        <v>48127281.75</v>
+        <v>17548839.34054077</v>
       </c>
       <c r="J182">
         <v>0</v>
       </c>
       <c r="K182">
-        <v>10</v>
+        <v>1.349400000074487</v>
       </c>
       <c r="L182">
-        <v>11</v>
+        <v>1.244099999872617</v>
       </c>
       <c r="M182">
-        <v>12</v>
+        <v>3.252600000349429</v>
       </c>
       <c r="N182">
-        <v>10964031.49</v>
+        <v>5287365.70303556</v>
       </c>
       <c r="O182">
-        <v>-2.182787284255028e-11</v>
+        <v>-6.570560798802752e-10</v>
       </c>
       <c r="P182">
-        <v>62046302.11</v>
+        <v>23368142.00116948</v>
       </c>
       <c r="Q182">
         <v>156</v>
@@ -11877,34 +11877,34 @@
         </is>
       </c>
       <c r="G183">
-        <v>566952079.13</v>
+        <v>122215491.2653938</v>
       </c>
       <c r="H183">
-        <v>514035555.2</v>
+        <v>110839765.5482591</v>
       </c>
       <c r="I183">
-        <v>42116148.93</v>
+        <v>8938344.245404759</v>
       </c>
       <c r="J183">
         <v>0</v>
       </c>
       <c r="K183">
-        <v>10</v>
+        <v>1.522400000084037</v>
       </c>
       <c r="L183">
-        <v>11</v>
+        <v>1.403599999856286</v>
       </c>
       <c r="M183">
-        <v>12</v>
+        <v>3.669600000394227</v>
       </c>
       <c r="N183">
-        <v>7845386.13</v>
+        <v>1837247.468291527</v>
       </c>
       <c r="O183">
-        <v>1.025910023599863e-09</v>
+        <v>4.277564585639253e-10</v>
       </c>
       <c r="P183">
-        <v>52916523.93</v>
+        <v>11375725.71713472</v>
       </c>
       <c r="Q183">
         <v>139</v>
@@ -11940,34 +11940,34 @@
         </is>
       </c>
       <c r="G184">
-        <v>443917651.3</v>
+        <v>37957113.52514149</v>
       </c>
       <c r="H184">
-        <v>403356887.71</v>
+        <v>34488971.43685427</v>
       </c>
       <c r="I184">
-        <v>31123602.57</v>
+        <v>2625182.078098621</v>
       </c>
       <c r="J184">
         <v>0</v>
       </c>
       <c r="K184">
-        <v>10</v>
+        <v>0.5882000000324686</v>
       </c>
       <c r="L184">
-        <v>11</v>
+        <v>0.5422999999444743</v>
       </c>
       <c r="M184">
-        <v>12</v>
+        <v>1.417800000152315</v>
       </c>
       <c r="N184">
-        <v>6482172.15</v>
+        <v>611090.0543146598</v>
       </c>
       <c r="O184">
-        <v>9.968061931431293e-10</v>
+        <v>1.63161166722622e-10</v>
       </c>
       <c r="P184">
-        <v>40560763.59</v>
+        <v>3468142.08828722</v>
       </c>
       <c r="Q184">
         <v>76</v>
@@ -12192,13 +12192,13 @@
         </is>
       </c>
       <c r="G188">
-        <v>5117165920.12</v>
+        <v>4291437064.1035</v>
       </c>
       <c r="H188">
-        <v>4298227197.19</v>
+        <v>3601942903.879</v>
       </c>
       <c r="I188">
-        <v>469192912.44</v>
+        <v>393142321.0105</v>
       </c>
       <c r="J188">
         <v>0</v>
@@ -12210,16 +12210,16 @@
         <v>0</v>
       </c>
       <c r="M188">
-        <v>5</v>
+        <v>4.25</v>
       </c>
       <c r="N188">
-        <v>349029162.9</v>
+        <v>295742688.7625</v>
       </c>
       <c r="O188">
-        <v>-1.243279257323593e-09</v>
+        <v>-1.021589923766442e-09</v>
       </c>
       <c r="P188">
-        <v>818938722.9300001</v>
+        <v>689494160.2245001</v>
       </c>
       <c r="Q188">
         <v>2999</v>
@@ -12255,13 +12255,13 @@
         </is>
       </c>
       <c r="G189">
-        <v>4775116603.56</v>
+        <v>825728856.0165</v>
       </c>
       <c r="H189">
-        <v>4022605569.33</v>
+        <v>696284293.311</v>
       </c>
       <c r="I189">
-        <v>402765223.74</v>
+        <v>76050591.4295</v>
       </c>
       <c r="J189">
         <v>0</v>
@@ -12273,16 +12273,16 @@
         <v>0</v>
       </c>
       <c r="M189">
-        <v>5</v>
+        <v>0.75</v>
       </c>
       <c r="N189">
-        <v>349029162.9</v>
+        <v>53286474.1375</v>
       </c>
       <c r="O189">
-        <v>-1.243279257323593e-09</v>
+        <v>-2.216893335571513e-10</v>
       </c>
       <c r="P189">
-        <v>752511034.23</v>
+        <v>129444562.7055</v>
       </c>
       <c r="Q189">
         <v>2975</v>
@@ -12444,13 +12444,13 @@
         </is>
       </c>
       <c r="G192">
-        <v>8309410970.15</v>
+        <v>8152215931.478265</v>
       </c>
       <c r="H192">
-        <v>6842116888.2</v>
+        <v>6723203694.218111</v>
       </c>
       <c r="I192">
-        <v>1147838915.73</v>
+        <v>1110896288.919054</v>
       </c>
       <c r="J192">
         <v>0</v>
@@ -12459,7 +12459,7 @@
         <v>162</v>
       </c>
       <c r="L192">
-        <v>647</v>
+        <v>615.5200000011093</v>
       </c>
       <c r="M192">
         <v>8</v>
@@ -12471,7 +12471,7 @@
         <v>5.820766091346741e-11</v>
       </c>
       <c r="P192">
-        <v>1467294081.95</v>
+        <v>1429012237.260155</v>
       </c>
       <c r="Q192">
         <v>762</v>
@@ -12507,13 +12507,13 @@
         </is>
       </c>
       <c r="G193">
-        <v>745329477.38</v>
+        <v>366626503.049</v>
       </c>
       <c r="H193">
-        <v>631628602.8200001</v>
+        <v>309731077.961</v>
       </c>
       <c r="I193">
-        <v>58880902.12</v>
+        <v>8355864.967</v>
       </c>
       <c r="J193">
         <v>0</v>
@@ -12522,7 +12522,7 @@
         <v>0</v>
       </c>
       <c r="L193">
-        <v>108</v>
+        <v>10.8</v>
       </c>
       <c r="M193">
         <v>0</v>
@@ -12534,7 +12534,7 @@
         <v>-5.093170329928398e-10</v>
       </c>
       <c r="P193">
-        <v>113700874.56</v>
+        <v>56895425.088</v>
       </c>
       <c r="Q193">
         <v>185</v>
@@ -12570,13 +12570,13 @@
         </is>
       </c>
       <c r="G194">
-        <v>167955059.97</v>
+        <v>38651185.28179106</v>
       </c>
       <c r="H194">
-        <v>114477724.1</v>
+        <v>26693378.37523746</v>
       </c>
       <c r="I194">
-        <v>52684429.1</v>
+        <v>11779446.36965276</v>
       </c>
       <c r="J194">
         <v>0</v>
@@ -12585,7 +12585,7 @@
         <v>0</v>
       </c>
       <c r="L194">
-        <v>26</v>
+        <v>5.880000001663923</v>
       </c>
       <c r="M194">
         <v>0</v>
@@ -12597,7 +12597,7 @@
         <v>0</v>
       </c>
       <c r="P194">
-        <v>53477335.87</v>
+        <v>11957806.9065536</v>
       </c>
       <c r="Q194">
         <v>122</v>
@@ -12633,34 +12633,34 @@
         </is>
       </c>
       <c r="G195">
-        <v>513471605.02</v>
+        <v>102479386.8968185</v>
       </c>
       <c r="H195">
-        <v>465441592.09</v>
+        <v>92906948.91479905</v>
       </c>
       <c r="I195">
-        <v>39246218.15</v>
+        <v>8044369.318505803</v>
       </c>
       <c r="J195">
         <v>0</v>
       </c>
       <c r="K195">
-        <v>10</v>
+        <v>1.715999999748981</v>
       </c>
       <c r="L195">
-        <v>11</v>
+        <v>1.887600001478183</v>
       </c>
       <c r="M195">
-        <v>9</v>
+        <v>1.614600000058238</v>
       </c>
       <c r="N195">
-        <v>6121952.37</v>
+        <v>1066232.925338576</v>
       </c>
       <c r="O195">
-        <v>9.458744898438454e-11</v>
+        <v>1.555890776523747e-11</v>
       </c>
       <c r="P195">
-        <v>48030012.93</v>
+        <v>9572437.982019462</v>
       </c>
       <c r="Q195">
         <v>140</v>
@@ -12696,34 +12696,34 @@
         </is>
       </c>
       <c r="G196">
-        <v>575258547.29</v>
+        <v>153589571.8438438</v>
       </c>
       <c r="H196">
-        <v>521583061.16</v>
+        <v>139486459.003897</v>
       </c>
       <c r="I196">
-        <v>44891691.35</v>
+        <v>12582309.25046483</v>
       </c>
       <c r="J196">
         <v>0</v>
       </c>
       <c r="K196">
-        <v>10</v>
+        <v>1.935999999716799</v>
       </c>
       <c r="L196">
-        <v>11</v>
+        <v>2.129600001667693</v>
       </c>
       <c r="M196">
-        <v>9</v>
+        <v>1.821600000065705</v>
       </c>
       <c r="N196">
-        <v>6121952.37</v>
+        <v>999758.1412844217</v>
       </c>
       <c r="O196">
-        <v>9.458744898438454e-11</v>
+        <v>1.321604944339436e-11</v>
       </c>
       <c r="P196">
-        <v>53675486.13</v>
+        <v>14103112.83994678</v>
       </c>
       <c r="Q196">
         <v>146</v>
@@ -12759,34 +12759,34 @@
         </is>
       </c>
       <c r="G197">
-        <v>384708059.12</v>
+        <v>30424541.24508932</v>
       </c>
       <c r="H197">
-        <v>349557276.23</v>
+        <v>27644650.27880725</v>
       </c>
       <c r="I197">
-        <v>27730202.09</v>
+        <v>2225226.280434254</v>
       </c>
       <c r="J197">
         <v>0</v>
       </c>
       <c r="K197">
-        <v>10</v>
+        <v>0.7479999998905815</v>
       </c>
       <c r="L197">
-        <v>11</v>
+        <v>0.8228000006443362</v>
       </c>
       <c r="M197">
-        <v>9</v>
+        <v>0.7038000000253859</v>
       </c>
       <c r="N197">
-        <v>4758738.39</v>
+        <v>353351.6717715022</v>
       </c>
       <c r="O197">
-        <v>6.548361852765083e-11</v>
+        <v>4.403409565635221e-12</v>
       </c>
       <c r="P197">
-        <v>35150782.89</v>
+        <v>2779890.966282074</v>
       </c>
       <c r="Q197">
         <v>75</v>
@@ -12822,13 +12822,13 @@
         </is>
       </c>
       <c r="G198">
-        <v>3693223829.72</v>
+        <v>2186630317.106064</v>
       </c>
       <c r="H198">
-        <v>3062841441.39</v>
+        <v>1827160396.812872</v>
       </c>
       <c r="I198">
-        <v>579880515.13</v>
+        <v>308968047.0931916</v>
       </c>
       <c r="J198">
         <v>0</v>
@@ -12849,7 +12849,7 @@
         <v>84916543.37</v>
       </c>
       <c r="P198">
-        <v>630382388.33</v>
+        <v>359469920.2931916</v>
       </c>
       <c r="Q198">
         <v>6541</v>
@@ -12885,13 +12885,13 @@
         </is>
       </c>
       <c r="G199">
-        <v>11085177</v>
+        <v>446490.0420092245</v>
       </c>
       <c r="H199">
-        <v>8042206.43</v>
+        <v>332185.7770175859</v>
       </c>
       <c r="I199">
-        <v>3042970.57</v>
+        <v>114304.2649916386</v>
       </c>
       <c r="J199">
         <v>0</v>
@@ -12912,7 +12912,7 @@
         <v>0</v>
       </c>
       <c r="P199">
-        <v>3042970.57</v>
+        <v>114304.2649916386</v>
       </c>
       <c r="Q199">
         <v>2177</v>
@@ -12948,13 +12948,13 @@
         </is>
       </c>
       <c r="G200">
-        <v>615584095.55</v>
+        <v>8978638.344272088</v>
       </c>
       <c r="H200">
-        <v>500564197.07</v>
+        <v>7356284.173078864</v>
       </c>
       <c r="I200">
-        <v>115019898.48</v>
+        <v>1622354.171193225</v>
       </c>
       <c r="J200">
         <v>0</v>
@@ -12975,7 +12975,7 @@
         <v>0</v>
       </c>
       <c r="P200">
-        <v>115019898.48</v>
+        <v>1622354.171193225</v>
       </c>
       <c r="Q200">
         <v>1061</v>
@@ -13011,13 +13011,13 @@
         </is>
       </c>
       <c r="G201">
-        <v>1410278632.81</v>
+        <v>42612064.10195091</v>
       </c>
       <c r="H201">
-        <v>1158802687.79</v>
+        <v>34948378.10068777</v>
       </c>
       <c r="I201">
-        <v>251475945.02</v>
+        <v>7663686.001263141</v>
       </c>
       <c r="J201">
         <v>0</v>
@@ -13038,7 +13038,7 @@
         <v>0</v>
       </c>
       <c r="P201">
-        <v>251475945.02</v>
+        <v>7663686.001263141</v>
       </c>
       <c r="Q201">
         <v>2022</v>
@@ -13074,13 +13074,13 @@
         </is>
       </c>
       <c r="G202">
-        <v>805254157</v>
+        <v>7404654.074672363</v>
       </c>
       <c r="H202">
-        <v>663515490.11</v>
+        <v>6086250.827079469</v>
       </c>
       <c r="I202">
-        <v>141738666.89</v>
+        <v>1318403.247592893</v>
       </c>
       <c r="J202">
         <v>0</v>
@@ -13101,7 +13101,7 @@
         <v>0</v>
       </c>
       <c r="P202">
-        <v>141738666.89</v>
+        <v>1318403.247592893</v>
       </c>
       <c r="Q202">
         <v>5310</v>
@@ -13137,13 +13137,13 @@
         </is>
       </c>
       <c r="G203">
-        <v>11085177</v>
+        <v>446490.0486223713</v>
       </c>
       <c r="H203">
-        <v>8042206.43</v>
+        <v>332185.7835729124</v>
       </c>
       <c r="I203">
-        <v>3042970.57</v>
+        <v>114304.2650494589</v>
       </c>
       <c r="J203">
         <v>0</v>
@@ -13164,7 +13164,7 @@
         <v>0</v>
       </c>
       <c r="P203">
-        <v>3042970.57</v>
+        <v>114304.2650494589</v>
       </c>
       <c r="Q203">
         <v>2177</v>
@@ -13200,13 +13200,13 @@
         </is>
       </c>
       <c r="G204">
-        <v>459336108.47</v>
+        <v>448348596.9865555</v>
       </c>
       <c r="H204">
-        <v>375769457.26</v>
+        <v>367812209.3530022</v>
       </c>
       <c r="I204">
-        <v>76370892.44</v>
+        <v>73340628.86355329</v>
       </c>
       <c r="J204">
         <v>0</v>
@@ -13227,7 +13227,7 @@
         <v>0</v>
       </c>
       <c r="P204">
-        <v>83566651.21000001</v>
+        <v>80536387.63355328</v>
       </c>
       <c r="Q204">
         <v>2290</v>
@@ -13263,13 +13263,13 @@
         </is>
       </c>
       <c r="G205">
-        <v>10819530</v>
+        <v>74419.82100299872</v>
       </c>
       <c r="H205">
-        <v>7805368.86</v>
+        <v>54581.40359659537</v>
       </c>
       <c r="I205">
-        <v>3014161.14</v>
+        <v>19838.41740640336</v>
       </c>
       <c r="J205">
         <v>0</v>
@@ -13290,7 +13290,7 @@
         <v>0</v>
       </c>
       <c r="P205">
-        <v>3014161.14</v>
+        <v>19838.41740640336</v>
       </c>
       <c r="Q205">
         <v>2255</v>
@@ -13326,13 +13326,13 @@
         </is>
       </c>
       <c r="G206">
-        <v>166508767.48</v>
+        <v>38901813.60473483</v>
       </c>
       <c r="H206">
-        <v>114065225.03</v>
+        <v>26920805.23688946</v>
       </c>
       <c r="I206">
-        <v>51624326.61</v>
+        <v>11776886.97894592</v>
       </c>
       <c r="J206">
         <v>0</v>
@@ -13341,7 +13341,7 @@
         <v>0</v>
       </c>
       <c r="L206">
-        <v>28</v>
+        <v>7.079999998890719</v>
       </c>
       <c r="M206">
         <v>0</v>
@@ -13353,7 +13353,7 @@
         <v>0</v>
       </c>
       <c r="P206">
-        <v>52443542.45</v>
+        <v>11981008.36784537</v>
       </c>
       <c r="Q206">
         <v>120</v>
@@ -13389,13 +13389,13 @@
         </is>
       </c>
       <c r="G207">
-        <v>2575619083.93</v>
+        <v>2449619533.866209</v>
       </c>
       <c r="H207">
-        <v>2065289056.85</v>
+        <v>1982683288.298763</v>
       </c>
       <c r="I207">
-        <v>471905944.69</v>
+        <v>429046157.5853472</v>
       </c>
       <c r="J207">
         <v>0</v>
@@ -13404,7 +13404,7 @@
         <v>395</v>
       </c>
       <c r="L207">
-        <v>375</v>
+        <v>356.719999998336</v>
       </c>
       <c r="M207">
         <v>27</v>
@@ -13416,7 +13416,7 @@
         <v>2367534.24</v>
       </c>
       <c r="P207">
-        <v>510330027.08</v>
+        <v>466936245.5674464</v>
       </c>
       <c r="Q207">
         <v>741</v>
@@ -13641,13 +13641,13 @@
         </is>
       </c>
       <c r="G211">
-        <v>1543475345.81</v>
+        <v>58995356.67712563</v>
       </c>
       <c r="H211">
-        <v>1263105951.21</v>
+        <v>48390913.23929767</v>
       </c>
       <c r="I211">
-        <v>280369394.6</v>
+        <v>10604443.43782796</v>
       </c>
       <c r="J211">
         <v>0</v>
@@ -13668,7 +13668,7 @@
         <v>0</v>
       </c>
       <c r="P211">
-        <v>280369394.6</v>
+        <v>10604443.43782796</v>
       </c>
       <c r="Q211">
         <v>6420</v>
@@ -13704,13 +13704,13 @@
         </is>
       </c>
       <c r="G212">
-        <v>10819530</v>
+        <v>74419.81843530475</v>
       </c>
       <c r="H212">
-        <v>7805368.86</v>
+        <v>54581.4020952269</v>
       </c>
       <c r="I212">
-        <v>3014161.14</v>
+        <v>19838.41634007785</v>
       </c>
       <c r="J212">
         <v>0</v>
@@ -13731,7 +13731,7 @@
         <v>0</v>
       </c>
       <c r="P212">
-        <v>3014161.14</v>
+        <v>19838.41634007785</v>
       </c>
       <c r="Q212">
         <v>2256</v>
@@ -13767,13 +13767,13 @@
         </is>
       </c>
       <c r="G213">
-        <v>5487181233.49</v>
+        <v>2904977018.040456</v>
       </c>
       <c r="H213">
-        <v>4507130921.64</v>
+        <v>2376413677.973431</v>
       </c>
       <c r="I213">
-        <v>939491453.79</v>
+        <v>513166966.9376248</v>
       </c>
       <c r="J213">
         <v>0</v>
@@ -13782,19 +13782,19 @@
         <v>0</v>
       </c>
       <c r="L213">
-        <v>268</v>
+        <v>58.6</v>
       </c>
       <c r="M213">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="N213">
-        <v>20308491.69</v>
+        <v>10943505.5034</v>
       </c>
       <c r="O213">
-        <v>49850978.55</v>
+        <v>27579935.7254</v>
       </c>
       <c r="P213">
-        <v>980050311.85</v>
+        <v>528563340.0670248</v>
       </c>
       <c r="Q213">
         <v>8030</v>
@@ -13830,34 +13830,34 @@
         </is>
       </c>
       <c r="G214">
-        <v>8652509079.09</v>
+        <v>6051398396.568476</v>
       </c>
       <c r="H214">
-        <v>7118875149.64</v>
+        <v>4958870040.245217</v>
       </c>
       <c r="I214">
-        <v>1477786524.3</v>
+        <v>1062242241.090159</v>
       </c>
       <c r="J214">
         <v>0</v>
       </c>
       <c r="K214">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="L214">
-        <v>279</v>
+        <v>71.2</v>
       </c>
       <c r="M214">
-        <v>29</v>
+        <v>22.85</v>
       </c>
       <c r="N214">
-        <v>32317711.49</v>
+        <v>22888567.6461</v>
       </c>
       <c r="O214">
-        <v>53482066.14</v>
+        <v>35075475.3941</v>
       </c>
       <c r="P214">
-        <v>1533633929.45</v>
+        <v>1092528356.323259</v>
       </c>
       <c r="Q214">
         <v>9880</v>
@@ -13893,13 +13893,13 @@
         </is>
       </c>
       <c r="G215">
-        <v>2532036629.87</v>
+        <v>1611439105.011</v>
       </c>
       <c r="H215">
-        <v>2081388669.09</v>
+        <v>1319133263.2451</v>
       </c>
       <c r="I215">
-        <v>402032941.49</v>
+        <v>261987680.9979</v>
       </c>
       <c r="J215">
         <v>0</v>
@@ -13908,19 +13908,19 @@
         <v>0</v>
       </c>
       <c r="L215">
-        <v>272</v>
+        <v>70.85000000000001</v>
       </c>
       <c r="M215">
         <v>10</v>
       </c>
       <c r="N215">
-        <v>27479715.1</v>
+        <v>24272630.43</v>
       </c>
       <c r="O215">
-        <v>74707952.80000001</v>
+        <v>64879632.45500001</v>
       </c>
       <c r="P215">
-        <v>450647960.78</v>
+        <v>292305841.7659</v>
       </c>
       <c r="Q215">
         <v>450</v>
@@ -14019,34 +14019,34 @@
         </is>
       </c>
       <c r="G217">
-        <v>6594594290.33</v>
+        <v>3458293889.829358</v>
       </c>
       <c r="H217">
-        <v>5414445055.17</v>
+        <v>2819999522.153951</v>
       </c>
       <c r="I217">
-        <v>1063454699.97</v>
+        <v>549510801.3859067</v>
       </c>
       <c r="J217">
         <v>0</v>
       </c>
       <c r="K217">
-        <v>85</v>
+        <v>82.5</v>
       </c>
       <c r="L217">
-        <v>270</v>
+        <v>91.35000000000001</v>
       </c>
       <c r="M217">
-        <v>18</v>
+        <v>11.85</v>
       </c>
       <c r="N217">
-        <v>29465071.08</v>
+        <v>15616608.0005</v>
       </c>
       <c r="O217">
-        <v>56598292.61</v>
+        <v>29477851.9355</v>
       </c>
       <c r="P217">
-        <v>1180149235.16</v>
+        <v>638294367.6754067</v>
       </c>
       <c r="Q217">
         <v>9295</v>
@@ -14208,13 +14208,13 @@
         </is>
       </c>
       <c r="G220">
-        <v>2714770078.87</v>
+        <v>1882623529.803088</v>
       </c>
       <c r="H220">
-        <v>2219828099.93</v>
+        <v>1540435249.130188</v>
       </c>
       <c r="I220">
-        <v>355656744.85</v>
+        <v>245384020.271944</v>
       </c>
       <c r="J220">
         <v>0</v>
@@ -14226,16 +14226,16 @@
         <v>0</v>
       </c>
       <c r="M220">
-        <v>70</v>
+        <v>58.1891</v>
       </c>
       <c r="N220">
-        <v>121988999.37</v>
+        <v>82718739.474582</v>
       </c>
       <c r="O220">
-        <v>315762107.77</v>
+        <v>213036809.95578</v>
       </c>
       <c r="P220">
-        <v>494941978.94</v>
+        <v>342188280.6729</v>
       </c>
       <c r="Q220">
         <v>60</v>
@@ -14271,13 +14271,13 @@
         </is>
       </c>
       <c r="G221">
-        <v>2350420777.32</v>
+        <v>362691633.031897</v>
       </c>
       <c r="H221">
-        <v>1926666319.47</v>
+        <v>297793478.44358</v>
       </c>
       <c r="I221">
-        <v>306233413.99</v>
+        <v>46763572.157286</v>
       </c>
       <c r="J221">
         <v>0</v>
@@ -14289,16 +14289,16 @@
         <v>0</v>
       </c>
       <c r="M221">
-        <v>46</v>
+        <v>10.3715</v>
       </c>
       <c r="N221">
-        <v>104365947</v>
+        <v>15713434.544047</v>
       </c>
       <c r="O221">
-        <v>276494781.77</v>
+        <v>40795277.164528</v>
       </c>
       <c r="P221">
-        <v>423754457.85</v>
+        <v>64898154.588317</v>
       </c>
       <c r="Q221">
         <v>35</v>
@@ -14397,13 +14397,13 @@
         </is>
       </c>
       <c r="G223">
-        <v>2534537294.26</v>
+        <v>482997077.105015</v>
       </c>
       <c r="H223">
-        <v>2070912423.51</v>
+        <v>391498692.046232</v>
       </c>
       <c r="I223">
-        <v>333935279.57</v>
+        <v>66474885.67077</v>
       </c>
       <c r="J223">
         <v>0</v>
@@ -14415,16 +14415,16 @@
         <v>0</v>
       </c>
       <c r="M223">
-        <v>16</v>
+        <v>1.4394</v>
       </c>
       <c r="N223">
-        <v>121490845.51</v>
+        <v>24233933.481371</v>
       </c>
       <c r="O223">
-        <v>317537788.73</v>
+        <v>64895753.899692</v>
       </c>
       <c r="P223">
-        <v>463624870.75</v>
+        <v>91498385.05878299</v>
       </c>
       <c r="Q223">
         <v>31</v>
@@ -14586,34 +14586,34 @@
         </is>
       </c>
       <c r="G226">
-        <v>346252976.99</v>
+        <v>39960603.7872556</v>
       </c>
       <c r="H226">
-        <v>314615835.97</v>
+        <v>36309402.67294455</v>
       </c>
       <c r="I226">
-        <v>22990385.44</v>
+        <v>2614422.622753426</v>
       </c>
       <c r="J226">
         <v>0</v>
       </c>
       <c r="K226">
-        <v>10</v>
+        <v>0.8346000001765322</v>
       </c>
       <c r="L226">
-        <v>11</v>
+        <v>1.1582999986492</v>
       </c>
       <c r="M226">
-        <v>9</v>
+        <v>0.9827999995923331</v>
       </c>
       <c r="N226">
-        <v>5984913.17</v>
+        <v>793712.5193258639</v>
       </c>
       <c r="O226">
-        <v>2.983142621815205e-10</v>
+        <v>9.514551486600437e-11</v>
       </c>
       <c r="P226">
-        <v>31637141.02</v>
+        <v>3651201.114311053</v>
       </c>
       <c r="Q226">
         <v>66</v>
@@ -14649,34 +14649,34 @@
         </is>
       </c>
       <c r="G227">
-        <v>346252976.99</v>
+        <v>41875897.06176237</v>
       </c>
       <c r="H227">
-        <v>314615835.97</v>
+        <v>38049695.57584387</v>
       </c>
       <c r="I227">
-        <v>22990385.44</v>
+        <v>2656502.67493041</v>
       </c>
       <c r="J227">
         <v>0</v>
       </c>
       <c r="K227">
-        <v>10</v>
+        <v>0.9416000001991646</v>
       </c>
       <c r="L227">
-        <v>11</v>
+        <v>1.30679999847602</v>
       </c>
       <c r="M227">
-        <v>9</v>
+        <v>1.108799999540068</v>
       </c>
       <c r="N227">
-        <v>5984913.17</v>
+        <v>895470.5346240515</v>
       </c>
       <c r="O227">
-        <v>2.983142621815205e-10</v>
+        <v>1.073436577975434e-10</v>
       </c>
       <c r="P227">
-        <v>31637141.02</v>
+        <v>3826201.485918503</v>
       </c>
       <c r="Q227">
         <v>66</v>
@@ -14712,34 +14712,34 @@
         </is>
       </c>
       <c r="G228">
-        <v>334610702.37</v>
+        <v>15659575.1157692</v>
       </c>
       <c r="H228">
-        <v>304037316.21</v>
+        <v>14228759.4508385</v>
       </c>
       <c r="I228">
-        <v>21926630.58</v>
+        <v>978886.5788671253</v>
       </c>
       <c r="J228">
         <v>0</v>
       </c>
       <c r="K228">
-        <v>10</v>
+        <v>0.36380000007695</v>
       </c>
       <c r="L228">
-        <v>11</v>
+        <v>0.5048999994111897</v>
       </c>
       <c r="M228">
-        <v>9</v>
+        <v>0.4283999998222991</v>
       </c>
       <c r="N228">
-        <v>5984913.17</v>
+        <v>345977.2520138382</v>
       </c>
       <c r="O228">
-        <v>2.983142621815205e-10</v>
+        <v>4.147368596723268e-11</v>
       </c>
       <c r="P228">
-        <v>30573386.16</v>
+        <v>1430815.664930707</v>
       </c>
       <c r="Q228">
         <v>62</v>
@@ -14775,34 +14775,34 @@
         </is>
       </c>
       <c r="G229">
-        <v>2430303335.57</v>
+        <v>1395344781.094683</v>
       </c>
       <c r="H229">
-        <v>1985790092.04</v>
+        <v>1139016081.074407</v>
       </c>
       <c r="I229">
-        <v>382082738.58</v>
+        <v>223864837.446276</v>
       </c>
       <c r="J229">
         <v>0</v>
       </c>
       <c r="K229">
-        <v>95</v>
+        <v>49.4</v>
       </c>
       <c r="L229">
-        <v>735</v>
+        <v>382.2</v>
       </c>
       <c r="M229">
-        <v>185</v>
+        <v>96.2</v>
       </c>
       <c r="N229">
-        <v>21384559.71</v>
+        <v>11119971.0492</v>
       </c>
       <c r="O229">
-        <v>59814145.24999999</v>
+        <v>31103355.52999999</v>
       </c>
       <c r="P229">
-        <v>444513243.53</v>
+        <v>256328700.020276</v>
       </c>
       <c r="Q229">
         <v>563</v>
@@ -14838,34 +14838,34 @@
         </is>
       </c>
       <c r="G230">
-        <v>2294664639.26</v>
+        <v>1042615918.475317</v>
       </c>
       <c r="H230">
-        <v>1876108573.18</v>
+        <v>852965985.215593</v>
       </c>
       <c r="I230">
-        <v>356125561.13</v>
+        <v>159683290.883724</v>
       </c>
       <c r="J230">
         <v>0</v>
       </c>
       <c r="K230">
-        <v>95</v>
+        <v>45.6</v>
       </c>
       <c r="L230">
-        <v>735</v>
+        <v>352.8</v>
       </c>
       <c r="M230">
-        <v>185</v>
+        <v>88.8</v>
       </c>
       <c r="N230">
-        <v>21384559.71</v>
+        <v>10264588.6608</v>
       </c>
       <c r="O230">
-        <v>59814145.24999999</v>
+        <v>28710789.71999999</v>
       </c>
       <c r="P230">
-        <v>418556066.08</v>
+        <v>189649933.259724</v>
       </c>
       <c r="Q230">
         <v>564</v>
@@ -14981,10 +14981,10 @@
         </is>
       </c>
       <c r="G233">
-        <v>9265020.33</v>
+        <v>0</v>
       </c>
       <c r="H233">
-        <v>4620260.15</v>
+        <v>0</v>
       </c>
       <c r="I233">
         <v>0</v>
@@ -15002,13 +15002,13 @@
         <v>0</v>
       </c>
       <c r="N233">
-        <v>4644760.18</v>
+        <v>0</v>
       </c>
       <c r="O233">
-        <v>5.820766091346741e-11</v>
+        <v>0</v>
       </c>
       <c r="P233">
-        <v>4644760.18</v>
+        <v>0</v>
       </c>
       <c r="Q233">
         <v>5</v>

--- a/data-export/export_202110/sum_tagged_nonagri_detail.xlsx
+++ b/data-export/export_202110/sum_tagged_nonagri_detail.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R233"/>
+  <dimension ref="A1:S233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -445,6 +445,11 @@
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
+          <t>fin_vyuct_verejne</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
           <t>n_prj</t>
         </is>
       </c>
@@ -514,6 +519,9 @@
         <v>4454976758.649939</v>
       </c>
       <c r="R2">
+        <v>2097983131.007991</v>
+      </c>
+      <c r="S2">
         <v>591</v>
       </c>
     </row>
@@ -582,6 +590,9 @@
         <v>4340430.64</v>
       </c>
       <c r="R3">
+        <v>6510645.96</v>
+      </c>
+      <c r="S3">
         <v>2</v>
       </c>
     </row>
@@ -650,6 +661,9 @@
         <v>242786064.75</v>
       </c>
       <c r="R4">
+        <v>115113178.15</v>
+      </c>
+      <c r="S4">
         <v>113</v>
       </c>
     </row>
@@ -718,6 +732,9 @@
         <v>63100838.27</v>
       </c>
       <c r="R5">
+        <v>30961116.34</v>
+      </c>
+      <c r="S5">
         <v>7</v>
       </c>
     </row>
@@ -786,6 +803,9 @@
         <v>1456922061.14</v>
       </c>
       <c r="R6">
+        <v>487273834.33</v>
+      </c>
+      <c r="S6">
         <v>63</v>
       </c>
     </row>
@@ -854,6 +874,9 @@
         <v>3433533378.04</v>
       </c>
       <c r="R7">
+        <v>2289022251.97</v>
+      </c>
+      <c r="S7">
         <v>23</v>
       </c>
     </row>
@@ -922,6 +945,9 @@
         <v>0</v>
       </c>
       <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
         <v>10</v>
       </c>
     </row>
@@ -990,6 +1016,9 @@
         <v>0</v>
       </c>
       <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
         <v>437</v>
       </c>
     </row>
@@ -1058,6 +1087,9 @@
         <v>190338677.35</v>
       </c>
       <c r="R10">
+        <v>381472572.3</v>
+      </c>
+      <c r="S10">
         <v>97</v>
       </c>
     </row>
@@ -1126,6 +1158,9 @@
         <v>1704669.48</v>
       </c>
       <c r="R11">
+        <v>6818677.92</v>
+      </c>
+      <c r="S11">
         <v>31</v>
       </c>
     </row>
@@ -1194,6 +1229,9 @@
         <v>16566080.25</v>
       </c>
       <c r="R12">
+        <v>18561765.15</v>
+      </c>
+      <c r="S12">
         <v>49</v>
       </c>
     </row>
@@ -1262,6 +1300,9 @@
         <v>474939292.98</v>
       </c>
       <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
         <v>41</v>
       </c>
     </row>
@@ -1330,6 +1371,9 @@
         <v>20668082.21</v>
       </c>
       <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
         <v>92</v>
       </c>
     </row>
@@ -1398,6 +1442,9 @@
         <v>5374110174.05</v>
       </c>
       <c r="R15">
+        <v>28725955.31</v>
+      </c>
+      <c r="S15">
         <v>3798</v>
       </c>
     </row>
@@ -1466,6 +1513,9 @@
         <v>0</v>
       </c>
       <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
         <v>3</v>
       </c>
     </row>
@@ -1534,6 +1584,9 @@
         <v>451812815.92</v>
       </c>
       <c r="R17">
+        <v>775373909.08</v>
+      </c>
+      <c r="S17">
         <v>35</v>
       </c>
     </row>
@@ -1602,6 +1655,9 @@
         <v>0</v>
       </c>
       <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
         <v>1</v>
       </c>
     </row>
@@ -1670,6 +1726,9 @@
         <v>8472618629.53</v>
       </c>
       <c r="R19">
+        <v>3318112356.43</v>
+      </c>
+      <c r="S19">
         <v>4114</v>
       </c>
     </row>
@@ -1738,6 +1797,9 @@
         <v>20026966.94</v>
       </c>
       <c r="R20">
+        <v>13351311.28</v>
+      </c>
+      <c r="S20">
         <v>38</v>
       </c>
     </row>
@@ -1806,6 +1868,9 @@
         <v>2367686834.8</v>
       </c>
       <c r="R21">
+        <v>1398933631.18</v>
+      </c>
+      <c r="S21">
         <v>214</v>
       </c>
     </row>
@@ -1874,6 +1939,9 @@
         <v>161796904.42</v>
       </c>
       <c r="R22">
+        <v>30341902.68</v>
+      </c>
+      <c r="S22">
         <v>1404</v>
       </c>
     </row>
@@ -1942,6 +2010,9 @@
         <v>665329317.2876743</v>
       </c>
       <c r="R23">
+        <v>927991809.8629</v>
+      </c>
+      <c r="S23">
         <v>2695</v>
       </c>
     </row>
@@ -2010,6 +2081,9 @@
         <v>197495415.91</v>
       </c>
       <c r="R24">
+        <v>351136480.29</v>
+      </c>
+      <c r="S24">
         <v>212</v>
       </c>
     </row>
@@ -2078,6 +2152,9 @@
         <v>38189033.94000001</v>
       </c>
       <c r="R25">
+        <v>5075799.27</v>
+      </c>
+      <c r="S25">
         <v>27</v>
       </c>
     </row>
@@ -2146,6 +2223,9 @@
         <v>3022899.04</v>
       </c>
       <c r="R26">
+        <v>2386140.78</v>
+      </c>
+      <c r="S26">
         <v>29</v>
       </c>
     </row>
@@ -2214,6 +2294,9 @@
         <v>103243775.6023257</v>
       </c>
       <c r="R27">
+        <v>205912919.1071</v>
+      </c>
+      <c r="S27">
         <v>204</v>
       </c>
     </row>
@@ -2282,6 +2365,9 @@
         <v>521019577.11</v>
       </c>
       <c r="R28">
+        <v>7874185.189999999</v>
+      </c>
+      <c r="S28">
         <v>186</v>
       </c>
     </row>
@@ -2350,6 +2436,9 @@
         <v>3328421.24</v>
       </c>
       <c r="R29">
+        <v>4843126.2</v>
+      </c>
+      <c r="S29">
         <v>54</v>
       </c>
     </row>
@@ -2418,6 +2507,9 @@
         <v>5910681.329999998</v>
       </c>
       <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
         <v>6</v>
       </c>
     </row>
@@ -2486,6 +2578,9 @@
         <v>1718013391.76</v>
       </c>
       <c r="R31">
+        <v>79415122.48</v>
+      </c>
+      <c r="S31">
         <v>614</v>
       </c>
     </row>
@@ -2554,6 +2649,9 @@
         <v>1458462682.96</v>
       </c>
       <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
         <v>28</v>
       </c>
     </row>
@@ -2622,6 +2720,9 @@
         <v>2438728059.317557</v>
       </c>
       <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
         <v>36</v>
       </c>
     </row>
@@ -2690,6 +2791,9 @@
         <v>2733977516.602443</v>
       </c>
       <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
         <v>40</v>
       </c>
     </row>
@@ -2758,6 +2862,9 @@
         <v>177952738.92</v>
       </c>
       <c r="R35">
+        <v>758015227.9400001</v>
+      </c>
+      <c r="S35">
         <v>41</v>
       </c>
     </row>
@@ -2826,6 +2933,9 @@
         <v>385438913.01</v>
       </c>
       <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
         <v>3</v>
       </c>
     </row>
@@ -2894,6 +3004,9 @@
         <v>1924217341.51</v>
       </c>
       <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
         <v>14</v>
       </c>
     </row>
@@ -2962,6 +3075,9 @@
         <v>212175779.52</v>
       </c>
       <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
         <v>44</v>
       </c>
     </row>
@@ -3030,6 +3146,9 @@
         <v>1805620654</v>
       </c>
       <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
         <v>46</v>
       </c>
     </row>
@@ -3098,6 +3217,9 @@
         <v>241642587.0449999</v>
       </c>
       <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
         <v>21</v>
       </c>
     </row>
@@ -3166,6 +3288,9 @@
         <v>1905268040.53</v>
       </c>
       <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
         <v>16</v>
       </c>
     </row>
@@ -3234,6 +3359,9 @@
         <v>69604389.70999999</v>
       </c>
       <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
         <v>3</v>
       </c>
     </row>
@@ -3302,6 +3430,9 @@
         <v>2380884139.075</v>
       </c>
       <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
         <v>614</v>
       </c>
     </row>
@@ -3370,6 +3501,9 @@
         <v>0</v>
       </c>
       <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
         <v>9</v>
       </c>
     </row>
@@ -3438,6 +3572,9 @@
         <v>6086913.75</v>
       </c>
       <c r="R45">
+        <v>5848211.25</v>
+      </c>
+      <c r="S45">
         <v>1</v>
       </c>
     </row>
@@ -3506,6 +3643,9 @@
         <v>0</v>
       </c>
       <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
         <v>120</v>
       </c>
     </row>
@@ -3574,6 +3714,9 @@
         <v>138256361.72</v>
       </c>
       <c r="R47">
+        <v>105612241.96</v>
+      </c>
+      <c r="S47">
         <v>21</v>
       </c>
     </row>
@@ -3642,6 +3785,9 @@
         <v>295758245</v>
       </c>
       <c r="R48">
+        <v>836896913.79</v>
+      </c>
+      <c r="S48">
         <v>55</v>
       </c>
     </row>
@@ -3710,6 +3856,9 @@
         <v>387129960</v>
       </c>
       <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="S49">
         <v>1</v>
       </c>
     </row>
@@ -3778,6 +3927,9 @@
         <v>819581063.23</v>
       </c>
       <c r="R50">
+        <v>3615900254.8</v>
+      </c>
+      <c r="S50">
         <v>381</v>
       </c>
     </row>
@@ -3846,6 +3998,9 @@
         <v>63259287.11</v>
       </c>
       <c r="R51">
+        <v>113866716.77</v>
+      </c>
+      <c r="S51">
         <v>5</v>
       </c>
     </row>
@@ -3914,6 +4069,9 @@
         <v>0</v>
       </c>
       <c r="R52">
+        <v>0</v>
+      </c>
+      <c r="S52">
         <v>2</v>
       </c>
     </row>
@@ -3982,6 +4140,9 @@
         <v>101764567.55</v>
       </c>
       <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="S53">
         <v>45</v>
       </c>
     </row>
@@ -4050,6 +4211,9 @@
         <v>1151647066.81</v>
       </c>
       <c r="R54">
+        <v>3643931221.01</v>
+      </c>
+      <c r="S54">
         <v>425</v>
       </c>
     </row>
@@ -4118,6 +4282,9 @@
         <v>0</v>
       </c>
       <c r="R55">
+        <v>0</v>
+      </c>
+      <c r="S55">
         <v>105</v>
       </c>
     </row>
@@ -4186,6 +4353,9 @@
         <v>1016207143.1</v>
       </c>
       <c r="R56">
+        <v>676971589.12</v>
+      </c>
+      <c r="S56">
         <v>122</v>
       </c>
     </row>
@@ -4254,6 +4424,9 @@
         <v>1817706919.78</v>
       </c>
       <c r="R57">
+        <v>5818338927.49</v>
+      </c>
+      <c r="S57">
         <v>148</v>
       </c>
     </row>
@@ -4322,6 +4495,9 @@
         <v>176721444.51</v>
       </c>
       <c r="R58">
+        <v>176683880.21</v>
+      </c>
+      <c r="S58">
         <v>293</v>
       </c>
     </row>
@@ -4390,6 +4566,9 @@
         <v>2115931484.29</v>
       </c>
       <c r="R59">
+        <v>1090019230.72</v>
+      </c>
+      <c r="S59">
         <v>2051</v>
       </c>
     </row>
@@ -4458,6 +4637,9 @@
         <v>81427676.76000001</v>
       </c>
       <c r="R60">
+        <v>73771885.12</v>
+      </c>
+      <c r="S60">
         <v>1507</v>
       </c>
     </row>
@@ -4526,6 +4708,9 @@
         <v>341999778.3312562</v>
       </c>
       <c r="R61">
+        <v>580227538.5292836</v>
+      </c>
+      <c r="S61">
         <v>454</v>
       </c>
     </row>
@@ -4594,6 +4779,9 @@
         <v>619164748.11</v>
       </c>
       <c r="R62">
+        <v>355494497.84</v>
+      </c>
+      <c r="S62">
         <v>490</v>
       </c>
     </row>
@@ -4662,6 +4850,9 @@
         <v>168637739.5487438</v>
       </c>
       <c r="R63">
+        <v>286535500.4507164</v>
+      </c>
+      <c r="S63">
         <v>106</v>
       </c>
     </row>
@@ -4730,6 +4921,9 @@
         <v>1198383750.97</v>
       </c>
       <c r="R64">
+        <v>3240778538.11</v>
+      </c>
+      <c r="S64">
         <v>194</v>
       </c>
     </row>
@@ -4798,6 +4992,9 @@
         <v>0</v>
       </c>
       <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="S65">
         <v>125</v>
       </c>
     </row>
@@ -4866,6 +5063,9 @@
         <v>263366176.04</v>
       </c>
       <c r="R66">
+        <v>447646742.41</v>
+      </c>
+      <c r="S66">
         <v>586</v>
       </c>
     </row>
@@ -4934,6 +5134,9 @@
         <v>597536224.4</v>
       </c>
       <c r="R67">
+        <v>1568659410.97</v>
+      </c>
+      <c r="S67">
         <v>627</v>
       </c>
     </row>
@@ -5002,6 +5205,9 @@
         <v>0</v>
       </c>
       <c r="R68">
+        <v>0</v>
+      </c>
+      <c r="S68">
         <v>5</v>
       </c>
     </row>
@@ -5070,6 +5276,9 @@
         <v>165719859.26</v>
       </c>
       <c r="R69">
+        <v>178006517.92</v>
+      </c>
+      <c r="S69">
         <v>96</v>
       </c>
     </row>
@@ -5138,6 +5347,9 @@
         <v>68497</v>
       </c>
       <c r="R70">
+        <v>0</v>
+      </c>
+      <c r="S70">
         <v>2</v>
       </c>
     </row>
@@ -5206,6 +5418,9 @@
         <v>4944134009.83</v>
       </c>
       <c r="R71">
+        <v>3850585082.325</v>
+      </c>
+      <c r="S71">
         <v>1914</v>
       </c>
     </row>
@@ -5274,6 +5489,9 @@
         <v>4327713289.125</v>
       </c>
       <c r="R72">
+        <v>2369283668.3</v>
+      </c>
+      <c r="S72">
         <v>413</v>
       </c>
     </row>
@@ -5342,6 +5560,9 @@
         <v>139492971.22</v>
       </c>
       <c r="R73">
+        <v>267669865.98</v>
+      </c>
+      <c r="S73">
         <v>32</v>
       </c>
     </row>
@@ -5410,6 +5631,9 @@
         <v>1660059249.564796</v>
       </c>
       <c r="R74">
+        <v>7507349363.419142</v>
+      </c>
+      <c r="S74">
         <v>99</v>
       </c>
     </row>
@@ -5478,6 +5702,9 @@
         <v>110270654.7682015</v>
       </c>
       <c r="R75">
+        <v>91821474.29000001</v>
+      </c>
+      <c r="S75">
         <v>17</v>
       </c>
     </row>
@@ -5546,6 +5773,9 @@
         <v>304596032.86</v>
       </c>
       <c r="R76">
+        <v>1585676527.23</v>
+      </c>
+      <c r="S76">
         <v>47</v>
       </c>
     </row>
@@ -5614,6 +5844,9 @@
         <v>607120319.52</v>
       </c>
       <c r="R77">
+        <v>607120319.35</v>
+      </c>
+      <c r="S77">
         <v>121</v>
       </c>
     </row>
@@ -5682,6 +5915,9 @@
         <v>170126643.6537672</v>
       </c>
       <c r="R78">
+        <v>289893607.9861853</v>
+      </c>
+      <c r="S78">
         <v>630</v>
       </c>
     </row>
@@ -5750,6 +5986,9 @@
         <v>285203525.559204</v>
       </c>
       <c r="R79">
+        <v>1114398547.576858</v>
+      </c>
+      <c r="S79">
         <v>15</v>
       </c>
     </row>
@@ -5818,6 +6057,9 @@
         <v>288883107.6199419</v>
       </c>
       <c r="R80">
+        <v>218948088.4822995</v>
+      </c>
+      <c r="S80">
         <v>47</v>
       </c>
     </row>
@@ -5886,6 +6128,9 @@
         <v>286693533.315</v>
       </c>
       <c r="R81">
+        <v>0</v>
+      </c>
+      <c r="S81">
         <v>2</v>
       </c>
     </row>
@@ -5954,6 +6199,9 @@
         <v>2948018995.801101</v>
       </c>
       <c r="R82">
+        <v>4079121139.744005</v>
+      </c>
+      <c r="S82">
         <v>2161</v>
       </c>
     </row>
@@ -6022,6 +6270,9 @@
         <v>34656808.63</v>
       </c>
       <c r="R83">
+        <v>62008808.71</v>
+      </c>
+      <c r="S83">
         <v>147</v>
       </c>
     </row>
@@ -6090,6 +6341,9 @@
         <v>1223122238.576</v>
       </c>
       <c r="R84">
+        <v>1614127638.814</v>
+      </c>
+      <c r="S84">
         <v>33</v>
       </c>
     </row>
@@ -6158,6 +6412,9 @@
         <v>35304993.54185666</v>
       </c>
       <c r="R85">
+        <v>75911980.69770047</v>
+      </c>
+      <c r="S85">
         <v>11</v>
       </c>
     </row>
@@ -6226,6 +6483,9 @@
         <v>784563.4749999999</v>
       </c>
       <c r="R86">
+        <v>0</v>
+      </c>
+      <c r="S86">
         <v>1</v>
       </c>
     </row>
@@ -6294,6 +6554,9 @@
         <v>37831904.45</v>
       </c>
       <c r="R87">
+        <v>88274441.95999999</v>
+      </c>
+      <c r="S87">
         <v>137</v>
       </c>
     </row>
@@ -6362,6 +6625,9 @@
         <v>374801359.95</v>
       </c>
       <c r="R88">
+        <v>674642446.25</v>
+      </c>
+      <c r="S88">
         <v>88</v>
       </c>
     </row>
@@ -6430,6 +6696,9 @@
         <v>0</v>
       </c>
       <c r="R89">
+        <v>0</v>
+      </c>
+      <c r="S89">
         <v>1</v>
       </c>
     </row>
@@ -6498,6 +6767,9 @@
         <v>167912908.214</v>
       </c>
       <c r="R90">
+        <v>198442829.894</v>
+      </c>
+      <c r="S90">
         <v>117</v>
       </c>
     </row>
@@ -6566,6 +6838,9 @@
         <v>454008361.47</v>
       </c>
       <c r="R91">
+        <v>554917416.39</v>
+      </c>
+      <c r="S91">
         <v>291</v>
       </c>
     </row>
@@ -6634,6 +6909,9 @@
         <v>2956003552.74</v>
       </c>
       <c r="R92">
+        <v>1862413685.51</v>
+      </c>
+      <c r="S92">
         <v>1261</v>
       </c>
     </row>
@@ -6702,6 +6980,9 @@
         <v>78757823.05</v>
       </c>
       <c r="R93">
+        <v>234584706.37</v>
+      </c>
+      <c r="S93">
         <v>2161</v>
       </c>
     </row>
@@ -6770,6 +7051,9 @@
         <v>13866687.33</v>
       </c>
       <c r="R94">
+        <v>24960037.17</v>
+      </c>
+      <c r="S94">
         <v>7</v>
       </c>
     </row>
@@ -6838,6 +7122,9 @@
         <v>0</v>
       </c>
       <c r="R95">
+        <v>0</v>
+      </c>
+      <c r="S95">
         <v>3</v>
       </c>
     </row>
@@ -6906,6 +7193,9 @@
         <v>427184192.6561936</v>
       </c>
       <c r="R96">
+        <v>295610293.2928182</v>
+      </c>
+      <c r="S96">
         <v>276</v>
       </c>
     </row>
@@ -6974,6 +7264,9 @@
         <v>607380662.85</v>
       </c>
       <c r="R97">
+        <v>580959776.8099999</v>
+      </c>
+      <c r="S97">
         <v>1113</v>
       </c>
     </row>
@@ -7042,6 +7335,9 @@
         <v>70103871.42</v>
       </c>
       <c r="R98">
+        <v>128064328.18</v>
+      </c>
+      <c r="S98">
         <v>8</v>
       </c>
     </row>
@@ -7110,6 +7406,9 @@
         <v>6151622586.09</v>
       </c>
       <c r="R99">
+        <v>4503355865.23</v>
+      </c>
+      <c r="S99">
         <v>4221</v>
       </c>
     </row>
@@ -7178,6 +7477,9 @@
         <v>82739249.75</v>
       </c>
       <c r="R100">
+        <v>149281723.08</v>
+      </c>
+      <c r="S100">
         <v>27</v>
       </c>
     </row>
@@ -7246,6 +7548,9 @@
         <v>5585816734.72</v>
       </c>
       <c r="R101">
+        <v>4844454559.01</v>
+      </c>
+      <c r="S101">
         <v>4428</v>
       </c>
     </row>
@@ -7314,6 +7619,9 @@
         <v>472867915.08</v>
       </c>
       <c r="R102">
+        <v>485077487.76</v>
+      </c>
+      <c r="S102">
         <v>1528</v>
       </c>
     </row>
@@ -7382,6 +7690,9 @@
         <v>3422139547.88</v>
       </c>
       <c r="R103">
+        <v>1517814370.17</v>
+      </c>
+      <c r="S103">
         <v>1132</v>
       </c>
     </row>
@@ -7450,6 +7761,9 @@
         <v>3728331452.93</v>
       </c>
       <c r="R104">
+        <v>2610339816.13</v>
+      </c>
+      <c r="S104">
         <v>1020</v>
       </c>
     </row>
@@ -7518,6 +7832,9 @@
         <v>81146871.92999999</v>
       </c>
       <c r="R105">
+        <v>459832271.27</v>
+      </c>
+      <c r="S105">
         <v>532</v>
       </c>
     </row>
@@ -7586,6 +7903,9 @@
         <v>21627590.41</v>
       </c>
       <c r="R106">
+        <v>0</v>
+      </c>
+      <c r="S106">
         <v>42</v>
       </c>
     </row>
@@ -7654,6 +7974,9 @@
         <v>6437562.260000001</v>
       </c>
       <c r="R107">
+        <v>5267096.380000001</v>
+      </c>
+      <c r="S107">
         <v>42</v>
       </c>
     </row>
@@ -7722,6 +8045,9 @@
         <v>613398698.01</v>
       </c>
       <c r="R108">
+        <v>561662422.8</v>
+      </c>
+      <c r="S108">
         <v>551</v>
       </c>
     </row>
@@ -7790,6 +8116,9 @@
         <v>2510939681.84</v>
       </c>
       <c r="R109">
+        <v>1858459329.56</v>
+      </c>
+      <c r="S109">
         <v>661</v>
       </c>
     </row>
@@ -7858,6 +8187,9 @@
         <v>39272899.97</v>
       </c>
       <c r="R110">
+        <v>87209726.23</v>
+      </c>
+      <c r="S110">
         <v>155</v>
       </c>
     </row>
@@ -7926,6 +8258,9 @@
         <v>0</v>
       </c>
       <c r="R111">
+        <v>0</v>
+      </c>
+      <c r="S111">
         <v>42</v>
       </c>
     </row>
@@ -7994,6 +8329,9 @@
         <v>1575370205.56</v>
       </c>
       <c r="R112">
+        <v>2100736204.87</v>
+      </c>
+      <c r="S112">
         <v>460</v>
       </c>
     </row>
@@ -8062,6 +8400,9 @@
         <v>75001075.97</v>
       </c>
       <c r="R113">
+        <v>1613300</v>
+      </c>
+      <c r="S113">
         <v>41</v>
       </c>
     </row>
@@ -8130,6 +8471,9 @@
         <v>1281814.49</v>
       </c>
       <c r="R114">
+        <v>0</v>
+      </c>
+      <c r="S114">
         <v>9</v>
       </c>
     </row>
@@ -8198,6 +8542,9 @@
         <v>14435982.6</v>
       </c>
       <c r="R115">
+        <v>26267951.22</v>
+      </c>
+      <c r="S115">
         <v>131</v>
       </c>
     </row>
@@ -8266,6 +8613,9 @@
         <v>14429439.83</v>
       </c>
       <c r="R116">
+        <v>45736988.66</v>
+      </c>
+      <c r="S116">
         <v>239</v>
       </c>
     </row>
@@ -8334,6 +8684,9 @@
         <v>203637818.98</v>
       </c>
       <c r="R117">
+        <v>294655962.3</v>
+      </c>
+      <c r="S117">
         <v>1800</v>
       </c>
     </row>
@@ -8402,6 +8755,9 @@
         <v>163855218.04</v>
       </c>
       <c r="R118">
+        <v>3822095.24</v>
+      </c>
+      <c r="S118">
         <v>966</v>
       </c>
     </row>
@@ -8470,6 +8826,9 @@
         <v>68838150.69</v>
       </c>
       <c r="R119">
+        <v>13533390.32</v>
+      </c>
+      <c r="S119">
         <v>126</v>
       </c>
     </row>
@@ -8538,6 +8897,9 @@
         <v>142109402.77</v>
       </c>
       <c r="R120">
+        <v>38989183.63</v>
+      </c>
+      <c r="S120">
         <v>566</v>
       </c>
     </row>
@@ -8606,6 +8968,9 @@
         <v>559594992.362</v>
       </c>
       <c r="R121">
+        <v>0</v>
+      </c>
+      <c r="S121">
         <v>492</v>
       </c>
     </row>
@@ -8674,6 +9039,9 @@
         <v>16652006.37</v>
       </c>
       <c r="R122">
+        <v>0</v>
+      </c>
+      <c r="S122">
         <v>236</v>
       </c>
     </row>
@@ -8742,6 +9110,9 @@
         <v>0</v>
       </c>
       <c r="R123">
+        <v>0</v>
+      </c>
+      <c r="S123">
         <v>55</v>
       </c>
     </row>
@@ -8810,6 +9181,9 @@
         <v>0</v>
       </c>
       <c r="R124">
+        <v>0</v>
+      </c>
+      <c r="S124">
         <v>11</v>
       </c>
     </row>
@@ -8878,6 +9252,9 @@
         <v>36301678.05999999</v>
       </c>
       <c r="R125">
+        <v>6533990.96</v>
+      </c>
+      <c r="S125">
         <v>90</v>
       </c>
     </row>
@@ -8946,6 +9323,9 @@
         <v>462074141.52</v>
       </c>
       <c r="R126">
+        <v>12659487.75</v>
+      </c>
+      <c r="S126">
         <v>1023</v>
       </c>
     </row>
@@ -9014,6 +9394,9 @@
         <v>25592554.34</v>
       </c>
       <c r="R127">
+        <v>0</v>
+      </c>
+      <c r="S127">
         <v>25</v>
       </c>
     </row>
@@ -9082,6 +9465,9 @@
         <v>21412302.818</v>
       </c>
       <c r="R128">
+        <v>0</v>
+      </c>
+      <c r="S128">
         <v>48</v>
       </c>
     </row>
@@ -9150,6 +9536,9 @@
         <v>737858.7200000002</v>
       </c>
       <c r="R129">
+        <v>0</v>
+      </c>
+      <c r="S129">
         <v>22</v>
       </c>
     </row>
@@ -9218,6 +9607,9 @@
         <v>0</v>
       </c>
       <c r="R130">
+        <v>0</v>
+      </c>
+      <c r="S130">
         <v>52</v>
       </c>
     </row>
@@ -9286,6 +9678,9 @@
         <v>0</v>
       </c>
       <c r="R131">
+        <v>0</v>
+      </c>
+      <c r="S131">
         <v>7</v>
       </c>
     </row>
@@ -9354,6 +9749,9 @@
         <v>231194746.8</v>
       </c>
       <c r="R132">
+        <v>572435491.23</v>
+      </c>
+      <c r="S132">
         <v>171</v>
       </c>
     </row>
@@ -9422,6 +9820,9 @@
         <v>0</v>
       </c>
       <c r="R133">
+        <v>0</v>
+      </c>
+      <c r="S133">
         <v>93</v>
       </c>
     </row>
@@ -9490,6 +9891,9 @@
         <v>0</v>
       </c>
       <c r="R134">
+        <v>0</v>
+      </c>
+      <c r="S134">
         <v>300</v>
       </c>
     </row>
@@ -9558,6 +9962,9 @@
         <v>0</v>
       </c>
       <c r="R135">
+        <v>0</v>
+      </c>
+      <c r="S135">
         <v>2</v>
       </c>
     </row>
@@ -9626,6 +10033,9 @@
         <v>0</v>
       </c>
       <c r="R136">
+        <v>0</v>
+      </c>
+      <c r="S136">
         <v>138</v>
       </c>
     </row>
@@ -9694,6 +10104,9 @@
         <v>0</v>
       </c>
       <c r="R137">
+        <v>0</v>
+      </c>
+      <c r="S137">
         <v>118</v>
       </c>
     </row>
@@ -9762,6 +10175,9 @@
         <v>0</v>
       </c>
       <c r="R138">
+        <v>0</v>
+      </c>
+      <c r="S138">
         <v>1</v>
       </c>
     </row>
@@ -9830,6 +10246,9 @@
         <v>987858188.88</v>
       </c>
       <c r="R139">
+        <v>2213236864.15</v>
+      </c>
+      <c r="S139">
         <v>284</v>
       </c>
     </row>
@@ -9898,6 +10317,9 @@
         <v>0</v>
       </c>
       <c r="R140">
+        <v>0</v>
+      </c>
+      <c r="S140">
         <v>404</v>
       </c>
     </row>
@@ -9966,6 +10388,9 @@
         <v>32541426.22</v>
       </c>
       <c r="R141">
+        <v>0</v>
+      </c>
+      <c r="S141">
         <v>213</v>
       </c>
     </row>
@@ -10034,6 +10459,9 @@
         <v>129497288.27</v>
       </c>
       <c r="R142">
+        <v>365681220.71</v>
+      </c>
+      <c r="S142">
         <v>2426</v>
       </c>
     </row>
@@ -10102,6 +10530,9 @@
         <v>61928730.99</v>
       </c>
       <c r="R143">
+        <v>1176645817.76</v>
+      </c>
+      <c r="S143">
         <v>364</v>
       </c>
     </row>
@@ -10170,6 +10601,9 @@
         <v>0</v>
       </c>
       <c r="R144">
+        <v>0</v>
+      </c>
+      <c r="S144">
         <v>4</v>
       </c>
     </row>
@@ -10238,6 +10672,9 @@
         <v>216826538.42</v>
       </c>
       <c r="R145">
+        <v>0</v>
+      </c>
+      <c r="S145">
         <v>45</v>
       </c>
     </row>
@@ -10306,6 +10743,9 @@
         <v>385951509.436839</v>
       </c>
       <c r="R146">
+        <v>0</v>
+      </c>
+      <c r="S146">
         <v>26</v>
       </c>
     </row>
@@ -10374,6 +10814,9 @@
         <v>279225.9140790527</v>
       </c>
       <c r="R147">
+        <v>0</v>
+      </c>
+      <c r="S147">
         <v>6</v>
       </c>
     </row>
@@ -10442,6 +10885,9 @@
         <v>287907630.277038</v>
       </c>
       <c r="R148">
+        <v>0</v>
+      </c>
+      <c r="S148">
         <v>3</v>
       </c>
     </row>
@@ -10510,6 +10956,9 @@
         <v>90059795.54075132</v>
       </c>
       <c r="R149">
+        <v>0</v>
+      </c>
+      <c r="S149">
         <v>3</v>
       </c>
     </row>
@@ -10578,6 +11027,9 @@
         <v>251675035.19</v>
       </c>
       <c r="R150">
+        <v>0</v>
+      </c>
+      <c r="S150">
         <v>53</v>
       </c>
     </row>
@@ -10646,6 +11098,9 @@
         <v>282043996.43</v>
       </c>
       <c r="R151">
+        <v>0</v>
+      </c>
+      <c r="S151">
         <v>48</v>
       </c>
     </row>
@@ -10714,6 +11169,9 @@
         <v>55263296.26770639</v>
       </c>
       <c r="R152">
+        <v>0</v>
+      </c>
+      <c r="S152">
         <v>1</v>
       </c>
     </row>
@@ -10782,6 +11240,9 @@
         <v>213524735.8676262</v>
       </c>
       <c r="R153">
+        <v>0</v>
+      </c>
+      <c r="S153">
         <v>65</v>
       </c>
     </row>
@@ -10850,6 +11311,9 @@
         <v>182778710.752</v>
       </c>
       <c r="R154">
+        <v>0</v>
+      </c>
+      <c r="S154">
         <v>102</v>
       </c>
     </row>
@@ -10918,6 +11382,9 @@
         <v>147771760.4</v>
       </c>
       <c r="R155">
+        <v>0</v>
+      </c>
+      <c r="S155">
         <v>12</v>
       </c>
     </row>
@@ -10986,6 +11453,9 @@
         <v>129258866.05</v>
       </c>
       <c r="R156">
+        <v>0</v>
+      </c>
+      <c r="S156">
         <v>50</v>
       </c>
     </row>
@@ -11054,6 +11524,9 @@
         <v>0</v>
       </c>
       <c r="R157">
+        <v>0</v>
+      </c>
+      <c r="S157">
         <v>34</v>
       </c>
     </row>
@@ -11122,6 +11595,9 @@
         <v>3086427.51</v>
       </c>
       <c r="R158">
+        <v>0</v>
+      </c>
+      <c r="S158">
         <v>2</v>
       </c>
     </row>
@@ -11190,6 +11666,9 @@
         <v>22848452.45328326</v>
       </c>
       <c r="R159">
+        <v>0</v>
+      </c>
+      <c r="S159">
         <v>10</v>
       </c>
     </row>
@@ -11258,6 +11737,9 @@
         <v>72025.4775021254</v>
       </c>
       <c r="R160">
+        <v>0</v>
+      </c>
+      <c r="S160">
         <v>3</v>
       </c>
     </row>
@@ -11326,6 +11808,9 @@
         <v>15590629.37</v>
       </c>
       <c r="R161">
+        <v>0</v>
+      </c>
+      <c r="S161">
         <v>2</v>
       </c>
     </row>
@@ -11394,6 +11879,9 @@
         <v>428144.8880479245</v>
       </c>
       <c r="R162">
+        <v>0</v>
+      </c>
+      <c r="S162">
         <v>1</v>
       </c>
     </row>
@@ -11462,6 +11950,9 @@
         <v>1346456.85</v>
       </c>
       <c r="R163">
+        <v>0</v>
+      </c>
+      <c r="S163">
         <v>9</v>
       </c>
     </row>
@@ -11530,6 +12021,9 @@
         <v>997651.0499999998</v>
       </c>
       <c r="R164">
+        <v>0</v>
+      </c>
+      <c r="S164">
         <v>1</v>
       </c>
     </row>
@@ -11598,6 +12092,9 @@
         <v>55263296.32229361</v>
       </c>
       <c r="R165">
+        <v>0</v>
+      </c>
+      <c r="S165">
         <v>1</v>
       </c>
     </row>
@@ -11666,6 +12163,9 @@
         <v>11145776.36237381</v>
       </c>
       <c r="R166">
+        <v>0</v>
+      </c>
+      <c r="S166">
         <v>23</v>
       </c>
     </row>
@@ -11734,6 +12234,9 @@
         <v>4181779.787999999</v>
       </c>
       <c r="R167">
+        <v>0</v>
+      </c>
+      <c r="S167">
         <v>11</v>
       </c>
     </row>
@@ -11802,6 +12305,9 @@
         <v>0</v>
       </c>
       <c r="R168">
+        <v>0</v>
+      </c>
+      <c r="S168">
         <v>1</v>
       </c>
     </row>
@@ -11870,6 +12376,9 @@
         <v>1930797.87</v>
       </c>
       <c r="R169">
+        <v>0</v>
+      </c>
+      <c r="S169">
         <v>5</v>
       </c>
     </row>
@@ -11938,6 +12447,9 @@
         <v>351251.390877724</v>
       </c>
       <c r="R170">
+        <v>0</v>
+      </c>
+      <c r="S170">
         <v>6</v>
       </c>
     </row>
@@ -12006,6 +12518,9 @@
         <v>10686939.11741882</v>
       </c>
       <c r="R171">
+        <v>0</v>
+      </c>
+      <c r="S171">
         <v>8</v>
       </c>
     </row>
@@ -12074,6 +12589,9 @@
         <v>3592345.972961977</v>
       </c>
       <c r="R172">
+        <v>0</v>
+      </c>
+      <c r="S172">
         <v>2</v>
       </c>
     </row>
@@ -12142,6 +12660,9 @@
         <v>1384008.88120075</v>
       </c>
       <c r="R173">
+        <v>0</v>
+      </c>
+      <c r="S173">
         <v>2</v>
       </c>
     </row>
@@ -12210,6 +12731,9 @@
         <v>4744814.840000001</v>
       </c>
       <c r="R174">
+        <v>0</v>
+      </c>
+      <c r="S174">
         <v>6</v>
       </c>
     </row>
@@ -12278,6 +12802,9 @@
         <v>12047644.59</v>
       </c>
       <c r="R175">
+        <v>0</v>
+      </c>
+      <c r="S175">
         <v>22</v>
       </c>
     </row>
@@ -12346,6 +12873,9 @@
         <v>10865246.5</v>
       </c>
       <c r="R176">
+        <v>0</v>
+      </c>
+      <c r="S176">
         <v>1</v>
       </c>
     </row>
@@ -12414,6 +12944,9 @@
         <v>23116279.68</v>
       </c>
       <c r="R177">
+        <v>0</v>
+      </c>
+      <c r="S177">
         <v>7</v>
       </c>
     </row>
@@ -12482,6 +13015,9 @@
         <v>0</v>
       </c>
       <c r="R178">
+        <v>0</v>
+      </c>
+      <c r="S178">
         <v>1</v>
       </c>
     </row>
@@ -12550,6 +13086,9 @@
         <v>0</v>
       </c>
       <c r="R179">
+        <v>0</v>
+      </c>
+      <c r="S179">
         <v>26</v>
       </c>
     </row>
@@ -12618,6 +13157,9 @@
         <v>2403343775.38</v>
       </c>
       <c r="R180">
+        <v>158499026.87</v>
+      </c>
+      <c r="S180">
         <v>471</v>
       </c>
     </row>
@@ -12686,6 +13228,9 @@
         <v>138306824.77</v>
       </c>
       <c r="R181">
+        <v>0</v>
+      </c>
+      <c r="S181">
         <v>13</v>
       </c>
     </row>
@@ -12754,6 +13299,9 @@
         <v>23368142.00116948</v>
       </c>
       <c r="R182">
+        <v>45721541.76477097</v>
+      </c>
+      <c r="S182">
         <v>156</v>
       </c>
     </row>
@@ -12822,6 +13370,9 @@
         <v>11375725.71713472</v>
       </c>
       <c r="R183">
+        <v>15984284.83422378</v>
+      </c>
+      <c r="S183">
         <v>139</v>
       </c>
     </row>
@@ -12890,6 +13441,9 @@
         <v>3468142.08828722</v>
       </c>
       <c r="R184">
+        <v>6076990.860583941</v>
+      </c>
+      <c r="S184">
         <v>76</v>
       </c>
     </row>
@@ -12958,6 +13512,9 @@
         <v>59940198.15999997</v>
       </c>
       <c r="R185">
+        <v>0</v>
+      </c>
+      <c r="S185">
         <v>8</v>
       </c>
     </row>
@@ -13026,6 +13583,9 @@
         <v>1030814644.11</v>
       </c>
       <c r="R186">
+        <v>685687781.35</v>
+      </c>
+      <c r="S186">
         <v>3046</v>
       </c>
     </row>
@@ -13094,6 +13654,9 @@
         <v>58929536</v>
       </c>
       <c r="R187">
+        <v>104692812.01</v>
+      </c>
+      <c r="S187">
         <v>57</v>
       </c>
     </row>
@@ -13162,6 +13725,9 @@
         <v>689494160.2245001</v>
       </c>
       <c r="R188">
+        <v>1471486519.9715</v>
+      </c>
+      <c r="S188">
         <v>2999</v>
       </c>
     </row>
@@ -13230,6 +13796,9 @@
         <v>129444562.7055</v>
       </c>
       <c r="R189">
+        <v>264721793.9585</v>
+      </c>
+      <c r="S189">
         <v>2975</v>
       </c>
     </row>
@@ -13298,6 +13867,9 @@
         <v>211234300.81</v>
       </c>
       <c r="R190">
+        <v>0</v>
+      </c>
+      <c r="S190">
         <v>7</v>
       </c>
     </row>
@@ -13366,6 +13938,9 @@
         <v>40835870.89</v>
       </c>
       <c r="R191">
+        <v>0</v>
+      </c>
+      <c r="S191">
         <v>6</v>
       </c>
     </row>
@@ -13434,6 +14009,9 @@
         <v>1429012237.260155</v>
       </c>
       <c r="R192">
+        <v>6917395.86</v>
+      </c>
+      <c r="S192">
         <v>762</v>
       </c>
     </row>
@@ -13502,6 +14080,9 @@
         <v>56895425.088</v>
       </c>
       <c r="R193">
+        <v>264486170.7</v>
+      </c>
+      <c r="S193">
         <v>185</v>
       </c>
     </row>
@@ -13570,6 +14151,9 @@
         <v>11957806.9065536</v>
       </c>
       <c r="R194">
+        <v>0</v>
+      </c>
+      <c r="S194">
         <v>122</v>
       </c>
     </row>
@@ -13638,6 +14222,9 @@
         <v>9572437.982019462</v>
       </c>
       <c r="R195">
+        <v>8316922.996278116</v>
+      </c>
+      <c r="S195">
         <v>140</v>
       </c>
     </row>
@@ -13706,6 +14293,9 @@
         <v>14103112.83994678</v>
       </c>
       <c r="R196">
+        <v>9180023.874267491</v>
+      </c>
+      <c r="S196">
         <v>146</v>
       </c>
     </row>
@@ -13774,6 +14364,9 @@
         <v>2779890.966282074</v>
       </c>
       <c r="R197">
+        <v>3513908.888719507</v>
+      </c>
+      <c r="S197">
         <v>75</v>
       </c>
     </row>
@@ -13842,6 +14435,9 @@
         <v>359469920.2931916</v>
       </c>
       <c r="R198">
+        <v>788781506.34</v>
+      </c>
+      <c r="S198">
         <v>6541</v>
       </c>
     </row>
@@ -13910,6 +14506,9 @@
         <v>114304.2649916386</v>
       </c>
       <c r="R199">
+        <v>0</v>
+      </c>
+      <c r="S199">
         <v>2177</v>
       </c>
     </row>
@@ -13978,6 +14577,9 @@
         <v>1622354.171193225</v>
       </c>
       <c r="R200">
+        <v>0</v>
+      </c>
+      <c r="S200">
         <v>1061</v>
       </c>
     </row>
@@ -14046,6 +14648,9 @@
         <v>7663686.001263141</v>
       </c>
       <c r="R201">
+        <v>0</v>
+      </c>
+      <c r="S201">
         <v>2022</v>
       </c>
     </row>
@@ -14114,6 +14719,9 @@
         <v>1318403.247592893</v>
       </c>
       <c r="R202">
+        <v>0</v>
+      </c>
+      <c r="S202">
         <v>5310</v>
       </c>
     </row>
@@ -14182,6 +14790,9 @@
         <v>114304.2650494589</v>
       </c>
       <c r="R203">
+        <v>0</v>
+      </c>
+      <c r="S203">
         <v>2177</v>
       </c>
     </row>
@@ -14250,6 +14861,9 @@
         <v>80536387.63355328</v>
       </c>
       <c r="R204">
+        <v>0</v>
+      </c>
+      <c r="S204">
         <v>2290</v>
       </c>
     </row>
@@ -14318,6 +14932,9 @@
         <v>19838.41740640336</v>
       </c>
       <c r="R205">
+        <v>0</v>
+      </c>
+      <c r="S205">
         <v>2255</v>
       </c>
     </row>
@@ -14386,6 +15003,9 @@
         <v>11981008.36784537</v>
       </c>
       <c r="R206">
+        <v>0</v>
+      </c>
+      <c r="S206">
         <v>120</v>
       </c>
     </row>
@@ -14454,6 +15074,9 @@
         <v>466936245.5674464</v>
       </c>
       <c r="R207">
+        <v>21543025.74</v>
+      </c>
+      <c r="S207">
         <v>741</v>
       </c>
     </row>
@@ -14522,6 +15145,9 @@
         <v>198838531.3</v>
       </c>
       <c r="R208">
+        <v>0</v>
+      </c>
+      <c r="S208">
         <v>38</v>
       </c>
     </row>
@@ -14590,6 +15216,9 @@
         <v>293619588.42</v>
       </c>
       <c r="R209">
+        <v>36627347.54</v>
+      </c>
+      <c r="S209">
         <v>341</v>
       </c>
     </row>
@@ -14658,6 +15287,9 @@
         <v>127421337.38</v>
       </c>
       <c r="R210">
+        <v>90752209.03</v>
+      </c>
+      <c r="S210">
         <v>1309</v>
       </c>
     </row>
@@ -14726,6 +15358,9 @@
         <v>10604443.43782796</v>
       </c>
       <c r="R211">
+        <v>0</v>
+      </c>
+      <c r="S211">
         <v>6420</v>
       </c>
     </row>
@@ -14794,6 +15429,9 @@
         <v>19838.41634007785</v>
       </c>
       <c r="R212">
+        <v>0</v>
+      </c>
+      <c r="S212">
         <v>2256</v>
       </c>
     </row>
@@ -14862,6 +15500,9 @@
         <v>528563340.0670248</v>
       </c>
       <c r="R213">
+        <v>205076176.3059</v>
+      </c>
+      <c r="S213">
         <v>8030</v>
       </c>
     </row>
@@ -14930,6 +15571,9 @@
         <v>1092528356.323259</v>
       </c>
       <c r="R214">
+        <v>295503945.8986</v>
+      </c>
+      <c r="S214">
         <v>9880</v>
       </c>
     </row>
@@ -14998,6 +15642,9 @@
         <v>292305841.7659</v>
       </c>
       <c r="R215">
+        <v>417686696.7675</v>
+      </c>
+      <c r="S215">
         <v>450</v>
       </c>
     </row>
@@ -15066,6 +15713,9 @@
         <v>65713166.45999999</v>
       </c>
       <c r="R216">
+        <v>231666598.12</v>
+      </c>
+      <c r="S216">
         <v>37</v>
       </c>
     </row>
@@ -15134,6 +15784,9 @@
         <v>638294367.6754067</v>
       </c>
       <c r="R217">
+        <v>249807752.278</v>
+      </c>
+      <c r="S217">
         <v>9295</v>
       </c>
     </row>
@@ -15202,6 +15855,9 @@
         <v>226285553.27</v>
       </c>
       <c r="R218">
+        <v>42380561.33</v>
+      </c>
+      <c r="S218">
         <v>888</v>
       </c>
     </row>
@@ -15270,6 +15926,9 @@
         <v>0</v>
       </c>
       <c r="R219">
+        <v>0</v>
+      </c>
+      <c r="S219">
         <v>9</v>
       </c>
     </row>
@@ -15338,6 +15997,9 @@
         <v>342188280.6729</v>
       </c>
       <c r="R220">
+        <v>1518194383.26297</v>
+      </c>
+      <c r="S220">
         <v>60</v>
       </c>
     </row>
@@ -15406,6 +16068,9 @@
         <v>64898154.588317</v>
       </c>
       <c r="R221">
+        <v>298555243.562377</v>
+      </c>
+      <c r="S221">
         <v>35</v>
       </c>
     </row>
@@ -15474,6 +16139,9 @@
         <v>2897075.77</v>
       </c>
       <c r="R222">
+        <v>1507016.65</v>
+      </c>
+      <c r="S222">
         <v>9</v>
       </c>
     </row>
@@ -15542,6 +16210,9 @@
         <v>91498385.05878299</v>
       </c>
       <c r="R223">
+        <v>442971825.904653</v>
+      </c>
+      <c r="S223">
         <v>31</v>
       </c>
     </row>
@@ -15610,6 +16281,9 @@
         <v>532240871.43</v>
       </c>
       <c r="R224">
+        <v>1284952280.79</v>
+      </c>
+      <c r="S224">
         <v>359</v>
       </c>
     </row>
@@ -15678,6 +16352,9 @@
         <v>0</v>
       </c>
       <c r="R225">
+        <v>0</v>
+      </c>
+      <c r="S225">
         <v>78</v>
       </c>
     </row>
@@ -15746,6 +16423,9 @@
         <v>3651201.114311053</v>
       </c>
       <c r="R226">
+        <v>7893081.316050916</v>
+      </c>
+      <c r="S226">
         <v>66</v>
       </c>
     </row>
@@ -15814,6 +16494,9 @@
         <v>3826201.485918503</v>
       </c>
       <c r="R227">
+        <v>8905014.818108726</v>
+      </c>
+      <c r="S227">
         <v>66</v>
       </c>
     </row>
@@ -15882,6 +16565,9 @@
         <v>1430815.664930707</v>
       </c>
       <c r="R228">
+        <v>3440573.906996553</v>
+      </c>
+      <c r="S228">
         <v>62</v>
       </c>
     </row>
@@ -15950,6 +16636,9 @@
         <v>256328700.020276</v>
       </c>
       <c r="R229">
+        <v>211279445.9984</v>
+      </c>
+      <c r="S229">
         <v>563</v>
       </c>
     </row>
@@ -16018,6 +16707,9 @@
         <v>189649933.259724</v>
       </c>
       <c r="R230">
+        <v>195027180.9216</v>
+      </c>
+      <c r="S230">
         <v>564</v>
       </c>
     </row>
@@ -16086,6 +16778,9 @@
         <v>0</v>
       </c>
       <c r="R231">
+        <v>0</v>
+      </c>
+      <c r="S231">
         <v>1842</v>
       </c>
     </row>
@@ -16131,6 +16826,9 @@
         <v>0</v>
       </c>
       <c r="R232">
+        <v>0</v>
+      </c>
+      <c r="S232">
         <v>1</v>
       </c>
     </row>
@@ -16176,6 +16874,9 @@
         <v>0</v>
       </c>
       <c r="R233">
+        <v>0</v>
+      </c>
+      <c r="S233">
         <v>5</v>
       </c>
     </row>

--- a/data-export/export_202110/sum_tagged_nonagri_detail.xlsx
+++ b/data-export/export_202110/sum_tagged_nonagri_detail.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R272"/>
+  <dimension ref="A1:R271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -476,37 +476,37 @@
         </is>
       </c>
       <c r="H2">
-        <v>2895764.4475</v>
+        <v>7677453.895</v>
       </c>
       <c r="I2">
-        <v>2461399.78</v>
+        <v>6525835.81</v>
       </c>
       <c r="J2">
-        <v>434364.6675</v>
+        <v>1057321.835</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>94296.25</v>
       </c>
       <c r="L2">
-        <v>2891365.5875</v>
+        <v>5782731.175</v>
       </c>
       <c r="M2">
-        <v>2457660.7475</v>
+        <v>4915321.495</v>
       </c>
       <c r="N2">
-        <v>433704.84</v>
+        <v>867409.6800000001</v>
       </c>
       <c r="O2">
-        <v>2891365.5875</v>
+        <v>5782731.175</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>433704.8399999999</v>
+        <v>867409.6799999997</v>
       </c>
       <c r="R2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -815,6 +815,16 @@
           <t xml:space="preserve"> IX.0.122</t>
         </is>
       </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>08.1.125.1.1</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Vytvořit podmínky pro naplnění cílů Dohody o partnerství a koordinace řízení</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr">
         <is>
           <t>OP TP</t>
@@ -826,13 +836,13 @@
         </is>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>6172500</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>5246625</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>925875</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -986,13 +996,13 @@
         </is>
       </c>
       <c r="H12">
-        <v>156249957.5</v>
+        <v>624999830</v>
       </c>
       <c r="I12">
-        <v>125905434.503125</v>
+        <v>503621738.0125</v>
       </c>
       <c r="J12">
-        <v>30344522.996875</v>
+        <v>121378091.9875</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1046,13 +1056,13 @@
         </is>
       </c>
       <c r="H13">
-        <v>156249957.5</v>
+        <v>624999830</v>
       </c>
       <c r="I13">
-        <v>125905434.503125</v>
+        <v>503621738.0125</v>
       </c>
       <c r="J13">
-        <v>30344522.996875</v>
+        <v>121378091.9875</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1106,37 +1116,37 @@
         </is>
       </c>
       <c r="H14">
-        <v>66964.66666666666</v>
+        <v>1623863.444444445</v>
       </c>
       <c r="I14">
-        <v>56919.96506172838</v>
+        <v>1380283.88</v>
       </c>
       <c r="J14">
-        <v>10044.70160493827</v>
+        <v>243579.5644444444</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>2604.135802469135</v>
+        <v>23437.22222222222</v>
       </c>
       <c r="M14">
-        <v>2213.514938271605</v>
+        <v>19921.63444444445</v>
       </c>
       <c r="N14">
-        <v>390.6208641975309</v>
+        <v>3515.587777777778</v>
       </c>
       <c r="O14">
-        <v>2604.135802469135</v>
+        <v>23437.22222222222</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>390.6208641975306</v>
+        <v>3515.587777777776</v>
       </c>
       <c r="R14">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15">
@@ -1166,37 +1176,37 @@
         </is>
       </c>
       <c r="H15">
-        <v>66964.66666666666</v>
+        <v>1623863.444444445</v>
       </c>
       <c r="I15">
-        <v>56919.96506172838</v>
+        <v>1380283.88</v>
       </c>
       <c r="J15">
-        <v>10044.70160493827</v>
+        <v>243579.5644444444</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>2604.135802469135</v>
+        <v>23437.22222222222</v>
       </c>
       <c r="M15">
-        <v>2213.514938271605</v>
+        <v>19921.63444444445</v>
       </c>
       <c r="N15">
-        <v>390.6208641975309</v>
+        <v>3515.587777777778</v>
       </c>
       <c r="O15">
-        <v>2604.135802469135</v>
+        <v>23437.22222222222</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>390.6208641975306</v>
+        <v>3515.587777777776</v>
       </c>
       <c r="R15">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16">
@@ -1226,37 +1236,37 @@
         </is>
       </c>
       <c r="H16">
-        <v>66964.66666666666</v>
+        <v>1623863.444444445</v>
       </c>
       <c r="I16">
-        <v>56919.96506172838</v>
+        <v>1380283.88</v>
       </c>
       <c r="J16">
-        <v>10044.70160493827</v>
+        <v>243579.5644444444</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>2604.135802469135</v>
+        <v>23437.22222222222</v>
       </c>
       <c r="M16">
-        <v>2213.514938271605</v>
+        <v>19921.63444444445</v>
       </c>
       <c r="N16">
-        <v>390.6208641975309</v>
+        <v>3515.587777777778</v>
       </c>
       <c r="O16">
-        <v>2604.135802469135</v>
+        <v>23437.22222222222</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>390.6208641975306</v>
+        <v>3515.587777777776</v>
       </c>
       <c r="R16">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
@@ -1306,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="R17">
-        <v>973</v>
+        <v>952</v>
       </c>
     </row>
     <row r="18">
@@ -1336,13 +1346,13 @@
         </is>
       </c>
       <c r="H18">
-        <v>294687.1875</v>
+        <v>1178748.75</v>
       </c>
       <c r="I18">
-        <v>147343.59375</v>
+        <v>589374.375</v>
       </c>
       <c r="J18">
-        <v>147343.59375</v>
+        <v>589374.375</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1396,13 +1406,13 @@
         </is>
       </c>
       <c r="H19">
-        <v>294687.1875</v>
+        <v>1178748.75</v>
       </c>
       <c r="I19">
-        <v>147343.59375</v>
+        <v>589374.375</v>
       </c>
       <c r="J19">
-        <v>147343.59375</v>
+        <v>589374.375</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1506,37 +1516,37 @@
         </is>
       </c>
       <c r="H21">
-        <v>95296.47916666666</v>
+        <v>3102728.944444444</v>
       </c>
       <c r="I21">
-        <v>76749.24256172839</v>
+        <v>2501942.2425</v>
       </c>
       <c r="J21">
-        <v>18547.23660493827</v>
+        <v>600786.7019444443</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>5828.385802469135</v>
+        <v>36334.22222222222</v>
       </c>
       <c r="M21">
-        <v>4389.883063271605</v>
+        <v>28627.10694444444</v>
       </c>
       <c r="N21">
-        <v>1438.502739197531</v>
+        <v>7707.115277777778</v>
       </c>
       <c r="O21">
-        <v>5828.385802469135</v>
+        <v>36334.22222222222</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>1438.502739197531</v>
+        <v>7707.115277777775</v>
       </c>
       <c r="R21">
-        <v>10</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22">
@@ -1566,37 +1576,37 @@
         </is>
       </c>
       <c r="H22">
-        <v>109652.4166666667</v>
+        <v>1794614.444444445</v>
       </c>
       <c r="I22">
-        <v>93204.55131172838</v>
+        <v>1525422.225</v>
       </c>
       <c r="J22">
-        <v>16447.86535493827</v>
+        <v>269192.2194444445</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>2604.135802469135</v>
+        <v>23437.22222222222</v>
       </c>
       <c r="M22">
-        <v>2213.514938271605</v>
+        <v>19921.63444444445</v>
       </c>
       <c r="N22">
-        <v>390.6208641975309</v>
+        <v>3515.587777777778</v>
       </c>
       <c r="O22">
-        <v>2604.135802469135</v>
+        <v>23437.22222222222</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>390.6208641975306</v>
+        <v>3515.587777777776</v>
       </c>
       <c r="R22">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23">
@@ -1626,13 +1636,13 @@
         </is>
       </c>
       <c r="H23">
-        <v>9152263.497777777</v>
+        <v>82370371.48</v>
       </c>
       <c r="I23">
-        <v>6056260.16691358</v>
+        <v>54506341.50222223</v>
       </c>
       <c r="J23">
-        <v>3096003.330864197</v>
+        <v>27864029.97777778</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1686,13 +1696,13 @@
         </is>
       </c>
       <c r="H24">
-        <v>9152263.497777777</v>
+        <v>82370371.48</v>
       </c>
       <c r="I24">
-        <v>6056260.16691358</v>
+        <v>54506341.50222223</v>
       </c>
       <c r="J24">
-        <v>3096003.330864197</v>
+        <v>27864029.97777778</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1746,37 +1756,37 @@
         </is>
       </c>
       <c r="H25">
-        <v>9290247.726944443</v>
+        <v>85643851.42444444</v>
       </c>
       <c r="I25">
-        <v>6169293.995725309</v>
+        <v>57153422.08972222</v>
       </c>
       <c r="J25">
-        <v>3120953.731219135</v>
+        <v>28490429.33472224</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>5828.385802469135</v>
+        <v>36334.22222222222</v>
       </c>
       <c r="M25">
-        <v>4389.883063271605</v>
+        <v>28627.10694444444</v>
       </c>
       <c r="N25">
-        <v>1438.502739197531</v>
+        <v>7707.115277777778</v>
       </c>
       <c r="O25">
-        <v>5828.385802469135</v>
+        <v>36334.22222222222</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>1438.502739197531</v>
+        <v>7707.115277777775</v>
       </c>
       <c r="R25">
-        <v>14</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26">
@@ -1826,7 +1836,7 @@
         <v>0</v>
       </c>
       <c r="R26">
-        <v>1600</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="27">
@@ -1864,34 +1874,34 @@
         </is>
       </c>
       <c r="H27">
-        <v>7221406179.998684</v>
+        <v>9898073404.749714</v>
       </c>
       <c r="I27">
-        <v>2649065978.997841</v>
+        <v>3431398494.482035</v>
       </c>
       <c r="J27">
         <v>0</v>
       </c>
       <c r="K27">
-        <v>4572340201.000843</v>
+        <v>6466674910.267679</v>
       </c>
       <c r="L27">
-        <v>4806222595.293526</v>
+        <v>6892222550.941645</v>
       </c>
       <c r="M27">
-        <v>1686387980.460241</v>
+        <v>2243529144.123043</v>
       </c>
       <c r="N27">
         <v>0</v>
       </c>
       <c r="O27">
-        <v>1686387980.460241</v>
+        <v>2243529144.123043</v>
       </c>
       <c r="P27">
-        <v>3119834614.833285</v>
+        <v>4648693406.818603</v>
       </c>
       <c r="Q27">
-        <v>3119834614.833285</v>
+        <v>4648693406.818603</v>
       </c>
       <c r="R27">
         <v>354</v>
@@ -2082,10 +2092,10 @@
         <v>128335142.85</v>
       </c>
       <c r="P30">
-        <v>272088165.17</v>
+        <v>272088165.1700001</v>
       </c>
       <c r="Q30">
-        <v>272088165.17</v>
+        <v>272088165.1700001</v>
       </c>
       <c r="R30">
         <v>71</v>
@@ -2197,7 +2207,7 @@
         <v>2644194805.25</v>
       </c>
       <c r="I32">
-        <v>667367822.89</v>
+        <v>667367822.8900001</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -2339,7 +2349,7 @@
         <v>0</v>
       </c>
       <c r="K34">
-        <v>40346393.71</v>
+        <v>40346393.70999999</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -2398,7 +2408,7 @@
         </is>
       </c>
       <c r="H35">
-        <v>1854111525.56</v>
+        <v>1854111525.559999</v>
       </c>
       <c r="I35">
         <v>1341746167.94</v>
@@ -2407,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="K35">
-        <v>512365357.62</v>
+        <v>512365357.6200003</v>
       </c>
       <c r="L35">
         <v>35292490.04</v>
@@ -2466,7 +2476,7 @@
         </is>
       </c>
       <c r="H36">
-        <v>844582997.1799999</v>
+        <v>844582997.1800001</v>
       </c>
       <c r="I36">
         <v>575492616.62</v>
@@ -2475,10 +2485,10 @@
         <v>0</v>
       </c>
       <c r="K36">
-        <v>269090380.56</v>
+        <v>269090380.5600001</v>
       </c>
       <c r="L36">
-        <v>615912166.5600001</v>
+        <v>615912166.5599999</v>
       </c>
       <c r="M36">
         <v>409532011.53</v>
@@ -2534,7 +2544,7 @@
         </is>
       </c>
       <c r="H37">
-        <v>59211146.47</v>
+        <v>59211146.46999999</v>
       </c>
       <c r="I37">
         <v>44792200.12</v>
@@ -2558,10 +2568,10 @@
         <v>13072125.01</v>
       </c>
       <c r="P37">
-        <v>3268031.26</v>
+        <v>3268031.259999999</v>
       </c>
       <c r="Q37">
-        <v>3268031.26</v>
+        <v>3268031.259999999</v>
       </c>
       <c r="R37">
         <v>19</v>
@@ -2611,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="K38">
-        <v>712003308.25</v>
+        <v>712003308.2500001</v>
       </c>
       <c r="L38">
         <v>59460417.6</v>
@@ -2753,19 +2763,19 @@
         <v>72191982.18000001</v>
       </c>
       <c r="M40">
-        <v>39891776.08</v>
+        <v>39891776.08000001</v>
       </c>
       <c r="N40">
         <v>32300206.1</v>
       </c>
       <c r="O40">
-        <v>72191982.17999999</v>
+        <v>72191982.18000001</v>
       </c>
       <c r="P40">
         <v>7.217749953269958e-09</v>
       </c>
       <c r="Q40">
-        <v>32300206.1</v>
+        <v>32300206.10000001</v>
       </c>
       <c r="R40">
         <v>33</v>
@@ -2806,34 +2816,34 @@
         </is>
       </c>
       <c r="H41">
-        <v>18185922764.23</v>
+        <v>18185922764.22998</v>
       </c>
       <c r="I41">
-        <v>7904940953.32</v>
+        <v>7904940953.320004</v>
       </c>
       <c r="J41">
-        <v>10119534903.56</v>
+        <v>10119534903.56001</v>
       </c>
       <c r="K41">
         <v>161446907.35</v>
       </c>
       <c r="L41">
-        <v>11980162076.52</v>
+        <v>11980162076.51998</v>
       </c>
       <c r="M41">
-        <v>5167370164</v>
+        <v>5167370163.999999</v>
       </c>
       <c r="N41">
-        <v>6762812532.07</v>
+        <v>6762812532.069991</v>
       </c>
       <c r="O41">
-        <v>11930182696.07</v>
+        <v>11930182696.06998</v>
       </c>
       <c r="P41">
-        <v>49979380.44999993</v>
+        <v>49979380.44999997</v>
       </c>
       <c r="Q41">
-        <v>6812791912.52</v>
+        <v>6812791912.519995</v>
       </c>
       <c r="R41">
         <v>2591</v>
@@ -2874,37 +2884,37 @@
         </is>
       </c>
       <c r="H42">
-        <v>65541764.4475</v>
+        <v>80277453.895</v>
       </c>
       <c r="I42">
-        <v>55710499.78</v>
+        <v>68235835.81</v>
       </c>
       <c r="J42">
-        <v>9831264.6675</v>
+        <v>11947321.835</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>94296.25</v>
       </c>
       <c r="L42">
-        <v>2891365.5875</v>
+        <v>5782731.175</v>
       </c>
       <c r="M42">
-        <v>2457660.7475</v>
+        <v>4915321.495</v>
       </c>
       <c r="N42">
-        <v>433704.84</v>
+        <v>867409.6800000001</v>
       </c>
       <c r="O42">
-        <v>2891365.5875</v>
+        <v>5782731.175</v>
       </c>
       <c r="P42">
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>433704.8399999999</v>
+        <v>867409.6799999997</v>
       </c>
       <c r="R42">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
@@ -2945,7 +2955,7 @@
         <v>1793407125.88</v>
       </c>
       <c r="I43">
-        <v>896703562.9</v>
+        <v>896703562.8999999</v>
       </c>
       <c r="J43">
         <v>660463502.37</v>
@@ -2963,10 +2973,10 @@
         <v>366695683.76</v>
       </c>
       <c r="O43">
-        <v>873986284.6799999</v>
+        <v>873986284.6800001</v>
       </c>
       <c r="P43">
-        <v>140594917.43</v>
+        <v>140594917.4299999</v>
       </c>
       <c r="Q43">
         <v>507290601.19</v>
@@ -3030,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="R44">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45">
@@ -3068,34 +3078,34 @@
         </is>
       </c>
       <c r="H45">
-        <v>23077293691.22</v>
+        <v>23077293691.21995</v>
       </c>
       <c r="I45">
-        <v>7645305950.28</v>
+        <v>7645305950.279994</v>
       </c>
       <c r="J45">
-        <v>3084783334.68</v>
+        <v>3084783334.679999</v>
       </c>
       <c r="K45">
-        <v>12347204406.26</v>
+        <v>12347204406.25999</v>
       </c>
       <c r="L45">
-        <v>14458872615.99</v>
+        <v>14458872615.98998</v>
       </c>
       <c r="M45">
-        <v>4767760136.58</v>
+        <v>4767760136.579988</v>
       </c>
       <c r="N45">
         <v>1744630658.42</v>
       </c>
       <c r="O45">
-        <v>6512390795</v>
+        <v>6512390794.999992</v>
       </c>
       <c r="P45">
-        <v>7946481820.99</v>
+        <v>7946481820.989984</v>
       </c>
       <c r="Q45">
-        <v>9691112479.41</v>
+        <v>9691112479.409998</v>
       </c>
       <c r="R45">
         <v>3187</v>
@@ -3160,10 +3170,10 @@
         <v>19370074.94</v>
       </c>
       <c r="P46">
-        <v>29055112.44</v>
+        <v>29055112.44000001</v>
       </c>
       <c r="Q46">
-        <v>29055112.44</v>
+        <v>29055112.44000001</v>
       </c>
       <c r="R46">
         <v>19</v>
@@ -3204,19 +3214,19 @@
         </is>
       </c>
       <c r="H47">
-        <v>7388997027.58</v>
+        <v>7388997027.580003</v>
       </c>
       <c r="I47">
-        <v>2830256231.66</v>
+        <v>2830256231.659999</v>
       </c>
       <c r="J47">
         <v>29969062.5</v>
       </c>
       <c r="K47">
-        <v>4528771733.42</v>
+        <v>4528771733.420002</v>
       </c>
       <c r="L47">
-        <v>4356156520.87</v>
+        <v>4356156520.870001</v>
       </c>
       <c r="M47">
         <v>1631975721.17</v>
@@ -3228,10 +3238,10 @@
         <v>1631975721.17</v>
       </c>
       <c r="P47">
-        <v>2724180799.7</v>
+        <v>2724180799.700001</v>
       </c>
       <c r="Q47">
-        <v>2724180799.7</v>
+        <v>2724180799.700001</v>
       </c>
       <c r="R47">
         <v>169</v>
@@ -3272,34 +3282,34 @@
         </is>
       </c>
       <c r="H48">
-        <v>2030522725.9</v>
+        <v>2030522725.899999</v>
       </c>
       <c r="I48">
         <v>1733960297.37</v>
       </c>
       <c r="J48">
-        <v>270421556.5</v>
+        <v>270421556.4999999</v>
       </c>
       <c r="K48">
         <v>26140872.03</v>
       </c>
       <c r="L48">
-        <v>1635829360.55</v>
+        <v>1635829360.549999</v>
       </c>
       <c r="M48">
-        <v>1400937094.78</v>
+        <v>1400937094.780001</v>
       </c>
       <c r="N48">
         <v>221761592.9</v>
       </c>
       <c r="O48">
-        <v>1622698687.68</v>
+        <v>1622698687.679999</v>
       </c>
       <c r="P48">
         <v>13130672.87</v>
       </c>
       <c r="Q48">
-        <v>234892265.77</v>
+        <v>234892265.7699999</v>
       </c>
       <c r="R48">
         <v>925</v>
@@ -3340,34 +3350,34 @@
         </is>
       </c>
       <c r="H49">
-        <v>6060464090.565674</v>
+        <v>6097932143.648177</v>
       </c>
       <c r="I49">
-        <v>4538561244.652122</v>
+        <v>4558734450.770995</v>
       </c>
       <c r="J49">
-        <v>601478823.5697457</v>
+        <v>601734339.8971765</v>
       </c>
       <c r="K49">
-        <v>920424022.343806</v>
+        <v>937463352.9800003</v>
       </c>
       <c r="L49">
-        <v>4105116823.195883</v>
+        <v>4114124946.289899</v>
       </c>
       <c r="M49">
-        <v>3245661952.642471</v>
+        <v>3252254911.772224</v>
       </c>
       <c r="N49">
-        <v>404664205.9546059</v>
+        <v>404919267.4076744</v>
       </c>
       <c r="O49">
-        <v>3650326158.597077</v>
+        <v>3657174179.179898</v>
       </c>
       <c r="P49">
-        <v>454790664.598806</v>
+        <v>456950767.1100002</v>
       </c>
       <c r="Q49">
-        <v>859454870.553412</v>
+        <v>861870034.517675</v>
       </c>
       <c r="R49">
         <v>1712</v>
@@ -3408,34 +3418,34 @@
         </is>
       </c>
       <c r="H50">
-        <v>2613007883.49</v>
+        <v>2616407101.98</v>
       </c>
       <c r="I50">
-        <v>1709631141.698</v>
+        <v>1712376602.99</v>
       </c>
       <c r="J50">
-        <v>284606424.02</v>
+        <v>284606424.0199999</v>
       </c>
       <c r="K50">
-        <v>618770317.772</v>
+        <v>619424074.9699998</v>
       </c>
       <c r="L50">
-        <v>1088248053.60384</v>
+        <v>1091358233.25</v>
       </c>
       <c r="M50">
-        <v>711456529.00184</v>
+        <v>713912951.4500002</v>
       </c>
       <c r="N50">
         <v>165759935.21</v>
       </c>
       <c r="O50">
-        <v>877216464.21184</v>
+        <v>879672886.6600002</v>
       </c>
       <c r="P50">
-        <v>211031589.392</v>
+        <v>211685346.5900001</v>
       </c>
       <c r="Q50">
-        <v>376791524.602</v>
+        <v>377445281.8000001</v>
       </c>
       <c r="R50">
         <v>168</v>
@@ -3476,13 +3486,13 @@
         </is>
       </c>
       <c r="H51">
-        <v>334348086.06</v>
+        <v>334348086.0600001</v>
       </c>
       <c r="I51">
         <v>284195873.06</v>
       </c>
       <c r="J51">
-        <v>49256483.71</v>
+        <v>49256483.70999999</v>
       </c>
       <c r="K51">
         <v>895729.29</v>
@@ -3612,34 +3622,34 @@
         </is>
       </c>
       <c r="H53">
-        <v>933219805.2393212</v>
+        <v>974087076.8118235</v>
       </c>
       <c r="I53">
-        <v>530210157.0581225</v>
+        <v>553128824.469</v>
       </c>
       <c r="J53">
-        <v>163334374.9653927</v>
+        <v>163589891.2928235</v>
       </c>
       <c r="K53">
-        <v>239675273.215806</v>
+        <v>257368361.05</v>
       </c>
       <c r="L53">
-        <v>438186655.4699262</v>
+        <v>450304958.2101018</v>
       </c>
       <c r="M53">
-        <v>291884134.209863</v>
+        <v>300933515.7877762</v>
       </c>
       <c r="N53">
-        <v>3479595.529257236</v>
+        <v>3734656.982325661</v>
       </c>
       <c r="O53">
-        <v>295363729.7391202</v>
+        <v>304668172.7701019</v>
       </c>
       <c r="P53">
-        <v>142822925.730806</v>
+        <v>145636785.4400001</v>
       </c>
       <c r="Q53">
-        <v>146302521.2600632</v>
+        <v>149371442.4223257</v>
       </c>
       <c r="R53">
         <v>104</v>
@@ -3680,22 +3690,22 @@
         </is>
       </c>
       <c r="H54">
-        <v>4172522259.45</v>
+        <v>4172522259.450001</v>
       </c>
       <c r="I54">
-        <v>3546643919.93</v>
+        <v>3546643919.929999</v>
       </c>
       <c r="J54">
-        <v>624487089.92</v>
+        <v>624487089.9200001</v>
       </c>
       <c r="K54">
         <v>1391249.6</v>
       </c>
       <c r="L54">
-        <v>4016436469.1</v>
+        <v>4016436469.100001</v>
       </c>
       <c r="M54">
-        <v>3413543017.3</v>
+        <v>3413543017.299999</v>
       </c>
       <c r="N54">
         <v>601503889.6900001</v>
@@ -3704,10 +3714,10 @@
         <v>4015046906.99</v>
       </c>
       <c r="P54">
-        <v>1389562.109999932</v>
+        <v>1389562.110000083</v>
       </c>
       <c r="Q54">
-        <v>602893451.8</v>
+        <v>602893451.8000002</v>
       </c>
       <c r="R54">
         <v>144</v>
@@ -3748,10 +3758,10 @@
         </is>
       </c>
       <c r="H55">
-        <v>99278873.90000001</v>
+        <v>99278873.89999999</v>
       </c>
       <c r="I55">
-        <v>83345029.40000001</v>
+        <v>83345029.39999998</v>
       </c>
       <c r="J55">
         <v>14622301.25</v>
@@ -3816,13 +3826,13 @@
         </is>
       </c>
       <c r="H56">
-        <v>42024760.82</v>
+        <v>42024760.82000001</v>
       </c>
       <c r="I56">
         <v>35721046.68</v>
       </c>
       <c r="J56">
-        <v>6303714.14</v>
+        <v>6303714.140000001</v>
       </c>
       <c r="K56">
         <v>0</v>
@@ -3887,7 +3897,7 @@
         <v>13529825321.61</v>
       </c>
       <c r="I57">
-        <v>11500351521.6</v>
+        <v>11500351521.60002</v>
       </c>
       <c r="J57">
         <v>2013046852.6</v>
@@ -3902,16 +3912,16 @@
         <v>10874692739.66</v>
       </c>
       <c r="N57">
-        <v>1907348318.16</v>
+        <v>1907348318.160002</v>
       </c>
       <c r="O57">
         <v>12782041057.82</v>
       </c>
       <c r="P57">
-        <v>14014433.40000002</v>
+        <v>14014433.4</v>
       </c>
       <c r="Q57">
-        <v>1921362751.56</v>
+        <v>1921362751.560001</v>
       </c>
       <c r="R57">
         <v>417</v>
@@ -3952,34 +3962,34 @@
         </is>
       </c>
       <c r="H58">
-        <v>13643290572.47</v>
+        <v>13770263788.16</v>
       </c>
       <c r="I58">
-        <v>11596796986.5585</v>
+        <v>11704724219.895</v>
       </c>
       <c r="J58">
-        <v>2046493585.9115</v>
+        <v>2065539568.265</v>
       </c>
       <c r="K58">
         <v>0</v>
       </c>
       <c r="L58">
-        <v>10399934359.8249</v>
+        <v>10496935770.273</v>
       </c>
       <c r="M58">
-        <v>8839944205.235901</v>
+        <v>8922395404.112999</v>
       </c>
       <c r="N58">
-        <v>1559990154.589</v>
+        <v>1574540366.16</v>
       </c>
       <c r="O58">
-        <v>10399934359.8249</v>
+        <v>10496935770.273</v>
       </c>
       <c r="P58">
-        <v>-5.21540641784668e-08</v>
+        <v>-3.725290298461914e-08</v>
       </c>
       <c r="Q58">
-        <v>1559990154.589</v>
+        <v>1574540366.16</v>
       </c>
       <c r="R58">
         <v>27</v>
@@ -4020,34 +4030,34 @@
         </is>
       </c>
       <c r="H59">
-        <v>24735412788.65858</v>
+        <v>25205552941.11368</v>
       </c>
       <c r="I59">
-        <v>21025100870.29845</v>
+        <v>21424719999.885</v>
       </c>
       <c r="J59">
-        <v>3710311918.360131</v>
+        <v>3780832941.228676</v>
       </c>
       <c r="K59">
         <v>0</v>
       </c>
       <c r="L59">
-        <v>18119420871.74126</v>
+        <v>18413182638.23256</v>
       </c>
       <c r="M59">
-        <v>15401507740.00233</v>
+        <v>15651205241.50212</v>
       </c>
       <c r="N59">
-        <v>2717913131.738934</v>
+        <v>2761977396.730438</v>
       </c>
       <c r="O59">
-        <v>18119420871.74126</v>
+        <v>18413182638.23256</v>
       </c>
       <c r="P59">
-        <v>1.490116119384766e-07</v>
+        <v>4.470348358154297e-08</v>
       </c>
       <c r="Q59">
-        <v>2717913131.738934</v>
+        <v>2761977396.730439</v>
       </c>
       <c r="R59">
         <v>34</v>
@@ -4088,34 +4098,34 @@
         </is>
       </c>
       <c r="H60">
-        <v>22337875014.22123</v>
+        <v>22681041950.98632</v>
       </c>
       <c r="I60">
-        <v>18987193761.99995</v>
+        <v>19278885658.25</v>
       </c>
       <c r="J60">
-        <v>3350681252.221278</v>
+        <v>3402156292.736324</v>
       </c>
       <c r="K60">
         <v>0</v>
       </c>
       <c r="L60">
-        <v>18897418107.19125</v>
+        <v>19094178463.23444</v>
       </c>
       <c r="M60">
-        <v>16062805390.01219</v>
+        <v>16230051692.63488</v>
       </c>
       <c r="N60">
-        <v>2834612717.179057</v>
+        <v>2864126770.599561</v>
       </c>
       <c r="O60">
-        <v>18897418107.19125</v>
+        <v>19094178463.23444</v>
       </c>
       <c r="P60">
-        <v>1.192092895507812e-07</v>
+        <v>3.427267074584961e-07</v>
       </c>
       <c r="Q60">
-        <v>2834612717.179057</v>
+        <v>2864126770.599561</v>
       </c>
       <c r="R60">
         <v>39</v>
@@ -4156,7 +4166,7 @@
         </is>
       </c>
       <c r="H61">
-        <v>4629087971.96</v>
+        <v>4629087971.960001</v>
       </c>
       <c r="I61">
         <v>3588631275.25</v>
@@ -4171,7 +4181,7 @@
         <v>1008227018.13</v>
       </c>
       <c r="M61">
-        <v>807600487.3</v>
+        <v>807600487.3000001</v>
       </c>
       <c r="N61">
         <v>5234657.4</v>
@@ -4248,10 +4258,10 @@
         <v>2808811525.5</v>
       </c>
       <c r="P62">
-        <v>1.192092895507812e-07</v>
+        <v>2.384185791015625e-07</v>
       </c>
       <c r="Q62">
-        <v>421321728.9400001</v>
+        <v>421321728.9400002</v>
       </c>
       <c r="R62">
         <v>2</v>
@@ -4363,7 +4373,7 @@
         <v>3081739457.47</v>
       </c>
       <c r="I64">
-        <v>2566039640.07</v>
+        <v>2566039640.069999</v>
       </c>
       <c r="J64">
         <v>515699817.4</v>
@@ -4384,7 +4394,7 @@
         <v>1431580285.13</v>
       </c>
       <c r="P64">
-        <v>-4.656612873077393e-09</v>
+        <v>-5.587935447692871e-09</v>
       </c>
       <c r="Q64">
         <v>257178603.76</v>
@@ -4489,10 +4499,10 @@
         <v>28764473338.5</v>
       </c>
       <c r="I66">
-        <v>24449802337.72</v>
+        <v>24449802337.72001</v>
       </c>
       <c r="J66">
-        <v>4314671000.78</v>
+        <v>4314671000.780001</v>
       </c>
       <c r="K66">
         <v>0</v>
@@ -4510,7 +4520,7 @@
         <v>14781307448.16</v>
       </c>
       <c r="P66">
-        <v>3.539025783538818e-08</v>
+        <v>-8.381903171539307e-08</v>
       </c>
       <c r="Q66">
         <v>2217196118.58</v>
@@ -4554,34 +4564,34 @@
         </is>
       </c>
       <c r="H67">
-        <v>4927192793.8</v>
+        <v>4976858420.910001</v>
       </c>
       <c r="I67">
-        <v>4137675002.3425</v>
+        <v>4179890785.385</v>
       </c>
       <c r="J67">
-        <v>789517791.4575</v>
+        <v>796967635.525</v>
       </c>
       <c r="K67">
         <v>0</v>
       </c>
       <c r="L67">
-        <v>2895725109.9775</v>
+        <v>2931456692.355</v>
       </c>
       <c r="M67">
-        <v>2461366343.3775</v>
+        <v>2491738188.395</v>
       </c>
       <c r="N67">
-        <v>434358766.6</v>
+        <v>439718503.96</v>
       </c>
       <c r="O67">
-        <v>2895725109.9775</v>
+        <v>2931456692.355</v>
       </c>
       <c r="P67">
         <v>-1.490116119384766e-08</v>
       </c>
       <c r="Q67">
-        <v>434358766.6</v>
+        <v>439718503.96</v>
       </c>
       <c r="R67">
         <v>17</v>
@@ -4646,7 +4656,7 @@
         <v>13213845405</v>
       </c>
       <c r="P68">
-        <v>-5.960464477539062e-08</v>
+        <v>1.788139343261719e-07</v>
       </c>
       <c r="Q68">
         <v>1982076811.26</v>
@@ -4758,34 +4768,34 @@
         </is>
       </c>
       <c r="H70">
-        <v>29979010718.34</v>
+        <v>30028676345.45</v>
       </c>
       <c r="I70">
-        <v>24714708607.0025</v>
+        <v>24756924390.04499</v>
       </c>
       <c r="J70">
-        <v>5264302111.3375</v>
+        <v>5271751955.404995</v>
       </c>
       <c r="K70">
         <v>0</v>
       </c>
       <c r="L70">
-        <v>18008661548.9275</v>
+        <v>18044393131.305</v>
       </c>
       <c r="M70">
-        <v>15085921095.9975</v>
+        <v>15116292941.01501</v>
       </c>
       <c r="N70">
-        <v>2922740452.93</v>
+        <v>2928100190.290001</v>
       </c>
       <c r="O70">
-        <v>18008661548.9275</v>
+        <v>18044393131.305</v>
       </c>
       <c r="P70">
-        <v>9.778887033462524e-08</v>
+        <v>1.387670636177063e-07</v>
       </c>
       <c r="Q70">
-        <v>2922740452.93</v>
+        <v>2928100190.290001</v>
       </c>
       <c r="R70">
         <v>436</v>
@@ -5023,7 +5033,7 @@
         <v>1452708980.57</v>
       </c>
       <c r="I74">
-        <v>693032583.63</v>
+        <v>693032583.6299999</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -5088,16 +5098,16 @@
         </is>
       </c>
       <c r="H75">
-        <v>8079005118.32</v>
+        <v>8079005118.320002</v>
       </c>
       <c r="I75">
-        <v>6867154350.51</v>
+        <v>6867154350.510001</v>
       </c>
       <c r="J75">
         <v>526681922.15</v>
       </c>
       <c r="K75">
-        <v>685168845.66</v>
+        <v>685168845.6599998</v>
       </c>
       <c r="L75">
         <v>3114466343.46</v>
@@ -5109,7 +5119,7 @@
         <v>200531959.63</v>
       </c>
       <c r="O75">
-        <v>2847828351.2</v>
+        <v>2847828351.199999</v>
       </c>
       <c r="P75">
         <v>266637992.2600001</v>
@@ -5224,34 +5234,34 @@
         </is>
       </c>
       <c r="H77">
-        <v>7513637913.51</v>
+        <v>7513637913.510005</v>
       </c>
       <c r="I77">
-        <v>6386592225.94</v>
+        <v>6386592225.940001</v>
       </c>
       <c r="J77">
-        <v>341169748.97</v>
+        <v>341169748.9699998</v>
       </c>
       <c r="K77">
-        <v>785875938.6</v>
+        <v>785875938.5999999</v>
       </c>
       <c r="L77">
-        <v>5647291407.06</v>
+        <v>5647291407.059999</v>
       </c>
       <c r="M77">
-        <v>4800197695.05</v>
+        <v>4800197695.049999</v>
       </c>
       <c r="N77">
-        <v>193412324.63</v>
+        <v>193412324.6299998</v>
       </c>
       <c r="O77">
-        <v>4993610019.68</v>
+        <v>4993610019.679998</v>
       </c>
       <c r="P77">
         <v>653681387.38</v>
       </c>
       <c r="Q77">
-        <v>847093712.01</v>
+        <v>847093712.0100001</v>
       </c>
       <c r="R77">
         <v>209</v>
@@ -5428,7 +5438,7 @@
         </is>
       </c>
       <c r="H80">
-        <v>2067061476.82</v>
+        <v>2067061476.819999</v>
       </c>
       <c r="I80">
         <v>1757002255.21</v>
@@ -5440,7 +5450,7 @@
         <v>11998817.99</v>
       </c>
       <c r="L80">
-        <v>837717973.8299999</v>
+        <v>837717973.83</v>
       </c>
       <c r="M80">
         <v>712060277.62</v>
@@ -5452,7 +5462,7 @@
         <v>837717973.83</v>
       </c>
       <c r="P80">
-        <v>-1.862645149230957e-08</v>
+        <v>-2.235174179077148e-08</v>
       </c>
       <c r="Q80">
         <v>125657696.21</v>
@@ -5496,22 +5506,22 @@
         </is>
       </c>
       <c r="H81">
-        <v>10121076790.43</v>
+        <v>10124654527.33</v>
       </c>
       <c r="I81">
-        <v>8602915270.99</v>
+        <v>8605956347.349998</v>
       </c>
       <c r="J81">
-        <v>797875614.79</v>
+        <v>798412275.3299992</v>
       </c>
       <c r="K81">
         <v>720285904.65</v>
       </c>
       <c r="L81">
-        <v>8322678360.09</v>
+        <v>8322678360.090001</v>
       </c>
       <c r="M81">
-        <v>7074276604.54</v>
+        <v>7074276604.539992</v>
       </c>
       <c r="N81">
         <v>595113841.21</v>
@@ -5523,10 +5533,10 @@
         <v>653287914.34</v>
       </c>
       <c r="Q81">
-        <v>1248401755.55</v>
+        <v>1248401755.550001</v>
       </c>
       <c r="R81">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="82">
@@ -5584,7 +5594,7 @@
         <v>0</v>
       </c>
       <c r="R82">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83">
@@ -5622,10 +5632,10 @@
         </is>
       </c>
       <c r="H83">
-        <v>4775525060.69</v>
+        <v>4775525060.690001</v>
       </c>
       <c r="I83">
-        <v>3929685212.66</v>
+        <v>3929685212.659999</v>
       </c>
       <c r="J83">
         <v>522062125.96</v>
@@ -5690,7 +5700,7 @@
         </is>
       </c>
       <c r="H84">
-        <v>5173391629.2</v>
+        <v>5173391629.199999</v>
       </c>
       <c r="I84">
         <v>2224062866.59</v>
@@ -5705,13 +5715,13 @@
         <v>1821922227.44</v>
       </c>
       <c r="M84">
-        <v>731919171.83</v>
+        <v>731919171.8300002</v>
       </c>
       <c r="N84">
         <v>0</v>
       </c>
       <c r="O84">
-        <v>731919171.83</v>
+        <v>731919171.8300002</v>
       </c>
       <c r="P84">
         <v>1090003055.61</v>
@@ -5758,7 +5768,7 @@
         </is>
       </c>
       <c r="H85">
-        <v>15444472949.33</v>
+        <v>15444472949.32999</v>
       </c>
       <c r="I85">
         <v>12580015883.14</v>
@@ -5767,25 +5777,25 @@
         <v>2404518598.83</v>
       </c>
       <c r="K85">
-        <v>459938467.36</v>
+        <v>459938467.3599999</v>
       </c>
       <c r="L85">
         <v>11791292433.7</v>
       </c>
       <c r="M85">
-        <v>9621904529.790001</v>
+        <v>9621904529.789995</v>
       </c>
       <c r="N85">
-        <v>1800016805.52</v>
+        <v>1800016805.520001</v>
       </c>
       <c r="O85">
-        <v>11421921335.31</v>
+        <v>11421921335.31001</v>
       </c>
       <c r="P85">
         <v>369371098.39</v>
       </c>
       <c r="Q85">
-        <v>2169387903.91</v>
+        <v>2169387903.909998</v>
       </c>
       <c r="R85">
         <v>148</v>
@@ -5826,7 +5836,7 @@
         </is>
       </c>
       <c r="H86">
-        <v>456501729.93</v>
+        <v>456501729.9300001</v>
       </c>
       <c r="I86">
         <v>228230529.7</v>
@@ -5838,7 +5848,7 @@
         <v>228271200.23</v>
       </c>
       <c r="L86">
-        <v>366574433.79</v>
+        <v>366574433.7900001</v>
       </c>
       <c r="M86">
         <v>183268434.74</v>
@@ -5894,19 +5904,19 @@
         </is>
       </c>
       <c r="H87">
-        <v>19199429278.47</v>
+        <v>19199429278.47001</v>
       </c>
       <c r="I87">
         <v>16319514882.82</v>
       </c>
       <c r="J87">
-        <v>2715439873.85</v>
+        <v>2715439873.849999</v>
       </c>
       <c r="K87">
         <v>164474521.8</v>
       </c>
       <c r="L87">
-        <v>15443009772.18</v>
+        <v>15443009772.18002</v>
       </c>
       <c r="M87">
         <v>13126558295.17</v>
@@ -5915,13 +5925,13 @@
         <v>2178288657.66</v>
       </c>
       <c r="O87">
-        <v>15304846952.83</v>
+        <v>15304846952.83002</v>
       </c>
       <c r="P87">
-        <v>138162819.3500001</v>
+        <v>138162819.35</v>
       </c>
       <c r="Q87">
-        <v>2316451477.01</v>
+        <v>2316451477.009998</v>
       </c>
       <c r="R87">
         <v>1545</v>
@@ -5962,37 +5972,37 @@
         </is>
       </c>
       <c r="H88">
-        <v>2618010188.05</v>
+        <v>2620272621.85</v>
       </c>
       <c r="I88">
-        <v>2487109676.26</v>
+        <v>2489258988.369999</v>
       </c>
       <c r="J88">
-        <v>123407223.47</v>
+        <v>123520345.16</v>
       </c>
       <c r="K88">
-        <v>7493288.32</v>
+        <v>7493288.320000003</v>
       </c>
       <c r="L88">
-        <v>1976078683.78</v>
+        <v>1976078683.780002</v>
       </c>
       <c r="M88">
-        <v>1877274744.54</v>
+        <v>1877274744.540003</v>
       </c>
       <c r="N88">
         <v>93823723.45</v>
       </c>
       <c r="O88">
-        <v>1971098467.99</v>
+        <v>1971098467.990002</v>
       </c>
       <c r="P88">
-        <v>4980215.790000007</v>
+        <v>4980215.790000006</v>
       </c>
       <c r="Q88">
-        <v>98803939.23999999</v>
+        <v>98803939.24000005</v>
       </c>
       <c r="R88">
-        <v>1247</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="89">
@@ -6030,34 +6040,34 @@
         </is>
       </c>
       <c r="H89">
-        <v>939075427.8296474</v>
+        <v>941251866.9946001</v>
       </c>
       <c r="I89">
-        <v>469537713.7687657</v>
+        <v>470625933.3499999</v>
       </c>
       <c r="J89">
-        <v>337450901.8379071</v>
+        <v>338187115.4407599</v>
       </c>
       <c r="K89">
-        <v>132086812.2229745</v>
+        <v>132438818.20384</v>
       </c>
       <c r="L89">
-        <v>794217578.1444031</v>
+        <v>796094321.6402925</v>
       </c>
       <c r="M89">
-        <v>397108788.3439288</v>
+        <v>398047160.0890077</v>
       </c>
       <c r="N89">
-        <v>282445925.1619594</v>
+        <v>283065667.8403271</v>
       </c>
       <c r="O89">
-        <v>679554713.5058882</v>
+        <v>681112827.9293349</v>
       </c>
       <c r="P89">
-        <v>114662864.6385148</v>
+        <v>114981493.7109573</v>
       </c>
       <c r="Q89">
-        <v>397108789.8004743</v>
+        <v>398047161.5512846</v>
       </c>
       <c r="R89">
         <v>211</v>
@@ -6118,7 +6128,7 @@
         <v>0</v>
       </c>
       <c r="R90">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="91">
@@ -6156,34 +6166,34 @@
         </is>
       </c>
       <c r="H91">
-        <v>5980216952.88</v>
+        <v>5980216952.880003</v>
       </c>
       <c r="I91">
-        <v>5083184409.04</v>
+        <v>5083184409.040002</v>
       </c>
       <c r="J91">
-        <v>839915675.89</v>
+        <v>839915675.8899995</v>
       </c>
       <c r="K91">
         <v>57116867.95</v>
       </c>
       <c r="L91">
-        <v>4817562258.85</v>
+        <v>4817562258.849999</v>
       </c>
       <c r="M91">
         <v>4094927917.6</v>
       </c>
       <c r="N91">
-        <v>671239797.16</v>
+        <v>671239797.1600001</v>
       </c>
       <c r="O91">
-        <v>4766167714.76</v>
+        <v>4766167714.759998</v>
       </c>
       <c r="P91">
-        <v>51394544.09000002</v>
+        <v>51394544.08999997</v>
       </c>
       <c r="Q91">
-        <v>722634341.25</v>
+        <v>722634341.2499999</v>
       </c>
       <c r="R91">
         <v>321</v>
@@ -6224,34 +6234,34 @@
         </is>
       </c>
       <c r="H92">
-        <v>491945047.9504474</v>
+        <v>494121487.1154001</v>
       </c>
       <c r="I92">
-        <v>245972523.9487657</v>
+        <v>247060743.53</v>
       </c>
       <c r="J92">
-        <v>176263633.6863872</v>
+        <v>176999847.28924</v>
       </c>
       <c r="K92">
-        <v>69708890.31529453</v>
+        <v>70060896.29615998</v>
       </c>
       <c r="L92">
-        <v>371538640.6338186</v>
+        <v>373415384.1297076</v>
       </c>
       <c r="M92">
-        <v>185769320.1559136</v>
+        <v>186707691.9009923</v>
       </c>
       <c r="N92">
-        <v>131733980.611305</v>
+        <v>132353723.2896728</v>
       </c>
       <c r="O92">
-        <v>317503300.7672186</v>
+        <v>319061415.1906652</v>
       </c>
       <c r="P92">
-        <v>54035339.86660005</v>
+        <v>54353968.93904259</v>
       </c>
       <c r="Q92">
-        <v>185769320.477905</v>
+        <v>186707692.2287153</v>
       </c>
       <c r="R92">
         <v>67</v>
@@ -6295,28 +6305,28 @@
         <v>11382486104.1</v>
       </c>
       <c r="I93">
-        <v>9623864581.209999</v>
+        <v>9623864581.210005</v>
       </c>
       <c r="J93">
-        <v>890932721.25</v>
+        <v>890932721.2500001</v>
       </c>
       <c r="K93">
-        <v>867688801.64</v>
+        <v>867688801.6399999</v>
       </c>
       <c r="L93">
         <v>8879933277.32</v>
       </c>
       <c r="M93">
-        <v>7500325795.44</v>
+        <v>7500325795.440001</v>
       </c>
       <c r="N93">
         <v>634759371.2</v>
       </c>
       <c r="O93">
-        <v>8135085166.64</v>
+        <v>8135085166.640001</v>
       </c>
       <c r="P93">
-        <v>744848110.6799999</v>
+        <v>744848110.6800003</v>
       </c>
       <c r="Q93">
         <v>1379607481.88</v>
@@ -6360,16 +6370,16 @@
         </is>
       </c>
       <c r="H94">
-        <v>18828675624</v>
+        <v>18978495486.48</v>
       </c>
       <c r="I94">
-        <v>18762732327.11</v>
+        <v>18867606230.84</v>
       </c>
       <c r="J94">
         <v>47943316.16</v>
       </c>
       <c r="K94">
-        <v>17999980.73</v>
+        <v>62945939.48</v>
       </c>
       <c r="L94">
         <v>17298678.05</v>
@@ -6390,7 +6400,7 @@
         <v>0</v>
       </c>
       <c r="R94">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="95">
@@ -6448,7 +6458,7 @@
         <v>0</v>
       </c>
       <c r="R95">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="96">
@@ -6489,13 +6499,13 @@
         <v>3097979740.54</v>
       </c>
       <c r="I96">
-        <v>2633282778.8</v>
+        <v>2633282778.800001</v>
       </c>
       <c r="J96">
-        <v>426788520.97</v>
+        <v>426788520.9700001</v>
       </c>
       <c r="K96">
-        <v>37908440.77</v>
+        <v>37908440.77000002</v>
       </c>
       <c r="L96">
         <v>2212782732.45</v>
@@ -6507,13 +6517,13 @@
         <v>304530061.35</v>
       </c>
       <c r="O96">
-        <v>2185395382.46</v>
+        <v>2185395382.460001</v>
       </c>
       <c r="P96">
-        <v>27387349.99</v>
+        <v>27387349.99000002</v>
       </c>
       <c r="Q96">
-        <v>331917411.34</v>
+        <v>331917411.3400002</v>
       </c>
       <c r="R96">
         <v>412</v>
@@ -6554,34 +6564,34 @@
         </is>
       </c>
       <c r="H97">
-        <v>6452068351.12</v>
+        <v>6452068351.119997</v>
       </c>
       <c r="I97">
-        <v>5484258097.53</v>
+        <v>5484258097.529999</v>
       </c>
       <c r="J97">
-        <v>842776011.05</v>
+        <v>842776011.0499998</v>
       </c>
       <c r="K97">
         <v>125034242.54</v>
       </c>
       <c r="L97">
-        <v>4445164433.54</v>
+        <v>4445164433.539999</v>
       </c>
       <c r="M97">
-        <v>3778389765.73</v>
+        <v>3778389765.730001</v>
       </c>
       <c r="N97">
-        <v>575713456.92</v>
+        <v>575713456.9200008</v>
       </c>
       <c r="O97">
-        <v>4354103222.65</v>
+        <v>4354103222.650002</v>
       </c>
       <c r="P97">
-        <v>91061210.89000005</v>
+        <v>91061210.89000009</v>
       </c>
       <c r="Q97">
-        <v>666774667.8100001</v>
+        <v>666774667.8100004</v>
       </c>
       <c r="R97">
         <v>409</v>
@@ -6622,13 +6632,13 @@
         </is>
       </c>
       <c r="H98">
-        <v>65256828</v>
+        <v>82344984</v>
       </c>
       <c r="I98">
-        <v>55468303.8</v>
+        <v>69993236.40000001</v>
       </c>
       <c r="J98">
-        <v>8915154.699999999</v>
+        <v>11478378.1</v>
       </c>
       <c r="K98">
         <v>873369.5</v>
@@ -6652,7 +6662,7 @@
         <v>0</v>
       </c>
       <c r="R98">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="99">
@@ -6690,10 +6700,10 @@
         </is>
       </c>
       <c r="H99">
-        <v>586519830.09</v>
+        <v>586519830.0900002</v>
       </c>
       <c r="I99">
-        <v>293259914.99</v>
+        <v>293259914.9900001</v>
       </c>
       <c r="J99">
         <v>257010397.67</v>
@@ -6711,7 +6721,7 @@
         <v>166540008.49</v>
       </c>
       <c r="O99">
-        <v>363982030.39</v>
+        <v>363982030.3899999</v>
       </c>
       <c r="P99">
         <v>30902013.93999999</v>
@@ -6846,7 +6856,7 @@
         <v>0</v>
       </c>
       <c r="R101">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="102">
@@ -6884,34 +6894,34 @@
         </is>
       </c>
       <c r="H102">
-        <v>11121589705.2725</v>
+        <v>15413754632.755</v>
       </c>
       <c r="I102">
-        <v>5099204215.065</v>
+        <v>6784699031.330006</v>
       </c>
       <c r="J102">
         <v>0</v>
       </c>
       <c r="K102">
-        <v>6022385490.2075</v>
+        <v>8629055601.425007</v>
       </c>
       <c r="L102">
-        <v>7078231577.3375</v>
+        <v>9702734655.954998</v>
       </c>
       <c r="M102">
-        <v>3242163341.1375</v>
+        <v>4257462433.485004</v>
       </c>
       <c r="N102">
         <v>0</v>
       </c>
       <c r="O102">
-        <v>3242163341.1375</v>
+        <v>4257462433.485004</v>
       </c>
       <c r="P102">
-        <v>3836068236.2</v>
+        <v>5445272222.470001</v>
       </c>
       <c r="Q102">
-        <v>3836068236.2</v>
+        <v>5445272222.470001</v>
       </c>
       <c r="R102">
         <v>1107</v>
@@ -7010,34 +7020,34 @@
         </is>
       </c>
       <c r="H104">
-        <v>5611976088.3425</v>
+        <v>7912860677.575001</v>
       </c>
       <c r="I104">
-        <v>2221089396.835</v>
+        <v>2786633044.130001</v>
       </c>
       <c r="J104">
         <v>0</v>
       </c>
       <c r="K104">
-        <v>3390886691.5075</v>
+        <v>5126227633.445</v>
       </c>
       <c r="L104">
-        <v>4882471583.1075</v>
+        <v>6829678863.925001</v>
       </c>
       <c r="M104">
-        <v>1946443525.795</v>
+        <v>2425254900.669999</v>
       </c>
       <c r="N104">
         <v>0</v>
       </c>
       <c r="O104">
-        <v>1946443525.795</v>
+        <v>2425254900.669999</v>
       </c>
       <c r="P104">
-        <v>2936028057.3125</v>
+        <v>4404423963.255001</v>
       </c>
       <c r="Q104">
-        <v>2936028057.3125</v>
+        <v>4404423963.255001</v>
       </c>
       <c r="R104">
         <v>240</v>
@@ -7146,34 +7156,34 @@
         </is>
       </c>
       <c r="H106">
-        <v>14175896443.58901</v>
+        <v>14411973610.26259</v>
       </c>
       <c r="I106">
-        <v>11230484761.87457</v>
+        <v>11429224059.88</v>
       </c>
       <c r="J106">
-        <v>2397268654.559661</v>
+        <v>2423508266.966059</v>
       </c>
       <c r="K106">
-        <v>548143027.1547806</v>
+        <v>559241283.4165294</v>
       </c>
       <c r="L106">
-        <v>10136446047.53283</v>
+        <v>10322823896.04427</v>
       </c>
       <c r="M106">
-        <v>8066557132.217287</v>
+        <v>8223855325.917518</v>
       </c>
       <c r="N106">
-        <v>1644900954.352308</v>
+        <v>1665073063.734552</v>
       </c>
       <c r="O106">
-        <v>9711458086.569595</v>
+        <v>9888928389.652073</v>
       </c>
       <c r="P106">
-        <v>424987960.9632352</v>
+        <v>433895506.3921959</v>
       </c>
       <c r="Q106">
-        <v>2069888915.315543</v>
+        <v>2098968570.126749</v>
       </c>
       <c r="R106">
         <v>98</v>
@@ -7214,34 +7224,34 @@
         </is>
       </c>
       <c r="H107">
-        <v>1240094159.161412</v>
+        <v>1261486408.292353</v>
       </c>
       <c r="I107">
-        <v>1035624181.0757</v>
+        <v>1053807592.837</v>
       </c>
       <c r="J107">
-        <v>196930608.0057118</v>
+        <v>200139445.3753529</v>
       </c>
       <c r="K107">
         <v>7539370.08</v>
       </c>
       <c r="L107">
-        <v>791809183.2826085</v>
+        <v>805575118.8505142</v>
       </c>
       <c r="M107">
-        <v>661168584.0189722</v>
+        <v>672869629.2452871</v>
       </c>
       <c r="N107">
-        <v>124888882.0836363</v>
+        <v>126953772.4252271</v>
       </c>
       <c r="O107">
-        <v>786057466.1026084</v>
+        <v>799823401.6705141</v>
       </c>
       <c r="P107">
-        <v>5751717.179999978</v>
+        <v>5751717.179999979</v>
       </c>
       <c r="Q107">
-        <v>130640599.2636363</v>
+        <v>132705489.6052271</v>
       </c>
       <c r="R107">
         <v>17</v>
@@ -7297,16 +7307,16 @@
         <v>1878411841.23</v>
       </c>
       <c r="M108">
-        <v>1533759318.71</v>
+        <v>1533759318.709999</v>
       </c>
       <c r="N108">
         <v>250731916.48</v>
       </c>
       <c r="O108">
-        <v>1784491235.19</v>
+        <v>1784491235.189999</v>
       </c>
       <c r="P108">
-        <v>93920606.04000004</v>
+        <v>93920606.04000002</v>
       </c>
       <c r="Q108">
         <v>344652522.52</v>
@@ -7350,7 +7360,7 @@
         </is>
       </c>
       <c r="H109">
-        <v>3193642070.62</v>
+        <v>3193642070.619999</v>
       </c>
       <c r="I109">
         <v>1613136175.3</v>
@@ -7365,13 +7375,13 @@
         <v>1438049993.48</v>
       </c>
       <c r="M109">
-        <v>719024996.63</v>
+        <v>719024996.6299999</v>
       </c>
       <c r="N109">
         <v>0</v>
       </c>
       <c r="O109">
-        <v>719024996.63</v>
+        <v>719024996.6299999</v>
       </c>
       <c r="P109">
         <v>719024996.85</v>
@@ -7418,34 +7428,34 @@
         </is>
       </c>
       <c r="H110">
-        <v>916162758.7695251</v>
+        <v>2404820426.876726</v>
       </c>
       <c r="I110">
-        <v>596871085.8363317</v>
+        <v>1564252619.939956</v>
       </c>
       <c r="J110">
-        <v>202027.3684302134</v>
+        <v>731002.4331365647</v>
       </c>
       <c r="K110">
-        <v>319089645.5647631</v>
+        <v>839836804.5036372</v>
       </c>
       <c r="L110">
-        <v>250261089.0201875</v>
+        <v>670353515.5807372</v>
       </c>
       <c r="M110">
-        <v>158016196.8845496</v>
+        <v>427417332.6739725</v>
       </c>
       <c r="N110">
         <v>0</v>
       </c>
       <c r="O110">
-        <v>158016196.8845496</v>
+        <v>427417332.6739725</v>
       </c>
       <c r="P110">
-        <v>92244892.13563786</v>
+        <v>242936182.9067648</v>
       </c>
       <c r="Q110">
-        <v>92244892.13563786</v>
+        <v>242936182.9067648</v>
       </c>
       <c r="R110">
         <v>392</v>
@@ -7486,34 +7496,34 @@
         </is>
       </c>
       <c r="H111">
-        <v>1880699257.853837</v>
+        <v>1996310485.807412</v>
       </c>
       <c r="I111">
-        <v>1459585313.046571</v>
+        <v>1555928563.14</v>
       </c>
       <c r="J111">
-        <v>336661346.2695436</v>
+        <v>350854364.8039411</v>
       </c>
       <c r="K111">
-        <v>84452598.53772184</v>
+        <v>89527557.86347058</v>
       </c>
       <c r="L111">
-        <v>1417550066.265097</v>
+        <v>1496529332.819734</v>
       </c>
       <c r="M111">
-        <v>1100967739.21825</v>
+        <v>1166977138.262482</v>
       </c>
       <c r="N111">
-        <v>253086788.8844039</v>
+        <v>262519040.071448</v>
       </c>
       <c r="O111">
-        <v>1354054528.102654</v>
+        <v>1429496178.33393</v>
       </c>
       <c r="P111">
-        <v>63495538.1624433</v>
+        <v>67033154.48580401</v>
       </c>
       <c r="Q111">
-        <v>316582327.0468472</v>
+        <v>329552194.5572519</v>
       </c>
       <c r="R111">
         <v>15</v>
@@ -7554,34 +7564,34 @@
         </is>
       </c>
       <c r="H112">
-        <v>3222892521.44378</v>
+        <v>3349800944.730571</v>
       </c>
       <c r="I112">
-        <v>2636057660.114559</v>
+        <v>2739373998.773</v>
       </c>
       <c r="J112">
-        <v>567226536.7906268</v>
+        <v>590030465.3953558</v>
       </c>
       <c r="K112">
-        <v>19608324.53859409</v>
+        <v>20396480.56221525</v>
       </c>
       <c r="L112">
-        <v>1958179779.700842</v>
+        <v>2031990059.285122</v>
       </c>
       <c r="M112">
-        <v>1602980678.544501</v>
+        <v>1663239023.341117</v>
       </c>
       <c r="N112">
-        <v>342022687.4766787</v>
+        <v>355167429.9358557</v>
       </c>
       <c r="O112">
-        <v>1945003366.02118</v>
+        <v>2018406453.276973</v>
       </c>
       <c r="P112">
-        <v>13176413.67966238</v>
+        <v>13583606.00814912</v>
       </c>
       <c r="Q112">
-        <v>355199101.156341</v>
+        <v>368751035.9440049</v>
       </c>
       <c r="R112">
         <v>47</v>
@@ -7622,34 +7632,34 @@
         </is>
       </c>
       <c r="H113">
-        <v>1113601205.325</v>
+        <v>1126358876.9</v>
       </c>
       <c r="I113">
-        <v>794715206.6575</v>
+        <v>803978551.985</v>
       </c>
       <c r="J113">
-        <v>318885998.6675</v>
+        <v>322380324.915</v>
       </c>
       <c r="K113">
         <v>0</v>
       </c>
       <c r="L113">
-        <v>1023431628.9575</v>
+        <v>1027503073.275</v>
       </c>
       <c r="M113">
-        <v>730269767.2775</v>
+        <v>733226042.985</v>
       </c>
       <c r="N113">
-        <v>293161861.68</v>
+        <v>294277030.29</v>
       </c>
       <c r="O113">
-        <v>1023431628.9575</v>
+        <v>1027503073.275</v>
       </c>
       <c r="P113">
         <v>-1.192092895507812e-07</v>
       </c>
       <c r="Q113">
-        <v>293161861.6799999</v>
+        <v>294277030.29</v>
       </c>
       <c r="R113">
         <v>2</v>
@@ -7748,34 +7758,34 @@
         </is>
       </c>
       <c r="H115">
-        <v>18008113265.84268</v>
+        <v>19261227270.77547</v>
       </c>
       <c r="I115">
-        <v>10421460083.0502</v>
+        <v>11255380904.20801</v>
       </c>
       <c r="J115">
-        <v>1385033.232157084</v>
+        <v>1914008.296863435</v>
       </c>
       <c r="K115">
-        <v>7585268149.560328</v>
+        <v>8003932358.270609</v>
       </c>
       <c r="L115">
-        <v>8085951606.478931</v>
+        <v>8484602444.867011</v>
       </c>
       <c r="M115">
-        <v>4693652845.006353</v>
+        <v>4954067552.802069</v>
       </c>
       <c r="N115">
         <v>0</v>
       </c>
       <c r="O115">
-        <v>4693652845.006353</v>
+        <v>4954067552.802069</v>
       </c>
       <c r="P115">
-        <v>3392298761.472578</v>
+        <v>3530534892.064939</v>
       </c>
       <c r="Q115">
-        <v>3392298761.472578</v>
+        <v>3530534892.064939</v>
       </c>
       <c r="R115">
         <v>1272</v>
@@ -7884,34 +7894,34 @@
         </is>
       </c>
       <c r="H117">
-        <v>11994080775.1</v>
+        <v>12114546713.82</v>
       </c>
       <c r="I117">
-        <v>9228346330.087999</v>
+        <v>9330742378</v>
       </c>
       <c r="J117">
-        <v>2638885156.788</v>
+        <v>2650931750.659999</v>
       </c>
       <c r="K117">
-        <v>126849288.224</v>
+        <v>132872585.16</v>
       </c>
       <c r="L117">
-        <v>6763766301.5992</v>
+        <v>6871164883.555999</v>
       </c>
       <c r="M117">
-        <v>5197151942.094</v>
+        <v>5288440736.749999</v>
       </c>
       <c r="N117">
-        <v>1477891943.4988</v>
+        <v>1488631801.694</v>
       </c>
       <c r="O117">
-        <v>6675043885.5928</v>
+        <v>6777072538.443997</v>
       </c>
       <c r="P117">
-        <v>88722416.00639969</v>
+        <v>94092345.11199956</v>
       </c>
       <c r="Q117">
-        <v>1566614359.5052</v>
+        <v>1582724146.806</v>
       </c>
       <c r="R117">
         <v>33</v>
@@ -7952,34 +7962,34 @@
         </is>
       </c>
       <c r="H118">
-        <v>255206451.1112258</v>
+        <v>360722625.267076</v>
       </c>
       <c r="I118">
-        <v>205634668.8928589</v>
+        <v>290767595.79</v>
       </c>
       <c r="J118">
-        <v>43830520.20420331</v>
+        <v>63425611.43929119</v>
       </c>
       <c r="K118">
-        <v>5741262.014163584</v>
+        <v>6529418.037784749</v>
       </c>
       <c r="L118">
-        <v>166840568.6279894</v>
+        <v>226884912.6443636</v>
       </c>
       <c r="M118">
-        <v>135132279.8332945</v>
+        <v>183689579.4035957</v>
       </c>
       <c r="N118">
-        <v>27557983.20133068</v>
+        <v>38637835.31891704</v>
       </c>
       <c r="O118">
-        <v>162690263.0346252</v>
+        <v>222327414.7225127</v>
       </c>
       <c r="P118">
-        <v>4150305.593364134</v>
+        <v>4557497.921850865</v>
       </c>
       <c r="Q118">
-        <v>31708288.79469481</v>
+        <v>43195333.2407679</v>
       </c>
       <c r="R118">
         <v>11</v>
@@ -8020,34 +8030,34 @@
         </is>
       </c>
       <c r="H119">
-        <v>12757671.575</v>
+        <v>25515343.15</v>
       </c>
       <c r="I119">
-        <v>9263345.327500001</v>
+        <v>18526690.655</v>
       </c>
       <c r="J119">
-        <v>3494326.2475</v>
+        <v>6988652.495</v>
       </c>
       <c r="K119">
         <v>0</v>
       </c>
       <c r="L119">
-        <v>4071444.3175</v>
+        <v>8142888.635</v>
       </c>
       <c r="M119">
-        <v>2956275.7075</v>
+        <v>5912551.415</v>
       </c>
       <c r="N119">
-        <v>1115168.61</v>
+        <v>2230337.22</v>
       </c>
       <c r="O119">
-        <v>4071444.3175</v>
+        <v>8142888.635</v>
       </c>
       <c r="P119">
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>1115168.61</v>
+        <v>2230337.22</v>
       </c>
       <c r="R119">
         <v>1</v>
@@ -8149,7 +8159,7 @@
         <v>309957324.3</v>
       </c>
       <c r="I121">
-        <v>216970127</v>
+        <v>216970127.0000001</v>
       </c>
       <c r="J121">
         <v>0</v>
@@ -8226,19 +8236,19 @@
         <v>149632196.96</v>
       </c>
       <c r="L122">
-        <v>831348680.6900001</v>
+        <v>831348680.6899998</v>
       </c>
       <c r="M122">
         <v>415674339.83</v>
       </c>
       <c r="N122">
-        <v>332539471.87</v>
+        <v>332539471.8700001</v>
       </c>
       <c r="O122">
         <v>748213811.7</v>
       </c>
       <c r="P122">
-        <v>83134868.99000001</v>
+        <v>83134868.99000002</v>
       </c>
       <c r="Q122">
         <v>415674340.86</v>
@@ -8282,34 +8292,34 @@
         </is>
       </c>
       <c r="H123">
-        <v>1717687011.05</v>
+        <v>1730887011.05</v>
       </c>
       <c r="I123">
-        <v>955620350.77</v>
+        <v>963471710.7700001</v>
       </c>
       <c r="J123">
         <v>0</v>
       </c>
       <c r="K123">
-        <v>762066660.28</v>
+        <v>767415300.2800001</v>
       </c>
       <c r="L123">
-        <v>556358815.4484</v>
+        <v>562383430.3139999</v>
       </c>
       <c r="M123">
-        <v>300273125.2188</v>
+        <v>303856566.138</v>
       </c>
       <c r="N123">
         <v>0</v>
       </c>
       <c r="O123">
-        <v>300273125.2188</v>
+        <v>303856566.138</v>
       </c>
       <c r="P123">
-        <v>256085690.2296</v>
+        <v>258526864.176</v>
       </c>
       <c r="Q123">
-        <v>256085690.2296</v>
+        <v>258526864.176</v>
       </c>
       <c r="R123">
         <v>57</v>
@@ -8359,25 +8369,25 @@
         <v>0</v>
       </c>
       <c r="K124">
-        <v>907802333.87</v>
+        <v>907802333.8699999</v>
       </c>
       <c r="L124">
         <v>1127803936.17</v>
       </c>
       <c r="M124">
-        <v>625640429.58</v>
+        <v>625640429.5799997</v>
       </c>
       <c r="N124">
         <v>0</v>
       </c>
       <c r="O124">
-        <v>625640429.58</v>
+        <v>625640429.5799997</v>
       </c>
       <c r="P124">
-        <v>502163506.59</v>
+        <v>502163506.5899999</v>
       </c>
       <c r="Q124">
-        <v>502163506.59</v>
+        <v>502163506.5899999</v>
       </c>
       <c r="R124">
         <v>204</v>
@@ -8476,34 +8486,34 @@
         </is>
       </c>
       <c r="H126">
-        <v>4275214258.3575</v>
+        <v>8545277580.714998</v>
       </c>
       <c r="I126">
-        <v>1678983765.16</v>
+        <v>3355649609.120001</v>
       </c>
       <c r="J126">
         <v>0</v>
       </c>
       <c r="K126">
-        <v>2596230493.1975</v>
+        <v>5189627971.595001</v>
       </c>
       <c r="L126">
-        <v>2625365531.05</v>
+        <v>5245580126.099998</v>
       </c>
       <c r="M126">
-        <v>1015687195.9425</v>
+        <v>2029056470.684999</v>
       </c>
       <c r="N126">
         <v>0</v>
       </c>
       <c r="O126">
-        <v>1015687195.9425</v>
+        <v>2029056470.684999</v>
       </c>
       <c r="P126">
-        <v>1609678335.1075</v>
+        <v>3216523655.414998</v>
       </c>
       <c r="Q126">
-        <v>1609678335.1075</v>
+        <v>3216523655.414998</v>
       </c>
       <c r="R126">
         <v>722</v>
@@ -8544,16 +8554,16 @@
         </is>
       </c>
       <c r="H127">
-        <v>443201059.09</v>
+        <v>444155059.0899999</v>
       </c>
       <c r="I127">
-        <v>329095883.78</v>
+        <v>329811383.78</v>
       </c>
       <c r="J127">
         <v>222500</v>
       </c>
       <c r="K127">
-        <v>113882675.31</v>
+        <v>114121175.31</v>
       </c>
       <c r="L127">
         <v>385317766.85</v>
@@ -8568,13 +8578,13 @@
         <v>288416869.4</v>
       </c>
       <c r="P127">
-        <v>96900897.45</v>
+        <v>96900897.44999999</v>
       </c>
       <c r="Q127">
-        <v>96900897.45</v>
+        <v>96900897.44999999</v>
       </c>
       <c r="R127">
-        <v>1506</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="128">
@@ -8700,7 +8710,7 @@
         <v>0</v>
       </c>
       <c r="R129">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="130">
@@ -8738,34 +8748,34 @@
         </is>
       </c>
       <c r="H130">
-        <v>9464527042.105272</v>
+        <v>9524489606.72308</v>
       </c>
       <c r="I130">
-        <v>3138651456.048711</v>
+        <v>3170023000.430001</v>
       </c>
       <c r="J130">
         <v>0</v>
       </c>
       <c r="K130">
-        <v>6325875586.056562</v>
+        <v>6354466606.293078</v>
       </c>
       <c r="L130">
-        <v>1083463690.955324</v>
+        <v>1089907557.366609</v>
       </c>
       <c r="M130">
-        <v>437366617.6239589</v>
+        <v>440556229.5129184</v>
       </c>
       <c r="N130">
         <v>0</v>
       </c>
       <c r="O130">
-        <v>437366617.6239589</v>
+        <v>440556229.5129184</v>
       </c>
       <c r="P130">
-        <v>646097073.3313656</v>
+        <v>649351327.8536907</v>
       </c>
       <c r="Q130">
-        <v>646097073.3313656</v>
+        <v>649351327.8536907</v>
       </c>
       <c r="R130">
         <v>163</v>
@@ -8864,7 +8874,7 @@
         </is>
       </c>
       <c r="H132">
-        <v>2383988528.01</v>
+        <v>2383988528.009999</v>
       </c>
       <c r="I132">
         <v>1370682272.56</v>
@@ -8873,10 +8883,10 @@
         <v>77661400.25</v>
       </c>
       <c r="K132">
-        <v>935644855.2</v>
+        <v>935644855.1999998</v>
       </c>
       <c r="L132">
-        <v>1409043851.13</v>
+        <v>1409043851.129999</v>
       </c>
       <c r="M132">
         <v>781074449.1900001</v>
@@ -8885,13 +8895,13 @@
         <v>32808225.83</v>
       </c>
       <c r="O132">
-        <v>813882675.02</v>
+        <v>813882675.0200003</v>
       </c>
       <c r="P132">
-        <v>595161176.11</v>
+        <v>595161176.1100005</v>
       </c>
       <c r="Q132">
-        <v>627969401.9399999</v>
+        <v>627969401.9400005</v>
       </c>
       <c r="R132">
         <v>894</v>
@@ -8932,34 +8942,34 @@
         </is>
       </c>
       <c r="H133">
-        <v>355012217.1</v>
+        <v>391497617.1</v>
       </c>
       <c r="I133">
-        <v>177506108.55</v>
+        <v>195748808.55</v>
       </c>
       <c r="J133">
         <v>137720089.19</v>
       </c>
       <c r="K133">
-        <v>39786019.36</v>
+        <v>58028719.36</v>
       </c>
       <c r="L133">
-        <v>242999709.3342</v>
+        <v>251241906.384</v>
       </c>
       <c r="M133">
-        <v>121499854.6221</v>
+        <v>125620953.147</v>
       </c>
       <c r="N133">
-        <v>97740360.37</v>
+        <v>97740360.36999997</v>
       </c>
       <c r="O133">
-        <v>219240214.9921</v>
+        <v>223361313.517</v>
       </c>
       <c r="P133">
-        <v>23759494.34210002</v>
+        <v>27880592.86700005</v>
       </c>
       <c r="Q133">
-        <v>121499854.7121</v>
+        <v>125620953.237</v>
       </c>
       <c r="R133">
         <v>3</v>
@@ -9000,34 +9010,34 @@
         </is>
       </c>
       <c r="H134">
-        <v>20958740998.16</v>
+        <v>20958740998.16002</v>
       </c>
       <c r="I134">
-        <v>8692127961.65</v>
+        <v>8692127961.649992</v>
       </c>
       <c r="J134">
         <v>0</v>
       </c>
       <c r="K134">
-        <v>12266613036.51</v>
+        <v>12266613036.51001</v>
       </c>
       <c r="L134">
-        <v>12092824374.32</v>
+        <v>12092824374.31999</v>
       </c>
       <c r="M134">
-        <v>5126291571</v>
+        <v>5126291570.999991</v>
       </c>
       <c r="N134">
         <v>0</v>
       </c>
       <c r="O134">
-        <v>5126291571</v>
+        <v>5126291570.999991</v>
       </c>
       <c r="P134">
-        <v>6966532803.32</v>
+        <v>6966532803.319995</v>
       </c>
       <c r="Q134">
-        <v>6966532803.32</v>
+        <v>6966532803.319995</v>
       </c>
       <c r="R134">
         <v>2041</v>
@@ -9068,34 +9078,34 @@
         </is>
       </c>
       <c r="H135">
-        <v>361871578.53</v>
+        <v>398356978.53</v>
       </c>
       <c r="I135">
-        <v>180935789.25</v>
+        <v>199178489.25</v>
       </c>
       <c r="J135">
         <v>86690597.73</v>
       </c>
       <c r="K135">
-        <v>94245191.55</v>
+        <v>112487891.55</v>
       </c>
       <c r="L135">
-        <v>225180481.9962</v>
+        <v>233422679.046</v>
       </c>
       <c r="M135">
-        <v>112575240.9181</v>
+        <v>116696339.443</v>
       </c>
       <c r="N135">
         <v>72104549.26000001</v>
       </c>
       <c r="O135">
-        <v>184679790.1781</v>
+        <v>188800888.703</v>
       </c>
       <c r="P135">
-        <v>40500691.81810001</v>
+        <v>44621790.34300001</v>
       </c>
       <c r="Q135">
-        <v>112605241.0781</v>
+        <v>116726339.603</v>
       </c>
       <c r="R135">
         <v>12</v>
@@ -9194,34 +9204,34 @@
         </is>
       </c>
       <c r="H137">
-        <v>21869587790.63</v>
+        <v>21869587790.62997</v>
       </c>
       <c r="I137">
-        <v>10087490302.6</v>
+        <v>10087490302.59996</v>
       </c>
       <c r="J137">
         <v>0</v>
       </c>
       <c r="K137">
-        <v>11782097488.03</v>
+        <v>11782097488.03006</v>
       </c>
       <c r="L137">
-        <v>12373783764.27</v>
+        <v>12373783764.27002</v>
       </c>
       <c r="M137">
-        <v>5729106187.34</v>
+        <v>5729106187.339988</v>
       </c>
       <c r="N137">
         <v>0</v>
       </c>
       <c r="O137">
-        <v>5729106187.34</v>
+        <v>5729106187.339988</v>
       </c>
       <c r="P137">
-        <v>6644677576.93</v>
+        <v>6644677576.929999</v>
       </c>
       <c r="Q137">
-        <v>6644677576.93</v>
+        <v>6644677576.929999</v>
       </c>
       <c r="R137">
         <v>2948</v>
@@ -9388,7 +9398,7 @@
         </is>
       </c>
       <c r="H140">
-        <v>3728514788.89</v>
+        <v>3728514788.890001</v>
       </c>
       <c r="I140">
         <v>1739849983.29</v>
@@ -9397,25 +9407,25 @@
         <v>0</v>
       </c>
       <c r="K140">
-        <v>1988664805.6</v>
+        <v>1988664805.599999</v>
       </c>
       <c r="L140">
-        <v>1851459426.63</v>
+        <v>1851459426.630001</v>
       </c>
       <c r="M140">
-        <v>891807809.8200001</v>
+        <v>891807809.8199998</v>
       </c>
       <c r="N140">
         <v>0</v>
       </c>
       <c r="O140">
-        <v>891807809.8200001</v>
+        <v>891807809.8199998</v>
       </c>
       <c r="P140">
-        <v>959651616.8099999</v>
+        <v>959651616.809999</v>
       </c>
       <c r="Q140">
-        <v>959651616.8099999</v>
+        <v>959651616.809999</v>
       </c>
       <c r="R140">
         <v>985</v>
@@ -9459,31 +9469,31 @@
         <v>14026631576.82</v>
       </c>
       <c r="I141">
-        <v>4271497533.96</v>
+        <v>4271497533.959994</v>
       </c>
       <c r="J141">
         <v>0</v>
       </c>
       <c r="K141">
-        <v>9755134042.860001</v>
+        <v>9755134042.859993</v>
       </c>
       <c r="L141">
-        <v>6096337527.24</v>
+        <v>6096337527.240003</v>
       </c>
       <c r="M141">
-        <v>1870008618.74</v>
+        <v>1870008618.739999</v>
       </c>
       <c r="N141">
         <v>0</v>
       </c>
       <c r="O141">
-        <v>1870008618.74</v>
+        <v>1870008618.739999</v>
       </c>
       <c r="P141">
-        <v>4226328908.5</v>
+        <v>4226328908.500001</v>
       </c>
       <c r="Q141">
-        <v>4226328908.5</v>
+        <v>4226328908.500001</v>
       </c>
       <c r="R141">
         <v>755</v>
@@ -9606,10 +9616,10 @@
         <v>2957343190.26</v>
       </c>
       <c r="P143">
-        <v>4140375471.69</v>
+        <v>4140375471.690001</v>
       </c>
       <c r="Q143">
-        <v>4140375471.69</v>
+        <v>4140375471.690001</v>
       </c>
       <c r="R143">
         <v>433</v>
@@ -9708,16 +9718,16 @@
         </is>
       </c>
       <c r="H145">
-        <v>651673248.92</v>
+        <v>651673248.9200002</v>
       </c>
       <c r="I145">
-        <v>553922261.42</v>
+        <v>553922261.4200001</v>
       </c>
       <c r="J145">
         <v>0</v>
       </c>
       <c r="K145">
-        <v>97750987.5</v>
+        <v>97750987.49999997</v>
       </c>
       <c r="L145">
         <v>559653233.5599999</v>
@@ -9732,10 +9742,10 @@
         <v>475705248.03</v>
       </c>
       <c r="P145">
-        <v>83947985.53</v>
+        <v>83947985.53000002</v>
       </c>
       <c r="Q145">
-        <v>83947985.53</v>
+        <v>83947985.53000002</v>
       </c>
       <c r="R145">
         <v>198</v>
@@ -9803,7 +9813,7 @@
         <v>-5.820766091346741e-11</v>
       </c>
       <c r="Q146">
-        <v>21477223.62</v>
+        <v>21477223.61999999</v>
       </c>
       <c r="R146">
         <v>22</v>
@@ -9844,7 +9854,7 @@
         </is>
       </c>
       <c r="H147">
-        <v>905286132.3</v>
+        <v>905286132.2999998</v>
       </c>
       <c r="I147">
         <v>388766228.9</v>
@@ -9912,10 +9922,10 @@
         </is>
       </c>
       <c r="H148">
-        <v>9831635171.1</v>
+        <v>9831635171.099997</v>
       </c>
       <c r="I148">
-        <v>8105729400.97</v>
+        <v>8105729400.970006</v>
       </c>
       <c r="J148">
         <v>1498038093.78</v>
@@ -9924,22 +9934,22 @@
         <v>227867676.35</v>
       </c>
       <c r="L148">
-        <v>3986257279.03</v>
+        <v>3986257279.029999</v>
       </c>
       <c r="M148">
-        <v>3327674460.01</v>
+        <v>3327674460.009997</v>
       </c>
       <c r="N148">
         <v>543810396.35</v>
       </c>
       <c r="O148">
-        <v>3871484856.36</v>
+        <v>3871484856.359998</v>
       </c>
       <c r="P148">
         <v>114772422.67</v>
       </c>
       <c r="Q148">
-        <v>658582819.02</v>
+        <v>658582819.0199997</v>
       </c>
       <c r="R148">
         <v>359</v>
@@ -9983,7 +9993,7 @@
         <v>5326280092.85</v>
       </c>
       <c r="I149">
-        <v>2270613176.41</v>
+        <v>2270613176.409999</v>
       </c>
       <c r="J149">
         <v>0</v>
@@ -10004,10 +10014,10 @@
         <v>1867426602.97</v>
       </c>
       <c r="P149">
-        <v>2525053335.17</v>
+        <v>2525053335.169999</v>
       </c>
       <c r="Q149">
-        <v>2525053335.17</v>
+        <v>2525053335.169999</v>
       </c>
       <c r="R149">
         <v>519</v>
@@ -10048,10 +10058,10 @@
         </is>
       </c>
       <c r="H150">
-        <v>585346376.2</v>
+        <v>585346376.1999999</v>
       </c>
       <c r="I150">
-        <v>367079371.24</v>
+        <v>367079371.2400001</v>
       </c>
       <c r="J150">
         <v>23654561.6</v>
@@ -10184,28 +10194,28 @@
         </is>
       </c>
       <c r="H152">
-        <v>6533174158.84</v>
+        <v>6533174158.839999</v>
       </c>
       <c r="I152">
-        <v>3764638931.39</v>
+        <v>3764638931.389999</v>
       </c>
       <c r="J152">
         <v>44508804.34</v>
       </c>
       <c r="K152">
-        <v>2724026423.11</v>
+        <v>2724026423.109999</v>
       </c>
       <c r="L152">
         <v>4082678692.82</v>
       </c>
       <c r="M152">
-        <v>2306034035.42</v>
+        <v>2306034035.420001</v>
       </c>
       <c r="N152">
         <v>22653840.54</v>
       </c>
       <c r="O152">
-        <v>2328687875.96</v>
+        <v>2328687875.960001</v>
       </c>
       <c r="P152">
         <v>1753990816.86</v>
@@ -10252,10 +10262,10 @@
         </is>
       </c>
       <c r="H153">
-        <v>598653130.4400001</v>
+        <v>598653130.4399999</v>
       </c>
       <c r="I153">
-        <v>508855160.81</v>
+        <v>508855160.8099999</v>
       </c>
       <c r="J153">
         <v>89513269.63</v>
@@ -10273,13 +10283,13 @@
         <v>87741932.60000001</v>
       </c>
       <c r="O153">
-        <v>586559516.4400001</v>
+        <v>586559516.4399999</v>
       </c>
       <c r="P153">
-        <v>284699.9999999814</v>
+        <v>284699.9999999832</v>
       </c>
       <c r="Q153">
-        <v>88026632.59999999</v>
+        <v>88026632.60000001</v>
       </c>
       <c r="R153">
         <v>33</v>
@@ -10391,7 +10401,7 @@
         <v>1386606549.71</v>
       </c>
       <c r="I155">
-        <v>1319251899.39</v>
+        <v>1319251899.389999</v>
       </c>
       <c r="J155">
         <v>36173989.84</v>
@@ -10400,7 +10410,7 @@
         <v>31180660.48</v>
       </c>
       <c r="L155">
-        <v>528800085.47</v>
+        <v>528800085.4700001</v>
       </c>
       <c r="M155">
         <v>509858155.1</v>
@@ -10409,7 +10419,7 @@
         <v>13834231.87</v>
       </c>
       <c r="O155">
-        <v>523692386.97</v>
+        <v>523692386.9700001</v>
       </c>
       <c r="P155">
         <v>5107698.499999996</v>
@@ -10456,16 +10466,16 @@
         </is>
       </c>
       <c r="H156">
-        <v>314862255.92</v>
+        <v>314862255.9200001</v>
       </c>
       <c r="I156">
-        <v>279465482.74</v>
+        <v>279465482.7400001</v>
       </c>
       <c r="J156">
         <v>16499840.75</v>
       </c>
       <c r="K156">
-        <v>18896932.43</v>
+        <v>18896932.42999999</v>
       </c>
       <c r="L156">
         <v>165174264.33</v>
@@ -10480,7 +10490,7 @@
         <v>155343944.09</v>
       </c>
       <c r="P156">
-        <v>9830320.24</v>
+        <v>9830320.240000002</v>
       </c>
       <c r="Q156">
         <v>19609361.5</v>
@@ -10524,13 +10534,13 @@
         </is>
       </c>
       <c r="H157">
-        <v>6010675514.11</v>
+        <v>6010675514.109998</v>
       </c>
       <c r="I157">
-        <v>5585279303.34</v>
+        <v>5585279303.340004</v>
       </c>
       <c r="J157">
-        <v>249714213.89</v>
+        <v>249714213.8899999</v>
       </c>
       <c r="K157">
         <v>175681996.88</v>
@@ -10539,13 +10549,13 @@
         <v>3670622787.87</v>
       </c>
       <c r="M157">
-        <v>3396063465.34</v>
+        <v>3396063465.339999</v>
       </c>
       <c r="N157">
         <v>172631861.42</v>
       </c>
       <c r="O157">
-        <v>3568695326.76</v>
+        <v>3568695326.760002</v>
       </c>
       <c r="P157">
         <v>101927461.11</v>
@@ -10595,31 +10605,31 @@
         <v>1149767989.03</v>
       </c>
       <c r="I158">
-        <v>746290630.91</v>
+        <v>746290630.9099998</v>
       </c>
       <c r="J158">
-        <v>390391808.82</v>
+        <v>390391808.8200004</v>
       </c>
       <c r="K158">
         <v>13085549.3</v>
       </c>
       <c r="L158">
-        <v>579322899.23</v>
+        <v>579322899.2299999</v>
       </c>
       <c r="M158">
         <v>356249996.22</v>
       </c>
       <c r="N158">
-        <v>219726323.28</v>
+        <v>219726323.2799999</v>
       </c>
       <c r="O158">
-        <v>575976319.5</v>
+        <v>575976319.4999999</v>
       </c>
       <c r="P158">
-        <v>3346579.729999997</v>
+        <v>3346579.729999999</v>
       </c>
       <c r="Q158">
-        <v>223072903.01</v>
+        <v>223072903.0099998</v>
       </c>
       <c r="R158">
         <v>627</v>
@@ -10721,7 +10731,7 @@
         <v>1408751778.51</v>
       </c>
       <c r="I160">
-        <v>1233418481.79</v>
+        <v>1233418481.789999</v>
       </c>
       <c r="J160">
         <v>148955531.53</v>
@@ -10730,10 +10740,10 @@
         <v>26377765.19</v>
       </c>
       <c r="L160">
-        <v>824017390.2</v>
+        <v>824017390.1999999</v>
       </c>
       <c r="M160">
-        <v>747857806.5</v>
+        <v>747857806.5000001</v>
       </c>
       <c r="N160">
         <v>69943217.55</v>
@@ -10792,7 +10802,7 @@
         <v>1389246042.95</v>
       </c>
       <c r="J161">
-        <v>262591784.2</v>
+        <v>262591784.2000001</v>
       </c>
       <c r="K161">
         <v>11400478.38</v>
@@ -10801,19 +10811,19 @@
         <v>1068126581.46</v>
       </c>
       <c r="M161">
-        <v>894579843.67</v>
+        <v>894579843.6700002</v>
       </c>
       <c r="N161">
-        <v>166479005.06</v>
+        <v>166479005.0599999</v>
       </c>
       <c r="O161">
         <v>1061058848.73</v>
       </c>
       <c r="P161">
-        <v>7067732.729999997</v>
+        <v>7067732.729999995</v>
       </c>
       <c r="Q161">
-        <v>173546737.79</v>
+        <v>173546737.7899999</v>
       </c>
       <c r="R161">
         <v>213</v>
@@ -10854,34 +10864,34 @@
         </is>
       </c>
       <c r="H162">
-        <v>4823111269.3875</v>
+        <v>4830680782.824998</v>
       </c>
       <c r="I162">
-        <v>4099644578.471</v>
+        <v>4106078664.889999</v>
       </c>
       <c r="J162">
-        <v>723466690.9165</v>
+        <v>724602117.9349996</v>
       </c>
       <c r="K162">
         <v>0</v>
       </c>
       <c r="L162">
-        <v>4042679080.445</v>
+        <v>4050112735.590001</v>
       </c>
       <c r="M162">
-        <v>3436277217.3646</v>
+        <v>3442595824.232001</v>
       </c>
       <c r="N162">
-        <v>606401863.0804</v>
+        <v>607516911.3580002</v>
       </c>
       <c r="O162">
-        <v>4042679080.445</v>
+        <v>4050112735.590001</v>
       </c>
       <c r="P162">
-        <v>2.305023372173309e-08</v>
+        <v>2.444721758365631e-08</v>
       </c>
       <c r="Q162">
-        <v>606401863.0804</v>
+        <v>607516911.3580003</v>
       </c>
       <c r="R162">
         <v>278</v>
@@ -10922,34 +10932,34 @@
         </is>
       </c>
       <c r="H163">
-        <v>406484468.03</v>
+        <v>407480575.8699999</v>
       </c>
       <c r="I163">
-        <v>386160244.472</v>
+        <v>387106546.9199999</v>
       </c>
       <c r="J163">
-        <v>20324223.558</v>
+        <v>20374028.95000001</v>
       </c>
       <c r="K163">
         <v>0</v>
       </c>
       <c r="L163">
-        <v>355055803.86</v>
+        <v>355125086.6100001</v>
       </c>
       <c r="M163">
-        <v>337303013.4025</v>
+        <v>337368832.0150001</v>
       </c>
       <c r="N163">
-        <v>17752790.4575</v>
+        <v>17756254.595</v>
       </c>
       <c r="O163">
-        <v>355055803.86</v>
+        <v>355125086.6100001</v>
       </c>
       <c r="P163">
         <v>6.693881005048752e-10</v>
       </c>
       <c r="Q163">
-        <v>17752790.4575</v>
+        <v>17756254.595</v>
       </c>
       <c r="R163">
         <v>208</v>
@@ -10990,34 +11000,34 @@
         </is>
       </c>
       <c r="H164">
-        <v>1416781640.738012</v>
+        <v>1573747974.128117</v>
       </c>
       <c r="I164">
-        <v>1204264394.5477</v>
+        <v>1337685777.922</v>
       </c>
       <c r="J164">
-        <v>212517246.1903118</v>
+        <v>236062196.2061177</v>
       </c>
       <c r="K164">
         <v>0</v>
       </c>
       <c r="L164">
-        <v>50518078.379327</v>
+        <v>56131198.19962611</v>
       </c>
       <c r="M164">
-        <v>42940366.62242795</v>
+        <v>47711518.46968219</v>
       </c>
       <c r="N164">
-        <v>7577711.75689905</v>
+        <v>8419679.729943916</v>
       </c>
       <c r="O164">
-        <v>50518078.379327</v>
+        <v>56131198.19962611</v>
       </c>
       <c r="P164">
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>7577711.756899049</v>
+        <v>8419679.729943916</v>
       </c>
       <c r="R164">
         <v>43</v>
@@ -11093,7 +11103,7 @@
         </is>
       </c>
       <c r="C166">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11140,7 +11150,7 @@
         <v>260966429.39</v>
       </c>
       <c r="P166">
-        <v>1408460.810000005</v>
+        <v>1408460.810000007</v>
       </c>
       <c r="Q166">
         <v>39465018.83</v>
@@ -11161,7 +11171,7 @@
         </is>
       </c>
       <c r="C167">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11184,34 +11194,34 @@
         </is>
       </c>
       <c r="H167">
-        <v>2517175931.65</v>
+        <v>2517175931.650002</v>
       </c>
       <c r="I167">
         <v>1845331915.82</v>
       </c>
       <c r="J167">
-        <v>669605532.6799999</v>
+        <v>669605532.6799997</v>
       </c>
       <c r="K167">
         <v>2238483.15</v>
       </c>
       <c r="L167">
-        <v>2019757478.45</v>
+        <v>2019757478.450001</v>
       </c>
       <c r="M167">
         <v>1483573595.37</v>
       </c>
       <c r="N167">
-        <v>533949855.83</v>
+        <v>533949855.8299997</v>
       </c>
       <c r="O167">
-        <v>2017523451.2</v>
+        <v>2017523451.200001</v>
       </c>
       <c r="P167">
-        <v>2234027.249999999</v>
+        <v>2234027.250000001</v>
       </c>
       <c r="Q167">
-        <v>536183883.08</v>
+        <v>536183883.0799996</v>
       </c>
       <c r="R167">
         <v>722</v>
@@ -11229,7 +11239,7 @@
         </is>
       </c>
       <c r="C168">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11276,7 +11286,7 @@
         <v>148240801.1</v>
       </c>
       <c r="P168">
-        <v>6.05359673500061e-09</v>
+        <v>5.122274160385132e-09</v>
       </c>
       <c r="Q168">
         <v>25592554.34</v>
@@ -11297,7 +11307,7 @@
         </is>
       </c>
       <c r="C169">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11320,34 +11330,34 @@
         </is>
       </c>
       <c r="H169">
-        <v>495154099.8975</v>
+        <v>502723613.335</v>
       </c>
       <c r="I169">
-        <v>420880984.891</v>
+        <v>427315071.3099999</v>
       </c>
       <c r="J169">
-        <v>74273115.00650001</v>
+        <v>75408542.02499999</v>
       </c>
       <c r="K169">
         <v>0</v>
       </c>
       <c r="L169">
-        <v>449463046.085</v>
+        <v>456896701.23</v>
       </c>
       <c r="M169">
-        <v>382043589.0906</v>
+        <v>388362195.958</v>
       </c>
       <c r="N169">
-        <v>67419456.99440001</v>
+        <v>68534505.27200001</v>
       </c>
       <c r="O169">
-        <v>449463046.085</v>
+        <v>456896701.23</v>
       </c>
       <c r="P169">
-        <v>-1.816079020500183e-08</v>
+        <v>-1.676380634307861e-08</v>
       </c>
       <c r="Q169">
-        <v>67419456.99439999</v>
+        <v>68534505.272</v>
       </c>
       <c r="R169">
         <v>20</v>
@@ -11388,34 +11398,34 @@
         </is>
       </c>
       <c r="H170">
-        <v>17254353.3</v>
+        <v>18250461.14</v>
       </c>
       <c r="I170">
-        <v>16391635.622</v>
+        <v>17337938.07</v>
       </c>
       <c r="J170">
-        <v>862717.678</v>
+        <v>912523.0699999999</v>
       </c>
       <c r="K170">
         <v>0</v>
       </c>
       <c r="L170">
-        <v>15104998.58</v>
+        <v>15174281.33</v>
       </c>
       <c r="M170">
-        <v>14349748.6225</v>
+        <v>14415567.235</v>
       </c>
       <c r="N170">
-        <v>755249.9575</v>
+        <v>758714.095</v>
       </c>
       <c r="O170">
-        <v>15104998.58</v>
+        <v>15174281.33</v>
       </c>
       <c r="P170">
         <v>5.238689482212067e-10</v>
       </c>
       <c r="Q170">
-        <v>755249.9575000003</v>
+        <v>758714.0950000001</v>
       </c>
       <c r="R170">
         <v>20</v>
@@ -11456,34 +11466,34 @@
         </is>
       </c>
       <c r="H171">
-        <v>115502300.2117765</v>
+        <v>272468633.6018823</v>
       </c>
       <c r="I171">
-        <v>98176955.17369999</v>
+        <v>231598338.5479999</v>
       </c>
       <c r="J171">
-        <v>17325345.03807647</v>
+        <v>40870295.05388237</v>
       </c>
       <c r="K171">
         <v>0</v>
       </c>
       <c r="L171">
-        <v>623679.9800747781</v>
+        <v>6236799.80037389</v>
       </c>
       <c r="M171">
-        <v>530127.9830635614</v>
+        <v>5301279.830317807</v>
       </c>
       <c r="N171">
-        <v>93551.99701121674</v>
+        <v>935519.9700560836</v>
       </c>
       <c r="O171">
-        <v>623679.9800747781</v>
+        <v>6236799.80037389</v>
       </c>
       <c r="P171">
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>93551.99701121672</v>
+        <v>935519.9700560835</v>
       </c>
       <c r="R171">
         <v>40</v>
@@ -11501,7 +11511,7 @@
         </is>
       </c>
       <c r="C172">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11524,7 +11534,7 @@
         </is>
       </c>
       <c r="H172">
-        <v>3588144817.36</v>
+        <v>3588144817.360001</v>
       </c>
       <c r="I172">
         <v>3048773666.82</v>
@@ -11542,7 +11552,7 @@
         <v>1595337356.3</v>
       </c>
       <c r="N172">
-        <v>153430940.88</v>
+        <v>153430940.8799999</v>
       </c>
       <c r="O172">
         <v>1748768297.18</v>
@@ -11795,25 +11805,25 @@
         <v>1881837568.37</v>
       </c>
       <c r="K176">
-        <v>394211234.98</v>
+        <v>394211234.9800002</v>
       </c>
       <c r="L176">
-        <v>8287583119.21</v>
+        <v>8287583119.210001</v>
       </c>
       <c r="M176">
-        <v>7044445647.16</v>
+        <v>7044445647.160006</v>
       </c>
       <c r="N176">
         <v>1033633036.03</v>
       </c>
       <c r="O176">
-        <v>8078078683.19</v>
+        <v>8078078683.190001</v>
       </c>
       <c r="P176">
-        <v>209504436.02</v>
+        <v>209504436.0200001</v>
       </c>
       <c r="Q176">
-        <v>1243137472.05</v>
+        <v>1243137472.050001</v>
       </c>
       <c r="R176">
         <v>246</v>
@@ -11860,7 +11870,7 @@
         <v>195957972.67</v>
       </c>
       <c r="J177">
-        <v>34580818.73</v>
+        <v>34580818.72999999</v>
       </c>
       <c r="K177">
         <v>0</v>
@@ -11872,16 +11882,16 @@
         <v>186493044.53</v>
       </c>
       <c r="N177">
-        <v>32910537.43</v>
+        <v>32910537.42999998</v>
       </c>
       <c r="O177">
         <v>219403581.96</v>
       </c>
       <c r="P177">
-        <v>-9.895302355289459e-10</v>
+        <v>-9.313225746154785e-10</v>
       </c>
       <c r="Q177">
-        <v>32910537.43</v>
+        <v>32910537.42999998</v>
       </c>
       <c r="R177">
         <v>187</v>
@@ -11922,37 +11932,37 @@
         </is>
       </c>
       <c r="H178">
-        <v>4450651992.29</v>
+        <v>4452430834.229999</v>
       </c>
       <c r="I178">
-        <v>4228119388.6</v>
+        <v>4229809288.439996</v>
       </c>
       <c r="J178">
-        <v>189007502.14</v>
+        <v>189096444.2400001</v>
       </c>
       <c r="K178">
-        <v>33525101.55</v>
+        <v>33525101.54999999</v>
       </c>
       <c r="L178">
         <v>3190201093.84</v>
       </c>
       <c r="M178">
-        <v>3030691034.33</v>
+        <v>3030691034.329996</v>
       </c>
       <c r="N178">
         <v>136296862.04</v>
       </c>
       <c r="O178">
-        <v>3166987896.37</v>
+        <v>3166987896.370001</v>
       </c>
       <c r="P178">
-        <v>23213197.47</v>
+        <v>23213197.47000001</v>
       </c>
       <c r="Q178">
-        <v>159510059.51</v>
+        <v>159510059.5099999</v>
       </c>
       <c r="R178">
-        <v>1955</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="179">
@@ -11990,10 +12000,10 @@
         </is>
       </c>
       <c r="H179">
-        <v>2358311683.59</v>
+        <v>2358311683.589999</v>
       </c>
       <c r="I179">
-        <v>2240396098.77</v>
+        <v>2240396098.769999</v>
       </c>
       <c r="J179">
         <v>0</v>
@@ -12002,7 +12012,7 @@
         <v>117915584.82</v>
       </c>
       <c r="L179">
-        <v>1388856523.19</v>
+        <v>1388856523.189999</v>
       </c>
       <c r="M179">
         <v>1319413693.07</v>
@@ -12014,10 +12024,10 @@
         <v>1319413693.07</v>
       </c>
       <c r="P179">
-        <v>69442830.12</v>
+        <v>69442830.12000005</v>
       </c>
       <c r="Q179">
-        <v>69442830.12</v>
+        <v>69442830.12000005</v>
       </c>
       <c r="R179">
         <v>301</v>
@@ -12078,7 +12088,7 @@
         <v>0</v>
       </c>
       <c r="R180">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="181">
@@ -12140,7 +12150,7 @@
         <v>1804384043.97</v>
       </c>
       <c r="P181">
-        <v>7.470953278243542e-08</v>
+        <v>8.961069397628307e-08</v>
       </c>
       <c r="Q181">
         <v>270657607.53</v>
@@ -12184,34 +12194,34 @@
         </is>
       </c>
       <c r="H182">
-        <v>2768074230.237862</v>
+        <v>2779614322.210584</v>
       </c>
       <c r="I182">
-        <v>2246292237.716757</v>
+        <v>2255657022.339801</v>
       </c>
       <c r="J182">
-        <v>521781992.5211049</v>
+        <v>523957299.8707828</v>
       </c>
       <c r="K182">
         <v>0</v>
       </c>
       <c r="L182">
-        <v>2291788476.702458</v>
+        <v>2297024476.354499</v>
       </c>
       <c r="M182">
-        <v>1859786347.802895</v>
+        <v>1864035361.381877</v>
       </c>
       <c r="N182">
-        <v>432002128.8995635</v>
+        <v>432989114.972622</v>
       </c>
       <c r="O182">
-        <v>2291788476.702458</v>
+        <v>2297024476.354499</v>
       </c>
       <c r="P182">
-        <v>-1.072832947834312e-08</v>
+        <v>4.089291905843851e-09</v>
       </c>
       <c r="Q182">
-        <v>432002128.8995635</v>
+        <v>432989114.972622</v>
       </c>
       <c r="R182">
         <v>25</v>
@@ -12252,34 +12262,34 @@
         </is>
       </c>
       <c r="H183">
-        <v>854071.3126052194</v>
+        <v>5326903.596482877</v>
       </c>
       <c r="I183">
-        <v>693078.8686242501</v>
+        <v>4322782.257952955</v>
       </c>
       <c r="J183">
-        <v>160992.4439809693</v>
+        <v>1004121.338529922</v>
       </c>
       <c r="K183">
         <v>0</v>
       </c>
       <c r="L183">
-        <v>240552.2678602103</v>
+        <v>1713884.504305943</v>
       </c>
       <c r="M183">
-        <v>195208.1513727662</v>
+        <v>1390817.173821205</v>
       </c>
       <c r="N183">
-        <v>45344.11648744411</v>
+        <v>323067.3304847384</v>
       </c>
       <c r="O183">
-        <v>240552.2678602103</v>
+        <v>1713884.504305943</v>
       </c>
       <c r="P183">
-        <v>-2.074387163019577e-11</v>
+        <v>-1.36700691838433e-10</v>
       </c>
       <c r="Q183">
-        <v>45344.11648744409</v>
+        <v>323067.3304847383</v>
       </c>
       <c r="R183">
         <v>6</v>
@@ -12320,34 +12330,34 @@
         </is>
       </c>
       <c r="H184">
-        <v>2493912236.804373</v>
+        <v>2503186510.002429</v>
       </c>
       <c r="I184">
-        <v>2053050901.1368</v>
+        <v>2060685714.69</v>
       </c>
       <c r="J184">
-        <v>440861335.667573</v>
+        <v>442500795.3124294</v>
       </c>
       <c r="K184">
         <v>0</v>
       </c>
       <c r="L184">
-        <v>1814052445.104013</v>
+        <v>1814929043.71423</v>
       </c>
       <c r="M184">
-        <v>1493373323.92544</v>
+        <v>1494094961.809189</v>
       </c>
       <c r="N184">
-        <v>320679121.1785731</v>
+        <v>320834081.9050406</v>
       </c>
       <c r="O184">
-        <v>1814052445.104013</v>
+        <v>1814929043.71423</v>
       </c>
       <c r="P184">
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>320679121.1785731</v>
+        <v>320834081.9050406</v>
       </c>
       <c r="R184">
         <v>3</v>
@@ -12388,34 +12398,34 @@
         </is>
       </c>
       <c r="H185">
-        <v>1386549434.198917</v>
+        <v>1433741977.476442</v>
       </c>
       <c r="I185">
-        <v>1178567019.06512</v>
+        <v>1218680680.850996</v>
       </c>
       <c r="J185">
-        <v>207982415.1337969</v>
+        <v>215061296.6254459</v>
       </c>
       <c r="K185">
         <v>0</v>
       </c>
       <c r="L185">
-        <v>667043452.7020456</v>
+        <v>676695220.5491511</v>
       </c>
       <c r="M185">
-        <v>566986934.3596168</v>
+        <v>575190936.9125552</v>
       </c>
       <c r="N185">
-        <v>100056518.3424289</v>
+        <v>101504283.6365959</v>
       </c>
       <c r="O185">
-        <v>667043452.7020457</v>
+        <v>676695220.5491511</v>
       </c>
       <c r="P185">
         <v>-5.960464477539062e-08</v>
       </c>
       <c r="Q185">
-        <v>100056518.3424288</v>
+        <v>101504283.6365959</v>
       </c>
       <c r="R185">
         <v>3</v>
@@ -12462,7 +12472,7 @@
         <v>2417138311.45</v>
       </c>
       <c r="J186">
-        <v>426553819.68</v>
+        <v>426553819.6799999</v>
       </c>
       <c r="K186">
         <v>0</v>
@@ -12483,7 +12493,7 @@
         <v>5.238689482212067e-10</v>
       </c>
       <c r="Q186">
-        <v>290540226.56</v>
+        <v>290540226.5600001</v>
       </c>
       <c r="R186">
         <v>48</v>
@@ -12524,19 +12534,19 @@
         </is>
       </c>
       <c r="H187">
-        <v>2680630366.32</v>
+        <v>2690312336.090001</v>
       </c>
       <c r="I187">
-        <v>2278535811.3</v>
+        <v>2286765485.6</v>
       </c>
       <c r="J187">
-        <v>402094555.02</v>
+        <v>403546850.49</v>
       </c>
       <c r="K187">
         <v>0</v>
       </c>
       <c r="L187">
-        <v>2177986953.56</v>
+        <v>2177986953.559999</v>
       </c>
       <c r="M187">
         <v>1851288904.61</v>
@@ -12545,16 +12555,16 @@
         <v>326698048.95</v>
       </c>
       <c r="O187">
-        <v>2177986953.56</v>
+        <v>2177986953.559999</v>
       </c>
       <c r="P187">
-        <v>1.282896846532822e-07</v>
+        <v>2.465676516294479e-07</v>
       </c>
       <c r="Q187">
-        <v>326698048.95</v>
+        <v>326698048.9500002</v>
       </c>
       <c r="R187">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="188">
@@ -12592,34 +12602,34 @@
         </is>
       </c>
       <c r="H188">
-        <v>101238534.65</v>
+        <v>202477069.4</v>
       </c>
       <c r="I188">
-        <v>50619267.325</v>
+        <v>101238534.7</v>
       </c>
       <c r="J188">
-        <v>50619267.325</v>
+        <v>101238534.7</v>
       </c>
       <c r="K188">
         <v>0</v>
       </c>
       <c r="L188">
-        <v>60990270.40975587</v>
+        <v>121980540.8797559</v>
       </c>
       <c r="M188">
-        <v>30495135.19737794</v>
+        <v>60990270.42487793</v>
       </c>
       <c r="N188">
-        <v>30495135.21237794</v>
+        <v>60990270.45487794</v>
       </c>
       <c r="O188">
-        <v>60990270.40975587</v>
+        <v>121980540.8797559</v>
       </c>
       <c r="P188">
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>30495135.21237794</v>
+        <v>60990270.45487794</v>
       </c>
       <c r="R188">
         <v>1</v>
@@ -12660,37 +12670,37 @@
         </is>
       </c>
       <c r="H189">
-        <v>2231774314.375523</v>
+        <v>2264347681.359999</v>
       </c>
       <c r="I189">
-        <v>1897008167.030486</v>
+        <v>1924695528.963724</v>
       </c>
       <c r="J189">
-        <v>334766147.3450372</v>
+        <v>339652152.3962746</v>
       </c>
       <c r="K189">
         <v>0</v>
       </c>
       <c r="L189">
-        <v>1614107736.222858</v>
+        <v>1621288507.118328</v>
       </c>
       <c r="M189">
-        <v>1371991574.247558</v>
+        <v>1378095229.452004</v>
       </c>
       <c r="N189">
-        <v>242116161.9753</v>
+        <v>243193277.6663242</v>
       </c>
       <c r="O189">
-        <v>1614107736.222858</v>
+        <v>1621288507.118328</v>
       </c>
       <c r="P189">
-        <v>5.890615280089231e-10</v>
+        <v>2.107117324777276e-09</v>
       </c>
       <c r="Q189">
-        <v>242116161.9753</v>
+        <v>243193277.6663242</v>
       </c>
       <c r="R189">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="190">
@@ -12728,34 +12738,34 @@
         </is>
       </c>
       <c r="H190">
-        <v>1608062163.86</v>
+        <v>1609333890.58</v>
       </c>
       <c r="I190">
-        <v>1366852839.058</v>
+        <v>1367933806.77</v>
       </c>
       <c r="J190">
-        <v>241209324.802</v>
+        <v>241400083.81</v>
       </c>
       <c r="K190">
         <v>0</v>
       </c>
       <c r="L190">
-        <v>1308912581.0088</v>
+        <v>1309859507.995999</v>
       </c>
       <c r="M190">
-        <v>1112575692.2676</v>
+        <v>1113380580.202</v>
       </c>
       <c r="N190">
-        <v>196336888.7412</v>
+        <v>196478927.794</v>
       </c>
       <c r="O190">
-        <v>1308912581.0088</v>
+        <v>1309859507.995999</v>
       </c>
       <c r="P190">
-        <v>5.988404154777527e-09</v>
+        <v>4.98257577419281e-09</v>
       </c>
       <c r="Q190">
-        <v>196336888.7412</v>
+        <v>196478927.7940001</v>
       </c>
       <c r="R190">
         <v>97</v>
@@ -12811,7 +12821,7 @@
         <v>1074064235.11</v>
       </c>
       <c r="M191">
-        <v>912954599.5600001</v>
+        <v>912954599.5600002</v>
       </c>
       <c r="N191">
         <v>161109635.55</v>
@@ -12876,19 +12886,19 @@
         <v>0</v>
       </c>
       <c r="L192">
-        <v>974960699.64</v>
+        <v>974960699.6400002</v>
       </c>
       <c r="M192">
-        <v>828716593.0599999</v>
+        <v>828716593.0599997</v>
       </c>
       <c r="N192">
         <v>146244106.58</v>
       </c>
       <c r="O192">
-        <v>974960699.64</v>
+        <v>974960699.6400002</v>
       </c>
       <c r="P192">
-        <v>1.80443748831749e-08</v>
+        <v>2.456363290548325e-08</v>
       </c>
       <c r="Q192">
         <v>146244106.58</v>
@@ -12952,7 +12962,7 @@
         <v>0</v>
       </c>
       <c r="R193">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="194">
@@ -13010,7 +13020,7 @@
         <v>0</v>
       </c>
       <c r="R194">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="195">
@@ -13174,34 +13184,34 @@
         </is>
       </c>
       <c r="H197">
-        <v>206533068.916424</v>
+        <v>213964784.3678132</v>
       </c>
       <c r="I197">
-        <v>167601585.4180915</v>
+        <v>173632422.5039601</v>
       </c>
       <c r="J197">
-        <v>38931483.49833251</v>
+        <v>40332361.86385304</v>
       </c>
       <c r="K197">
         <v>0</v>
       </c>
       <c r="L197">
-        <v>120778060.5375524</v>
+        <v>124602441.2586375</v>
       </c>
       <c r="M197">
-        <v>98011395.92021702</v>
+        <v>101114880.8381107</v>
       </c>
       <c r="N197">
-        <v>22766664.61733542</v>
+        <v>23487560.42052675</v>
       </c>
       <c r="O197">
-        <v>120778060.5375524</v>
+        <v>124602441.2586375</v>
       </c>
       <c r="P197">
-        <v>-2.686400010507716e-12</v>
+        <v>-4.051253230418807e-11</v>
       </c>
       <c r="Q197">
-        <v>22766664.61733542</v>
+        <v>23487560.42052675</v>
       </c>
       <c r="R197">
         <v>9</v>
@@ -13242,34 +13252,34 @@
         </is>
       </c>
       <c r="H198">
-        <v>92847.08830084928</v>
+        <v>1366703.032790607</v>
       </c>
       <c r="I198">
-        <v>75345.41202267144</v>
+        <v>1109079.509010328</v>
       </c>
       <c r="J198">
-        <v>17501.67627817784</v>
+        <v>257623.5237802794</v>
       </c>
       <c r="K198">
         <v>0</v>
       </c>
       <c r="L198">
-        <v>32728.36072864148</v>
+        <v>474226.5091641049</v>
       </c>
       <c r="M198">
-        <v>26559.06326332545</v>
+        <v>384834.790966906</v>
       </c>
       <c r="N198">
-        <v>6169.297465316027</v>
+        <v>89391.71819719886</v>
       </c>
       <c r="O198">
-        <v>32728.36072864148</v>
+        <v>474226.5091641049</v>
       </c>
       <c r="P198">
-        <v>-3.692228397471989e-12</v>
+        <v>-5.727633870042965e-11</v>
       </c>
       <c r="Q198">
-        <v>6169.297465316025</v>
+        <v>89391.71819719883</v>
       </c>
       <c r="R198">
         <v>3</v>
@@ -13378,34 +13388,34 @@
         </is>
       </c>
       <c r="H200">
-        <v>1145990.441005943</v>
+        <v>15763279.79132719</v>
       </c>
       <c r="I200">
-        <v>974091.8748550513</v>
+        <v>13398787.82262811</v>
       </c>
       <c r="J200">
-        <v>171898.5661508914</v>
+        <v>2364491.968699078</v>
       </c>
       <c r="K200">
         <v>0</v>
       </c>
       <c r="L200">
-        <v>222618.3633435677</v>
+        <v>3062150.802053501</v>
       </c>
       <c r="M200">
-        <v>189225.605824132</v>
+        <v>2602828.140233776</v>
       </c>
       <c r="N200">
-        <v>33392.75751943575</v>
+        <v>459322.6618197252</v>
       </c>
       <c r="O200">
-        <v>222618.3633435677</v>
+        <v>3062150.802053501</v>
       </c>
       <c r="P200">
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>33392.75751943573</v>
+        <v>459322.661819725</v>
       </c>
       <c r="R200">
         <v>1</v>
@@ -13582,34 +13592,34 @@
         </is>
       </c>
       <c r="H203">
-        <v>101238534.85</v>
+        <v>202477069.6</v>
       </c>
       <c r="I203">
-        <v>50619267.42500001</v>
+        <v>101238534.8</v>
       </c>
       <c r="J203">
-        <v>50619267.42500001</v>
+        <v>101238534.8</v>
       </c>
       <c r="K203">
         <v>0</v>
       </c>
       <c r="L203">
-        <v>60990270.53024413</v>
+        <v>121980541.0002441</v>
       </c>
       <c r="M203">
-        <v>30495135.25762206</v>
+        <v>60990270.48512206</v>
       </c>
       <c r="N203">
-        <v>30495135.27262206</v>
+        <v>60990270.51512206</v>
       </c>
       <c r="O203">
-        <v>60990270.53024413</v>
+        <v>121980541.0002441</v>
       </c>
       <c r="P203">
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>30495135.27262206</v>
+        <v>60990270.51512206</v>
       </c>
       <c r="R203">
         <v>1</v>
@@ -13650,34 +13660,34 @@
         </is>
       </c>
       <c r="H204">
-        <v>111700026.6055257</v>
+        <v>121161963.5900013</v>
       </c>
       <c r="I204">
-        <v>94945022.59303807</v>
+        <v>102987669.0262761</v>
       </c>
       <c r="J204">
-        <v>16755004.0124876</v>
+        <v>18174294.5637252</v>
       </c>
       <c r="K204">
         <v>0</v>
       </c>
       <c r="L204">
-        <v>77045810.88620149</v>
+        <v>84226581.78167167</v>
       </c>
       <c r="M204">
-        <v>65488938.66355001</v>
+        <v>71592593.86799595</v>
       </c>
       <c r="N204">
-        <v>11556872.22265147</v>
+        <v>12633987.91367575</v>
       </c>
       <c r="O204">
-        <v>77045810.88620149</v>
+        <v>84226581.78167167</v>
       </c>
       <c r="P204">
-        <v>-3.073364494779857e-10</v>
+        <v>2.142041921905845e-09</v>
       </c>
       <c r="Q204">
-        <v>11556872.22265147</v>
+        <v>12633987.91367576</v>
       </c>
       <c r="R204">
         <v>17</v>
@@ -13718,34 +13728,34 @@
         </is>
       </c>
       <c r="H205">
-        <v>36690648.16</v>
+        <v>37962374.88</v>
       </c>
       <c r="I205">
-        <v>31187050.918</v>
+        <v>32268018.63</v>
       </c>
       <c r="J205">
-        <v>5503597.242</v>
+        <v>5694356.25</v>
       </c>
       <c r="K205">
         <v>0</v>
       </c>
       <c r="L205">
-        <v>29443546.3568</v>
+        <v>30390473.344</v>
       </c>
       <c r="M205">
-        <v>25027014.3536</v>
+        <v>25831902.288</v>
       </c>
       <c r="N205">
-        <v>4416532.0032</v>
+        <v>4558571.056</v>
       </c>
       <c r="O205">
-        <v>29443546.3568</v>
+        <v>30390473.344</v>
       </c>
       <c r="P205">
-        <v>9.778887033462524e-11</v>
+        <v>1.885928213596344e-09</v>
       </c>
       <c r="Q205">
-        <v>4416532.0032</v>
+        <v>4558571.056000002</v>
       </c>
       <c r="R205">
         <v>9</v>
@@ -13912,34 +13922,34 @@
         </is>
       </c>
       <c r="H208">
-        <v>1380204.808324281</v>
+        <v>6693606.62160269</v>
       </c>
       <c r="I208">
-        <v>1120036.199643951</v>
+        <v>5431861.760738432</v>
       </c>
       <c r="J208">
-        <v>260168.6086803297</v>
+        <v>1261744.860864257</v>
       </c>
       <c r="K208">
         <v>0</v>
       </c>
       <c r="L208">
-        <v>426012.9756595565</v>
+        <v>2188111.009063119</v>
       </c>
       <c r="M208">
-        <v>345709.5074334556</v>
+        <v>1775651.961211888</v>
       </c>
       <c r="N208">
-        <v>80303.46822610102</v>
+        <v>412459.0478512308</v>
       </c>
       <c r="O208">
-        <v>426012.9756595566</v>
+        <v>2188111.009063119</v>
       </c>
       <c r="P208">
-        <v>-4.166649865486974e-11</v>
+        <v>-1.939770295452899e-10</v>
       </c>
       <c r="Q208">
-        <v>80303.468226101</v>
+        <v>412459.0478512308</v>
       </c>
       <c r="R208">
         <v>6</v>
@@ -13980,34 +13990,34 @@
         </is>
       </c>
       <c r="H209">
-        <v>73668268.20181794</v>
+        <v>78501409.36072651</v>
       </c>
       <c r="I209">
-        <v>59781799.61671523</v>
+        <v>63703893.65853671</v>
       </c>
       <c r="J209">
-        <v>13886468.58510271</v>
+        <v>14797515.7021898</v>
       </c>
       <c r="K209">
         <v>0</v>
       </c>
       <c r="L209">
-        <v>56422091.71709456</v>
+        <v>57930566.13432995</v>
       </c>
       <c r="M209">
-        <v>45786527.28653695</v>
+        <v>47010654.20401189</v>
       </c>
       <c r="N209">
-        <v>10635564.4305576</v>
+        <v>10919911.93031806</v>
       </c>
       <c r="O209">
-        <v>56422091.71709456</v>
+        <v>57930566.13432995</v>
       </c>
       <c r="P209">
-        <v>-2.199565638786252e-10</v>
+        <v>-4.157482175297085e-10</v>
       </c>
       <c r="Q209">
-        <v>10635564.4305576</v>
+        <v>10919911.93031806</v>
       </c>
       <c r="R209">
         <v>8</v>
@@ -14048,34 +14058,34 @@
         </is>
       </c>
       <c r="H210">
-        <v>107631474.7995141</v>
+        <v>116905747.9975705</v>
       </c>
       <c r="I210">
-        <v>88604920.83679999</v>
+        <v>96239734.39</v>
       </c>
       <c r="J210">
-        <v>19026553.96271411</v>
+        <v>20666013.60757053</v>
       </c>
       <c r="K210">
         <v>0</v>
       </c>
       <c r="L210">
-        <v>20598011.11555407</v>
+        <v>21474609.72577037</v>
       </c>
       <c r="M210">
-        <v>16956797.55706219</v>
+        <v>17678435.44081096</v>
       </c>
       <c r="N210">
-        <v>3641213.558491881</v>
+        <v>3796174.284959407</v>
       </c>
       <c r="O210">
-        <v>20598011.11555407</v>
+        <v>21474609.72577037</v>
       </c>
       <c r="P210">
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>3641213.558491881</v>
+        <v>3796174.284959406</v>
       </c>
       <c r="R210">
         <v>2</v>
@@ -14116,34 +14126,34 @@
         </is>
       </c>
       <c r="H211">
-        <v>9870673.542033385</v>
+        <v>49167389.97223071</v>
       </c>
       <c r="I211">
-        <v>8390072.510728274</v>
+        <v>41792281.47637571</v>
       </c>
       <c r="J211">
-        <v>1480601.031305112</v>
+        <v>7375108.495855007</v>
       </c>
       <c r="K211">
         <v>0</v>
       </c>
       <c r="L211">
-        <v>1919944.218409765</v>
+        <v>10037880.72879545</v>
       </c>
       <c r="M211">
-        <v>1631952.559691238</v>
+        <v>8532198.497211084</v>
       </c>
       <c r="N211">
-        <v>287991.6587185279</v>
+        <v>1505682.231584368</v>
       </c>
       <c r="O211">
-        <v>1919944.218409765</v>
+        <v>10037880.72879545</v>
       </c>
       <c r="P211">
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>287991.6587185278</v>
+        <v>1505682.231584367</v>
       </c>
       <c r="R211">
         <v>2</v>
@@ -14196,16 +14206,16 @@
         <v>0</v>
       </c>
       <c r="L212">
-        <v>42497832.17</v>
+        <v>42497832.17000001</v>
       </c>
       <c r="M212">
         <v>36123157.27</v>
       </c>
       <c r="N212">
-        <v>6374674.9</v>
+        <v>6374674.899999999</v>
       </c>
       <c r="O212">
-        <v>42497832.17</v>
+        <v>42497832.17000001</v>
       </c>
       <c r="P212">
         <v>0</v>
@@ -14388,13 +14398,13 @@
         </is>
       </c>
       <c r="H215">
-        <v>324923585.51</v>
+        <v>384039385.51</v>
       </c>
       <c r="I215">
-        <v>276185047.68</v>
+        <v>326433477.68</v>
       </c>
       <c r="J215">
-        <v>48738537.83</v>
+        <v>57605907.83</v>
       </c>
       <c r="K215">
         <v>0</v>
@@ -14418,65 +14428,75 @@
         <v>24945352.53</v>
       </c>
       <c r="R215">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Information and communication</t>
+          <t>Access to employment for job-seekers and inactive people, including the long-term unemployed and people far from the labour market, also through local employment initiatives and support for labour mobility</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>IX.0.123</t>
+          <t>V.0.102</t>
         </is>
       </c>
       <c r="C216">
         <v>0</v>
       </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>03.1.48.1</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>Zvýšit zaměstnanost podpořených osob, zejména starších, nízkokvalifikovaných a znevýhodněných</t>
+        </is>
+      </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>OP TP</t>
+          <t>OP Z</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>20513392150.88</v>
       </c>
       <c r="I216">
-        <v>0</v>
+        <v>17033813653.95005</v>
       </c>
       <c r="J216">
-        <v>0</v>
+        <v>3444457166.25001</v>
       </c>
       <c r="K216">
-        <v>0</v>
+        <v>35121330.68</v>
       </c>
       <c r="L216">
-        <v>0</v>
+        <v>15363477111.87999</v>
       </c>
       <c r="M216">
-        <v>0</v>
+        <v>12751051799.32</v>
       </c>
       <c r="N216">
-        <v>0</v>
+        <v>2585314578.600004</v>
       </c>
       <c r="O216">
-        <v>0</v>
+        <v>15336366377.91999</v>
       </c>
       <c r="P216">
-        <v>0</v>
+        <v>27110733.96000012</v>
       </c>
       <c r="Q216">
-        <v>0</v>
+        <v>2612425312.560006</v>
       </c>
       <c r="R216">
-        <v>1</v>
+        <v>463</v>
       </c>
     </row>
     <row r="217">
@@ -14495,12 +14515,12 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>03.1.48.1</t>
+          <t>03.1.48.2</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Zvýšit zaměstnanost podpořených osob, zejména starších, nízkokvalifikovaných a znevýhodněných</t>
+          <t>Zvýšit zaměstnanost podpořených mladých osob prostřednictvím programu Záruky pro mládež</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
@@ -14514,37 +14534,37 @@
         </is>
       </c>
       <c r="H217">
-        <v>20513392150.88</v>
+        <v>1339000000</v>
       </c>
       <c r="I217">
-        <v>17033813653.95</v>
+        <v>1138150000</v>
       </c>
       <c r="J217">
-        <v>3444457166.25</v>
+        <v>200850000</v>
       </c>
       <c r="K217">
-        <v>35121330.68</v>
+        <v>0</v>
       </c>
       <c r="L217">
-        <v>15363477111.88</v>
+        <v>1020410774.34</v>
       </c>
       <c r="M217">
-        <v>12751051799.32</v>
+        <v>867349157.8599999</v>
       </c>
       <c r="N217">
-        <v>2585314578.6</v>
+        <v>153061616.48</v>
       </c>
       <c r="O217">
-        <v>15336366377.92</v>
+        <v>1020410774.34</v>
       </c>
       <c r="P217">
-        <v>27110733.96000039</v>
+        <v>7.450580596923828e-09</v>
       </c>
       <c r="Q217">
-        <v>2612425312.56</v>
+        <v>153061616.48</v>
       </c>
       <c r="R217">
-        <v>463</v>
+        <v>13</v>
       </c>
     </row>
     <row r="218">
@@ -14563,12 +14583,12 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>03.1.48.2</t>
+          <t>03.3.48.1</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Zvýšit zaměstnanost podpořených mladých osob prostřednictvím programu Záruky pro mládež</t>
+          <t>Zvýšit kvalitu a kvantitu využívání sociálních inovací a mezinárodní spolupráce v tematických oblastech OPZ (TC8)</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -14582,37 +14602,37 @@
         </is>
       </c>
       <c r="H218">
-        <v>1339000000</v>
+        <v>343461988.312134</v>
       </c>
       <c r="I218">
-        <v>1138150000</v>
+        <v>311404625.786813</v>
       </c>
       <c r="J218">
-        <v>200850000</v>
+        <v>25952337.11531892</v>
       </c>
       <c r="K218">
-        <v>0</v>
+        <v>6105025.410002059</v>
       </c>
       <c r="L218">
-        <v>1020410774.34</v>
+        <v>264827052.3702224</v>
       </c>
       <c r="M218">
-        <v>867349157.86</v>
+        <v>240003118.7035861</v>
       </c>
       <c r="N218">
-        <v>153061616.48</v>
+        <v>19507523.62383906</v>
       </c>
       <c r="O218">
-        <v>1020410774.34</v>
+        <v>259510642.3274251</v>
       </c>
       <c r="P218">
-        <v>7.450580596923828e-09</v>
+        <v>5316410.042797289</v>
       </c>
       <c r="Q218">
-        <v>153061616.48</v>
+        <v>24823933.66663635</v>
       </c>
       <c r="R218">
-        <v>13</v>
+        <v>155</v>
       </c>
     </row>
     <row r="219">
@@ -14631,12 +14651,12 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>03.3.48.1</t>
+          <t>03.3.60.1</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Zvýšit kvalitu a kvantitu využívání sociálních inovací a mezinárodní spolupráce v tematických oblastech OPZ (TC8)</t>
+          <t>Zvýšit kvalitu a kvantitu využívání sociálních inovací a mezinárodní spolupráce v tematických oblastech OPZ (TC9)</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
@@ -14650,37 +14670,37 @@
         </is>
       </c>
       <c r="H219">
-        <v>187031118.5359388</v>
+        <v>210186495.5631032</v>
       </c>
       <c r="I219">
-        <v>169562262.424247</v>
+        <v>190756674.9875731</v>
       </c>
       <c r="J219">
-        <v>12991951.31188122</v>
+        <v>17253492.91868484</v>
       </c>
       <c r="K219">
-        <v>4476904.799810648</v>
+        <v>2176327.656845271</v>
       </c>
       <c r="L219">
-        <v>159081695.4421912</v>
+        <v>140191099.4781385</v>
       </c>
       <c r="M219">
-        <v>144193890.4624178</v>
+        <v>127172942.1384259</v>
       </c>
       <c r="N219">
-        <v>10958841.04400535</v>
+        <v>11148141.89835667</v>
       </c>
       <c r="O219">
-        <v>155152731.5064231</v>
+        <v>138321084.0367825</v>
       </c>
       <c r="P219">
-        <v>3928963.935768119</v>
+        <v>1870015.441356039</v>
       </c>
       <c r="Q219">
-        <v>14887804.97977346</v>
+        <v>13018157.33971272</v>
       </c>
       <c r="R219">
-        <v>155</v>
+        <v>138</v>
       </c>
     </row>
     <row r="220">
@@ -14699,12 +14719,12 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>03.3.60.1</t>
+          <t>03.3.74.1</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Zvýšit kvalitu a kvantitu využívání sociálních inovací a mezinárodní spolupráce v tematických oblastech OPZ (TC9)</t>
+          <t>Zvýšit kvalitu a kvantitu využívání sociálních inovací a mezinárodní spolupráce v tematických oblastech OPZ (TC11)</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
@@ -14718,48 +14738,48 @@
         </is>
       </c>
       <c r="H220">
-        <v>53286076.11333175</v>
+        <v>71530637.76782154</v>
       </c>
       <c r="I220">
-        <v>48375124.7080034</v>
+        <v>64994883.23931402</v>
       </c>
       <c r="J220">
-        <v>4326933.541963235</v>
+        <v>5801308.260990606</v>
       </c>
       <c r="K220">
-        <v>584017.8633651129</v>
+        <v>734446.2675169229</v>
       </c>
       <c r="L220">
-        <v>38159521.92552686</v>
+        <v>44902234.88006561</v>
       </c>
       <c r="M220">
-        <v>34633718.11121662</v>
+        <v>40799516.93760052</v>
       </c>
       <c r="N220">
-        <v>2995483.190936255</v>
+        <v>3478967.534920952</v>
       </c>
       <c r="O220">
-        <v>37629201.30215288</v>
+        <v>44278484.47252146</v>
       </c>
       <c r="P220">
-        <v>530320.6233739813</v>
+        <v>623750.4075441303</v>
       </c>
       <c r="Q220">
-        <v>3525803.814310236</v>
+        <v>4102717.942465083</v>
       </c>
       <c r="R220">
-        <v>138</v>
+        <v>75</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Access to employment for job-seekers and inactive people, including the long-term unemployed and people far from the labour market, also through local employment initiatives and support for labour mobility</t>
+          <t>Sustainable integration into the labour market of young people, in particular those not in employment, education or training, including young people at risk of social exclusion and young people from marginalised communities, including through the implementation of the Youth Guarantee</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>V.0.102</t>
+          <t>V.0.103</t>
         </is>
       </c>
       <c r="C221">
@@ -14767,12 +14787,12 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>03.3.74.1</t>
+          <t>03.1.49.1</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Zvýšit kvalitu a kvantitu využívání sociálních inovací a mezinárodní spolupráce v tematických oblastech OPZ (TC11)</t>
+          <t xml:space="preserve">Zvýšit zaměstnanost podpořených mladých lidí, kteří nejsou v zaměstnání, ve vzdělávání nebo v profesní přípravě v regionu NUTS II Severozápad </t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
@@ -14786,48 +14806,48 @@
         </is>
       </c>
       <c r="H221">
-        <v>7007992.366047078</v>
+        <v>872385691.8</v>
       </c>
       <c r="I221">
-        <v>6367672.087518214</v>
+        <v>801640767.7200001</v>
       </c>
       <c r="J221">
-        <v>560848.4311153321</v>
+        <v>70744924.08</v>
       </c>
       <c r="K221">
-        <v>79471.84741353088</v>
+        <v>0</v>
       </c>
       <c r="L221">
-        <v>4786750.027189132</v>
+        <v>743602746.4900001</v>
       </c>
       <c r="M221">
-        <v>4349384.60268515</v>
+        <v>683300846.3200001</v>
       </c>
       <c r="N221">
-        <v>365354.9942078908</v>
+        <v>60301900.17</v>
       </c>
       <c r="O221">
-        <v>4714739.59689304</v>
+        <v>743602746.4900001</v>
       </c>
       <c r="P221">
-        <v>72010.43029609135</v>
+        <v>3.073364496231079e-08</v>
       </c>
       <c r="Q221">
-        <v>437365.4245039821</v>
+        <v>60301900.17000005</v>
       </c>
       <c r="R221">
-        <v>75</v>
+        <v>8</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Sustainable integration into the labour market of young people, in particular those not in employment, education or training, including young people at risk of social exclusion and young people from marginalised communities, including through the implementation of the Youth Guarantee</t>
+          <t>Equality between men and women in all areas, including in access to employment, career progression, reconciliation of work and private life and promotion of equal pay for equal work</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>V.0.103</t>
+          <t>V.0.105</t>
         </is>
       </c>
       <c r="C222">
@@ -14835,12 +14855,12 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>03.1.49.1</t>
+          <t>03.1.51.1</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t xml:space="preserve">Zvýšit zaměstnanost podpořených mladých lidí, kteří nejsou v zaměstnání, ve vzdělávání nebo v profesní přípravě v regionu NUTS II Severozápad </t>
+          <t>Snížit rozdíly v postavení žen a mužů na trhu práce</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
@@ -14854,37 +14874,37 @@
         </is>
       </c>
       <c r="H222">
-        <v>872385691.8</v>
+        <v>8721546489.579994</v>
       </c>
       <c r="I222">
-        <v>801640767.72</v>
+        <v>7036685505.660007</v>
       </c>
       <c r="J222">
-        <v>70744924.08</v>
+        <v>1525697571.930004</v>
       </c>
       <c r="K222">
-        <v>0</v>
+        <v>159163411.9899999</v>
       </c>
       <c r="L222">
-        <v>743602746.49</v>
+        <v>6481491235.439994</v>
       </c>
       <c r="M222">
-        <v>683300846.3199999</v>
+        <v>5238806555.400002</v>
       </c>
       <c r="N222">
-        <v>60301900.17</v>
+        <v>1120660681.920002</v>
       </c>
       <c r="O222">
-        <v>743602746.49</v>
+        <v>6359467237.319998</v>
       </c>
       <c r="P222">
-        <v>-9.313225746154785e-10</v>
+        <v>122023998.1200001</v>
       </c>
       <c r="Q222">
-        <v>60301900.17000002</v>
+        <v>1242684680.040004</v>
       </c>
       <c r="R222">
-        <v>8</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="223">
@@ -14903,67 +14923,67 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>03.1.51.1</t>
+          <t>07.4.51.4.3</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Snížit rozdíly v postavení žen a mužů na trhu práce</t>
+          <t>Zvýšení dostupnosti zařízení péče o děti</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>OP Z</t>
+          <t>OP PPR</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>07</t>
         </is>
       </c>
       <c r="H223">
-        <v>8721546489.58</v>
+        <v>221087092.5</v>
       </c>
       <c r="I223">
-        <v>7036685505.66</v>
+        <v>110543546.25</v>
       </c>
       <c r="J223">
-        <v>1525697571.93</v>
+        <v>96841132.64</v>
       </c>
       <c r="K223">
-        <v>159163411.99</v>
+        <v>13702413.61</v>
       </c>
       <c r="L223">
-        <v>6481491235.44</v>
+        <v>133283853.82</v>
       </c>
       <c r="M223">
-        <v>5238806555.4</v>
+        <v>66641926.82</v>
       </c>
       <c r="N223">
-        <v>1120660681.92</v>
+        <v>58950270.41000001</v>
       </c>
       <c r="O223">
-        <v>6359467237.32</v>
+        <v>125592197.23</v>
       </c>
       <c r="P223">
-        <v>122023998.12</v>
+        <v>7691656.589999999</v>
       </c>
       <c r="Q223">
-        <v>1242684680.04</v>
+        <v>66641927</v>
       </c>
       <c r="R223">
-        <v>2953</v>
+        <v>54</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Equality between men and women in all areas, including in access to employment, career progression, reconciliation of work and private life and promotion of equal pay for equal work</t>
+          <t>Adaptation of workers, enterprises and entrepreneurs to change</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>V.0.105</t>
+          <t>V.0.106</t>
         </is>
       </c>
       <c r="C224">
@@ -14971,56 +14991,56 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>07.4.51.4.3</t>
+          <t>03.1.52.1</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Zvýšení dostupnosti zařízení péče o děti</t>
+          <t>Zvýšit odbornou úroveň znalostí, dovedností a kompetencí pracovníků a soulad kvalifikační úrovně pracovní síly s požadavky trhu práce</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>OP PPR</t>
+          <t>OP Z</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H224">
-        <v>221087092.5</v>
+        <v>14019347800.74602</v>
       </c>
       <c r="I224">
-        <v>110543546.25</v>
+        <v>11560197687.31748</v>
       </c>
       <c r="J224">
-        <v>96841132.64</v>
+        <v>1843289813.823</v>
       </c>
       <c r="K224">
-        <v>13702413.61</v>
+        <v>615860299.605499</v>
       </c>
       <c r="L224">
-        <v>133283853.82</v>
+        <v>8744071069.033493</v>
       </c>
       <c r="M224">
-        <v>66641926.82</v>
+        <v>7209155381.821507</v>
       </c>
       <c r="N224">
-        <v>58950270.41</v>
+        <v>1184916301.176</v>
       </c>
       <c r="O224">
-        <v>125592197.23</v>
+        <v>8394071682.997503</v>
       </c>
       <c r="P224">
-        <v>7691656.59</v>
+        <v>349999386.0359998</v>
       </c>
       <c r="Q224">
-        <v>66641927</v>
+        <v>1534915687.211999</v>
       </c>
       <c r="R224">
-        <v>54</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="225">
@@ -15039,12 +15059,12 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>03.1.52.1</t>
+          <t>03.1.52.2</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Zvýšit odbornou úroveň znalostí, dovedností a kompetencí pracovníků a soulad kvalifikační úrovně pracovní síly s požadavky trhu práce</t>
+          <t>Zvýšit adaptabilitu starších pracovníků</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
@@ -15058,48 +15078,48 @@
         </is>
       </c>
       <c r="H225">
-        <v>11579260458.0709</v>
+        <v>2983952480.684005</v>
       </c>
       <c r="I225">
-        <v>9546901391.739574</v>
+        <v>2462074276.667506</v>
       </c>
       <c r="J225">
-        <v>1510174491.39425</v>
+        <v>411290092.722</v>
       </c>
       <c r="K225">
-        <v>522184574.937075</v>
+        <v>110588111.2944998</v>
       </c>
       <c r="L225">
-        <v>7569463267.174425</v>
+        <v>1388529929.116498</v>
       </c>
       <c r="M225">
-        <v>6233738236.394225</v>
+        <v>1154204669.2985</v>
       </c>
       <c r="N225">
-        <v>1039132438.674</v>
+        <v>171227006.3639999</v>
       </c>
       <c r="O225">
-        <v>7272870675.068225</v>
+        <v>1325431675.662501</v>
       </c>
       <c r="P225">
-        <v>296592592.1062</v>
+        <v>63098253.45399995</v>
       </c>
       <c r="Q225">
-        <v>1335725030.7802</v>
+        <v>234325259.8180002</v>
       </c>
       <c r="R225">
-        <v>2886</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Adaptation of workers, enterprises and entrepreneurs to change</t>
+          <t>Modernisation of labour market institutions, such as public and private employment services, and improving the matching of labour market needs, including throughactions that enhance transnational labour mobility as well as through mobility schemes and better cooperation between institutions and relevant stakeholders</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>V.0.106</t>
+          <t>V.0.108</t>
         </is>
       </c>
       <c r="C226">
@@ -15107,12 +15127,12 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>03.1.52.2</t>
+          <t>03.1.54.1</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Zvýšit adaptabilitu starších pracovníků</t>
+          <t>Zvýšit kapacitu, komplexnost a kvalitu služeb poskytovaných institucemi veřejných služeb zaměstnanosti</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
@@ -15126,37 +15146,37 @@
         </is>
       </c>
       <c r="H226">
-        <v>543865138.0089</v>
+        <v>2245239883.95</v>
       </c>
       <c r="I226">
-        <v>448777981.089575</v>
+        <v>1849830687.93</v>
       </c>
       <c r="J226">
-        <v>78174770.29324999</v>
+        <v>395409196.0199999</v>
       </c>
       <c r="K226">
-        <v>16912386.626075</v>
+        <v>0</v>
       </c>
       <c r="L226">
-        <v>213922127.257425</v>
+        <v>1434982032.37</v>
       </c>
       <c r="M226">
-        <v>178787523.871225</v>
+        <v>1182267346.18</v>
       </c>
       <c r="N226">
-        <v>25443143.862</v>
+        <v>252714686.19</v>
       </c>
       <c r="O226">
-        <v>204230667.733225</v>
+        <v>1434982032.37</v>
       </c>
       <c r="P226">
-        <v>9691459.5242</v>
+        <v>0</v>
       </c>
       <c r="Q226">
-        <v>35134603.3862</v>
+        <v>252714686.19</v>
       </c>
       <c r="R226">
-        <v>2864</v>
+        <v>7</v>
       </c>
     </row>
     <row r="227">
@@ -15175,12 +15195,12 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>03.1.54.1</t>
+          <t>03.1.54.2</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Zvýšit kapacitu, komplexnost a kvalitu služeb poskytovaných institucemi veřejných služeb zaměstnanosti</t>
+          <t>Zvýšit kvalitu systému dalšího vzdělávání</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
@@ -15194,34 +15214,34 @@
         </is>
       </c>
       <c r="H227">
-        <v>2245239883.95</v>
+        <v>560048649.59</v>
       </c>
       <c r="I227">
-        <v>1849830687.93</v>
+        <v>461418481.8499999</v>
       </c>
       <c r="J227">
-        <v>395409196.02</v>
+        <v>98630167.73999999</v>
       </c>
       <c r="K227">
         <v>0</v>
       </c>
       <c r="L227">
-        <v>1434982032.37</v>
+        <v>341578060.83</v>
       </c>
       <c r="M227">
-        <v>1182267346.18</v>
+        <v>281422748.18</v>
       </c>
       <c r="N227">
-        <v>252714686.19</v>
+        <v>60155312.65000001</v>
       </c>
       <c r="O227">
-        <v>1434982032.37</v>
+        <v>341578060.83</v>
       </c>
       <c r="P227">
-        <v>0</v>
+        <v>-1.117587089538574e-08</v>
       </c>
       <c r="Q227">
-        <v>252714686.19</v>
+        <v>60155312.65000001</v>
       </c>
       <c r="R227">
         <v>7</v>
@@ -15230,12 +15250,12 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Modernisation of labour market institutions, such as public and private employment services, and improving the matching of labour market needs, including throughactions that enhance transnational labour mobility as well as through mobility schemes and better cooperation between institutions and relevant stakeholders</t>
+          <t>Active inclusion, including with a view to promoting equal opportunities and active participation, and improving employability</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>V.0.108</t>
+          <t>VI.0.109</t>
         </is>
       </c>
       <c r="C228">
@@ -15243,12 +15263,12 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>03.1.54.2</t>
+          <t>03.2.60.1</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Zvýšit kvalitu systému dalšího vzdělávání</t>
+          <t>Zvýšit uplatnitelnost osob ohrožených sociálním vyloučením nebo sociálně vyloučených ve společnosti a na trhu práce</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
@@ -15262,37 +15282,37 @@
         </is>
       </c>
       <c r="H228">
-        <v>560048649.59</v>
+        <v>12369145517.42864</v>
       </c>
       <c r="I228">
-        <v>461418481.85</v>
+        <v>10168139220.79811</v>
       </c>
       <c r="J228">
-        <v>98630167.74000001</v>
+        <v>2198843067.500546</v>
       </c>
       <c r="K228">
-        <v>0</v>
+        <v>2163229.13</v>
       </c>
       <c r="L228">
-        <v>341578060.83</v>
+        <v>9338245340.348726</v>
       </c>
       <c r="M228">
-        <v>281422748.18</v>
+        <v>7717342032.237704</v>
       </c>
       <c r="N228">
-        <v>60155312.65</v>
+        <v>1619441977.851017</v>
       </c>
       <c r="O228">
-        <v>341578060.83</v>
+        <v>9336784010.088726</v>
       </c>
       <c r="P228">
-        <v>-1.117587089538574e-08</v>
+        <v>1461330.260000009</v>
       </c>
       <c r="Q228">
-        <v>60155312.65</v>
+        <v>1620903308.111017</v>
       </c>
       <c r="R228">
-        <v>7</v>
+        <v>757</v>
       </c>
     </row>
     <row r="229">
@@ -15316,7 +15336,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Zvýšit uplatnitelnost osob ohrožených sociálním vyloučením nebo sociálně vyloučených ve společnosti a na trhu práce</t>
+          <t xml:space="preserve">Zvýšit uplatnitelnost osob ohrožených sociálním vyloučením nebo sociálně vyloučených ve společnosti a na trhu práce </t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
@@ -15330,37 +15350,37 @@
         </is>
       </c>
       <c r="H229">
-        <v>12205477206.79117</v>
+        <v>1178748.75</v>
       </c>
       <c r="I229">
-        <v>10057151806.58095</v>
+        <v>589374.375</v>
       </c>
       <c r="J229">
-        <v>2146162171.080219</v>
+        <v>589374.375</v>
       </c>
       <c r="K229">
-        <v>2163229.13</v>
+        <v>0</v>
       </c>
       <c r="L229">
-        <v>9243161567.629341</v>
+        <v>0</v>
       </c>
       <c r="M229">
-        <v>7647892874.311831</v>
+        <v>0</v>
       </c>
       <c r="N229">
-        <v>1593807363.05751</v>
+        <v>0</v>
       </c>
       <c r="O229">
-        <v>9241700237.369341</v>
+        <v>0</v>
       </c>
       <c r="P229">
-        <v>1461330.260000015</v>
+        <v>0</v>
       </c>
       <c r="Q229">
-        <v>1595268693.31751</v>
+        <v>0</v>
       </c>
       <c r="R229">
-        <v>757</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230">
@@ -15379,12 +15399,12 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>03.2.60.1</t>
+          <t>03.2.60.2</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t xml:space="preserve">Zvýšit uplatnitelnost osob ohrožených sociálním vyloučením nebo sociálně vyloučených ve společnosti a na trhu práce </t>
+          <t>Rozvoj sektoru sociální ekonomiky</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
@@ -15398,37 +15418,37 @@
         </is>
       </c>
       <c r="H230">
-        <v>294687.1875</v>
+        <v>499566609.6259999</v>
       </c>
       <c r="I230">
-        <v>147343.59375</v>
+        <v>420098116.88</v>
       </c>
       <c r="J230">
-        <v>147343.59375</v>
+        <v>14647400.56600001</v>
       </c>
       <c r="K230">
-        <v>0</v>
+        <v>64821092.18000001</v>
       </c>
       <c r="L230">
-        <v>0</v>
+        <v>412458789.3849999</v>
       </c>
       <c r="M230">
-        <v>0</v>
+        <v>348029711.5890002</v>
       </c>
       <c r="N230">
-        <v>0</v>
+        <v>10775153.736</v>
       </c>
       <c r="O230">
-        <v>0</v>
+        <v>358804865.3250002</v>
       </c>
       <c r="P230">
-        <v>0</v>
+        <v>53653924.05999999</v>
       </c>
       <c r="Q230">
-        <v>0</v>
+        <v>64429077.796</v>
       </c>
       <c r="R230">
-        <v>1</v>
+        <v>188</v>
       </c>
     </row>
     <row r="231">
@@ -15447,12 +15467,12 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>03.2.60.2</t>
+          <t>03.2.63.1</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Rozvoj sektoru sociální ekonomiky</t>
+          <t>Zvýšit kvalitu a udržitelnost systému sociálních služeb, služeb pro rodiny a děti a dalších navazujících služeb podporujících sociální začleňování</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
@@ -15466,37 +15486,37 @@
         </is>
       </c>
       <c r="H231">
-        <v>451009190.2316</v>
+        <v>146395756.9737118</v>
       </c>
       <c r="I231">
-        <v>378824310.443</v>
+        <v>95020780.76090001</v>
       </c>
       <c r="J231">
-        <v>7363787.6086</v>
+        <v>51374976.21281177</v>
       </c>
       <c r="K231">
-        <v>64821092.18</v>
+        <v>0</v>
       </c>
       <c r="L231">
-        <v>370223876.0755</v>
+        <v>65262614.25270826</v>
       </c>
       <c r="M231">
-        <v>312130035.6339</v>
+        <v>45411794.11399908</v>
       </c>
       <c r="N231">
-        <v>4439916.3816</v>
+        <v>19850820.13870919</v>
       </c>
       <c r="O231">
-        <v>316569952.0155</v>
+        <v>65262614.25270826</v>
       </c>
       <c r="P231">
-        <v>53653924.06</v>
+        <v>-1.665903254994621e-09</v>
       </c>
       <c r="Q231">
-        <v>58093840.44159999</v>
+        <v>19850820.13870919</v>
       </c>
       <c r="R231">
-        <v>188</v>
+        <v>123</v>
       </c>
     </row>
     <row r="232">
@@ -15520,7 +15540,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Zvýšit kvalitu a udržitelnost systému sociálních služeb, služeb pro rodiny a děti a dalších navazujících služeb podporujících sociální začleňování</t>
+          <t xml:space="preserve">Zvýšit kvalitu a udržitelnost systému sociálních služeb, služeb pro rodiny a děti a dalších navazujících služeb podporujících sociální začleňování </t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
@@ -15534,37 +15554,37 @@
         </is>
       </c>
       <c r="H232">
-        <v>35875100.96528865</v>
+        <v>1178748.75</v>
       </c>
       <c r="I232">
-        <v>23316038.983993</v>
+        <v>589374.375</v>
       </c>
       <c r="J232">
-        <v>12559061.98129565</v>
+        <v>589374.375</v>
       </c>
       <c r="K232">
         <v>0</v>
       </c>
       <c r="L232">
-        <v>15236416.54836789</v>
+        <v>0</v>
       </c>
       <c r="M232">
-        <v>10757570.96324302</v>
+        <v>0</v>
       </c>
       <c r="N232">
-        <v>4478845.585124873</v>
+        <v>0</v>
       </c>
       <c r="O232">
-        <v>15236416.54836789</v>
+        <v>0</v>
       </c>
       <c r="P232">
-        <v>-2.790126016620369e-10</v>
+        <v>0</v>
       </c>
       <c r="Q232">
-        <v>4478845.585124873</v>
+        <v>0</v>
       </c>
       <c r="R232">
-        <v>123</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233">
@@ -15583,12 +15603,12 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>03.2.63.1</t>
+          <t>03.3.48.1</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t xml:space="preserve">Zvýšit kvalitu a udržitelnost systému sociálních služeb, služeb pro rodiny a děti a dalších navazujících služeb podporujících sociální začleňování </t>
+          <t>Zvýšit kvalitu a kvantitu využívání sociálních inovací a mezinárodní spolupráce v tematických oblastech OPZ (TC8)</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
@@ -15602,37 +15622,37 @@
         </is>
       </c>
       <c r="H233">
-        <v>294687.1875</v>
+        <v>194531155.9971838</v>
       </c>
       <c r="I233">
-        <v>147343.59375</v>
+        <v>176531763.7470621</v>
       </c>
       <c r="J233">
-        <v>147343.59375</v>
+        <v>16603540.19072656</v>
       </c>
       <c r="K233">
-        <v>0</v>
+        <v>1395852.059395237</v>
       </c>
       <c r="L233">
-        <v>0</v>
+        <v>122022156.5256676</v>
       </c>
       <c r="M233">
-        <v>0</v>
+        <v>110664095.3115454</v>
       </c>
       <c r="N233">
-        <v>0</v>
+        <v>10264199.70518012</v>
       </c>
       <c r="O233">
-        <v>0</v>
+        <v>120928295.0167256</v>
       </c>
       <c r="P233">
-        <v>0</v>
+        <v>1093861.50894203</v>
       </c>
       <c r="Q233">
-        <v>0</v>
+        <v>11358061.21412215</v>
       </c>
       <c r="R233">
-        <v>1</v>
+        <v>139</v>
       </c>
     </row>
     <row r="234">
@@ -15651,12 +15671,12 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>03.3.48.1</t>
+          <t>03.3.60.1</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Zvýšit kvalitu a kvantitu využívání sociálních inovací a mezinárodní spolupráce v tematických oblastech OPZ (TC8)</t>
+          <t>Zvýšit kvalitu a kvantitu využívání sociálních inovací a mezinárodní spolupráce v tematických oblastech OPZ (TC9)</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
@@ -15670,37 +15690,37 @@
         </is>
       </c>
       <c r="H234">
-        <v>44292055.63577247</v>
+        <v>257189748.4201581</v>
       </c>
       <c r="I234">
-        <v>40202887.8522846</v>
+        <v>233615293.8875519</v>
       </c>
       <c r="J234">
-        <v>3846682.725790807</v>
+        <v>22218561.05525953</v>
       </c>
       <c r="K234">
-        <v>242485.0576970613</v>
+        <v>1355893.47734655</v>
       </c>
       <c r="L234">
-        <v>29723708.72368734</v>
+        <v>175637824.7584428</v>
       </c>
       <c r="M234">
-        <v>26968685.05992695</v>
+        <v>159520162.6309954</v>
       </c>
       <c r="N234">
-        <v>2564528.168455545</v>
+        <v>15086733.27645637</v>
       </c>
       <c r="O234">
-        <v>29533213.2283825</v>
+        <v>174606895.907452</v>
       </c>
       <c r="P234">
-        <v>190495.4953048373</v>
+        <v>1030928.850990883</v>
       </c>
       <c r="Q234">
-        <v>2755023.663760383</v>
+        <v>16117662.12744725</v>
       </c>
       <c r="R234">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="235">
@@ -15719,12 +15739,12 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>03.3.60.1</t>
+          <t>03.3.74.1</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Zvýšit kvalitu a kvantitu využívání sociálních inovací a mezinárodní spolupráce v tematických oblastech OPZ (TC9)</t>
+          <t>Zvýšit kvalitu a kvantitu využívání sociálních inovací a mezinárodní spolupráce v tematických oblastech OPZ (TC11)</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
@@ -15738,37 +15758,37 @@
         </is>
       </c>
       <c r="H235">
-        <v>106428113.4876006</v>
+        <v>69703342.85161845</v>
       </c>
       <c r="I235">
-        <v>96699087.4070061</v>
+        <v>63334548.24818601</v>
       </c>
       <c r="J235">
-        <v>9480370.596427126</v>
+        <v>5880395.868647997</v>
       </c>
       <c r="K235">
-        <v>248655.4841674031</v>
+        <v>488398.7347844625</v>
       </c>
       <c r="L235">
-        <v>87635907.87483832</v>
+        <v>38943184.4166389</v>
       </c>
       <c r="M235">
-        <v>79624262.12614268</v>
+        <v>35384944.86200439</v>
       </c>
       <c r="N235">
-        <v>7824850.918577075</v>
+        <v>3192844.654112801</v>
       </c>
       <c r="O235">
-        <v>87449113.04471976</v>
+        <v>38577789.51611716</v>
       </c>
       <c r="P235">
-        <v>186794.8301185742</v>
+        <v>365394.9005217258</v>
       </c>
       <c r="Q235">
-        <v>8011645.748695651</v>
+        <v>3558239.554634528</v>
       </c>
       <c r="R235">
-        <v>145</v>
+        <v>74</v>
       </c>
     </row>
     <row r="236">
@@ -15785,16 +15805,6 @@
       <c r="C236">
         <v>0</v>
       </c>
-      <c r="D236" t="inlineStr">
-        <is>
-          <t>03.3.74.1</t>
-        </is>
-      </c>
-      <c r="E236" t="inlineStr">
-        <is>
-          <t>Zvýšit kvalitu a kvantitu využívání sociálních inovací a mezinárodní spolupráce v tematických oblastech OPZ (TC11)</t>
-        </is>
-      </c>
       <c r="F236" t="inlineStr">
         <is>
           <t>OP Z</t>
@@ -15806,95 +15816,105 @@
         </is>
       </c>
       <c r="H236">
-        <v>6162931.476112922</v>
+        <v>0</v>
       </c>
       <c r="I236">
-        <v>5599824.410152652</v>
+        <v>0</v>
       </c>
       <c r="J236">
-        <v>526845.0567390551</v>
+        <v>0</v>
       </c>
       <c r="K236">
-        <v>36262.00922121391</v>
+        <v>0</v>
       </c>
       <c r="L236">
-        <v>3549395.41139243</v>
+        <v>0</v>
       </c>
       <c r="M236">
-        <v>3225087.073688666</v>
+        <v>0</v>
       </c>
       <c r="N236">
-        <v>297219.0995100077</v>
+        <v>0</v>
       </c>
       <c r="O236">
-        <v>3522306.173198674</v>
+        <v>0</v>
       </c>
       <c r="P236">
-        <v>27089.23819375668</v>
+        <v>0</v>
       </c>
       <c r="Q236">
-        <v>324308.3377037644</v>
+        <v>0</v>
       </c>
       <c r="R236">
-        <v>74</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Active inclusion, including with a view to promoting equal opportunities and active participation, and improving employability</t>
+          <t>Socio-economic integration of marginalised communities such as the Roma</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>VI.0.109</t>
+          <t>VI.0.110</t>
         </is>
       </c>
       <c r="C237">
         <v>0</v>
       </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>02.3.61.1</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>Sociální integrace dětí a žáků včetně začleňování romských dětí do vzdělávání</t>
+        </is>
+      </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>OP Z</t>
+          <t>OP VVV</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>4915149068.792872</v>
       </c>
       <c r="I237">
-        <v>0</v>
+        <v>4087295183.185261</v>
       </c>
       <c r="J237">
-        <v>0</v>
+        <v>782480141.8376132</v>
       </c>
       <c r="K237">
-        <v>0</v>
+        <v>45373743.77</v>
       </c>
       <c r="L237">
-        <v>0</v>
+        <v>2732066389.035694</v>
       </c>
       <c r="M237">
-        <v>0</v>
+        <v>2281987305.831583</v>
       </c>
       <c r="N237">
-        <v>0</v>
+        <v>407656132.7741097</v>
       </c>
       <c r="O237">
-        <v>0</v>
+        <v>2689643438.605694</v>
       </c>
       <c r="P237">
-        <v>0</v>
+        <v>42422950.43000001</v>
       </c>
       <c r="Q237">
-        <v>0</v>
+        <v>450079083.2041097</v>
       </c>
       <c r="R237">
-        <v>2</v>
+        <v>6464</v>
       </c>
     </row>
     <row r="238">
@@ -15913,12 +15933,12 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>02.3.61.1</t>
+          <t>02.3.62.1</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Sociální integrace dětí a žáků včetně začleňování romských dětí do vzdělávání</t>
+          <t>Kvalitní podmínky pro inkluzívní vzdělávání</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
@@ -15932,37 +15952,37 @@
         </is>
       </c>
       <c r="H238">
-        <v>4678379857.061232</v>
+        <v>64059631.7731543</v>
       </c>
       <c r="I238">
-        <v>3891257045.165178</v>
+        <v>53209890.78562428</v>
       </c>
       <c r="J238">
-        <v>741749068.1260536</v>
+        <v>10849740.98752995</v>
       </c>
       <c r="K238">
-        <v>45373743.77</v>
+        <v>0</v>
       </c>
       <c r="L238">
-        <v>2692020146.513013</v>
+        <v>7369898.784861159</v>
       </c>
       <c r="M238">
-        <v>2248904277.566449</v>
+        <v>6092702.036624765</v>
       </c>
       <c r="N238">
-        <v>400692918.5165645</v>
+        <v>1277196.748236404</v>
       </c>
       <c r="O238">
-        <v>2649597196.083014</v>
+        <v>7369898.784861159</v>
       </c>
       <c r="P238">
-        <v>42422950.43</v>
+        <v>1.579391501657617e-11</v>
       </c>
       <c r="Q238">
-        <v>443115868.9465645</v>
+        <v>1277196.748236404</v>
       </c>
       <c r="R238">
-        <v>6433</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="239">
@@ -15981,12 +16001,12 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>02.3.62.1</t>
+          <t>02.3.68.1</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Kvalitní podmínky pro inkluzívní vzdělávání</t>
+          <t xml:space="preserve">Zvýšení kvality předškolního vzdělávání včetně usnadnění přechodu dětí na ZŠ</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
@@ -16000,37 +16020,37 @@
         </is>
       </c>
       <c r="H239">
-        <v>6811525.428550619</v>
+        <v>13306117.00218009</v>
       </c>
       <c r="I239">
-        <v>5653267.855987992</v>
+        <v>10901097.2590587</v>
       </c>
       <c r="J239">
-        <v>1158257.572562627</v>
+        <v>2405019.743121433</v>
       </c>
       <c r="K239">
         <v>0</v>
       </c>
       <c r="L239">
-        <v>740403.2315715394</v>
+        <v>10501385.98737201</v>
       </c>
       <c r="M239">
-        <v>611878.7429413871</v>
+        <v>8612282.31266382</v>
       </c>
       <c r="N239">
-        <v>128524.4886301524</v>
+        <v>1889103.674708195</v>
       </c>
       <c r="O239">
-        <v>740403.2315715394</v>
+        <v>10501385.98737201</v>
       </c>
       <c r="P239">
-        <v>0</v>
+        <v>4.606147248159068e-13</v>
       </c>
       <c r="Q239">
-        <v>128524.4886301524</v>
+        <v>1889103.674708195</v>
       </c>
       <c r="R239">
-        <v>2162</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="240">
@@ -16049,12 +16069,12 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>02.3.68.1</t>
+          <t>02.3.68.2</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t xml:space="preserve">Zvýšení kvality předškolního vzdělávání včetně usnadnění přechodu dětí na ZŠ</t>
+          <t>Zlepšení kvality vzdělávání a výsledků žáků v klíčových kompetencích</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
@@ -16068,37 +16088,37 @@
         </is>
       </c>
       <c r="H240">
-        <v>701679.7163007804</v>
+        <v>61408163.48528119</v>
       </c>
       <c r="I240">
-        <v>577688.3773463224</v>
+        <v>50428982.22701981</v>
       </c>
       <c r="J240">
-        <v>123991.3389544581</v>
+        <v>10979181.25826139</v>
       </c>
       <c r="K240">
         <v>0</v>
       </c>
       <c r="L240">
-        <v>560113.0600768948</v>
+        <v>49226350.80949632</v>
       </c>
       <c r="M240">
-        <v>462697.3279004053</v>
+        <v>40468093.37858041</v>
       </c>
       <c r="N240">
-        <v>97415.73217648946</v>
+        <v>8758257.430915954</v>
       </c>
       <c r="O240">
-        <v>560113.0600768948</v>
+        <v>49226350.80949632</v>
       </c>
       <c r="P240">
-        <v>0</v>
+        <v>3.421550852109652e-13</v>
       </c>
       <c r="Q240">
-        <v>97415.73217648946</v>
+        <v>8758257.430915954</v>
       </c>
       <c r="R240">
-        <v>1030</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="241">
@@ -16117,12 +16137,12 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>02.3.68.2</t>
+          <t>02.3.68.5</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Zlepšení kvality vzdělávání a výsledků žáků v klíčových kompetencích</t>
+          <t>Zvyšení kvality vzdělávání a odborné přípravy včetně posílení jejich relevance pro trh práce</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
@@ -16136,37 +16156,37 @@
         </is>
       </c>
       <c r="H241">
-        <v>5075275.976182978</v>
+        <v>132816630.8604825</v>
       </c>
       <c r="I241">
-        <v>4166864.086466817</v>
+        <v>110397522.832576</v>
       </c>
       <c r="J241">
-        <v>908411.8897161609</v>
+        <v>22419108.02790635</v>
       </c>
       <c r="K241">
         <v>0</v>
       </c>
       <c r="L241">
-        <v>4430233.202447861</v>
+        <v>20412575.75476548</v>
       </c>
       <c r="M241">
-        <v>3640024.597427303</v>
+        <v>16977063.52614852</v>
       </c>
       <c r="N241">
-        <v>790208.6050205568</v>
+        <v>3435512.228616858</v>
       </c>
       <c r="O241">
-        <v>4430233.202447861</v>
+        <v>20412575.75476548</v>
       </c>
       <c r="P241">
-        <v>0</v>
+        <v>3.842895592731619e-11</v>
       </c>
       <c r="Q241">
-        <v>790208.6050205568</v>
+        <v>3435512.228616858</v>
       </c>
       <c r="R241">
-        <v>1961</v>
+        <v>5273</v>
       </c>
     </row>
     <row r="242">
@@ -16183,16 +16203,6 @@
       <c r="C242">
         <v>0</v>
       </c>
-      <c r="D242" t="inlineStr">
-        <is>
-          <t>02.3.68.5</t>
-        </is>
-      </c>
-      <c r="E242" t="inlineStr">
-        <is>
-          <t>Zvyšení kvality vzdělávání a odborné přípravy včetně posílení jejich relevance pro trh práce</t>
-        </is>
-      </c>
       <c r="F242" t="inlineStr">
         <is>
           <t>OP VVV</t>
@@ -16204,53 +16214,63 @@
         </is>
       </c>
       <c r="H242">
-        <v>16115820.33511859</v>
+        <v>0</v>
       </c>
       <c r="I242">
-        <v>13432413.26344709</v>
+        <v>0</v>
       </c>
       <c r="J242">
-        <v>2683407.071671505</v>
+        <v>0</v>
       </c>
       <c r="K242">
         <v>0</v>
       </c>
       <c r="L242">
-        <v>1598131.150454668</v>
+        <v>0</v>
       </c>
       <c r="M242">
-        <v>1332144.782285102</v>
+        <v>0</v>
       </c>
       <c r="N242">
-        <v>265986.3681695662</v>
+        <v>0</v>
       </c>
       <c r="O242">
-        <v>1598131.150454668</v>
+        <v>0</v>
       </c>
       <c r="P242">
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>265986.3681695662</v>
+        <v>0</v>
       </c>
       <c r="R242">
-        <v>5242</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Socio-economic integration of marginalised communities such as the Roma</t>
+          <t>Combating all forms of discrimination and promoting equal opportunities</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>VI.0.110</t>
+          <t>VI.0.111</t>
         </is>
       </c>
       <c r="C243">
         <v>0</v>
       </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>02.3.61.1</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>Sociální integrace dětí a žáků včetně začleňování romských dětí do vzdělávání</t>
+        </is>
+      </c>
       <c r="F243" t="inlineStr">
         <is>
           <t>OP VVV</t>
@@ -16262,37 +16282,37 @@
         </is>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>62440726.60526144</v>
       </c>
       <c r="I243">
-        <v>0</v>
+        <v>51833821.47176971</v>
       </c>
       <c r="J243">
-        <v>0</v>
+        <v>10606905.13349159</v>
       </c>
       <c r="K243">
         <v>0</v>
       </c>
       <c r="L243">
-        <v>0</v>
+        <v>7346461.562429223</v>
       </c>
       <c r="M243">
-        <v>0</v>
+        <v>6072780.407739297</v>
       </c>
       <c r="N243">
-        <v>0</v>
+        <v>1273681.154689925</v>
       </c>
       <c r="O243">
-        <v>0</v>
+        <v>7346461.562429223</v>
       </c>
       <c r="P243">
-        <v>0</v>
+        <v>1.579391529341004e-11</v>
       </c>
       <c r="Q243">
-        <v>0</v>
+        <v>1273681.154689925</v>
       </c>
       <c r="R243">
-        <v>1540</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="244">
@@ -16311,12 +16331,12 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>02.3.61.1</t>
+          <t>02.3.62.1</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Sociální integrace dětí a žáků včetně začleňování romských dětí do vzdělávání</t>
+          <t>Kvalitní podmínky pro inkluzívní vzdělávání</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
@@ -16330,37 +16350,37 @@
         </is>
       </c>
       <c r="H244">
-        <v>6744665.989060828</v>
+        <v>653230049.9690337</v>
       </c>
       <c r="I244">
-        <v>5596437.339795205</v>
+        <v>537336742.0445462</v>
       </c>
       <c r="J244">
-        <v>1148228.649265623</v>
+        <v>115893307.9244879</v>
       </c>
       <c r="K244">
         <v>0</v>
       </c>
       <c r="L244">
-        <v>737799.092043819</v>
+        <v>492521066.5138685</v>
       </c>
       <c r="M244">
-        <v>609665.2256916327</v>
+        <v>404541374.4988801</v>
       </c>
       <c r="N244">
-        <v>128133.8663521863</v>
+        <v>87979692.01498884</v>
       </c>
       <c r="O244">
-        <v>737799.092043819</v>
+        <v>492521066.5138685</v>
       </c>
       <c r="P244">
-        <v>0</v>
+        <v>2.797073228011588e-09</v>
       </c>
       <c r="Q244">
-        <v>128133.8663521863</v>
+        <v>87979692.01498884</v>
       </c>
       <c r="R244">
-        <v>2157</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="245">
@@ -16379,12 +16399,12 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>02.3.62.1</t>
+          <t>02.3.68.5</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Kvalitní podmínky pro inkluzívní vzdělávání</t>
+          <t>Zvyšení kvality vzdělávání a odborné přípravy včetně posílení jejich relevance pro trh práce</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
@@ -16398,37 +16418,37 @@
         </is>
       </c>
       <c r="H245">
-        <v>627883766.2229404</v>
+        <v>23626299.97052041</v>
       </c>
       <c r="I245">
-        <v>516263722.9353107</v>
+        <v>19727215.52064231</v>
       </c>
       <c r="J245">
-        <v>111620043.2876298</v>
+        <v>3899084.449878109</v>
       </c>
       <c r="K245">
         <v>0</v>
       </c>
       <c r="L245">
-        <v>490477490.4372113</v>
+        <v>1350318.248378673</v>
       </c>
       <c r="M245">
-        <v>402857732.0478299</v>
+        <v>1112015.613122844</v>
       </c>
       <c r="N245">
-        <v>87619758.38938145</v>
+        <v>238302.6352558288</v>
       </c>
       <c r="O245">
-        <v>490477490.4372113</v>
+        <v>1350318.248378673</v>
       </c>
       <c r="P245">
-        <v>9.313225746154785e-10</v>
+        <v>5.626378680650535e-12</v>
       </c>
       <c r="Q245">
-        <v>87619758.38938145</v>
+        <v>238302.6352558287</v>
       </c>
       <c r="R245">
-        <v>2269</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="246">
@@ -16445,16 +16465,6 @@
       <c r="C246">
         <v>0</v>
       </c>
-      <c r="D246" t="inlineStr">
-        <is>
-          <t>02.3.68.5</t>
-        </is>
-      </c>
-      <c r="E246" t="inlineStr">
-        <is>
-          <t>Zvyšení kvality vzdělávání a odborné přípravy včetně posílení jejich relevance pro trh práce</t>
-        </is>
-      </c>
       <c r="F246" t="inlineStr">
         <is>
           <t>OP VVV</t>
@@ -16466,95 +16476,105 @@
         </is>
       </c>
       <c r="H246">
-        <v>2557373.113135404</v>
+        <v>0</v>
       </c>
       <c r="I246">
-        <v>2129252.135968672</v>
+        <v>0</v>
       </c>
       <c r="J246">
-        <v>428120.9771667324</v>
+        <v>0</v>
       </c>
       <c r="K246">
         <v>0</v>
       </c>
       <c r="L246">
-        <v>119422.4240750325</v>
+        <v>0</v>
       </c>
       <c r="M246">
-        <v>96592.13219476433</v>
+        <v>0</v>
       </c>
       <c r="N246">
-        <v>22830.29188026811</v>
+        <v>0</v>
       </c>
       <c r="O246">
-        <v>119422.4240750325</v>
+        <v>0</v>
       </c>
       <c r="P246">
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>22830.29188026811</v>
+        <v>0</v>
       </c>
       <c r="R246">
-        <v>2234</v>
+        <v>63</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Combating all forms of discrimination and promoting equal opportunities</t>
+          <t>Enhancing access to affordable, sustainable and high-quality services, including health care and social services of general interest</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>VI.0.111</t>
+          <t>VI.0.112</t>
         </is>
       </c>
       <c r="C247">
         <v>0</v>
       </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>03.2.60.1</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>Zvýšit uplatnitelnost osob ohrožených sociálním vyloučením nebo sociálně vyloučených ve společnosti a na trhu práce</t>
+        </is>
+      </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>OP VVV</t>
+          <t>OP Z</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>141974135.4173588</v>
       </c>
       <c r="I247">
-        <v>0</v>
+        <v>93302518.64490001</v>
       </c>
       <c r="J247">
-        <v>0</v>
+        <v>48671616.77245883</v>
       </c>
       <c r="K247">
         <v>0</v>
       </c>
       <c r="L247">
-        <v>0</v>
+        <v>65608283.45627567</v>
       </c>
       <c r="M247">
-        <v>0</v>
+        <v>45742210.7242912</v>
       </c>
       <c r="N247">
-        <v>0</v>
+        <v>19866072.73198447</v>
       </c>
       <c r="O247">
-        <v>0</v>
+        <v>65608283.45627567</v>
       </c>
       <c r="P247">
-        <v>0</v>
+        <v>-1.64262019140098e-09</v>
       </c>
       <c r="Q247">
-        <v>0</v>
+        <v>19866072.73198447</v>
       </c>
       <c r="R247">
-        <v>63</v>
+        <v>121</v>
       </c>
     </row>
     <row r="248">
@@ -16573,12 +16593,12 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>03.2.60.1</t>
+          <t>03.2.63.1</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Zvýšit uplatnitelnost osob ohrožených sociálním vyloučením nebo sociálně vyloučených ve společnosti a na trhu práce</t>
+          <t>Zvýšit kvalitu a udržitelnost systému sociálních služeb, služeb pro rodiny a děti a dalších navazujících služeb podporujících sociální začleňování</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
@@ -16592,37 +16612,37 @@
         </is>
       </c>
       <c r="H248">
-        <v>34522819.22143923</v>
+        <v>4272520240.774289</v>
       </c>
       <c r="I248">
-        <v>22758588.712873</v>
+        <v>3353010089.56609</v>
       </c>
       <c r="J248">
-        <v>11764230.50856623</v>
+        <v>916246685.0381894</v>
       </c>
       <c r="K248">
-        <v>0</v>
+        <v>3263466.169999999</v>
       </c>
       <c r="L248">
-        <v>15878704.14505051</v>
+        <v>2764472995.217292</v>
       </c>
       <c r="M248">
-        <v>11101722.10586837</v>
+        <v>2230487818.085001</v>
       </c>
       <c r="N248">
-        <v>4776982.039182135</v>
+        <v>531878609.4722898</v>
       </c>
       <c r="O248">
-        <v>15878704.14505051</v>
+        <v>2762366427.557291</v>
       </c>
       <c r="P248">
-        <v>-2.813409084461673e-10</v>
+        <v>2106567.660000036</v>
       </c>
       <c r="Q248">
-        <v>4776982.039182135</v>
+        <v>533985177.1322899</v>
       </c>
       <c r="R248">
-        <v>121</v>
+        <v>711</v>
       </c>
     </row>
     <row r="249">
@@ -16641,12 +16661,12 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>03.2.63.1</t>
+          <t>03.2.63.2</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Zvýšit kvalitu a udržitelnost systému sociálních služeb, služeb pro rodiny a děti a dalších navazujících služeb podporujících sociální začleňování</t>
+          <t>Zvýšit dostupnost a efektivitu zdravotních služeb a umožnit přesun těžiště psychiatrické péče do komunity</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
@@ -16660,37 +16680,37 @@
         </is>
       </c>
       <c r="H249">
-        <v>4169659159.813015</v>
+        <v>2269485773.579999</v>
       </c>
       <c r="I249">
-        <v>3280475025.637313</v>
+        <v>1760269902.95</v>
       </c>
       <c r="J249">
-        <v>885920668.0057015</v>
+        <v>509215870.63</v>
       </c>
       <c r="K249">
-        <v>3263466.17</v>
+        <v>0</v>
       </c>
       <c r="L249">
-        <v>2717566077.611609</v>
+        <v>1207219541.9</v>
       </c>
       <c r="M249">
-        <v>2194742588.2866</v>
+        <v>936349655.3999997</v>
       </c>
       <c r="N249">
-        <v>520716921.6650093</v>
+        <v>270869886.5</v>
       </c>
       <c r="O249">
-        <v>2715459509.951609</v>
+        <v>1207219541.9</v>
       </c>
       <c r="P249">
-        <v>2106567.66000003</v>
+        <v>3.259629011154175e-08</v>
       </c>
       <c r="Q249">
-        <v>522823489.3250092</v>
+        <v>270869886.5</v>
       </c>
       <c r="R249">
-        <v>711</v>
+        <v>38</v>
       </c>
     </row>
     <row r="250">
@@ -16709,67 +16729,67 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>03.2.63.2</t>
+          <t>07.3.63.3.3</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Zvýšit dostupnost a efektivitu zdravotních služeb a umožnit přesun těžiště psychiatrické péče do komunity</t>
+          <t>Posílení aktivit pro integraci, komunitní služby a prevenci</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>OP Z</t>
+          <t>OP PPR</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>07</t>
         </is>
       </c>
       <c r="H250">
-        <v>2269485773.58</v>
+        <v>776961377.01</v>
       </c>
       <c r="I250">
-        <v>1760269902.95</v>
+        <v>388480688.2600002</v>
       </c>
       <c r="J250">
-        <v>509215870.63</v>
+        <v>385577617.2499999</v>
       </c>
       <c r="K250">
-        <v>0</v>
+        <v>2903071.5</v>
       </c>
       <c r="L250">
-        <v>1207219541.9</v>
+        <v>615636094.5800004</v>
       </c>
       <c r="M250">
-        <v>936349655.4</v>
+        <v>307818045.8200002</v>
       </c>
       <c r="N250">
-        <v>270869886.5</v>
+        <v>305803900.4500001</v>
       </c>
       <c r="O250">
-        <v>1207219541.9</v>
+        <v>613621946.2700005</v>
       </c>
       <c r="P250">
-        <v>3.445893526077271e-08</v>
+        <v>2014148.309999988</v>
       </c>
       <c r="Q250">
-        <v>270869886.5</v>
+        <v>307818048.76</v>
       </c>
       <c r="R250">
-        <v>38</v>
+        <v>177</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Enhancing access to affordable, sustainable and high-quality services, including health care and social services of general interest</t>
+          <t>Community-led local development strategies</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>VI.0.112</t>
+          <t>VI.0.114</t>
         </is>
       </c>
       <c r="C251">
@@ -16777,67 +16797,67 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>07.3.63.3.3</t>
+          <t>03.2.65.1</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Posílení aktivit pro integraci, komunitní služby a prevenci</t>
+          <t>Zvýšit zapojení lokálních aktérů do řešení problémů nezaměstnanosti a sociálního začleňování ve venkovských oblastech</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>OP PPR</t>
+          <t>OP Z</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H251">
-        <v>776961377.01</v>
+        <v>1991915741.780001</v>
       </c>
       <c r="I251">
-        <v>388480688.26</v>
+        <v>1693089963.45999</v>
       </c>
       <c r="J251">
-        <v>385577617.25</v>
+        <v>262256616.259999</v>
       </c>
       <c r="K251">
-        <v>2903071.5</v>
+        <v>36569162.05999999</v>
       </c>
       <c r="L251">
-        <v>615636094.58</v>
+        <v>1185066337.369999</v>
       </c>
       <c r="M251">
-        <v>307818045.82</v>
+        <v>1007306372.299999</v>
       </c>
       <c r="N251">
-        <v>305803900.45</v>
+        <v>155370143.4499999</v>
       </c>
       <c r="O251">
-        <v>613621946.27</v>
+        <v>1162676515.749998</v>
       </c>
       <c r="P251">
-        <v>2014148.30999999</v>
+        <v>22389821.62000001</v>
       </c>
       <c r="Q251">
-        <v>307818048.76</v>
+        <v>177759965.0699996</v>
       </c>
       <c r="R251">
-        <v>177</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Community-led local development strategies</t>
+          <t>Reducing and preventing early school-leaving and promoting equal access to good quality early-childhood, primary and secondary education including formal, non-formal and informal learning pathways for reintegrating into education and training</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>VI.0.114</t>
+          <t>VII.0.115</t>
         </is>
       </c>
       <c r="C252">
@@ -16845,56 +16865,56 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>03.2.65.1</t>
+          <t>02.3.61.1</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Zvýšit zapojení lokálních aktérů do řešení problémů nezaměstnanosti a sociálního začleňování ve venkovských oblastech</t>
+          <t>Sociální integrace dětí a žáků včetně začleňování romských dětí do vzdělávání</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>OP Z</t>
+          <t>OP VVV</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H252">
-        <v>1991915741.78</v>
+        <v>204375064.8464181</v>
       </c>
       <c r="I252">
-        <v>1693089963.46</v>
+        <v>169180510.1834942</v>
       </c>
       <c r="J252">
-        <v>262256616.26</v>
+        <v>35194554.66292339</v>
       </c>
       <c r="K252">
-        <v>36569162.06</v>
+        <v>0</v>
       </c>
       <c r="L252">
-        <v>1185066337.37</v>
+        <v>80103978.42801316</v>
       </c>
       <c r="M252">
-        <v>1007306372.3</v>
+        <v>66028812.21042784</v>
       </c>
       <c r="N252">
-        <v>155370143.45</v>
+        <v>14075166.21758514</v>
       </c>
       <c r="O252">
-        <v>1162676515.75</v>
+        <v>80103978.42801316</v>
       </c>
       <c r="P252">
-        <v>22389821.62</v>
+        <v>3.923172599260167e-11</v>
       </c>
       <c r="Q252">
-        <v>177759965.07</v>
+        <v>14075166.21758514</v>
       </c>
       <c r="R252">
-        <v>1293</v>
+        <v>6291</v>
       </c>
     </row>
     <row r="253">
@@ -16913,12 +16933,12 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>02.3.61.1</t>
+          <t>02.3.62.1</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Sociální integrace dětí a žáků včetně začleňování romských dětí do vzdělávání</t>
+          <t>Kvalitní podmínky pro inkluzívní vzdělávání</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
@@ -16932,37 +16952,37 @@
         </is>
       </c>
       <c r="H253">
-        <v>23655240.76833375</v>
+        <v>23460507.41115658</v>
       </c>
       <c r="I253">
-        <v>19646028.8199181</v>
+        <v>19586291.84316562</v>
       </c>
       <c r="J253">
-        <v>4009211.948415658</v>
+        <v>3874215.567990952</v>
       </c>
       <c r="K253">
         <v>0</v>
       </c>
       <c r="L253">
-        <v>7969250.566440709</v>
+        <v>1350318.244592386</v>
       </c>
       <c r="M253">
-        <v>6583206.666659646</v>
+        <v>1112015.610501772</v>
       </c>
       <c r="N253">
-        <v>1386043.899781063</v>
+        <v>238302.6340906168</v>
       </c>
       <c r="O253">
-        <v>7969250.566440709</v>
+        <v>1350318.244592386</v>
       </c>
       <c r="P253">
-        <v>0</v>
+        <v>5.626378744160856e-12</v>
       </c>
       <c r="Q253">
-        <v>1386043.899781063</v>
+        <v>238302.6340906168</v>
       </c>
       <c r="R253">
-        <v>6291</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="254">
@@ -16981,12 +17001,12 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>02.3.62.1</t>
+          <t>02.3.68.1</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Kvalitní podmínky pro inkluzívní vzdělávání</t>
+          <t xml:space="preserve">Zvýšení kvality předškolního vzdělávání včetně usnadnění přechodu dětí na ZŠ</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
@@ -17000,37 +17020,37 @@
         </is>
       </c>
       <c r="H254">
-        <v>2514790.630871851</v>
+        <v>3765003405.195431</v>
       </c>
       <c r="I254">
-        <v>2093057.025158866</v>
+        <v>3084466689.215766</v>
       </c>
       <c r="J254">
-        <v>421733.6057129859</v>
+        <v>671096924.1870521</v>
       </c>
       <c r="K254">
-        <v>0</v>
+        <v>9439791.792599998</v>
       </c>
       <c r="L254">
-        <v>119422.423821236</v>
+        <v>3315485991.895416</v>
       </c>
       <c r="M254">
-        <v>96592.13195102107</v>
+        <v>2718926796.409782</v>
       </c>
       <c r="N254">
-        <v>22830.29187021491</v>
+        <v>585487496.1044248</v>
       </c>
       <c r="O254">
-        <v>119422.423821236</v>
+        <v>3304414292.514215</v>
       </c>
       <c r="P254">
-        <v>0</v>
+        <v>11071699.38120001</v>
       </c>
       <c r="Q254">
-        <v>22830.29187021491</v>
+        <v>596559195.4856248</v>
       </c>
       <c r="R254">
-        <v>2232</v>
+        <v>7669</v>
       </c>
     </row>
     <row r="255">
@@ -17049,12 +17069,12 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>02.3.68.1</t>
+          <t>02.3.68.2</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t xml:space="preserve">Zvýšení kvality předškolního vzdělávání včetně usnadnění přechodu dětí na ZŠ</t>
+          <t>Zlepšení kvality vzdělávání a výsledků žáků v klíčových kompetencích</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
@@ -17068,37 +17088,37 @@
         </is>
       </c>
       <c r="H255">
-        <v>2635375748.632382</v>
+        <v>10031369263.99837</v>
       </c>
       <c r="I255">
-        <v>2148712270.81651</v>
+        <v>8248119554.37575</v>
       </c>
       <c r="J255">
-        <v>480214433.2389586</v>
+        <v>1756083113.301241</v>
       </c>
       <c r="K255">
-        <v>6449044.576913999</v>
+        <v>27166596.3214</v>
       </c>
       <c r="L255">
-        <v>2426238770.440504</v>
+        <v>7262100706.296362</v>
       </c>
       <c r="M255">
-        <v>1981047433.937703</v>
+        <v>5966844281.156894</v>
       </c>
       <c r="N255">
-        <v>436694389.815923</v>
+        <v>1270308781.206188</v>
       </c>
       <c r="O255">
-        <v>2417741823.753626</v>
+        <v>7237153062.363062</v>
       </c>
       <c r="P255">
-        <v>8496946.686877999</v>
+        <v>24947643.93329999</v>
       </c>
       <c r="Q255">
-        <v>445191336.5028009</v>
+        <v>1295256425.139489</v>
       </c>
       <c r="R255">
-        <v>7669</v>
+        <v>9411</v>
       </c>
     </row>
     <row r="256">
@@ -17117,12 +17137,12 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>02.3.68.2</t>
+          <t>02.3.68.3</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Zlepšení kvality vzdělávání a výsledků žáků v klíčových kompetencích</t>
+          <t>Rozvoj systému strategického řízení a hodnocení kvality ve vzdělávání</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
@@ -17136,37 +17156,37 @@
         </is>
       </c>
       <c r="H256">
-        <v>7763930476.405583</v>
+        <v>2455761494.3663</v>
       </c>
       <c r="I256">
-        <v>6366837928.705415</v>
+        <v>2008759131.9742</v>
       </c>
       <c r="J256">
-        <v>1375363185.727554</v>
+        <v>418271344.7020997</v>
       </c>
       <c r="K256">
-        <v>21729361.972614</v>
+        <v>28731017.69000001</v>
       </c>
       <c r="L256">
-        <v>5819775047.515848</v>
+        <v>1836448735.929999</v>
       </c>
       <c r="M256">
-        <v>4768326728.239225</v>
+        <v>1503942735.361502</v>
       </c>
       <c r="N256">
-        <v>1031460326.80897</v>
+        <v>307030626.2685</v>
       </c>
       <c r="O256">
-        <v>5799787055.048195</v>
+        <v>1810973361.629999</v>
       </c>
       <c r="P256">
-        <v>19987992.46765298</v>
+        <v>25475374.29999996</v>
       </c>
       <c r="Q256">
-        <v>1051448319.276623</v>
+        <v>332506000.5685</v>
       </c>
       <c r="R256">
-        <v>9411</v>
+        <v>461</v>
       </c>
     </row>
     <row r="257">
@@ -17185,12 +17205,12 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>02.3.68.3</t>
+          <t>02.3.68.4</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Rozvoj systému strategického řízení a hodnocení kvality ve vzdělávání</t>
+          <t>Zkvalitnění přípravy budoucích a začínajících pedagogických pracovníků</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
@@ -17204,37 +17224,37 @@
         </is>
       </c>
       <c r="H257">
-        <v>2018927380.443321</v>
+        <v>955830170.782352</v>
       </c>
       <c r="I257">
-        <v>1648157782.370624</v>
+        <v>790350600.4451829</v>
       </c>
       <c r="J257">
-        <v>345006563.240197</v>
+        <v>151044132.2371689</v>
       </c>
       <c r="K257">
-        <v>25763034.8325</v>
+        <v>14435438.1</v>
       </c>
       <c r="L257">
-        <v>1533542158.67268</v>
+        <v>488111045.6855001</v>
       </c>
       <c r="M257">
-        <v>1253986096.850855</v>
+        <v>408504969.8525</v>
       </c>
       <c r="N257">
-        <v>256433243.480575</v>
+        <v>67413096.73300001</v>
       </c>
       <c r="O257">
-        <v>1510419340.33143</v>
+        <v>475918066.5855001</v>
       </c>
       <c r="P257">
-        <v>23122818.34124996</v>
+        <v>12192979.10000001</v>
       </c>
       <c r="Q257">
-        <v>279556061.821825</v>
+        <v>79606075.833</v>
       </c>
       <c r="R257">
-        <v>459</v>
+        <v>40</v>
       </c>
     </row>
     <row r="258">
@@ -17253,12 +17273,12 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>02.3.68.4</t>
+          <t>02.3.68.5</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Zkvalitnění přípravy budoucích a začínajících pedagogických pracovníků</t>
+          <t>Zvyšení kvality vzdělávání a odborné přípravy včetně posílení jejich relevance pro trh práce</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
@@ -17272,37 +17292,37 @@
         </is>
       </c>
       <c r="H258">
-        <v>860660943.6698501</v>
+        <v>7715797608.414529</v>
       </c>
       <c r="I258">
-        <v>716349412.6277578</v>
+        <v>6248933536.804254</v>
       </c>
       <c r="J258">
-        <v>129876092.9420923</v>
+        <v>1446407830.97423</v>
       </c>
       <c r="K258">
-        <v>14435438.1</v>
+        <v>20456240.636</v>
       </c>
       <c r="L258">
-        <v>482849846.213375</v>
+        <v>4123547094.839908</v>
       </c>
       <c r="M258">
-        <v>404032950.307525</v>
+        <v>3377076719.171383</v>
       </c>
       <c r="N258">
-        <v>66623916.80585</v>
+        <v>728907747.1630224</v>
       </c>
       <c r="O258">
-        <v>470656867.113375</v>
+        <v>4105984466.334407</v>
       </c>
       <c r="P258">
-        <v>12192979.10000001</v>
+        <v>17562628.5055</v>
       </c>
       <c r="Q258">
-        <v>78816895.90585001</v>
+        <v>746470375.6685215</v>
       </c>
       <c r="R258">
-        <v>40</v>
+        <v>9149</v>
       </c>
     </row>
     <row r="259">
@@ -17321,56 +17341,56 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>02.3.68.5</t>
+          <t>07.4.68.4.2</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Zvyšení kvality vzdělávání a odborné přípravy včetně posílení jejich relevance pro trh práce</t>
+          <t>Zvýšení kvality vzdělávání prostřednictvím posílení inkluze v multikulturní společnosti</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>OP VVV</t>
+          <t>OP PPR</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>07</t>
         </is>
       </c>
       <c r="H259">
-        <v>5888680980.699636</v>
+        <v>1306387489.02</v>
       </c>
       <c r="I259">
-        <v>4732077470.985261</v>
+        <v>653193744.2500002</v>
       </c>
       <c r="J259">
-        <v>1142431968.026575</v>
+        <v>647724407.2399999</v>
       </c>
       <c r="K259">
-        <v>14171541.6878</v>
+        <v>5469337.53</v>
       </c>
       <c r="L259">
-        <v>3124002088.869528</v>
+        <v>609563874.7500002</v>
       </c>
       <c r="M259">
-        <v>2546204409.351175</v>
+        <v>304781936.39</v>
       </c>
       <c r="N259">
-        <v>565691120.0582289</v>
+        <v>301929974.23</v>
       </c>
       <c r="O259">
-        <v>3111895529.409403</v>
+        <v>606711910.6200002</v>
       </c>
       <c r="P259">
-        <v>12106559.460125</v>
+        <v>2851964.129999999</v>
       </c>
       <c r="Q259">
-        <v>577797679.5183538</v>
+        <v>304781938.3599999</v>
       </c>
       <c r="R259">
-        <v>9149</v>
+        <v>801</v>
       </c>
     </row>
     <row r="260">
@@ -17387,74 +17407,74 @@
       <c r="C260">
         <v>0</v>
       </c>
-      <c r="D260" t="inlineStr">
-        <is>
-          <t>07.4.68.4.2</t>
-        </is>
-      </c>
-      <c r="E260" t="inlineStr">
-        <is>
-          <t>Zvýšení kvality vzdělávání prostřednictvím posílení inkluze v multikulturní společnosti</t>
-        </is>
-      </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>OP PPR</t>
+          <t>OP VVV</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H260">
-        <v>1306387489.02</v>
+        <v>0</v>
       </c>
       <c r="I260">
-        <v>653193744.25</v>
+        <v>0</v>
       </c>
       <c r="J260">
-        <v>647724407.24</v>
+        <v>0</v>
       </c>
       <c r="K260">
-        <v>5469337.53</v>
+        <v>0</v>
       </c>
       <c r="L260">
-        <v>609563874.75</v>
+        <v>0</v>
       </c>
       <c r="M260">
-        <v>304781936.39</v>
+        <v>0</v>
       </c>
       <c r="N260">
-        <v>301929974.23</v>
+        <v>0</v>
       </c>
       <c r="O260">
-        <v>606711910.62</v>
+        <v>0</v>
       </c>
       <c r="P260">
-        <v>2851964.129999999</v>
+        <v>0</v>
       </c>
       <c r="Q260">
-        <v>304781938.36</v>
+        <v>0</v>
       </c>
       <c r="R260">
-        <v>801</v>
+        <v>31</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Reducing and preventing early school-leaving and promoting equal access to good quality early-childhood, primary and secondary education including formal, non-formal and informal learning pathways for reintegrating into education and training</t>
+          <t>Improving the quality and efficiency of, and access to, tertiary and equivalent education with a view to increasing participation and attainment levels, especially for disadvantaged groups</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>VII.0.115</t>
+          <t>VII.0.116</t>
         </is>
       </c>
       <c r="C261">
         <v>0</v>
       </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>02.2.69.1</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>Zvýšení kvality vzdělávání na vysokých školách a jeho relevance pro potřeby trhu práce</t>
+        </is>
+      </c>
       <c r="F261" t="inlineStr">
         <is>
           <t>OP VVV</t>
@@ -17466,37 +17486,37 @@
         </is>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2875973999.650123</v>
       </c>
       <c r="I261">
-        <v>0</v>
+        <v>2350010814.382798</v>
       </c>
       <c r="J261">
-        <v>0</v>
+        <v>416934119.3100819</v>
       </c>
       <c r="K261">
-        <v>0</v>
+        <v>109029065.957243</v>
       </c>
       <c r="L261">
-        <v>0</v>
+        <v>2212202114.707729</v>
       </c>
       <c r="M261">
-        <v>0</v>
+        <v>1808330644.364288</v>
       </c>
       <c r="N261">
-        <v>0</v>
+        <v>313054003.2844749</v>
       </c>
       <c r="O261">
-        <v>0</v>
+        <v>2121384647.648764</v>
       </c>
       <c r="P261">
-        <v>0</v>
+        <v>90817467.05896598</v>
       </c>
       <c r="Q261">
-        <v>0</v>
+        <v>403871470.3434408</v>
       </c>
       <c r="R261">
-        <v>33</v>
+        <v>59</v>
       </c>
     </row>
     <row r="262">
@@ -17515,12 +17535,12 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>02.2.69.1</t>
+          <t>02.2.69.2</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Zvýšení kvality vzdělávání na vysokých školách a jeho relevance pro potřeby trhu práce</t>
+          <t>Zvýšení účasti studentů se specifickými potřebami, ze socio-ekonomicky znevýhodněných skupin a z etnických minorit na vysokoškolském vzdělávání, a snížení studijní neúspěšnosti studentů</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
@@ -17534,37 +17554,37 @@
         </is>
       </c>
       <c r="H262">
-        <v>2137883436.611311</v>
+        <v>573637777.0843242</v>
       </c>
       <c r="I262">
-        <v>1747014860.381849</v>
+        <v>468900666.332028</v>
       </c>
       <c r="J262">
-        <v>313036395.7294301</v>
+        <v>83875325.683093</v>
       </c>
       <c r="K262">
-        <v>77832180.50003143</v>
+        <v>20861785.069203</v>
       </c>
       <c r="L262">
-        <v>1630945035.514077</v>
+        <v>433318020.9274319</v>
       </c>
       <c r="M262">
-        <v>1333353517.441399</v>
+        <v>354645819.517549</v>
       </c>
       <c r="N262">
-        <v>232726798.0522246</v>
+        <v>61401989.570601</v>
       </c>
       <c r="O262">
-        <v>1566080315.493624</v>
+        <v>416047809.0881501</v>
       </c>
       <c r="P262">
-        <v>64864720.02045357</v>
+        <v>17270211.83928199</v>
       </c>
       <c r="Q262">
-        <v>297591518.0726782</v>
+        <v>78672201.40988301</v>
       </c>
       <c r="R262">
-        <v>59</v>
+        <v>39</v>
       </c>
     </row>
     <row r="263">
@@ -17583,12 +17603,12 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>02.2.69.2</t>
+          <t>02.2.69.3</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Zvýšení účasti studentů se specifickými potřebami, ze socio-ekonomicky znevýhodněných skupin a z etnických minorit na vysokoškolském vzdělávání, a snížení studijní neúspěšnosti studentů</t>
+          <t>Zkvalitnění podmínek pro celoživotní vzdělávání na vysokých školách</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
@@ -17602,37 +17622,37 @@
         </is>
       </c>
       <c r="H263">
-        <v>126880911.3650893</v>
+        <v>25984151.63</v>
       </c>
       <c r="I263">
-        <v>102811690.5943561</v>
+        <v>21320671.48</v>
       </c>
       <c r="J263">
-        <v>20070494.76476751</v>
+        <v>4368439.52</v>
       </c>
       <c r="K263">
-        <v>3998726.005965749</v>
+        <v>295040.63</v>
       </c>
       <c r="L263">
-        <v>91507590.17560835</v>
+        <v>19841830.02</v>
       </c>
       <c r="M263">
-        <v>74273342.02882598</v>
+        <v>16145809.63</v>
       </c>
       <c r="N263">
-        <v>13900716.04125039</v>
+        <v>3401862.11</v>
       </c>
       <c r="O263">
-        <v>88174058.07007638</v>
+        <v>19547671.74</v>
       </c>
       <c r="P263">
-        <v>3333532.105531972</v>
+        <v>294158.2799999991</v>
       </c>
       <c r="Q263">
-        <v>17234248.14678237</v>
+        <v>3696020.389999999</v>
       </c>
       <c r="R263">
-        <v>39</v>
+        <v>8</v>
       </c>
     </row>
     <row r="264">
@@ -17651,12 +17671,12 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>02.2.69.3</t>
+          <t>02.2.69.4</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Zkvalitnění podmínek pro celoživotní vzdělávání na vysokých školách</t>
+          <t>Nastavení a rozvoj systému hodnocení a zabezpečení kvality a strategického řízení vysokých škol</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
@@ -17670,37 +17690,37 @@
         </is>
       </c>
       <c r="H264">
-        <v>25984151.63</v>
+        <v>646311535.785553</v>
       </c>
       <c r="I264">
-        <v>21320671.48</v>
+        <v>524443611.515174</v>
       </c>
       <c r="J264">
-        <v>4368439.52</v>
+        <v>90128700.32682501</v>
       </c>
       <c r="K264">
-        <v>295040.63</v>
+        <v>31739223.943554</v>
       </c>
       <c r="L264">
-        <v>19841830.02</v>
+        <v>533763467.7648389</v>
       </c>
       <c r="M264">
-        <v>16145809.63</v>
+        <v>432672527.2281631</v>
       </c>
       <c r="N264">
-        <v>3401862.11</v>
+        <v>74505603.414924</v>
       </c>
       <c r="O264">
-        <v>19547671.74</v>
+        <v>507178130.6430871</v>
       </c>
       <c r="P264">
-        <v>294158.2799999991</v>
+        <v>26585337.12175199</v>
       </c>
       <c r="Q264">
-        <v>3696020.39</v>
+        <v>101090940.536676</v>
       </c>
       <c r="R264">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="265">
@@ -17719,12 +17739,12 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>02.2.69.4</t>
+          <t>02.2.69.5</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Nastavení a rozvoj systému hodnocení a zabezpečení kvality a strategického řízení vysokých škol</t>
+          <t>Zlepšení podmínek pro výuku spojenou s výzkumem a pro rozvoj lidských zdrojů v oblasti výzkumu a vývoje</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
@@ -17738,37 +17758,37 @@
         </is>
       </c>
       <c r="H265">
-        <v>172858469.1109808</v>
+        <v>6538110815.910001</v>
       </c>
       <c r="I265">
-        <v>137840863.6213884</v>
+        <v>5317682002.039998</v>
       </c>
       <c r="J265">
-        <v>26275653.94060981</v>
+        <v>1095113134.409999</v>
       </c>
       <c r="K265">
-        <v>8741951.548982617</v>
+        <v>125315679.46</v>
       </c>
       <c r="L265">
-        <v>145478259.2025524</v>
+        <v>3632120176.839999</v>
       </c>
       <c r="M265">
-        <v>115732506.4753267</v>
+        <v>2967772456.699996</v>
       </c>
       <c r="N265">
-        <v>22323608.78450434</v>
+        <v>561583245.1799996</v>
       </c>
       <c r="O265">
-        <v>138056115.2598311</v>
+        <v>3529355701.879999</v>
       </c>
       <c r="P265">
-        <v>7422143.942721368</v>
+        <v>102764474.96</v>
       </c>
       <c r="Q265">
-        <v>29745752.72722571</v>
+        <v>664347720.14</v>
       </c>
       <c r="R265">
-        <v>31</v>
+        <v>350</v>
       </c>
     </row>
     <row r="266">
@@ -17785,16 +17805,6 @@
       <c r="C266">
         <v>0</v>
       </c>
-      <c r="D266" t="inlineStr">
-        <is>
-          <t>02.2.69.5</t>
-        </is>
-      </c>
-      <c r="E266" t="inlineStr">
-        <is>
-          <t>Zlepšení podmínek pro výuku spojenou s výzkumem a pro rozvoj lidských zdrojů v oblasti výzkumu a vývoje</t>
-        </is>
-      </c>
       <c r="F266" t="inlineStr">
         <is>
           <t>OP VVV</t>
@@ -17806,95 +17816,105 @@
         </is>
       </c>
       <c r="H266">
-        <v>6538110815.91</v>
+        <v>0</v>
       </c>
       <c r="I266">
-        <v>5317682002.04</v>
+        <v>0</v>
       </c>
       <c r="J266">
-        <v>1095113134.41</v>
+        <v>0</v>
       </c>
       <c r="K266">
-        <v>125315679.46</v>
+        <v>0</v>
       </c>
       <c r="L266">
-        <v>3632120176.84</v>
+        <v>0</v>
       </c>
       <c r="M266">
-        <v>2967772456.7</v>
+        <v>0</v>
       </c>
       <c r="N266">
-        <v>561583245.1799999</v>
+        <v>0</v>
       </c>
       <c r="O266">
-        <v>3529355701.88</v>
+        <v>0</v>
       </c>
       <c r="P266">
-        <v>102764474.96</v>
+        <v>0</v>
       </c>
       <c r="Q266">
-        <v>664347720.14</v>
+        <v>0</v>
       </c>
       <c r="R266">
-        <v>350</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Improving the quality and efficiency of, and access to, tertiary and equivalent education with a view to increasing participation and attainment levels, especially for disadvantaged groups</t>
+          <t>Investment in institutional capacity and in the efficiency of public administrations and public services at the national, regional and local levels with a view to reforms, better regulation and good governance</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>VII.0.116</t>
+          <t>VIII.0.119</t>
         </is>
       </c>
       <c r="C267">
         <v>0</v>
       </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>03.3.48.1</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>Zvýšit kvalitu a kvantitu využívání sociálních inovací a mezinárodní spolupráce v tematických oblastech OPZ (TC8)</t>
+        </is>
+      </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>OP VVV</t>
+          <t>OP Z</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>84706434.14698221</v>
       </c>
       <c r="I267">
-        <v>0</v>
+        <v>76966807.078725</v>
       </c>
       <c r="J267">
-        <v>0</v>
+        <v>6521983.196354499</v>
       </c>
       <c r="K267">
-        <v>0</v>
+        <v>1217643.871902704</v>
       </c>
       <c r="L267">
-        <v>0</v>
+        <v>48136789.81021003</v>
       </c>
       <c r="M267">
-        <v>0</v>
+        <v>43738530.44376853</v>
       </c>
       <c r="N267">
-        <v>0</v>
+        <v>3517287.407880817</v>
       </c>
       <c r="O267">
-        <v>0</v>
+        <v>47255817.85164935</v>
       </c>
       <c r="P267">
-        <v>0</v>
+        <v>880971.9585606827</v>
       </c>
       <c r="Q267">
-        <v>0</v>
+        <v>4398259.366441499</v>
       </c>
       <c r="R267">
-        <v>2</v>
+        <v>65</v>
       </c>
     </row>
     <row r="268">
@@ -17913,12 +17933,12 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>03.3.48.1</t>
+          <t>03.3.60.1</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Zvýšit kvalitu a kvantitu využívání sociálních inovací a mezinárodní spolupráce v tematických oblastech OPZ (TC8)</t>
+          <t>Zvýšit kvalitu a kvantitu využívání sociálních inovací a mezinárodní spolupráce v tematických oblastech OPZ (TC9)</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
@@ -17932,34 +17952,34 @@
         </is>
       </c>
       <c r="H268">
-        <v>14913367.16473869</v>
+        <v>92269841.54153877</v>
       </c>
       <c r="I268">
-        <v>13550732.76949912</v>
+        <v>83839145.93397498</v>
       </c>
       <c r="J268">
-        <v>1029052.023373791</v>
+        <v>7056943.54695562</v>
       </c>
       <c r="K268">
-        <v>333582.3718657792</v>
+        <v>1373752.060608179</v>
       </c>
       <c r="L268">
-        <v>9533171.961486114</v>
+        <v>51100312.06201868</v>
       </c>
       <c r="M268">
-        <v>8662125.857383139</v>
+        <v>46431275.62497864</v>
       </c>
       <c r="N268">
-        <v>633353.2148569815</v>
+        <v>3675119.355586954</v>
       </c>
       <c r="O268">
-        <v>9295479.07224012</v>
+        <v>50106394.9805656</v>
       </c>
       <c r="P268">
-        <v>237692.8892459949</v>
+        <v>993917.0814530776</v>
       </c>
       <c r="Q268">
-        <v>871046.1041029763</v>
+        <v>4669036.43704003</v>
       </c>
       <c r="R268">
         <v>65</v>
@@ -17981,12 +18001,12 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>03.3.60.1</t>
+          <t>03.3.74.1</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Zvýšit kvalitu a kvantitu využívání sociálních inovací a mezinárodní spolupráce v tematických oblastech OPZ (TC9)</t>
+          <t>Zvýšit kvalitu a kvantitu využívání sociálních inovací a mezinárodní spolupráce v tematických oblastech OPZ (TC11)</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
@@ -18000,37 +18020,37 @@
         </is>
       </c>
       <c r="H269">
-        <v>16302048.21412192</v>
+        <v>35115618.68946002</v>
       </c>
       <c r="I269">
-        <v>14812530.03544388</v>
+        <v>31907104.54080001</v>
       </c>
       <c r="J269">
-        <v>1064918.92034</v>
+        <v>2677746.3070614</v>
       </c>
       <c r="K269">
-        <v>424599.2583380332</v>
+        <v>530767.8415986147</v>
       </c>
       <c r="L269">
-        <v>9529601.226884808</v>
+        <v>19223553.6385955</v>
       </c>
       <c r="M269">
-        <v>8658881.391912876</v>
+        <v>17467097.19709511</v>
       </c>
       <c r="N269">
-        <v>568173.198824498</v>
+        <v>1372443.023666245</v>
       </c>
       <c r="O269">
-        <v>9227054.590737374</v>
+        <v>18839540.22076136</v>
       </c>
       <c r="P269">
-        <v>302546.6361474334</v>
+        <v>384013.4178341436</v>
       </c>
       <c r="Q269">
-        <v>870719.8349719313</v>
+        <v>1756456.441500388</v>
       </c>
       <c r="R269">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="270">
@@ -18049,12 +18069,12 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>03.3.74.1</t>
+          <t>03.4.74.1</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Zvýšit kvalitu a kvantitu využívání sociálních inovací a mezinárodní spolupráce v tematických oblastech OPZ (TC11)</t>
+          <t>Optimalizovat procesy a postupy ve veřejné správě zejména prostřednictvím posílení strategického řízení organizací, zvýšení kvality jejich fungování a snížení administrativní zátěže</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
@@ -18068,37 +18088,37 @@
         </is>
       </c>
       <c r="H270">
-        <v>2395250.222871259</v>
+        <v>2803256705.259124</v>
       </c>
       <c r="I270">
-        <v>2176396.205231987</v>
+        <v>2290853901.723938</v>
       </c>
       <c r="J270">
-        <v>155471.1738067859</v>
+        <v>498374308.446782</v>
       </c>
       <c r="K270">
-        <v>63382.84383248533</v>
+        <v>14028495.0884</v>
       </c>
       <c r="L270">
-        <v>1385361.635808206</v>
+        <v>1656144198.701383</v>
       </c>
       <c r="M270">
-        <v>1258781.118504789</v>
+        <v>1352622791.660072</v>
       </c>
       <c r="N270">
-        <v>81417.30560578834</v>
+        <v>291647271.552509</v>
       </c>
       <c r="O270">
-        <v>1340198.424110578</v>
+        <v>1644270063.212583</v>
       </c>
       <c r="P270">
-        <v>45163.21169762823</v>
+        <v>11874135.48880003</v>
       </c>
       <c r="Q270">
-        <v>126580.5173034166</v>
+        <v>303521407.0413089</v>
       </c>
       <c r="R270">
-        <v>61</v>
+        <v>554</v>
       </c>
     </row>
     <row r="271">
@@ -18117,12 +18137,12 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>03.4.74.1</t>
+          <t>03.4.74.2</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Optimalizovat procesy a postupy ve veřejné správě zejména prostřednictvím posílení strategického řízení organizací, zvýšení kvality jejich fungování a snížení administrativní zátěže</t>
+          <t>Profesionalizovat veřejnou správu zejména prostřednictvím zvyšování znalostí a dovedností jejích pracovníků, rozvoje politik a strategií v oblasti lidských zdrojů a implementace služebního zákona</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
@@ -18136,104 +18156,36 @@
         </is>
       </c>
       <c r="H271">
-        <v>1684121904.57228</v>
+        <v>2152273826.34088</v>
       </c>
       <c r="I271">
-        <v>1374340840.387751</v>
+        <v>1762599121.606061</v>
       </c>
       <c r="J271">
-        <v>302486246.7385608</v>
+        <v>376725324.6532179</v>
       </c>
       <c r="K271">
-        <v>7294817.445968</v>
+        <v>12949380.0816</v>
       </c>
       <c r="L271">
-        <v>1012022393.850686</v>
+        <v>1236639914.708616</v>
       </c>
       <c r="M271">
-        <v>825327420.347991</v>
+        <v>1012367127.079925</v>
       </c>
       <c r="N271">
-        <v>180520423.0485194</v>
+        <v>213312047.1774909</v>
       </c>
       <c r="O271">
-        <v>1005847843.39651</v>
+        <v>1225679174.257417</v>
       </c>
       <c r="P271">
-        <v>6174550.454176022</v>
+        <v>10960740.45120001</v>
       </c>
       <c r="Q271">
-        <v>186694973.5026954</v>
+        <v>224272787.6286908</v>
       </c>
       <c r="R271">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="inlineStr">
-        <is>
-          <t>Investment in institutional capacity and in the efficiency of public administrations and public services at the national, regional and local levels with a view to reforms, better regulation and good governance</t>
-        </is>
-      </c>
-      <c r="B272" t="inlineStr">
-        <is>
-          <t>VIII.0.119</t>
-        </is>
-      </c>
-      <c r="C272">
-        <v>0</v>
-      </c>
-      <c r="D272" t="inlineStr">
-        <is>
-          <t>03.4.74.2</t>
-        </is>
-      </c>
-      <c r="E272" t="inlineStr">
-        <is>
-          <t>Profesionalizovat veřejnou správu zejména prostřednictvím zvyšování znalostí a dovedností jejích pracovníků, rozvoje politik a strategií v oblasti lidských zdrojů a implementace služebního zákona</t>
-        </is>
-      </c>
-      <c r="F272" t="inlineStr">
-        <is>
-          <t>OP Z</t>
-        </is>
-      </c>
-      <c r="G272" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
-      </c>
-      <c r="H272">
-        <v>1033139025.65404</v>
-      </c>
-      <c r="I272">
-        <v>846086060.2698752</v>
-      </c>
-      <c r="J272">
-        <v>180837262.9449968</v>
-      </c>
-      <c r="K272">
-        <v>6215702.439168</v>
-      </c>
-      <c r="L272">
-        <v>592518109.8579203</v>
-      </c>
-      <c r="M272">
-        <v>485071755.7678428</v>
-      </c>
-      <c r="N272">
-        <v>102185198.6735014</v>
-      </c>
-      <c r="O272">
-        <v>587256954.4413443</v>
-      </c>
-      <c r="P272">
-        <v>5261155.416576005</v>
-      </c>
-      <c r="Q272">
-        <v>107446354.0900774</v>
-      </c>
-      <c r="R272">
         <v>555</v>
       </c>
     </row>

--- a/data-export/export_202110/sum_tagged_nonagri_detail.xlsx
+++ b/data-export/export_202110/sum_tagged_nonagri_detail.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R271"/>
+  <dimension ref="A1:R272"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -476,37 +476,37 @@
         </is>
       </c>
       <c r="H2">
-        <v>7677453.895</v>
+        <v>2895764.4475</v>
       </c>
       <c r="I2">
-        <v>6525835.81</v>
+        <v>2461399.78</v>
       </c>
       <c r="J2">
-        <v>1057321.835</v>
+        <v>434364.6675</v>
       </c>
       <c r="K2">
-        <v>94296.25</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>5782731.175</v>
+        <v>2891365.5875</v>
       </c>
       <c r="M2">
-        <v>4915321.495</v>
+        <v>2457660.7475</v>
       </c>
       <c r="N2">
-        <v>867409.6800000001</v>
+        <v>433704.84</v>
       </c>
       <c r="O2">
-        <v>5782731.175</v>
+        <v>2891365.5875</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>867409.6799999997</v>
+        <v>433704.8399999999</v>
       </c>
       <c r="R2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -815,16 +815,6 @@
           <t xml:space="preserve"> IX.0.122</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>08.1.125.1.1</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Vytvořit podmínky pro naplnění cílů Dohody o partnerství a koordinace řízení</t>
-        </is>
-      </c>
       <c r="F9" t="inlineStr">
         <is>
           <t>OP TP</t>
@@ -836,13 +826,13 @@
         </is>
       </c>
       <c r="H9">
-        <v>6172500</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>5246625</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>925875</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -996,13 +986,13 @@
         </is>
       </c>
       <c r="H12">
-        <v>624999830</v>
+        <v>156249957.5</v>
       </c>
       <c r="I12">
-        <v>503621738.0125</v>
+        <v>125905434.503125</v>
       </c>
       <c r="J12">
-        <v>121378091.9875</v>
+        <v>30344522.996875</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1056,13 +1046,13 @@
         </is>
       </c>
       <c r="H13">
-        <v>624999830</v>
+        <v>156249957.5</v>
       </c>
       <c r="I13">
-        <v>503621738.0125</v>
+        <v>125905434.503125</v>
       </c>
       <c r="J13">
-        <v>121378091.9875</v>
+        <v>30344522.996875</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1116,37 +1106,37 @@
         </is>
       </c>
       <c r="H14">
-        <v>1623863.444444445</v>
+        <v>66964.66666666666</v>
       </c>
       <c r="I14">
-        <v>1380283.88</v>
+        <v>56919.96506172838</v>
       </c>
       <c r="J14">
-        <v>243579.5644444444</v>
+        <v>10044.70160493827</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>23437.22222222222</v>
+        <v>2604.135802469135</v>
       </c>
       <c r="M14">
-        <v>19921.63444444445</v>
+        <v>2213.514938271605</v>
       </c>
       <c r="N14">
-        <v>3515.587777777778</v>
+        <v>390.6208641975309</v>
       </c>
       <c r="O14">
-        <v>23437.22222222222</v>
+        <v>2604.135802469135</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>3515.587777777776</v>
+        <v>390.6208641975306</v>
       </c>
       <c r="R14">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -1176,37 +1166,37 @@
         </is>
       </c>
       <c r="H15">
-        <v>1623863.444444445</v>
+        <v>66964.66666666666</v>
       </c>
       <c r="I15">
-        <v>1380283.88</v>
+        <v>56919.96506172838</v>
       </c>
       <c r="J15">
-        <v>243579.5644444444</v>
+        <v>10044.70160493827</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>23437.22222222222</v>
+        <v>2604.135802469135</v>
       </c>
       <c r="M15">
-        <v>19921.63444444445</v>
+        <v>2213.514938271605</v>
       </c>
       <c r="N15">
-        <v>3515.587777777778</v>
+        <v>390.6208641975309</v>
       </c>
       <c r="O15">
-        <v>23437.22222222222</v>
+        <v>2604.135802469135</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>3515.587777777776</v>
+        <v>390.6208641975306</v>
       </c>
       <c r="R15">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -1236,37 +1226,37 @@
         </is>
       </c>
       <c r="H16">
-        <v>1623863.444444445</v>
+        <v>66964.66666666666</v>
       </c>
       <c r="I16">
-        <v>1380283.88</v>
+        <v>56919.96506172838</v>
       </c>
       <c r="J16">
-        <v>243579.5644444444</v>
+        <v>10044.70160493827</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>23437.22222222222</v>
+        <v>2604.135802469135</v>
       </c>
       <c r="M16">
-        <v>19921.63444444445</v>
+        <v>2213.514938271605</v>
       </c>
       <c r="N16">
-        <v>3515.587777777778</v>
+        <v>390.6208641975309</v>
       </c>
       <c r="O16">
-        <v>23437.22222222222</v>
+        <v>2604.135802469135</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>3515.587777777776</v>
+        <v>390.6208641975306</v>
       </c>
       <c r="R16">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1316,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="R17">
-        <v>952</v>
+        <v>973</v>
       </c>
     </row>
     <row r="18">
@@ -1346,13 +1336,13 @@
         </is>
       </c>
       <c r="H18">
-        <v>1178748.75</v>
+        <v>294687.1875</v>
       </c>
       <c r="I18">
-        <v>589374.375</v>
+        <v>147343.59375</v>
       </c>
       <c r="J18">
-        <v>589374.375</v>
+        <v>147343.59375</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1406,13 +1396,13 @@
         </is>
       </c>
       <c r="H19">
-        <v>1178748.75</v>
+        <v>294687.1875</v>
       </c>
       <c r="I19">
-        <v>589374.375</v>
+        <v>147343.59375</v>
       </c>
       <c r="J19">
-        <v>589374.375</v>
+        <v>147343.59375</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1516,37 +1506,37 @@
         </is>
       </c>
       <c r="H21">
-        <v>3102728.944444444</v>
+        <v>95296.47916666666</v>
       </c>
       <c r="I21">
-        <v>2501942.2425</v>
+        <v>76749.24256172839</v>
       </c>
       <c r="J21">
-        <v>600786.7019444443</v>
+        <v>18547.23660493827</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>36334.22222222222</v>
+        <v>5828.385802469135</v>
       </c>
       <c r="M21">
-        <v>28627.10694444444</v>
+        <v>4389.883063271605</v>
       </c>
       <c r="N21">
-        <v>7707.115277777778</v>
+        <v>1438.502739197531</v>
       </c>
       <c r="O21">
-        <v>36334.22222222222</v>
+        <v>5828.385802469135</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>7707.115277777775</v>
+        <v>1438.502739197531</v>
       </c>
       <c r="R21">
-        <v>41</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -1576,37 +1566,37 @@
         </is>
       </c>
       <c r="H22">
-        <v>1794614.444444445</v>
+        <v>109652.4166666667</v>
       </c>
       <c r="I22">
-        <v>1525422.225</v>
+        <v>93204.55131172838</v>
       </c>
       <c r="J22">
-        <v>269192.2194444445</v>
+        <v>16447.86535493827</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>23437.22222222222</v>
+        <v>2604.135802469135</v>
       </c>
       <c r="M22">
-        <v>19921.63444444445</v>
+        <v>2213.514938271605</v>
       </c>
       <c r="N22">
-        <v>3515.587777777778</v>
+        <v>390.6208641975309</v>
       </c>
       <c r="O22">
-        <v>23437.22222222222</v>
+        <v>2604.135802469135</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>3515.587777777776</v>
+        <v>390.6208641975306</v>
       </c>
       <c r="R22">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -1636,13 +1626,13 @@
         </is>
       </c>
       <c r="H23">
-        <v>82370371.48</v>
+        <v>9152263.497777777</v>
       </c>
       <c r="I23">
-        <v>54506341.50222223</v>
+        <v>6056260.16691358</v>
       </c>
       <c r="J23">
-        <v>27864029.97777778</v>
+        <v>3096003.330864197</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1696,13 +1686,13 @@
         </is>
       </c>
       <c r="H24">
-        <v>82370371.48</v>
+        <v>9152263.497777777</v>
       </c>
       <c r="I24">
-        <v>54506341.50222223</v>
+        <v>6056260.16691358</v>
       </c>
       <c r="J24">
-        <v>27864029.97777778</v>
+        <v>3096003.330864197</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1756,37 +1746,37 @@
         </is>
       </c>
       <c r="H25">
-        <v>85643851.42444444</v>
+        <v>9290247.726944443</v>
       </c>
       <c r="I25">
-        <v>57153422.08972222</v>
+        <v>6169293.995725309</v>
       </c>
       <c r="J25">
-        <v>28490429.33472224</v>
+        <v>3120953.731219135</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>36334.22222222222</v>
+        <v>5828.385802469135</v>
       </c>
       <c r="M25">
-        <v>28627.10694444444</v>
+        <v>4389.883063271605</v>
       </c>
       <c r="N25">
-        <v>7707.115277777778</v>
+        <v>1438.502739197531</v>
       </c>
       <c r="O25">
-        <v>36334.22222222222</v>
+        <v>5828.385802469135</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>7707.115277777775</v>
+        <v>1438.502739197531</v>
       </c>
       <c r="R25">
-        <v>45</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26">
@@ -1836,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="R26">
-        <v>1569</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="27">
@@ -1874,34 +1864,34 @@
         </is>
       </c>
       <c r="H27">
-        <v>9898073404.749714</v>
+        <v>7221406179.998684</v>
       </c>
       <c r="I27">
-        <v>3431398494.482035</v>
+        <v>2649065978.997841</v>
       </c>
       <c r="J27">
         <v>0</v>
       </c>
       <c r="K27">
-        <v>6466674910.267679</v>
+        <v>4572340201.000843</v>
       </c>
       <c r="L27">
-        <v>6892222550.941645</v>
+        <v>4806222595.293526</v>
       </c>
       <c r="M27">
-        <v>2243529144.123043</v>
+        <v>1686387980.460241</v>
       </c>
       <c r="N27">
         <v>0</v>
       </c>
       <c r="O27">
-        <v>2243529144.123043</v>
+        <v>1686387980.460241</v>
       </c>
       <c r="P27">
-        <v>4648693406.818603</v>
+        <v>3119834614.833285</v>
       </c>
       <c r="Q27">
-        <v>4648693406.818603</v>
+        <v>3119834614.833285</v>
       </c>
       <c r="R27">
         <v>354</v>
@@ -2092,10 +2082,10 @@
         <v>128335142.85</v>
       </c>
       <c r="P30">
-        <v>272088165.1700001</v>
+        <v>272088165.17</v>
       </c>
       <c r="Q30">
-        <v>272088165.1700001</v>
+        <v>272088165.17</v>
       </c>
       <c r="R30">
         <v>71</v>
@@ -2207,7 +2197,7 @@
         <v>2644194805.25</v>
       </c>
       <c r="I32">
-        <v>667367822.8900001</v>
+        <v>667367822.89</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -2349,7 +2339,7 @@
         <v>0</v>
       </c>
       <c r="K34">
-        <v>40346393.70999999</v>
+        <v>40346393.71</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -2408,7 +2398,7 @@
         </is>
       </c>
       <c r="H35">
-        <v>1854111525.559999</v>
+        <v>1854111525.56</v>
       </c>
       <c r="I35">
         <v>1341746167.94</v>
@@ -2417,7 +2407,7 @@
         <v>0</v>
       </c>
       <c r="K35">
-        <v>512365357.6200003</v>
+        <v>512365357.62</v>
       </c>
       <c r="L35">
         <v>35292490.04</v>
@@ -2476,7 +2466,7 @@
         </is>
       </c>
       <c r="H36">
-        <v>844582997.1800001</v>
+        <v>844582997.1799999</v>
       </c>
       <c r="I36">
         <v>575492616.62</v>
@@ -2485,10 +2475,10 @@
         <v>0</v>
       </c>
       <c r="K36">
-        <v>269090380.5600001</v>
+        <v>269090380.56</v>
       </c>
       <c r="L36">
-        <v>615912166.5599999</v>
+        <v>615912166.5600001</v>
       </c>
       <c r="M36">
         <v>409532011.53</v>
@@ -2544,7 +2534,7 @@
         </is>
       </c>
       <c r="H37">
-        <v>59211146.46999999</v>
+        <v>59211146.47</v>
       </c>
       <c r="I37">
         <v>44792200.12</v>
@@ -2568,10 +2558,10 @@
         <v>13072125.01</v>
       </c>
       <c r="P37">
-        <v>3268031.259999999</v>
+        <v>3268031.26</v>
       </c>
       <c r="Q37">
-        <v>3268031.259999999</v>
+        <v>3268031.26</v>
       </c>
       <c r="R37">
         <v>19</v>
@@ -2621,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="K38">
-        <v>712003308.2500001</v>
+        <v>712003308.25</v>
       </c>
       <c r="L38">
         <v>59460417.6</v>
@@ -2763,19 +2753,19 @@
         <v>72191982.18000001</v>
       </c>
       <c r="M40">
-        <v>39891776.08000001</v>
+        <v>39891776.08</v>
       </c>
       <c r="N40">
         <v>32300206.1</v>
       </c>
       <c r="O40">
-        <v>72191982.18000001</v>
+        <v>72191982.17999999</v>
       </c>
       <c r="P40">
         <v>7.217749953269958e-09</v>
       </c>
       <c r="Q40">
-        <v>32300206.10000001</v>
+        <v>32300206.1</v>
       </c>
       <c r="R40">
         <v>33</v>
@@ -2816,34 +2806,34 @@
         </is>
       </c>
       <c r="H41">
-        <v>18185922764.22998</v>
+        <v>18185922764.23</v>
       </c>
       <c r="I41">
-        <v>7904940953.320004</v>
+        <v>7904940953.32</v>
       </c>
       <c r="J41">
-        <v>10119534903.56001</v>
+        <v>10119534903.56</v>
       </c>
       <c r="K41">
         <v>161446907.35</v>
       </c>
       <c r="L41">
-        <v>11980162076.51998</v>
+        <v>11980162076.52</v>
       </c>
       <c r="M41">
-        <v>5167370163.999999</v>
+        <v>5167370164</v>
       </c>
       <c r="N41">
-        <v>6762812532.069991</v>
+        <v>6762812532.07</v>
       </c>
       <c r="O41">
-        <v>11930182696.06998</v>
+        <v>11930182696.07</v>
       </c>
       <c r="P41">
-        <v>49979380.44999997</v>
+        <v>49979380.44999993</v>
       </c>
       <c r="Q41">
-        <v>6812791912.519995</v>
+        <v>6812791912.52</v>
       </c>
       <c r="R41">
         <v>2591</v>
@@ -2884,37 +2874,37 @@
         </is>
       </c>
       <c r="H42">
-        <v>80277453.895</v>
+        <v>65541764.4475</v>
       </c>
       <c r="I42">
-        <v>68235835.81</v>
+        <v>55710499.78</v>
       </c>
       <c r="J42">
-        <v>11947321.835</v>
+        <v>9831264.6675</v>
       </c>
       <c r="K42">
-        <v>94296.25</v>
+        <v>0</v>
       </c>
       <c r="L42">
-        <v>5782731.175</v>
+        <v>2891365.5875</v>
       </c>
       <c r="M42">
-        <v>4915321.495</v>
+        <v>2457660.7475</v>
       </c>
       <c r="N42">
-        <v>867409.6800000001</v>
+        <v>433704.84</v>
       </c>
       <c r="O42">
-        <v>5782731.175</v>
+        <v>2891365.5875</v>
       </c>
       <c r="P42">
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>867409.6799999997</v>
+        <v>433704.8399999999</v>
       </c>
       <c r="R42">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
@@ -2955,7 +2945,7 @@
         <v>1793407125.88</v>
       </c>
       <c r="I43">
-        <v>896703562.8999999</v>
+        <v>896703562.9</v>
       </c>
       <c r="J43">
         <v>660463502.37</v>
@@ -2973,10 +2963,10 @@
         <v>366695683.76</v>
       </c>
       <c r="O43">
-        <v>873986284.6800001</v>
+        <v>873986284.6799999</v>
       </c>
       <c r="P43">
-        <v>140594917.4299999</v>
+        <v>140594917.43</v>
       </c>
       <c r="Q43">
         <v>507290601.19</v>
@@ -3040,7 +3030,7 @@
         <v>0</v>
       </c>
       <c r="R44">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45">
@@ -3078,34 +3068,34 @@
         </is>
       </c>
       <c r="H45">
-        <v>23077293691.21995</v>
+        <v>23077293691.22</v>
       </c>
       <c r="I45">
-        <v>7645305950.279994</v>
+        <v>7645305950.28</v>
       </c>
       <c r="J45">
-        <v>3084783334.679999</v>
+        <v>3084783334.68</v>
       </c>
       <c r="K45">
-        <v>12347204406.25999</v>
+        <v>12347204406.26</v>
       </c>
       <c r="L45">
-        <v>14458872615.98998</v>
+        <v>14458872615.99</v>
       </c>
       <c r="M45">
-        <v>4767760136.579988</v>
+        <v>4767760136.58</v>
       </c>
       <c r="N45">
         <v>1744630658.42</v>
       </c>
       <c r="O45">
-        <v>6512390794.999992</v>
+        <v>6512390795</v>
       </c>
       <c r="P45">
-        <v>7946481820.989984</v>
+        <v>7946481820.99</v>
       </c>
       <c r="Q45">
-        <v>9691112479.409998</v>
+        <v>9691112479.41</v>
       </c>
       <c r="R45">
         <v>3187</v>
@@ -3170,10 +3160,10 @@
         <v>19370074.94</v>
       </c>
       <c r="P46">
-        <v>29055112.44000001</v>
+        <v>29055112.44</v>
       </c>
       <c r="Q46">
-        <v>29055112.44000001</v>
+        <v>29055112.44</v>
       </c>
       <c r="R46">
         <v>19</v>
@@ -3214,19 +3204,19 @@
         </is>
       </c>
       <c r="H47">
-        <v>7388997027.580003</v>
+        <v>7388997027.58</v>
       </c>
       <c r="I47">
-        <v>2830256231.659999</v>
+        <v>2830256231.66</v>
       </c>
       <c r="J47">
         <v>29969062.5</v>
       </c>
       <c r="K47">
-        <v>4528771733.420002</v>
+        <v>4528771733.42</v>
       </c>
       <c r="L47">
-        <v>4356156520.870001</v>
+        <v>4356156520.87</v>
       </c>
       <c r="M47">
         <v>1631975721.17</v>
@@ -3238,10 +3228,10 @@
         <v>1631975721.17</v>
       </c>
       <c r="P47">
-        <v>2724180799.700001</v>
+        <v>2724180799.7</v>
       </c>
       <c r="Q47">
-        <v>2724180799.700001</v>
+        <v>2724180799.7</v>
       </c>
       <c r="R47">
         <v>169</v>
@@ -3282,34 +3272,34 @@
         </is>
       </c>
       <c r="H48">
-        <v>2030522725.899999</v>
+        <v>2030522725.9</v>
       </c>
       <c r="I48">
         <v>1733960297.37</v>
       </c>
       <c r="J48">
-        <v>270421556.4999999</v>
+        <v>270421556.5</v>
       </c>
       <c r="K48">
         <v>26140872.03</v>
       </c>
       <c r="L48">
-        <v>1635829360.549999</v>
+        <v>1635829360.55</v>
       </c>
       <c r="M48">
-        <v>1400937094.780001</v>
+        <v>1400937094.78</v>
       </c>
       <c r="N48">
         <v>221761592.9</v>
       </c>
       <c r="O48">
-        <v>1622698687.679999</v>
+        <v>1622698687.68</v>
       </c>
       <c r="P48">
         <v>13130672.87</v>
       </c>
       <c r="Q48">
-        <v>234892265.7699999</v>
+        <v>234892265.77</v>
       </c>
       <c r="R48">
         <v>925</v>
@@ -3350,34 +3340,34 @@
         </is>
       </c>
       <c r="H49">
-        <v>6097932143.648177</v>
+        <v>6060464090.565674</v>
       </c>
       <c r="I49">
-        <v>4558734450.770995</v>
+        <v>4538561244.652122</v>
       </c>
       <c r="J49">
-        <v>601734339.8971765</v>
+        <v>601478823.5697457</v>
       </c>
       <c r="K49">
-        <v>937463352.9800003</v>
+        <v>920424022.343806</v>
       </c>
       <c r="L49">
-        <v>4114124946.289899</v>
+        <v>4105116823.195883</v>
       </c>
       <c r="M49">
-        <v>3252254911.772224</v>
+        <v>3245661952.642471</v>
       </c>
       <c r="N49">
-        <v>404919267.4076744</v>
+        <v>404664205.9546059</v>
       </c>
       <c r="O49">
-        <v>3657174179.179898</v>
+        <v>3650326158.597077</v>
       </c>
       <c r="P49">
-        <v>456950767.1100002</v>
+        <v>454790664.598806</v>
       </c>
       <c r="Q49">
-        <v>861870034.517675</v>
+        <v>859454870.553412</v>
       </c>
       <c r="R49">
         <v>1712</v>
@@ -3418,34 +3408,34 @@
         </is>
       </c>
       <c r="H50">
-        <v>2616407101.98</v>
+        <v>2613007883.49</v>
       </c>
       <c r="I50">
-        <v>1712376602.99</v>
+        <v>1709631141.698</v>
       </c>
       <c r="J50">
-        <v>284606424.0199999</v>
+        <v>284606424.02</v>
       </c>
       <c r="K50">
-        <v>619424074.9699998</v>
+        <v>618770317.772</v>
       </c>
       <c r="L50">
-        <v>1091358233.25</v>
+        <v>1088248053.60384</v>
       </c>
       <c r="M50">
-        <v>713912951.4500002</v>
+        <v>711456529.00184</v>
       </c>
       <c r="N50">
         <v>165759935.21</v>
       </c>
       <c r="O50">
-        <v>879672886.6600002</v>
+        <v>877216464.21184</v>
       </c>
       <c r="P50">
-        <v>211685346.5900001</v>
+        <v>211031589.392</v>
       </c>
       <c r="Q50">
-        <v>377445281.8000001</v>
+        <v>376791524.602</v>
       </c>
       <c r="R50">
         <v>168</v>
@@ -3486,13 +3476,13 @@
         </is>
       </c>
       <c r="H51">
-        <v>334348086.0600001</v>
+        <v>334348086.06</v>
       </c>
       <c r="I51">
         <v>284195873.06</v>
       </c>
       <c r="J51">
-        <v>49256483.70999999</v>
+        <v>49256483.71</v>
       </c>
       <c r="K51">
         <v>895729.29</v>
@@ -3622,34 +3612,34 @@
         </is>
       </c>
       <c r="H53">
-        <v>974087076.8118235</v>
+        <v>933219805.2393212</v>
       </c>
       <c r="I53">
-        <v>553128824.469</v>
+        <v>530210157.0581225</v>
       </c>
       <c r="J53">
-        <v>163589891.2928235</v>
+        <v>163334374.9653927</v>
       </c>
       <c r="K53">
-        <v>257368361.05</v>
+        <v>239675273.215806</v>
       </c>
       <c r="L53">
-        <v>450304958.2101018</v>
+        <v>438186655.4699262</v>
       </c>
       <c r="M53">
-        <v>300933515.7877762</v>
+        <v>291884134.209863</v>
       </c>
       <c r="N53">
-        <v>3734656.982325661</v>
+        <v>3479595.529257236</v>
       </c>
       <c r="O53">
-        <v>304668172.7701019</v>
+        <v>295363729.7391202</v>
       </c>
       <c r="P53">
-        <v>145636785.4400001</v>
+        <v>142822925.730806</v>
       </c>
       <c r="Q53">
-        <v>149371442.4223257</v>
+        <v>146302521.2600632</v>
       </c>
       <c r="R53">
         <v>104</v>
@@ -3690,22 +3680,22 @@
         </is>
       </c>
       <c r="H54">
-        <v>4172522259.450001</v>
+        <v>4172522259.45</v>
       </c>
       <c r="I54">
-        <v>3546643919.929999</v>
+        <v>3546643919.93</v>
       </c>
       <c r="J54">
-        <v>624487089.9200001</v>
+        <v>624487089.92</v>
       </c>
       <c r="K54">
         <v>1391249.6</v>
       </c>
       <c r="L54">
-        <v>4016436469.100001</v>
+        <v>4016436469.1</v>
       </c>
       <c r="M54">
-        <v>3413543017.299999</v>
+        <v>3413543017.3</v>
       </c>
       <c r="N54">
         <v>601503889.6900001</v>
@@ -3714,10 +3704,10 @@
         <v>4015046906.99</v>
       </c>
       <c r="P54">
-        <v>1389562.110000083</v>
+        <v>1389562.109999932</v>
       </c>
       <c r="Q54">
-        <v>602893451.8000002</v>
+        <v>602893451.8</v>
       </c>
       <c r="R54">
         <v>144</v>
@@ -3758,10 +3748,10 @@
         </is>
       </c>
       <c r="H55">
-        <v>99278873.89999999</v>
+        <v>99278873.90000001</v>
       </c>
       <c r="I55">
-        <v>83345029.39999998</v>
+        <v>83345029.40000001</v>
       </c>
       <c r="J55">
         <v>14622301.25</v>
@@ -3826,13 +3816,13 @@
         </is>
       </c>
       <c r="H56">
-        <v>42024760.82000001</v>
+        <v>42024760.82</v>
       </c>
       <c r="I56">
         <v>35721046.68</v>
       </c>
       <c r="J56">
-        <v>6303714.140000001</v>
+        <v>6303714.14</v>
       </c>
       <c r="K56">
         <v>0</v>
@@ -3897,7 +3887,7 @@
         <v>13529825321.61</v>
       </c>
       <c r="I57">
-        <v>11500351521.60002</v>
+        <v>11500351521.6</v>
       </c>
       <c r="J57">
         <v>2013046852.6</v>
@@ -3912,16 +3902,16 @@
         <v>10874692739.66</v>
       </c>
       <c r="N57">
-        <v>1907348318.160002</v>
+        <v>1907348318.16</v>
       </c>
       <c r="O57">
         <v>12782041057.82</v>
       </c>
       <c r="P57">
-        <v>14014433.4</v>
+        <v>14014433.40000002</v>
       </c>
       <c r="Q57">
-        <v>1921362751.560001</v>
+        <v>1921362751.56</v>
       </c>
       <c r="R57">
         <v>417</v>
@@ -3962,34 +3952,34 @@
         </is>
       </c>
       <c r="H58">
-        <v>13770263788.16</v>
+        <v>13643290572.47</v>
       </c>
       <c r="I58">
-        <v>11704724219.895</v>
+        <v>11596796986.5585</v>
       </c>
       <c r="J58">
-        <v>2065539568.265</v>
+        <v>2046493585.9115</v>
       </c>
       <c r="K58">
         <v>0</v>
       </c>
       <c r="L58">
-        <v>10496935770.273</v>
+        <v>10399934359.8249</v>
       </c>
       <c r="M58">
-        <v>8922395404.112999</v>
+        <v>8839944205.235901</v>
       </c>
       <c r="N58">
-        <v>1574540366.16</v>
+        <v>1559990154.589</v>
       </c>
       <c r="O58">
-        <v>10496935770.273</v>
+        <v>10399934359.8249</v>
       </c>
       <c r="P58">
-        <v>-3.725290298461914e-08</v>
+        <v>-5.21540641784668e-08</v>
       </c>
       <c r="Q58">
-        <v>1574540366.16</v>
+        <v>1559990154.589</v>
       </c>
       <c r="R58">
         <v>27</v>
@@ -4030,34 +4020,34 @@
         </is>
       </c>
       <c r="H59">
-        <v>25205552941.11368</v>
+        <v>24735412788.65858</v>
       </c>
       <c r="I59">
-        <v>21424719999.885</v>
+        <v>21025100870.29845</v>
       </c>
       <c r="J59">
-        <v>3780832941.228676</v>
+        <v>3710311918.360131</v>
       </c>
       <c r="K59">
         <v>0</v>
       </c>
       <c r="L59">
-        <v>18413182638.23256</v>
+        <v>18119420871.74126</v>
       </c>
       <c r="M59">
-        <v>15651205241.50212</v>
+        <v>15401507740.00233</v>
       </c>
       <c r="N59">
-        <v>2761977396.730438</v>
+        <v>2717913131.738934</v>
       </c>
       <c r="O59">
-        <v>18413182638.23256</v>
+        <v>18119420871.74126</v>
       </c>
       <c r="P59">
-        <v>4.470348358154297e-08</v>
+        <v>1.490116119384766e-07</v>
       </c>
       <c r="Q59">
-        <v>2761977396.730439</v>
+        <v>2717913131.738934</v>
       </c>
       <c r="R59">
         <v>34</v>
@@ -4098,34 +4088,34 @@
         </is>
       </c>
       <c r="H60">
-        <v>22681041950.98632</v>
+        <v>22337875014.22123</v>
       </c>
       <c r="I60">
-        <v>19278885658.25</v>
+        <v>18987193761.99995</v>
       </c>
       <c r="J60">
-        <v>3402156292.736324</v>
+        <v>3350681252.221278</v>
       </c>
       <c r="K60">
         <v>0</v>
       </c>
       <c r="L60">
-        <v>19094178463.23444</v>
+        <v>18897418107.19125</v>
       </c>
       <c r="M60">
-        <v>16230051692.63488</v>
+        <v>16062805390.01219</v>
       </c>
       <c r="N60">
-        <v>2864126770.599561</v>
+        <v>2834612717.179057</v>
       </c>
       <c r="O60">
-        <v>19094178463.23444</v>
+        <v>18897418107.19125</v>
       </c>
       <c r="P60">
-        <v>3.427267074584961e-07</v>
+        <v>1.192092895507812e-07</v>
       </c>
       <c r="Q60">
-        <v>2864126770.599561</v>
+        <v>2834612717.179057</v>
       </c>
       <c r="R60">
         <v>39</v>
@@ -4166,7 +4156,7 @@
         </is>
       </c>
       <c r="H61">
-        <v>4629087971.960001</v>
+        <v>4629087971.96</v>
       </c>
       <c r="I61">
         <v>3588631275.25</v>
@@ -4181,7 +4171,7 @@
         <v>1008227018.13</v>
       </c>
       <c r="M61">
-        <v>807600487.3000001</v>
+        <v>807600487.3</v>
       </c>
       <c r="N61">
         <v>5234657.4</v>
@@ -4258,10 +4248,10 @@
         <v>2808811525.5</v>
       </c>
       <c r="P62">
-        <v>2.384185791015625e-07</v>
+        <v>1.192092895507812e-07</v>
       </c>
       <c r="Q62">
-        <v>421321728.9400002</v>
+        <v>421321728.9400001</v>
       </c>
       <c r="R62">
         <v>2</v>
@@ -4373,7 +4363,7 @@
         <v>3081739457.47</v>
       </c>
       <c r="I64">
-        <v>2566039640.069999</v>
+        <v>2566039640.07</v>
       </c>
       <c r="J64">
         <v>515699817.4</v>
@@ -4394,7 +4384,7 @@
         <v>1431580285.13</v>
       </c>
       <c r="P64">
-        <v>-5.587935447692871e-09</v>
+        <v>-4.656612873077393e-09</v>
       </c>
       <c r="Q64">
         <v>257178603.76</v>
@@ -4499,10 +4489,10 @@
         <v>28764473338.5</v>
       </c>
       <c r="I66">
-        <v>24449802337.72001</v>
+        <v>24449802337.72</v>
       </c>
       <c r="J66">
-        <v>4314671000.780001</v>
+        <v>4314671000.78</v>
       </c>
       <c r="K66">
         <v>0</v>
@@ -4520,7 +4510,7 @@
         <v>14781307448.16</v>
       </c>
       <c r="P66">
-        <v>-8.381903171539307e-08</v>
+        <v>3.539025783538818e-08</v>
       </c>
       <c r="Q66">
         <v>2217196118.58</v>
@@ -4564,34 +4554,34 @@
         </is>
       </c>
       <c r="H67">
-        <v>4976858420.910001</v>
+        <v>4927192793.8</v>
       </c>
       <c r="I67">
-        <v>4179890785.385</v>
+        <v>4137675002.3425</v>
       </c>
       <c r="J67">
-        <v>796967635.525</v>
+        <v>789517791.4575</v>
       </c>
       <c r="K67">
         <v>0</v>
       </c>
       <c r="L67">
-        <v>2931456692.355</v>
+        <v>2895725109.9775</v>
       </c>
       <c r="M67">
-        <v>2491738188.395</v>
+        <v>2461366343.3775</v>
       </c>
       <c r="N67">
-        <v>439718503.96</v>
+        <v>434358766.6</v>
       </c>
       <c r="O67">
-        <v>2931456692.355</v>
+        <v>2895725109.9775</v>
       </c>
       <c r="P67">
         <v>-1.490116119384766e-08</v>
       </c>
       <c r="Q67">
-        <v>439718503.96</v>
+        <v>434358766.6</v>
       </c>
       <c r="R67">
         <v>17</v>
@@ -4656,7 +4646,7 @@
         <v>13213845405</v>
       </c>
       <c r="P68">
-        <v>1.788139343261719e-07</v>
+        <v>-5.960464477539062e-08</v>
       </c>
       <c r="Q68">
         <v>1982076811.26</v>
@@ -4768,34 +4758,34 @@
         </is>
       </c>
       <c r="H70">
-        <v>30028676345.45</v>
+        <v>29979010718.34</v>
       </c>
       <c r="I70">
-        <v>24756924390.04499</v>
+        <v>24714708607.0025</v>
       </c>
       <c r="J70">
-        <v>5271751955.404995</v>
+        <v>5264302111.3375</v>
       </c>
       <c r="K70">
         <v>0</v>
       </c>
       <c r="L70">
-        <v>18044393131.305</v>
+        <v>18008661548.9275</v>
       </c>
       <c r="M70">
-        <v>15116292941.01501</v>
+        <v>15085921095.9975</v>
       </c>
       <c r="N70">
-        <v>2928100190.290001</v>
+        <v>2922740452.93</v>
       </c>
       <c r="O70">
-        <v>18044393131.305</v>
+        <v>18008661548.9275</v>
       </c>
       <c r="P70">
-        <v>1.387670636177063e-07</v>
+        <v>9.778887033462524e-08</v>
       </c>
       <c r="Q70">
-        <v>2928100190.290001</v>
+        <v>2922740452.93</v>
       </c>
       <c r="R70">
         <v>436</v>
@@ -5033,7 +5023,7 @@
         <v>1452708980.57</v>
       </c>
       <c r="I74">
-        <v>693032583.6299999</v>
+        <v>693032583.63</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -5098,16 +5088,16 @@
         </is>
       </c>
       <c r="H75">
-        <v>8079005118.320002</v>
+        <v>8079005118.32</v>
       </c>
       <c r="I75">
-        <v>6867154350.510001</v>
+        <v>6867154350.51</v>
       </c>
       <c r="J75">
         <v>526681922.15</v>
       </c>
       <c r="K75">
-        <v>685168845.6599998</v>
+        <v>685168845.66</v>
       </c>
       <c r="L75">
         <v>3114466343.46</v>
@@ -5119,7 +5109,7 @@
         <v>200531959.63</v>
       </c>
       <c r="O75">
-        <v>2847828351.199999</v>
+        <v>2847828351.2</v>
       </c>
       <c r="P75">
         <v>266637992.2600001</v>
@@ -5234,34 +5224,34 @@
         </is>
       </c>
       <c r="H77">
-        <v>7513637913.510005</v>
+        <v>7513637913.51</v>
       </c>
       <c r="I77">
-        <v>6386592225.940001</v>
+        <v>6386592225.94</v>
       </c>
       <c r="J77">
-        <v>341169748.9699998</v>
+        <v>341169748.97</v>
       </c>
       <c r="K77">
-        <v>785875938.5999999</v>
+        <v>785875938.6</v>
       </c>
       <c r="L77">
-        <v>5647291407.059999</v>
+        <v>5647291407.06</v>
       </c>
       <c r="M77">
-        <v>4800197695.049999</v>
+        <v>4800197695.05</v>
       </c>
       <c r="N77">
-        <v>193412324.6299998</v>
+        <v>193412324.63</v>
       </c>
       <c r="O77">
-        <v>4993610019.679998</v>
+        <v>4993610019.68</v>
       </c>
       <c r="P77">
         <v>653681387.38</v>
       </c>
       <c r="Q77">
-        <v>847093712.0100001</v>
+        <v>847093712.01</v>
       </c>
       <c r="R77">
         <v>209</v>
@@ -5438,7 +5428,7 @@
         </is>
       </c>
       <c r="H80">
-        <v>2067061476.819999</v>
+        <v>2067061476.82</v>
       </c>
       <c r="I80">
         <v>1757002255.21</v>
@@ -5450,7 +5440,7 @@
         <v>11998817.99</v>
       </c>
       <c r="L80">
-        <v>837717973.83</v>
+        <v>837717973.8299999</v>
       </c>
       <c r="M80">
         <v>712060277.62</v>
@@ -5462,7 +5452,7 @@
         <v>837717973.83</v>
       </c>
       <c r="P80">
-        <v>-2.235174179077148e-08</v>
+        <v>-1.862645149230957e-08</v>
       </c>
       <c r="Q80">
         <v>125657696.21</v>
@@ -5506,22 +5496,22 @@
         </is>
       </c>
       <c r="H81">
-        <v>10124654527.33</v>
+        <v>10121076790.43</v>
       </c>
       <c r="I81">
-        <v>8605956347.349998</v>
+        <v>8602915270.99</v>
       </c>
       <c r="J81">
-        <v>798412275.3299992</v>
+        <v>797875614.79</v>
       </c>
       <c r="K81">
         <v>720285904.65</v>
       </c>
       <c r="L81">
-        <v>8322678360.090001</v>
+        <v>8322678360.09</v>
       </c>
       <c r="M81">
-        <v>7074276604.539992</v>
+        <v>7074276604.54</v>
       </c>
       <c r="N81">
         <v>595113841.21</v>
@@ -5533,10 +5523,10 @@
         <v>653287914.34</v>
       </c>
       <c r="Q81">
-        <v>1248401755.550001</v>
+        <v>1248401755.55</v>
       </c>
       <c r="R81">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="82">
@@ -5594,7 +5584,7 @@
         <v>0</v>
       </c>
       <c r="R82">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83">
@@ -5632,10 +5622,10 @@
         </is>
       </c>
       <c r="H83">
-        <v>4775525060.690001</v>
+        <v>4775525060.69</v>
       </c>
       <c r="I83">
-        <v>3929685212.659999</v>
+        <v>3929685212.66</v>
       </c>
       <c r="J83">
         <v>522062125.96</v>
@@ -5700,7 +5690,7 @@
         </is>
       </c>
       <c r="H84">
-        <v>5173391629.199999</v>
+        <v>5173391629.2</v>
       </c>
       <c r="I84">
         <v>2224062866.59</v>
@@ -5715,13 +5705,13 @@
         <v>1821922227.44</v>
       </c>
       <c r="M84">
-        <v>731919171.8300002</v>
+        <v>731919171.83</v>
       </c>
       <c r="N84">
         <v>0</v>
       </c>
       <c r="O84">
-        <v>731919171.8300002</v>
+        <v>731919171.83</v>
       </c>
       <c r="P84">
         <v>1090003055.61</v>
@@ -5768,7 +5758,7 @@
         </is>
       </c>
       <c r="H85">
-        <v>15444472949.32999</v>
+        <v>15444472949.33</v>
       </c>
       <c r="I85">
         <v>12580015883.14</v>
@@ -5777,25 +5767,25 @@
         <v>2404518598.83</v>
       </c>
       <c r="K85">
-        <v>459938467.3599999</v>
+        <v>459938467.36</v>
       </c>
       <c r="L85">
         <v>11791292433.7</v>
       </c>
       <c r="M85">
-        <v>9621904529.789995</v>
+        <v>9621904529.790001</v>
       </c>
       <c r="N85">
-        <v>1800016805.520001</v>
+        <v>1800016805.52</v>
       </c>
       <c r="O85">
-        <v>11421921335.31001</v>
+        <v>11421921335.31</v>
       </c>
       <c r="P85">
         <v>369371098.39</v>
       </c>
       <c r="Q85">
-        <v>2169387903.909998</v>
+        <v>2169387903.91</v>
       </c>
       <c r="R85">
         <v>148</v>
@@ -5836,7 +5826,7 @@
         </is>
       </c>
       <c r="H86">
-        <v>456501729.9300001</v>
+        <v>456501729.93</v>
       </c>
       <c r="I86">
         <v>228230529.7</v>
@@ -5848,7 +5838,7 @@
         <v>228271200.23</v>
       </c>
       <c r="L86">
-        <v>366574433.7900001</v>
+        <v>366574433.79</v>
       </c>
       <c r="M86">
         <v>183268434.74</v>
@@ -5904,19 +5894,19 @@
         </is>
       </c>
       <c r="H87">
-        <v>19199429278.47001</v>
+        <v>19199429278.47</v>
       </c>
       <c r="I87">
         <v>16319514882.82</v>
       </c>
       <c r="J87">
-        <v>2715439873.849999</v>
+        <v>2715439873.85</v>
       </c>
       <c r="K87">
         <v>164474521.8</v>
       </c>
       <c r="L87">
-        <v>15443009772.18002</v>
+        <v>15443009772.18</v>
       </c>
       <c r="M87">
         <v>13126558295.17</v>
@@ -5925,13 +5915,13 @@
         <v>2178288657.66</v>
       </c>
       <c r="O87">
-        <v>15304846952.83002</v>
+        <v>15304846952.83</v>
       </c>
       <c r="P87">
-        <v>138162819.35</v>
+        <v>138162819.3500001</v>
       </c>
       <c r="Q87">
-        <v>2316451477.009998</v>
+        <v>2316451477.01</v>
       </c>
       <c r="R87">
         <v>1545</v>
@@ -5972,37 +5962,37 @@
         </is>
       </c>
       <c r="H88">
-        <v>2620272621.85</v>
+        <v>2618010188.05</v>
       </c>
       <c r="I88">
-        <v>2489258988.369999</v>
+        <v>2487109676.26</v>
       </c>
       <c r="J88">
-        <v>123520345.16</v>
+        <v>123407223.47</v>
       </c>
       <c r="K88">
-        <v>7493288.320000003</v>
+        <v>7493288.32</v>
       </c>
       <c r="L88">
-        <v>1976078683.780002</v>
+        <v>1976078683.78</v>
       </c>
       <c r="M88">
-        <v>1877274744.540003</v>
+        <v>1877274744.54</v>
       </c>
       <c r="N88">
         <v>93823723.45</v>
       </c>
       <c r="O88">
-        <v>1971098467.990002</v>
+        <v>1971098467.99</v>
       </c>
       <c r="P88">
-        <v>4980215.790000006</v>
+        <v>4980215.790000007</v>
       </c>
       <c r="Q88">
-        <v>98803939.24000005</v>
+        <v>98803939.23999999</v>
       </c>
       <c r="R88">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="89">
@@ -6040,34 +6030,34 @@
         </is>
       </c>
       <c r="H89">
-        <v>941251866.9946001</v>
+        <v>939075427.8296474</v>
       </c>
       <c r="I89">
-        <v>470625933.3499999</v>
+        <v>469537713.7687657</v>
       </c>
       <c r="J89">
-        <v>338187115.4407599</v>
+        <v>337450901.8379071</v>
       </c>
       <c r="K89">
-        <v>132438818.20384</v>
+        <v>132086812.2229745</v>
       </c>
       <c r="L89">
-        <v>796094321.6402925</v>
+        <v>794217578.1444031</v>
       </c>
       <c r="M89">
-        <v>398047160.0890077</v>
+        <v>397108788.3439288</v>
       </c>
       <c r="N89">
-        <v>283065667.8403271</v>
+        <v>282445925.1619594</v>
       </c>
       <c r="O89">
-        <v>681112827.9293349</v>
+        <v>679554713.5058882</v>
       </c>
       <c r="P89">
-        <v>114981493.7109573</v>
+        <v>114662864.6385148</v>
       </c>
       <c r="Q89">
-        <v>398047161.5512846</v>
+        <v>397108789.8004743</v>
       </c>
       <c r="R89">
         <v>211</v>
@@ -6128,7 +6118,7 @@
         <v>0</v>
       </c>
       <c r="R90">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="91">
@@ -6166,34 +6156,34 @@
         </is>
       </c>
       <c r="H91">
-        <v>5980216952.880003</v>
+        <v>5980216952.88</v>
       </c>
       <c r="I91">
-        <v>5083184409.040002</v>
+        <v>5083184409.04</v>
       </c>
       <c r="J91">
-        <v>839915675.8899995</v>
+        <v>839915675.89</v>
       </c>
       <c r="K91">
         <v>57116867.95</v>
       </c>
       <c r="L91">
-        <v>4817562258.849999</v>
+        <v>4817562258.85</v>
       </c>
       <c r="M91">
         <v>4094927917.6</v>
       </c>
       <c r="N91">
-        <v>671239797.1600001</v>
+        <v>671239797.16</v>
       </c>
       <c r="O91">
-        <v>4766167714.759998</v>
+        <v>4766167714.76</v>
       </c>
       <c r="P91">
-        <v>51394544.08999997</v>
+        <v>51394544.09000002</v>
       </c>
       <c r="Q91">
-        <v>722634341.2499999</v>
+        <v>722634341.25</v>
       </c>
       <c r="R91">
         <v>321</v>
@@ -6234,34 +6224,34 @@
         </is>
       </c>
       <c r="H92">
-        <v>494121487.1154001</v>
+        <v>491945047.9504474</v>
       </c>
       <c r="I92">
-        <v>247060743.53</v>
+        <v>245972523.9487657</v>
       </c>
       <c r="J92">
-        <v>176999847.28924</v>
+        <v>176263633.6863872</v>
       </c>
       <c r="K92">
-        <v>70060896.29615998</v>
+        <v>69708890.31529453</v>
       </c>
       <c r="L92">
-        <v>373415384.1297076</v>
+        <v>371538640.6338186</v>
       </c>
       <c r="M92">
-        <v>186707691.9009923</v>
+        <v>185769320.1559136</v>
       </c>
       <c r="N92">
-        <v>132353723.2896728</v>
+        <v>131733980.611305</v>
       </c>
       <c r="O92">
-        <v>319061415.1906652</v>
+        <v>317503300.7672186</v>
       </c>
       <c r="P92">
-        <v>54353968.93904259</v>
+        <v>54035339.86660005</v>
       </c>
       <c r="Q92">
-        <v>186707692.2287153</v>
+        <v>185769320.477905</v>
       </c>
       <c r="R92">
         <v>67</v>
@@ -6305,28 +6295,28 @@
         <v>11382486104.1</v>
       </c>
       <c r="I93">
-        <v>9623864581.210005</v>
+        <v>9623864581.209999</v>
       </c>
       <c r="J93">
-        <v>890932721.2500001</v>
+        <v>890932721.25</v>
       </c>
       <c r="K93">
-        <v>867688801.6399999</v>
+        <v>867688801.64</v>
       </c>
       <c r="L93">
         <v>8879933277.32</v>
       </c>
       <c r="M93">
-        <v>7500325795.440001</v>
+        <v>7500325795.44</v>
       </c>
       <c r="N93">
         <v>634759371.2</v>
       </c>
       <c r="O93">
-        <v>8135085166.640001</v>
+        <v>8135085166.64</v>
       </c>
       <c r="P93">
-        <v>744848110.6800003</v>
+        <v>744848110.6799999</v>
       </c>
       <c r="Q93">
         <v>1379607481.88</v>
@@ -6370,16 +6360,16 @@
         </is>
       </c>
       <c r="H94">
-        <v>18978495486.48</v>
+        <v>18828675624</v>
       </c>
       <c r="I94">
-        <v>18867606230.84</v>
+        <v>18762732327.11</v>
       </c>
       <c r="J94">
         <v>47943316.16</v>
       </c>
       <c r="K94">
-        <v>62945939.48</v>
+        <v>17999980.73</v>
       </c>
       <c r="L94">
         <v>17298678.05</v>
@@ -6400,7 +6390,7 @@
         <v>0</v>
       </c>
       <c r="R94">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="95">
@@ -6458,7 +6448,7 @@
         <v>0</v>
       </c>
       <c r="R95">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="96">
@@ -6499,13 +6489,13 @@
         <v>3097979740.54</v>
       </c>
       <c r="I96">
-        <v>2633282778.800001</v>
+        <v>2633282778.8</v>
       </c>
       <c r="J96">
-        <v>426788520.9700001</v>
+        <v>426788520.97</v>
       </c>
       <c r="K96">
-        <v>37908440.77000002</v>
+        <v>37908440.77</v>
       </c>
       <c r="L96">
         <v>2212782732.45</v>
@@ -6517,13 +6507,13 @@
         <v>304530061.35</v>
       </c>
       <c r="O96">
-        <v>2185395382.460001</v>
+        <v>2185395382.46</v>
       </c>
       <c r="P96">
-        <v>27387349.99000002</v>
+        <v>27387349.99</v>
       </c>
       <c r="Q96">
-        <v>331917411.3400002</v>
+        <v>331917411.34</v>
       </c>
       <c r="R96">
         <v>412</v>
@@ -6564,34 +6554,34 @@
         </is>
       </c>
       <c r="H97">
-        <v>6452068351.119997</v>
+        <v>6452068351.12</v>
       </c>
       <c r="I97">
-        <v>5484258097.529999</v>
+        <v>5484258097.53</v>
       </c>
       <c r="J97">
-        <v>842776011.0499998</v>
+        <v>842776011.05</v>
       </c>
       <c r="K97">
         <v>125034242.54</v>
       </c>
       <c r="L97">
-        <v>4445164433.539999</v>
+        <v>4445164433.54</v>
       </c>
       <c r="M97">
-        <v>3778389765.730001</v>
+        <v>3778389765.73</v>
       </c>
       <c r="N97">
-        <v>575713456.9200008</v>
+        <v>575713456.92</v>
       </c>
       <c r="O97">
-        <v>4354103222.650002</v>
+        <v>4354103222.65</v>
       </c>
       <c r="P97">
-        <v>91061210.89000009</v>
+        <v>91061210.89000005</v>
       </c>
       <c r="Q97">
-        <v>666774667.8100004</v>
+        <v>666774667.8100001</v>
       </c>
       <c r="R97">
         <v>409</v>
@@ -6632,13 +6622,13 @@
         </is>
       </c>
       <c r="H98">
-        <v>82344984</v>
+        <v>65256828</v>
       </c>
       <c r="I98">
-        <v>69993236.40000001</v>
+        <v>55468303.8</v>
       </c>
       <c r="J98">
-        <v>11478378.1</v>
+        <v>8915154.699999999</v>
       </c>
       <c r="K98">
         <v>873369.5</v>
@@ -6662,7 +6652,7 @@
         <v>0</v>
       </c>
       <c r="R98">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99">
@@ -6700,10 +6690,10 @@
         </is>
       </c>
       <c r="H99">
-        <v>586519830.0900002</v>
+        <v>586519830.09</v>
       </c>
       <c r="I99">
-        <v>293259914.9900001</v>
+        <v>293259914.99</v>
       </c>
       <c r="J99">
         <v>257010397.67</v>
@@ -6721,7 +6711,7 @@
         <v>166540008.49</v>
       </c>
       <c r="O99">
-        <v>363982030.3899999</v>
+        <v>363982030.39</v>
       </c>
       <c r="P99">
         <v>30902013.93999999</v>
@@ -6856,7 +6846,7 @@
         <v>0</v>
       </c>
       <c r="R101">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="102">
@@ -6894,34 +6884,34 @@
         </is>
       </c>
       <c r="H102">
-        <v>15413754632.755</v>
+        <v>11121589705.2725</v>
       </c>
       <c r="I102">
-        <v>6784699031.330006</v>
+        <v>5099204215.065</v>
       </c>
       <c r="J102">
         <v>0</v>
       </c>
       <c r="K102">
-        <v>8629055601.425007</v>
+        <v>6022385490.2075</v>
       </c>
       <c r="L102">
-        <v>9702734655.954998</v>
+        <v>7078231577.3375</v>
       </c>
       <c r="M102">
-        <v>4257462433.485004</v>
+        <v>3242163341.1375</v>
       </c>
       <c r="N102">
         <v>0</v>
       </c>
       <c r="O102">
-        <v>4257462433.485004</v>
+        <v>3242163341.1375</v>
       </c>
       <c r="P102">
-        <v>5445272222.470001</v>
+        <v>3836068236.2</v>
       </c>
       <c r="Q102">
-        <v>5445272222.470001</v>
+        <v>3836068236.2</v>
       </c>
       <c r="R102">
         <v>1107</v>
@@ -7020,34 +7010,34 @@
         </is>
       </c>
       <c r="H104">
-        <v>7912860677.575001</v>
+        <v>5611976088.3425</v>
       </c>
       <c r="I104">
-        <v>2786633044.130001</v>
+        <v>2221089396.835</v>
       </c>
       <c r="J104">
         <v>0</v>
       </c>
       <c r="K104">
-        <v>5126227633.445</v>
+        <v>3390886691.5075</v>
       </c>
       <c r="L104">
-        <v>6829678863.925001</v>
+        <v>4882471583.1075</v>
       </c>
       <c r="M104">
-        <v>2425254900.669999</v>
+        <v>1946443525.795</v>
       </c>
       <c r="N104">
         <v>0</v>
       </c>
       <c r="O104">
-        <v>2425254900.669999</v>
+        <v>1946443525.795</v>
       </c>
       <c r="P104">
-        <v>4404423963.255001</v>
+        <v>2936028057.3125</v>
       </c>
       <c r="Q104">
-        <v>4404423963.255001</v>
+        <v>2936028057.3125</v>
       </c>
       <c r="R104">
         <v>240</v>
@@ -7156,34 +7146,34 @@
         </is>
       </c>
       <c r="H106">
-        <v>14411973610.26259</v>
+        <v>14175896443.58901</v>
       </c>
       <c r="I106">
-        <v>11429224059.88</v>
+        <v>11230484761.87457</v>
       </c>
       <c r="J106">
-        <v>2423508266.966059</v>
+        <v>2397268654.559661</v>
       </c>
       <c r="K106">
-        <v>559241283.4165294</v>
+        <v>548143027.1547806</v>
       </c>
       <c r="L106">
-        <v>10322823896.04427</v>
+        <v>10136446047.53283</v>
       </c>
       <c r="M106">
-        <v>8223855325.917518</v>
+        <v>8066557132.217287</v>
       </c>
       <c r="N106">
-        <v>1665073063.734552</v>
+        <v>1644900954.352308</v>
       </c>
       <c r="O106">
-        <v>9888928389.652073</v>
+        <v>9711458086.569595</v>
       </c>
       <c r="P106">
-        <v>433895506.3921959</v>
+        <v>424987960.9632352</v>
       </c>
       <c r="Q106">
-        <v>2098968570.126749</v>
+        <v>2069888915.315543</v>
       </c>
       <c r="R106">
         <v>98</v>
@@ -7224,34 +7214,34 @@
         </is>
       </c>
       <c r="H107">
-        <v>1261486408.292353</v>
+        <v>1240094159.161412</v>
       </c>
       <c r="I107">
-        <v>1053807592.837</v>
+        <v>1035624181.0757</v>
       </c>
       <c r="J107">
-        <v>200139445.3753529</v>
+        <v>196930608.0057118</v>
       </c>
       <c r="K107">
         <v>7539370.08</v>
       </c>
       <c r="L107">
-        <v>805575118.8505142</v>
+        <v>791809183.2826085</v>
       </c>
       <c r="M107">
-        <v>672869629.2452871</v>
+        <v>661168584.0189722</v>
       </c>
       <c r="N107">
-        <v>126953772.4252271</v>
+        <v>124888882.0836363</v>
       </c>
       <c r="O107">
-        <v>799823401.6705141</v>
+        <v>786057466.1026084</v>
       </c>
       <c r="P107">
-        <v>5751717.179999979</v>
+        <v>5751717.179999978</v>
       </c>
       <c r="Q107">
-        <v>132705489.6052271</v>
+        <v>130640599.2636363</v>
       </c>
       <c r="R107">
         <v>17</v>
@@ -7307,16 +7297,16 @@
         <v>1878411841.23</v>
       </c>
       <c r="M108">
-        <v>1533759318.709999</v>
+        <v>1533759318.71</v>
       </c>
       <c r="N108">
         <v>250731916.48</v>
       </c>
       <c r="O108">
-        <v>1784491235.189999</v>
+        <v>1784491235.19</v>
       </c>
       <c r="P108">
-        <v>93920606.04000002</v>
+        <v>93920606.04000004</v>
       </c>
       <c r="Q108">
         <v>344652522.52</v>
@@ -7360,7 +7350,7 @@
         </is>
       </c>
       <c r="H109">
-        <v>3193642070.619999</v>
+        <v>3193642070.62</v>
       </c>
       <c r="I109">
         <v>1613136175.3</v>
@@ -7375,13 +7365,13 @@
         <v>1438049993.48</v>
       </c>
       <c r="M109">
-        <v>719024996.6299999</v>
+        <v>719024996.63</v>
       </c>
       <c r="N109">
         <v>0</v>
       </c>
       <c r="O109">
-        <v>719024996.6299999</v>
+        <v>719024996.63</v>
       </c>
       <c r="P109">
         <v>719024996.85</v>
@@ -7428,34 +7418,34 @@
         </is>
       </c>
       <c r="H110">
-        <v>2404820426.876726</v>
+        <v>916162758.7695251</v>
       </c>
       <c r="I110">
-        <v>1564252619.939956</v>
+        <v>596871085.8363317</v>
       </c>
       <c r="J110">
-        <v>731002.4331365647</v>
+        <v>202027.3684302134</v>
       </c>
       <c r="K110">
-        <v>839836804.5036372</v>
+        <v>319089645.5647631</v>
       </c>
       <c r="L110">
-        <v>670353515.5807372</v>
+        <v>250261089.0201875</v>
       </c>
       <c r="M110">
-        <v>427417332.6739725</v>
+        <v>158016196.8845496</v>
       </c>
       <c r="N110">
         <v>0</v>
       </c>
       <c r="O110">
-        <v>427417332.6739725</v>
+        <v>158016196.8845496</v>
       </c>
       <c r="P110">
-        <v>242936182.9067648</v>
+        <v>92244892.13563786</v>
       </c>
       <c r="Q110">
-        <v>242936182.9067648</v>
+        <v>92244892.13563786</v>
       </c>
       <c r="R110">
         <v>392</v>
@@ -7496,34 +7486,34 @@
         </is>
       </c>
       <c r="H111">
-        <v>1996310485.807412</v>
+        <v>1880699257.853837</v>
       </c>
       <c r="I111">
-        <v>1555928563.14</v>
+        <v>1459585313.046571</v>
       </c>
       <c r="J111">
-        <v>350854364.8039411</v>
+        <v>336661346.2695436</v>
       </c>
       <c r="K111">
-        <v>89527557.86347058</v>
+        <v>84452598.53772184</v>
       </c>
       <c r="L111">
-        <v>1496529332.819734</v>
+        <v>1417550066.265097</v>
       </c>
       <c r="M111">
-        <v>1166977138.262482</v>
+        <v>1100967739.21825</v>
       </c>
       <c r="N111">
-        <v>262519040.071448</v>
+        <v>253086788.8844039</v>
       </c>
       <c r="O111">
-        <v>1429496178.33393</v>
+        <v>1354054528.102654</v>
       </c>
       <c r="P111">
-        <v>67033154.48580401</v>
+        <v>63495538.1624433</v>
       </c>
       <c r="Q111">
-        <v>329552194.5572519</v>
+        <v>316582327.0468472</v>
       </c>
       <c r="R111">
         <v>15</v>
@@ -7564,34 +7554,34 @@
         </is>
       </c>
       <c r="H112">
-        <v>3349800944.730571</v>
+        <v>3222892521.44378</v>
       </c>
       <c r="I112">
-        <v>2739373998.773</v>
+        <v>2636057660.114559</v>
       </c>
       <c r="J112">
-        <v>590030465.3953558</v>
+        <v>567226536.7906268</v>
       </c>
       <c r="K112">
-        <v>20396480.56221525</v>
+        <v>19608324.53859409</v>
       </c>
       <c r="L112">
-        <v>2031990059.285122</v>
+        <v>1958179779.700842</v>
       </c>
       <c r="M112">
-        <v>1663239023.341117</v>
+        <v>1602980678.544501</v>
       </c>
       <c r="N112">
-        <v>355167429.9358557</v>
+        <v>342022687.4766787</v>
       </c>
       <c r="O112">
-        <v>2018406453.276973</v>
+        <v>1945003366.02118</v>
       </c>
       <c r="P112">
-        <v>13583606.00814912</v>
+        <v>13176413.67966238</v>
       </c>
       <c r="Q112">
-        <v>368751035.9440049</v>
+        <v>355199101.156341</v>
       </c>
       <c r="R112">
         <v>47</v>
@@ -7632,34 +7622,34 @@
         </is>
       </c>
       <c r="H113">
-        <v>1126358876.9</v>
+        <v>1113601205.325</v>
       </c>
       <c r="I113">
-        <v>803978551.985</v>
+        <v>794715206.6575</v>
       </c>
       <c r="J113">
-        <v>322380324.915</v>
+        <v>318885998.6675</v>
       </c>
       <c r="K113">
         <v>0</v>
       </c>
       <c r="L113">
-        <v>1027503073.275</v>
+        <v>1023431628.9575</v>
       </c>
       <c r="M113">
-        <v>733226042.985</v>
+        <v>730269767.2775</v>
       </c>
       <c r="N113">
-        <v>294277030.29</v>
+        <v>293161861.68</v>
       </c>
       <c r="O113">
-        <v>1027503073.275</v>
+        <v>1023431628.9575</v>
       </c>
       <c r="P113">
         <v>-1.192092895507812e-07</v>
       </c>
       <c r="Q113">
-        <v>294277030.29</v>
+        <v>293161861.6799999</v>
       </c>
       <c r="R113">
         <v>2</v>
@@ -7758,34 +7748,34 @@
         </is>
       </c>
       <c r="H115">
-        <v>19261227270.77547</v>
+        <v>18008113265.84268</v>
       </c>
       <c r="I115">
-        <v>11255380904.20801</v>
+        <v>10421460083.0502</v>
       </c>
       <c r="J115">
-        <v>1914008.296863435</v>
+        <v>1385033.232157084</v>
       </c>
       <c r="K115">
-        <v>8003932358.270609</v>
+        <v>7585268149.560328</v>
       </c>
       <c r="L115">
-        <v>8484602444.867011</v>
+        <v>8085951606.478931</v>
       </c>
       <c r="M115">
-        <v>4954067552.802069</v>
+        <v>4693652845.006353</v>
       </c>
       <c r="N115">
         <v>0</v>
       </c>
       <c r="O115">
-        <v>4954067552.802069</v>
+        <v>4693652845.006353</v>
       </c>
       <c r="P115">
-        <v>3530534892.064939</v>
+        <v>3392298761.472578</v>
       </c>
       <c r="Q115">
-        <v>3530534892.064939</v>
+        <v>3392298761.472578</v>
       </c>
       <c r="R115">
         <v>1272</v>
@@ -7894,34 +7884,34 @@
         </is>
       </c>
       <c r="H117">
-        <v>12114546713.82</v>
+        <v>11994080775.1</v>
       </c>
       <c r="I117">
-        <v>9330742378</v>
+        <v>9228346330.087999</v>
       </c>
       <c r="J117">
-        <v>2650931750.659999</v>
+        <v>2638885156.788</v>
       </c>
       <c r="K117">
-        <v>132872585.16</v>
+        <v>126849288.224</v>
       </c>
       <c r="L117">
-        <v>6871164883.555999</v>
+        <v>6763766301.5992</v>
       </c>
       <c r="M117">
-        <v>5288440736.749999</v>
+        <v>5197151942.094</v>
       </c>
       <c r="N117">
-        <v>1488631801.694</v>
+        <v>1477891943.4988</v>
       </c>
       <c r="O117">
-        <v>6777072538.443997</v>
+        <v>6675043885.5928</v>
       </c>
       <c r="P117">
-        <v>94092345.11199956</v>
+        <v>88722416.00639969</v>
       </c>
       <c r="Q117">
-        <v>1582724146.806</v>
+        <v>1566614359.5052</v>
       </c>
       <c r="R117">
         <v>33</v>
@@ -7962,34 +7952,34 @@
         </is>
       </c>
       <c r="H118">
-        <v>360722625.267076</v>
+        <v>255206451.1112258</v>
       </c>
       <c r="I118">
-        <v>290767595.79</v>
+        <v>205634668.8928589</v>
       </c>
       <c r="J118">
-        <v>63425611.43929119</v>
+        <v>43830520.20420331</v>
       </c>
       <c r="K118">
-        <v>6529418.037784749</v>
+        <v>5741262.014163584</v>
       </c>
       <c r="L118">
-        <v>226884912.6443636</v>
+        <v>166840568.6279894</v>
       </c>
       <c r="M118">
-        <v>183689579.4035957</v>
+        <v>135132279.8332945</v>
       </c>
       <c r="N118">
-        <v>38637835.31891704</v>
+        <v>27557983.20133068</v>
       </c>
       <c r="O118">
-        <v>222327414.7225127</v>
+        <v>162690263.0346252</v>
       </c>
       <c r="P118">
-        <v>4557497.921850865</v>
+        <v>4150305.593364134</v>
       </c>
       <c r="Q118">
-        <v>43195333.2407679</v>
+        <v>31708288.79469481</v>
       </c>
       <c r="R118">
         <v>11</v>
@@ -8030,34 +8020,34 @@
         </is>
       </c>
       <c r="H119">
-        <v>25515343.15</v>
+        <v>12757671.575</v>
       </c>
       <c r="I119">
-        <v>18526690.655</v>
+        <v>9263345.327500001</v>
       </c>
       <c r="J119">
-        <v>6988652.495</v>
+        <v>3494326.2475</v>
       </c>
       <c r="K119">
         <v>0</v>
       </c>
       <c r="L119">
-        <v>8142888.635</v>
+        <v>4071444.3175</v>
       </c>
       <c r="M119">
-        <v>5912551.415</v>
+        <v>2956275.7075</v>
       </c>
       <c r="N119">
-        <v>2230337.22</v>
+        <v>1115168.61</v>
       </c>
       <c r="O119">
-        <v>8142888.635</v>
+        <v>4071444.3175</v>
       </c>
       <c r="P119">
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>2230337.22</v>
+        <v>1115168.61</v>
       </c>
       <c r="R119">
         <v>1</v>
@@ -8159,7 +8149,7 @@
         <v>309957324.3</v>
       </c>
       <c r="I121">
-        <v>216970127.0000001</v>
+        <v>216970127</v>
       </c>
       <c r="J121">
         <v>0</v>
@@ -8236,19 +8226,19 @@
         <v>149632196.96</v>
       </c>
       <c r="L122">
-        <v>831348680.6899998</v>
+        <v>831348680.6900001</v>
       </c>
       <c r="M122">
         <v>415674339.83</v>
       </c>
       <c r="N122">
-        <v>332539471.8700001</v>
+        <v>332539471.87</v>
       </c>
       <c r="O122">
         <v>748213811.7</v>
       </c>
       <c r="P122">
-        <v>83134868.99000002</v>
+        <v>83134868.99000001</v>
       </c>
       <c r="Q122">
         <v>415674340.86</v>
@@ -8292,34 +8282,34 @@
         </is>
       </c>
       <c r="H123">
-        <v>1730887011.05</v>
+        <v>1717687011.05</v>
       </c>
       <c r="I123">
-        <v>963471710.7700001</v>
+        <v>955620350.77</v>
       </c>
       <c r="J123">
         <v>0</v>
       </c>
       <c r="K123">
-        <v>767415300.2800001</v>
+        <v>762066660.28</v>
       </c>
       <c r="L123">
-        <v>562383430.3139999</v>
+        <v>556358815.4484</v>
       </c>
       <c r="M123">
-        <v>303856566.138</v>
+        <v>300273125.2188</v>
       </c>
       <c r="N123">
         <v>0</v>
       </c>
       <c r="O123">
-        <v>303856566.138</v>
+        <v>300273125.2188</v>
       </c>
       <c r="P123">
-        <v>258526864.176</v>
+        <v>256085690.2296</v>
       </c>
       <c r="Q123">
-        <v>258526864.176</v>
+        <v>256085690.2296</v>
       </c>
       <c r="R123">
         <v>57</v>
@@ -8369,25 +8359,25 @@
         <v>0</v>
       </c>
       <c r="K124">
-        <v>907802333.8699999</v>
+        <v>907802333.87</v>
       </c>
       <c r="L124">
         <v>1127803936.17</v>
       </c>
       <c r="M124">
-        <v>625640429.5799997</v>
+        <v>625640429.58</v>
       </c>
       <c r="N124">
         <v>0</v>
       </c>
       <c r="O124">
-        <v>625640429.5799997</v>
+        <v>625640429.58</v>
       </c>
       <c r="P124">
-        <v>502163506.5899999</v>
+        <v>502163506.59</v>
       </c>
       <c r="Q124">
-        <v>502163506.5899999</v>
+        <v>502163506.59</v>
       </c>
       <c r="R124">
         <v>204</v>
@@ -8486,34 +8476,34 @@
         </is>
       </c>
       <c r="H126">
-        <v>8545277580.714998</v>
+        <v>4275214258.3575</v>
       </c>
       <c r="I126">
-        <v>3355649609.120001</v>
+        <v>1678983765.16</v>
       </c>
       <c r="J126">
         <v>0</v>
       </c>
       <c r="K126">
-        <v>5189627971.595001</v>
+        <v>2596230493.1975</v>
       </c>
       <c r="L126">
-        <v>5245580126.099998</v>
+        <v>2625365531.05</v>
       </c>
       <c r="M126">
-        <v>2029056470.684999</v>
+        <v>1015687195.9425</v>
       </c>
       <c r="N126">
         <v>0</v>
       </c>
       <c r="O126">
-        <v>2029056470.684999</v>
+        <v>1015687195.9425</v>
       </c>
       <c r="P126">
-        <v>3216523655.414998</v>
+        <v>1609678335.1075</v>
       </c>
       <c r="Q126">
-        <v>3216523655.414998</v>
+        <v>1609678335.1075</v>
       </c>
       <c r="R126">
         <v>722</v>
@@ -8554,16 +8544,16 @@
         </is>
       </c>
       <c r="H127">
-        <v>444155059.0899999</v>
+        <v>443201059.09</v>
       </c>
       <c r="I127">
-        <v>329811383.78</v>
+        <v>329095883.78</v>
       </c>
       <c r="J127">
         <v>222500</v>
       </c>
       <c r="K127">
-        <v>114121175.31</v>
+        <v>113882675.31</v>
       </c>
       <c r="L127">
         <v>385317766.85</v>
@@ -8578,13 +8568,13 @@
         <v>288416869.4</v>
       </c>
       <c r="P127">
-        <v>96900897.44999999</v>
+        <v>96900897.45</v>
       </c>
       <c r="Q127">
-        <v>96900897.44999999</v>
+        <v>96900897.45</v>
       </c>
       <c r="R127">
-        <v>1508</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="128">
@@ -8710,7 +8700,7 @@
         <v>0</v>
       </c>
       <c r="R129">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="130">
@@ -8748,34 +8738,34 @@
         </is>
       </c>
       <c r="H130">
-        <v>9524489606.72308</v>
+        <v>9464527042.105272</v>
       </c>
       <c r="I130">
-        <v>3170023000.430001</v>
+        <v>3138651456.048711</v>
       </c>
       <c r="J130">
         <v>0</v>
       </c>
       <c r="K130">
-        <v>6354466606.293078</v>
+        <v>6325875586.056562</v>
       </c>
       <c r="L130">
-        <v>1089907557.366609</v>
+        <v>1083463690.955324</v>
       </c>
       <c r="M130">
-        <v>440556229.5129184</v>
+        <v>437366617.6239589</v>
       </c>
       <c r="N130">
         <v>0</v>
       </c>
       <c r="O130">
-        <v>440556229.5129184</v>
+        <v>437366617.6239589</v>
       </c>
       <c r="P130">
-        <v>649351327.8536907</v>
+        <v>646097073.3313656</v>
       </c>
       <c r="Q130">
-        <v>649351327.8536907</v>
+        <v>646097073.3313656</v>
       </c>
       <c r="R130">
         <v>163</v>
@@ -8874,7 +8864,7 @@
         </is>
       </c>
       <c r="H132">
-        <v>2383988528.009999</v>
+        <v>2383988528.01</v>
       </c>
       <c r="I132">
         <v>1370682272.56</v>
@@ -8883,10 +8873,10 @@
         <v>77661400.25</v>
       </c>
       <c r="K132">
-        <v>935644855.1999998</v>
+        <v>935644855.2</v>
       </c>
       <c r="L132">
-        <v>1409043851.129999</v>
+        <v>1409043851.13</v>
       </c>
       <c r="M132">
         <v>781074449.1900001</v>
@@ -8895,13 +8885,13 @@
         <v>32808225.83</v>
       </c>
       <c r="O132">
-        <v>813882675.0200003</v>
+        <v>813882675.02</v>
       </c>
       <c r="P132">
-        <v>595161176.1100005</v>
+        <v>595161176.11</v>
       </c>
       <c r="Q132">
-        <v>627969401.9400005</v>
+        <v>627969401.9399999</v>
       </c>
       <c r="R132">
         <v>894</v>
@@ -8942,34 +8932,34 @@
         </is>
       </c>
       <c r="H133">
-        <v>391497617.1</v>
+        <v>355012217.1</v>
       </c>
       <c r="I133">
-        <v>195748808.55</v>
+        <v>177506108.55</v>
       </c>
       <c r="J133">
         <v>137720089.19</v>
       </c>
       <c r="K133">
-        <v>58028719.36</v>
+        <v>39786019.36</v>
       </c>
       <c r="L133">
-        <v>251241906.384</v>
+        <v>242999709.3342</v>
       </c>
       <c r="M133">
-        <v>125620953.147</v>
+        <v>121499854.6221</v>
       </c>
       <c r="N133">
-        <v>97740360.36999997</v>
+        <v>97740360.37</v>
       </c>
       <c r="O133">
-        <v>223361313.517</v>
+        <v>219240214.9921</v>
       </c>
       <c r="P133">
-        <v>27880592.86700005</v>
+        <v>23759494.34210002</v>
       </c>
       <c r="Q133">
-        <v>125620953.237</v>
+        <v>121499854.7121</v>
       </c>
       <c r="R133">
         <v>3</v>
@@ -9010,34 +9000,34 @@
         </is>
       </c>
       <c r="H134">
-        <v>20958740998.16002</v>
+        <v>20958740998.16</v>
       </c>
       <c r="I134">
-        <v>8692127961.649992</v>
+        <v>8692127961.65</v>
       </c>
       <c r="J134">
         <v>0</v>
       </c>
       <c r="K134">
-        <v>12266613036.51001</v>
+        <v>12266613036.51</v>
       </c>
       <c r="L134">
-        <v>12092824374.31999</v>
+        <v>12092824374.32</v>
       </c>
       <c r="M134">
-        <v>5126291570.999991</v>
+        <v>5126291571</v>
       </c>
       <c r="N134">
         <v>0</v>
       </c>
       <c r="O134">
-        <v>5126291570.999991</v>
+        <v>5126291571</v>
       </c>
       <c r="P134">
-        <v>6966532803.319995</v>
+        <v>6966532803.32</v>
       </c>
       <c r="Q134">
-        <v>6966532803.319995</v>
+        <v>6966532803.32</v>
       </c>
       <c r="R134">
         <v>2041</v>
@@ -9078,34 +9068,34 @@
         </is>
       </c>
       <c r="H135">
-        <v>398356978.53</v>
+        <v>361871578.53</v>
       </c>
       <c r="I135">
-        <v>199178489.25</v>
+        <v>180935789.25</v>
       </c>
       <c r="J135">
         <v>86690597.73</v>
       </c>
       <c r="K135">
-        <v>112487891.55</v>
+        <v>94245191.55</v>
       </c>
       <c r="L135">
-        <v>233422679.046</v>
+        <v>225180481.9962</v>
       </c>
       <c r="M135">
-        <v>116696339.443</v>
+        <v>112575240.9181</v>
       </c>
       <c r="N135">
         <v>72104549.26000001</v>
       </c>
       <c r="O135">
-        <v>188800888.703</v>
+        <v>184679790.1781</v>
       </c>
       <c r="P135">
-        <v>44621790.34300001</v>
+        <v>40500691.81810001</v>
       </c>
       <c r="Q135">
-        <v>116726339.603</v>
+        <v>112605241.0781</v>
       </c>
       <c r="R135">
         <v>12</v>
@@ -9204,34 +9194,34 @@
         </is>
       </c>
       <c r="H137">
-        <v>21869587790.62997</v>
+        <v>21869587790.63</v>
       </c>
       <c r="I137">
-        <v>10087490302.59996</v>
+        <v>10087490302.6</v>
       </c>
       <c r="J137">
         <v>0</v>
       </c>
       <c r="K137">
-        <v>11782097488.03006</v>
+        <v>11782097488.03</v>
       </c>
       <c r="L137">
-        <v>12373783764.27002</v>
+        <v>12373783764.27</v>
       </c>
       <c r="M137">
-        <v>5729106187.339988</v>
+        <v>5729106187.34</v>
       </c>
       <c r="N137">
         <v>0</v>
       </c>
       <c r="O137">
-        <v>5729106187.339988</v>
+        <v>5729106187.34</v>
       </c>
       <c r="P137">
-        <v>6644677576.929999</v>
+        <v>6644677576.93</v>
       </c>
       <c r="Q137">
-        <v>6644677576.929999</v>
+        <v>6644677576.93</v>
       </c>
       <c r="R137">
         <v>2948</v>
@@ -9398,7 +9388,7 @@
         </is>
       </c>
       <c r="H140">
-        <v>3728514788.890001</v>
+        <v>3728514788.89</v>
       </c>
       <c r="I140">
         <v>1739849983.29</v>
@@ -9407,25 +9397,25 @@
         <v>0</v>
       </c>
       <c r="K140">
-        <v>1988664805.599999</v>
+        <v>1988664805.6</v>
       </c>
       <c r="L140">
-        <v>1851459426.630001</v>
+        <v>1851459426.63</v>
       </c>
       <c r="M140">
-        <v>891807809.8199998</v>
+        <v>891807809.8200001</v>
       </c>
       <c r="N140">
         <v>0</v>
       </c>
       <c r="O140">
-        <v>891807809.8199998</v>
+        <v>891807809.8200001</v>
       </c>
       <c r="P140">
-        <v>959651616.809999</v>
+        <v>959651616.8099999</v>
       </c>
       <c r="Q140">
-        <v>959651616.809999</v>
+        <v>959651616.8099999</v>
       </c>
       <c r="R140">
         <v>985</v>
@@ -9469,31 +9459,31 @@
         <v>14026631576.82</v>
       </c>
       <c r="I141">
-        <v>4271497533.959994</v>
+        <v>4271497533.96</v>
       </c>
       <c r="J141">
         <v>0</v>
       </c>
       <c r="K141">
-        <v>9755134042.859993</v>
+        <v>9755134042.860001</v>
       </c>
       <c r="L141">
-        <v>6096337527.240003</v>
+        <v>6096337527.24</v>
       </c>
       <c r="M141">
-        <v>1870008618.739999</v>
+        <v>1870008618.74</v>
       </c>
       <c r="N141">
         <v>0</v>
       </c>
       <c r="O141">
-        <v>1870008618.739999</v>
+        <v>1870008618.74</v>
       </c>
       <c r="P141">
-        <v>4226328908.500001</v>
+        <v>4226328908.5</v>
       </c>
       <c r="Q141">
-        <v>4226328908.500001</v>
+        <v>4226328908.5</v>
       </c>
       <c r="R141">
         <v>755</v>
@@ -9616,10 +9606,10 @@
         <v>2957343190.26</v>
       </c>
       <c r="P143">
-        <v>4140375471.690001</v>
+        <v>4140375471.69</v>
       </c>
       <c r="Q143">
-        <v>4140375471.690001</v>
+        <v>4140375471.69</v>
       </c>
       <c r="R143">
         <v>433</v>
@@ -9718,16 +9708,16 @@
         </is>
       </c>
       <c r="H145">
-        <v>651673248.9200002</v>
+        <v>651673248.92</v>
       </c>
       <c r="I145">
-        <v>553922261.4200001</v>
+        <v>553922261.42</v>
       </c>
       <c r="J145">
         <v>0</v>
       </c>
       <c r="K145">
-        <v>97750987.49999997</v>
+        <v>97750987.5</v>
       </c>
       <c r="L145">
         <v>559653233.5599999</v>
@@ -9742,10 +9732,10 @@
         <v>475705248.03</v>
       </c>
       <c r="P145">
-        <v>83947985.53000002</v>
+        <v>83947985.53</v>
       </c>
       <c r="Q145">
-        <v>83947985.53000002</v>
+        <v>83947985.53</v>
       </c>
       <c r="R145">
         <v>198</v>
@@ -9813,7 +9803,7 @@
         <v>-5.820766091346741e-11</v>
       </c>
       <c r="Q146">
-        <v>21477223.61999999</v>
+        <v>21477223.62</v>
       </c>
       <c r="R146">
         <v>22</v>
@@ -9854,7 +9844,7 @@
         </is>
       </c>
       <c r="H147">
-        <v>905286132.2999998</v>
+        <v>905286132.3</v>
       </c>
       <c r="I147">
         <v>388766228.9</v>
@@ -9922,10 +9912,10 @@
         </is>
       </c>
       <c r="H148">
-        <v>9831635171.099997</v>
+        <v>9831635171.1</v>
       </c>
       <c r="I148">
-        <v>8105729400.970006</v>
+        <v>8105729400.97</v>
       </c>
       <c r="J148">
         <v>1498038093.78</v>
@@ -9934,22 +9924,22 @@
         <v>227867676.35</v>
       </c>
       <c r="L148">
-        <v>3986257279.029999</v>
+        <v>3986257279.03</v>
       </c>
       <c r="M148">
-        <v>3327674460.009997</v>
+        <v>3327674460.01</v>
       </c>
       <c r="N148">
         <v>543810396.35</v>
       </c>
       <c r="O148">
-        <v>3871484856.359998</v>
+        <v>3871484856.36</v>
       </c>
       <c r="P148">
         <v>114772422.67</v>
       </c>
       <c r="Q148">
-        <v>658582819.0199997</v>
+        <v>658582819.02</v>
       </c>
       <c r="R148">
         <v>359</v>
@@ -9993,7 +9983,7 @@
         <v>5326280092.85</v>
       </c>
       <c r="I149">
-        <v>2270613176.409999</v>
+        <v>2270613176.41</v>
       </c>
       <c r="J149">
         <v>0</v>
@@ -10014,10 +10004,10 @@
         <v>1867426602.97</v>
       </c>
       <c r="P149">
-        <v>2525053335.169999</v>
+        <v>2525053335.17</v>
       </c>
       <c r="Q149">
-        <v>2525053335.169999</v>
+        <v>2525053335.17</v>
       </c>
       <c r="R149">
         <v>519</v>
@@ -10058,10 +10048,10 @@
         </is>
       </c>
       <c r="H150">
-        <v>585346376.1999999</v>
+        <v>585346376.2</v>
       </c>
       <c r="I150">
-        <v>367079371.2400001</v>
+        <v>367079371.24</v>
       </c>
       <c r="J150">
         <v>23654561.6</v>
@@ -10194,28 +10184,28 @@
         </is>
       </c>
       <c r="H152">
-        <v>6533174158.839999</v>
+        <v>6533174158.84</v>
       </c>
       <c r="I152">
-        <v>3764638931.389999</v>
+        <v>3764638931.39</v>
       </c>
       <c r="J152">
         <v>44508804.34</v>
       </c>
       <c r="K152">
-        <v>2724026423.109999</v>
+        <v>2724026423.11</v>
       </c>
       <c r="L152">
         <v>4082678692.82</v>
       </c>
       <c r="M152">
-        <v>2306034035.420001</v>
+        <v>2306034035.42</v>
       </c>
       <c r="N152">
         <v>22653840.54</v>
       </c>
       <c r="O152">
-        <v>2328687875.960001</v>
+        <v>2328687875.96</v>
       </c>
       <c r="P152">
         <v>1753990816.86</v>
@@ -10262,10 +10252,10 @@
         </is>
       </c>
       <c r="H153">
-        <v>598653130.4399999</v>
+        <v>598653130.4400001</v>
       </c>
       <c r="I153">
-        <v>508855160.8099999</v>
+        <v>508855160.81</v>
       </c>
       <c r="J153">
         <v>89513269.63</v>
@@ -10283,13 +10273,13 @@
         <v>87741932.60000001</v>
       </c>
       <c r="O153">
-        <v>586559516.4399999</v>
+        <v>586559516.4400001</v>
       </c>
       <c r="P153">
-        <v>284699.9999999832</v>
+        <v>284699.9999999814</v>
       </c>
       <c r="Q153">
-        <v>88026632.60000001</v>
+        <v>88026632.59999999</v>
       </c>
       <c r="R153">
         <v>33</v>
@@ -10401,7 +10391,7 @@
         <v>1386606549.71</v>
       </c>
       <c r="I155">
-        <v>1319251899.389999</v>
+        <v>1319251899.39</v>
       </c>
       <c r="J155">
         <v>36173989.84</v>
@@ -10410,7 +10400,7 @@
         <v>31180660.48</v>
       </c>
       <c r="L155">
-        <v>528800085.4700001</v>
+        <v>528800085.47</v>
       </c>
       <c r="M155">
         <v>509858155.1</v>
@@ -10419,7 +10409,7 @@
         <v>13834231.87</v>
       </c>
       <c r="O155">
-        <v>523692386.9700001</v>
+        <v>523692386.97</v>
       </c>
       <c r="P155">
         <v>5107698.499999996</v>
@@ -10466,16 +10456,16 @@
         </is>
       </c>
       <c r="H156">
-        <v>314862255.9200001</v>
+        <v>314862255.92</v>
       </c>
       <c r="I156">
-        <v>279465482.7400001</v>
+        <v>279465482.74</v>
       </c>
       <c r="J156">
         <v>16499840.75</v>
       </c>
       <c r="K156">
-        <v>18896932.42999999</v>
+        <v>18896932.43</v>
       </c>
       <c r="L156">
         <v>165174264.33</v>
@@ -10490,7 +10480,7 @@
         <v>155343944.09</v>
       </c>
       <c r="P156">
-        <v>9830320.240000002</v>
+        <v>9830320.24</v>
       </c>
       <c r="Q156">
         <v>19609361.5</v>
@@ -10534,13 +10524,13 @@
         </is>
       </c>
       <c r="H157">
-        <v>6010675514.109998</v>
+        <v>6010675514.11</v>
       </c>
       <c r="I157">
-        <v>5585279303.340004</v>
+        <v>5585279303.34</v>
       </c>
       <c r="J157">
-        <v>249714213.8899999</v>
+        <v>249714213.89</v>
       </c>
       <c r="K157">
         <v>175681996.88</v>
@@ -10549,13 +10539,13 @@
         <v>3670622787.87</v>
       </c>
       <c r="M157">
-        <v>3396063465.339999</v>
+        <v>3396063465.34</v>
       </c>
       <c r="N157">
         <v>172631861.42</v>
       </c>
       <c r="O157">
-        <v>3568695326.760002</v>
+        <v>3568695326.76</v>
       </c>
       <c r="P157">
         <v>101927461.11</v>
@@ -10605,31 +10595,31 @@
         <v>1149767989.03</v>
       </c>
       <c r="I158">
-        <v>746290630.9099998</v>
+        <v>746290630.91</v>
       </c>
       <c r="J158">
-        <v>390391808.8200004</v>
+        <v>390391808.82</v>
       </c>
       <c r="K158">
         <v>13085549.3</v>
       </c>
       <c r="L158">
-        <v>579322899.2299999</v>
+        <v>579322899.23</v>
       </c>
       <c r="M158">
         <v>356249996.22</v>
       </c>
       <c r="N158">
-        <v>219726323.2799999</v>
+        <v>219726323.28</v>
       </c>
       <c r="O158">
-        <v>575976319.4999999</v>
+        <v>575976319.5</v>
       </c>
       <c r="P158">
-        <v>3346579.729999999</v>
+        <v>3346579.729999997</v>
       </c>
       <c r="Q158">
-        <v>223072903.0099998</v>
+        <v>223072903.01</v>
       </c>
       <c r="R158">
         <v>627</v>
@@ -10731,7 +10721,7 @@
         <v>1408751778.51</v>
       </c>
       <c r="I160">
-        <v>1233418481.789999</v>
+        <v>1233418481.79</v>
       </c>
       <c r="J160">
         <v>148955531.53</v>
@@ -10740,10 +10730,10 @@
         <v>26377765.19</v>
       </c>
       <c r="L160">
-        <v>824017390.1999999</v>
+        <v>824017390.2</v>
       </c>
       <c r="M160">
-        <v>747857806.5000001</v>
+        <v>747857806.5</v>
       </c>
       <c r="N160">
         <v>69943217.55</v>
@@ -10802,7 +10792,7 @@
         <v>1389246042.95</v>
       </c>
       <c r="J161">
-        <v>262591784.2000001</v>
+        <v>262591784.2</v>
       </c>
       <c r="K161">
         <v>11400478.38</v>
@@ -10811,19 +10801,19 @@
         <v>1068126581.46</v>
       </c>
       <c r="M161">
-        <v>894579843.6700002</v>
+        <v>894579843.67</v>
       </c>
       <c r="N161">
-        <v>166479005.0599999</v>
+        <v>166479005.06</v>
       </c>
       <c r="O161">
         <v>1061058848.73</v>
       </c>
       <c r="P161">
-        <v>7067732.729999995</v>
+        <v>7067732.729999997</v>
       </c>
       <c r="Q161">
-        <v>173546737.7899999</v>
+        <v>173546737.79</v>
       </c>
       <c r="R161">
         <v>213</v>
@@ -10864,34 +10854,34 @@
         </is>
       </c>
       <c r="H162">
-        <v>4830680782.824998</v>
+        <v>4823111269.3875</v>
       </c>
       <c r="I162">
-        <v>4106078664.889999</v>
+        <v>4099644578.471</v>
       </c>
       <c r="J162">
-        <v>724602117.9349996</v>
+        <v>723466690.9165</v>
       </c>
       <c r="K162">
         <v>0</v>
       </c>
       <c r="L162">
-        <v>4050112735.590001</v>
+        <v>4042679080.445</v>
       </c>
       <c r="M162">
-        <v>3442595824.232001</v>
+        <v>3436277217.3646</v>
       </c>
       <c r="N162">
-        <v>607516911.3580002</v>
+        <v>606401863.0804</v>
       </c>
       <c r="O162">
-        <v>4050112735.590001</v>
+        <v>4042679080.445</v>
       </c>
       <c r="P162">
-        <v>2.444721758365631e-08</v>
+        <v>2.305023372173309e-08</v>
       </c>
       <c r="Q162">
-        <v>607516911.3580003</v>
+        <v>606401863.0804</v>
       </c>
       <c r="R162">
         <v>278</v>
@@ -10932,34 +10922,34 @@
         </is>
       </c>
       <c r="H163">
-        <v>407480575.8699999</v>
+        <v>406484468.03</v>
       </c>
       <c r="I163">
-        <v>387106546.9199999</v>
+        <v>386160244.472</v>
       </c>
       <c r="J163">
-        <v>20374028.95000001</v>
+        <v>20324223.558</v>
       </c>
       <c r="K163">
         <v>0</v>
       </c>
       <c r="L163">
-        <v>355125086.6100001</v>
+        <v>355055803.86</v>
       </c>
       <c r="M163">
-        <v>337368832.0150001</v>
+        <v>337303013.4025</v>
       </c>
       <c r="N163">
-        <v>17756254.595</v>
+        <v>17752790.4575</v>
       </c>
       <c r="O163">
-        <v>355125086.6100001</v>
+        <v>355055803.86</v>
       </c>
       <c r="P163">
         <v>6.693881005048752e-10</v>
       </c>
       <c r="Q163">
-        <v>17756254.595</v>
+        <v>17752790.4575</v>
       </c>
       <c r="R163">
         <v>208</v>
@@ -11000,34 +10990,34 @@
         </is>
       </c>
       <c r="H164">
-        <v>1573747974.128117</v>
+        <v>1416781640.738012</v>
       </c>
       <c r="I164">
-        <v>1337685777.922</v>
+        <v>1204264394.5477</v>
       </c>
       <c r="J164">
-        <v>236062196.2061177</v>
+        <v>212517246.1903118</v>
       </c>
       <c r="K164">
         <v>0</v>
       </c>
       <c r="L164">
-        <v>56131198.19962611</v>
+        <v>50518078.379327</v>
       </c>
       <c r="M164">
-        <v>47711518.46968219</v>
+        <v>42940366.62242795</v>
       </c>
       <c r="N164">
-        <v>8419679.729943916</v>
+        <v>7577711.75689905</v>
       </c>
       <c r="O164">
-        <v>56131198.19962611</v>
+        <v>50518078.379327</v>
       </c>
       <c r="P164">
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>8419679.729943916</v>
+        <v>7577711.756899049</v>
       </c>
       <c r="R164">
         <v>43</v>
@@ -11103,7 +11093,7 @@
         </is>
       </c>
       <c r="C166">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11150,7 +11140,7 @@
         <v>260966429.39</v>
       </c>
       <c r="P166">
-        <v>1408460.810000007</v>
+        <v>1408460.810000005</v>
       </c>
       <c r="Q166">
         <v>39465018.83</v>
@@ -11171,7 +11161,7 @@
         </is>
       </c>
       <c r="C167">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11194,34 +11184,34 @@
         </is>
       </c>
       <c r="H167">
-        <v>2517175931.650002</v>
+        <v>2517175931.65</v>
       </c>
       <c r="I167">
         <v>1845331915.82</v>
       </c>
       <c r="J167">
-        <v>669605532.6799997</v>
+        <v>669605532.6799999</v>
       </c>
       <c r="K167">
         <v>2238483.15</v>
       </c>
       <c r="L167">
-        <v>2019757478.450001</v>
+        <v>2019757478.45</v>
       </c>
       <c r="M167">
         <v>1483573595.37</v>
       </c>
       <c r="N167">
-        <v>533949855.8299997</v>
+        <v>533949855.83</v>
       </c>
       <c r="O167">
-        <v>2017523451.200001</v>
+        <v>2017523451.2</v>
       </c>
       <c r="P167">
-        <v>2234027.250000001</v>
+        <v>2234027.249999999</v>
       </c>
       <c r="Q167">
-        <v>536183883.0799996</v>
+        <v>536183883.08</v>
       </c>
       <c r="R167">
         <v>722</v>
@@ -11239,7 +11229,7 @@
         </is>
       </c>
       <c r="C168">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11286,7 +11276,7 @@
         <v>148240801.1</v>
       </c>
       <c r="P168">
-        <v>5.122274160385132e-09</v>
+        <v>6.05359673500061e-09</v>
       </c>
       <c r="Q168">
         <v>25592554.34</v>
@@ -11307,7 +11297,7 @@
         </is>
       </c>
       <c r="C169">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11330,34 +11320,34 @@
         </is>
       </c>
       <c r="H169">
-        <v>502723613.335</v>
+        <v>495154099.8975</v>
       </c>
       <c r="I169">
-        <v>427315071.3099999</v>
+        <v>420880984.891</v>
       </c>
       <c r="J169">
-        <v>75408542.02499999</v>
+        <v>74273115.00650001</v>
       </c>
       <c r="K169">
         <v>0</v>
       </c>
       <c r="L169">
-        <v>456896701.23</v>
+        <v>449463046.085</v>
       </c>
       <c r="M169">
-        <v>388362195.958</v>
+        <v>382043589.0906</v>
       </c>
       <c r="N169">
-        <v>68534505.27200001</v>
+        <v>67419456.99440001</v>
       </c>
       <c r="O169">
-        <v>456896701.23</v>
+        <v>449463046.085</v>
       </c>
       <c r="P169">
-        <v>-1.676380634307861e-08</v>
+        <v>-1.816079020500183e-08</v>
       </c>
       <c r="Q169">
-        <v>68534505.272</v>
+        <v>67419456.99439999</v>
       </c>
       <c r="R169">
         <v>20</v>
@@ -11398,34 +11388,34 @@
         </is>
       </c>
       <c r="H170">
-        <v>18250461.14</v>
+        <v>17254353.3</v>
       </c>
       <c r="I170">
-        <v>17337938.07</v>
+        <v>16391635.622</v>
       </c>
       <c r="J170">
-        <v>912523.0699999999</v>
+        <v>862717.678</v>
       </c>
       <c r="K170">
         <v>0</v>
       </c>
       <c r="L170">
-        <v>15174281.33</v>
+        <v>15104998.58</v>
       </c>
       <c r="M170">
-        <v>14415567.235</v>
+        <v>14349748.6225</v>
       </c>
       <c r="N170">
-        <v>758714.095</v>
+        <v>755249.9575</v>
       </c>
       <c r="O170">
-        <v>15174281.33</v>
+        <v>15104998.58</v>
       </c>
       <c r="P170">
         <v>5.238689482212067e-10</v>
       </c>
       <c r="Q170">
-        <v>758714.0950000001</v>
+        <v>755249.9575000003</v>
       </c>
       <c r="R170">
         <v>20</v>
@@ -11466,34 +11456,34 @@
         </is>
       </c>
       <c r="H171">
-        <v>272468633.6018823</v>
+        <v>115502300.2117765</v>
       </c>
       <c r="I171">
-        <v>231598338.5479999</v>
+        <v>98176955.17369999</v>
       </c>
       <c r="J171">
-        <v>40870295.05388237</v>
+        <v>17325345.03807647</v>
       </c>
       <c r="K171">
         <v>0</v>
       </c>
       <c r="L171">
-        <v>6236799.80037389</v>
+        <v>623679.9800747781</v>
       </c>
       <c r="M171">
-        <v>5301279.830317807</v>
+        <v>530127.9830635614</v>
       </c>
       <c r="N171">
-        <v>935519.9700560836</v>
+        <v>93551.99701121674</v>
       </c>
       <c r="O171">
-        <v>6236799.80037389</v>
+        <v>623679.9800747781</v>
       </c>
       <c r="P171">
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>935519.9700560835</v>
+        <v>93551.99701121672</v>
       </c>
       <c r="R171">
         <v>40</v>
@@ -11511,7 +11501,7 @@
         </is>
       </c>
       <c r="C172">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11534,7 +11524,7 @@
         </is>
       </c>
       <c r="H172">
-        <v>3588144817.360001</v>
+        <v>3588144817.36</v>
       </c>
       <c r="I172">
         <v>3048773666.82</v>
@@ -11552,7 +11542,7 @@
         <v>1595337356.3</v>
       </c>
       <c r="N172">
-        <v>153430940.8799999</v>
+        <v>153430940.88</v>
       </c>
       <c r="O172">
         <v>1748768297.18</v>
@@ -11805,25 +11795,25 @@
         <v>1881837568.37</v>
       </c>
       <c r="K176">
-        <v>394211234.9800002</v>
+        <v>394211234.98</v>
       </c>
       <c r="L176">
-        <v>8287583119.210001</v>
+        <v>8287583119.21</v>
       </c>
       <c r="M176">
-        <v>7044445647.160006</v>
+        <v>7044445647.16</v>
       </c>
       <c r="N176">
         <v>1033633036.03</v>
       </c>
       <c r="O176">
-        <v>8078078683.190001</v>
+        <v>8078078683.19</v>
       </c>
       <c r="P176">
-        <v>209504436.0200001</v>
+        <v>209504436.02</v>
       </c>
       <c r="Q176">
-        <v>1243137472.050001</v>
+        <v>1243137472.05</v>
       </c>
       <c r="R176">
         <v>246</v>
@@ -11870,7 +11860,7 @@
         <v>195957972.67</v>
       </c>
       <c r="J177">
-        <v>34580818.72999999</v>
+        <v>34580818.73</v>
       </c>
       <c r="K177">
         <v>0</v>
@@ -11882,16 +11872,16 @@
         <v>186493044.53</v>
       </c>
       <c r="N177">
-        <v>32910537.42999998</v>
+        <v>32910537.43</v>
       </c>
       <c r="O177">
         <v>219403581.96</v>
       </c>
       <c r="P177">
-        <v>-9.313225746154785e-10</v>
+        <v>-9.895302355289459e-10</v>
       </c>
       <c r="Q177">
-        <v>32910537.42999998</v>
+        <v>32910537.43</v>
       </c>
       <c r="R177">
         <v>187</v>
@@ -11932,37 +11922,37 @@
         </is>
       </c>
       <c r="H178">
-        <v>4452430834.229999</v>
+        <v>4450651992.29</v>
       </c>
       <c r="I178">
-        <v>4229809288.439996</v>
+        <v>4228119388.6</v>
       </c>
       <c r="J178">
-        <v>189096444.2400001</v>
+        <v>189007502.14</v>
       </c>
       <c r="K178">
-        <v>33525101.54999999</v>
+        <v>33525101.55</v>
       </c>
       <c r="L178">
         <v>3190201093.84</v>
       </c>
       <c r="M178">
-        <v>3030691034.329996</v>
+        <v>3030691034.33</v>
       </c>
       <c r="N178">
         <v>136296862.04</v>
       </c>
       <c r="O178">
-        <v>3166987896.370001</v>
+        <v>3166987896.37</v>
       </c>
       <c r="P178">
-        <v>23213197.47000001</v>
+        <v>23213197.47</v>
       </c>
       <c r="Q178">
-        <v>159510059.5099999</v>
+        <v>159510059.51</v>
       </c>
       <c r="R178">
-        <v>1956</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="179">
@@ -12000,10 +11990,10 @@
         </is>
       </c>
       <c r="H179">
-        <v>2358311683.589999</v>
+        <v>2358311683.59</v>
       </c>
       <c r="I179">
-        <v>2240396098.769999</v>
+        <v>2240396098.77</v>
       </c>
       <c r="J179">
         <v>0</v>
@@ -12012,7 +12002,7 @@
         <v>117915584.82</v>
       </c>
       <c r="L179">
-        <v>1388856523.189999</v>
+        <v>1388856523.19</v>
       </c>
       <c r="M179">
         <v>1319413693.07</v>
@@ -12024,10 +12014,10 @@
         <v>1319413693.07</v>
       </c>
       <c r="P179">
-        <v>69442830.12000005</v>
+        <v>69442830.12</v>
       </c>
       <c r="Q179">
-        <v>69442830.12000005</v>
+        <v>69442830.12</v>
       </c>
       <c r="R179">
         <v>301</v>
@@ -12088,7 +12078,7 @@
         <v>0</v>
       </c>
       <c r="R180">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="181">
@@ -12150,7 +12140,7 @@
         <v>1804384043.97</v>
       </c>
       <c r="P181">
-        <v>8.961069397628307e-08</v>
+        <v>7.470953278243542e-08</v>
       </c>
       <c r="Q181">
         <v>270657607.53</v>
@@ -12194,34 +12184,34 @@
         </is>
       </c>
       <c r="H182">
-        <v>2779614322.210584</v>
+        <v>2768074230.237862</v>
       </c>
       <c r="I182">
-        <v>2255657022.339801</v>
+        <v>2246292237.716757</v>
       </c>
       <c r="J182">
-        <v>523957299.8707828</v>
+        <v>521781992.5211049</v>
       </c>
       <c r="K182">
         <v>0</v>
       </c>
       <c r="L182">
-        <v>2297024476.354499</v>
+        <v>2291788476.702458</v>
       </c>
       <c r="M182">
-        <v>1864035361.381877</v>
+        <v>1859786347.802895</v>
       </c>
       <c r="N182">
-        <v>432989114.972622</v>
+        <v>432002128.8995635</v>
       </c>
       <c r="O182">
-        <v>2297024476.354499</v>
+        <v>2291788476.702458</v>
       </c>
       <c r="P182">
-        <v>4.089291905843851e-09</v>
+        <v>-1.072832947834312e-08</v>
       </c>
       <c r="Q182">
-        <v>432989114.972622</v>
+        <v>432002128.8995635</v>
       </c>
       <c r="R182">
         <v>25</v>
@@ -12262,34 +12252,34 @@
         </is>
       </c>
       <c r="H183">
-        <v>5326903.596482877</v>
+        <v>854071.3126052194</v>
       </c>
       <c r="I183">
-        <v>4322782.257952955</v>
+        <v>693078.8686242501</v>
       </c>
       <c r="J183">
-        <v>1004121.338529922</v>
+        <v>160992.4439809693</v>
       </c>
       <c r="K183">
         <v>0</v>
       </c>
       <c r="L183">
-        <v>1713884.504305943</v>
+        <v>240552.2678602103</v>
       </c>
       <c r="M183">
-        <v>1390817.173821205</v>
+        <v>195208.1513727662</v>
       </c>
       <c r="N183">
-        <v>323067.3304847384</v>
+        <v>45344.11648744411</v>
       </c>
       <c r="O183">
-        <v>1713884.504305943</v>
+        <v>240552.2678602103</v>
       </c>
       <c r="P183">
-        <v>-1.36700691838433e-10</v>
+        <v>-2.074387163019577e-11</v>
       </c>
       <c r="Q183">
-        <v>323067.3304847383</v>
+        <v>45344.11648744409</v>
       </c>
       <c r="R183">
         <v>6</v>
@@ -12330,34 +12320,34 @@
         </is>
       </c>
       <c r="H184">
-        <v>2503186510.002429</v>
+        <v>2493912236.804373</v>
       </c>
       <c r="I184">
-        <v>2060685714.69</v>
+        <v>2053050901.1368</v>
       </c>
       <c r="J184">
-        <v>442500795.3124294</v>
+        <v>440861335.667573</v>
       </c>
       <c r="K184">
         <v>0</v>
       </c>
       <c r="L184">
-        <v>1814929043.71423</v>
+        <v>1814052445.104013</v>
       </c>
       <c r="M184">
-        <v>1494094961.809189</v>
+        <v>1493373323.92544</v>
       </c>
       <c r="N184">
-        <v>320834081.9050406</v>
+        <v>320679121.1785731</v>
       </c>
       <c r="O184">
-        <v>1814929043.71423</v>
+        <v>1814052445.104013</v>
       </c>
       <c r="P184">
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>320834081.9050406</v>
+        <v>320679121.1785731</v>
       </c>
       <c r="R184">
         <v>3</v>
@@ -12398,34 +12388,34 @@
         </is>
       </c>
       <c r="H185">
-        <v>1433741977.476442</v>
+        <v>1386549434.198917</v>
       </c>
       <c r="I185">
-        <v>1218680680.850996</v>
+        <v>1178567019.06512</v>
       </c>
       <c r="J185">
-        <v>215061296.6254459</v>
+        <v>207982415.1337969</v>
       </c>
       <c r="K185">
         <v>0</v>
       </c>
       <c r="L185">
-        <v>676695220.5491511</v>
+        <v>667043452.7020456</v>
       </c>
       <c r="M185">
-        <v>575190936.9125552</v>
+        <v>566986934.3596168</v>
       </c>
       <c r="N185">
-        <v>101504283.6365959</v>
+        <v>100056518.3424289</v>
       </c>
       <c r="O185">
-        <v>676695220.5491511</v>
+        <v>667043452.7020457</v>
       </c>
       <c r="P185">
         <v>-5.960464477539062e-08</v>
       </c>
       <c r="Q185">
-        <v>101504283.6365959</v>
+        <v>100056518.3424288</v>
       </c>
       <c r="R185">
         <v>3</v>
@@ -12472,7 +12462,7 @@
         <v>2417138311.45</v>
       </c>
       <c r="J186">
-        <v>426553819.6799999</v>
+        <v>426553819.68</v>
       </c>
       <c r="K186">
         <v>0</v>
@@ -12493,7 +12483,7 @@
         <v>5.238689482212067e-10</v>
       </c>
       <c r="Q186">
-        <v>290540226.5600001</v>
+        <v>290540226.56</v>
       </c>
       <c r="R186">
         <v>48</v>
@@ -12534,19 +12524,19 @@
         </is>
       </c>
       <c r="H187">
-        <v>2690312336.090001</v>
+        <v>2680630366.32</v>
       </c>
       <c r="I187">
-        <v>2286765485.6</v>
+        <v>2278535811.3</v>
       </c>
       <c r="J187">
-        <v>403546850.49</v>
+        <v>402094555.02</v>
       </c>
       <c r="K187">
         <v>0</v>
       </c>
       <c r="L187">
-        <v>2177986953.559999</v>
+        <v>2177986953.56</v>
       </c>
       <c r="M187">
         <v>1851288904.61</v>
@@ -12555,16 +12545,16 @@
         <v>326698048.95</v>
       </c>
       <c r="O187">
-        <v>2177986953.559999</v>
+        <v>2177986953.56</v>
       </c>
       <c r="P187">
-        <v>2.465676516294479e-07</v>
+        <v>1.282896846532822e-07</v>
       </c>
       <c r="Q187">
-        <v>326698048.9500002</v>
+        <v>326698048.95</v>
       </c>
       <c r="R187">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="188">
@@ -12602,34 +12592,34 @@
         </is>
       </c>
       <c r="H188">
-        <v>202477069.4</v>
+        <v>101238534.65</v>
       </c>
       <c r="I188">
-        <v>101238534.7</v>
+        <v>50619267.325</v>
       </c>
       <c r="J188">
-        <v>101238534.7</v>
+        <v>50619267.325</v>
       </c>
       <c r="K188">
         <v>0</v>
       </c>
       <c r="L188">
-        <v>121980540.8797559</v>
+        <v>60990270.40975587</v>
       </c>
       <c r="M188">
-        <v>60990270.42487793</v>
+        <v>30495135.19737794</v>
       </c>
       <c r="N188">
-        <v>60990270.45487794</v>
+        <v>30495135.21237794</v>
       </c>
       <c r="O188">
-        <v>121980540.8797559</v>
+        <v>60990270.40975587</v>
       </c>
       <c r="P188">
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>60990270.45487794</v>
+        <v>30495135.21237794</v>
       </c>
       <c r="R188">
         <v>1</v>
@@ -12670,37 +12660,37 @@
         </is>
       </c>
       <c r="H189">
-        <v>2264347681.359999</v>
+        <v>2231774314.375523</v>
       </c>
       <c r="I189">
-        <v>1924695528.963724</v>
+        <v>1897008167.030486</v>
       </c>
       <c r="J189">
-        <v>339652152.3962746</v>
+        <v>334766147.3450372</v>
       </c>
       <c r="K189">
         <v>0</v>
       </c>
       <c r="L189">
-        <v>1621288507.118328</v>
+        <v>1614107736.222858</v>
       </c>
       <c r="M189">
-        <v>1378095229.452004</v>
+        <v>1371991574.247558</v>
       </c>
       <c r="N189">
-        <v>243193277.6663242</v>
+        <v>242116161.9753</v>
       </c>
       <c r="O189">
-        <v>1621288507.118328</v>
+        <v>1614107736.222858</v>
       </c>
       <c r="P189">
-        <v>2.107117324777276e-09</v>
+        <v>5.890615280089231e-10</v>
       </c>
       <c r="Q189">
-        <v>243193277.6663242</v>
+        <v>242116161.9753</v>
       </c>
       <c r="R189">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="190">
@@ -12738,34 +12728,34 @@
         </is>
       </c>
       <c r="H190">
-        <v>1609333890.58</v>
+        <v>1608062163.86</v>
       </c>
       <c r="I190">
-        <v>1367933806.77</v>
+        <v>1366852839.058</v>
       </c>
       <c r="J190">
-        <v>241400083.81</v>
+        <v>241209324.802</v>
       </c>
       <c r="K190">
         <v>0</v>
       </c>
       <c r="L190">
-        <v>1309859507.995999</v>
+        <v>1308912581.0088</v>
       </c>
       <c r="M190">
-        <v>1113380580.202</v>
+        <v>1112575692.2676</v>
       </c>
       <c r="N190">
-        <v>196478927.794</v>
+        <v>196336888.7412</v>
       </c>
       <c r="O190">
-        <v>1309859507.995999</v>
+        <v>1308912581.0088</v>
       </c>
       <c r="P190">
-        <v>4.98257577419281e-09</v>
+        <v>5.988404154777527e-09</v>
       </c>
       <c r="Q190">
-        <v>196478927.7940001</v>
+        <v>196336888.7412</v>
       </c>
       <c r="R190">
         <v>97</v>
@@ -12821,7 +12811,7 @@
         <v>1074064235.11</v>
       </c>
       <c r="M191">
-        <v>912954599.5600002</v>
+        <v>912954599.5600001</v>
       </c>
       <c r="N191">
         <v>161109635.55</v>
@@ -12886,19 +12876,19 @@
         <v>0</v>
       </c>
       <c r="L192">
-        <v>974960699.6400002</v>
+        <v>974960699.64</v>
       </c>
       <c r="M192">
-        <v>828716593.0599997</v>
+        <v>828716593.0599999</v>
       </c>
       <c r="N192">
         <v>146244106.58</v>
       </c>
       <c r="O192">
-        <v>974960699.6400002</v>
+        <v>974960699.64</v>
       </c>
       <c r="P192">
-        <v>2.456363290548325e-08</v>
+        <v>1.80443748831749e-08</v>
       </c>
       <c r="Q192">
         <v>146244106.58</v>
@@ -12962,7 +12952,7 @@
         <v>0</v>
       </c>
       <c r="R193">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="194">
@@ -13020,7 +13010,7 @@
         <v>0</v>
       </c>
       <c r="R194">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="195">
@@ -13184,34 +13174,34 @@
         </is>
       </c>
       <c r="H197">
-        <v>213964784.3678132</v>
+        <v>206533068.916424</v>
       </c>
       <c r="I197">
-        <v>173632422.5039601</v>
+        <v>167601585.4180915</v>
       </c>
       <c r="J197">
-        <v>40332361.86385304</v>
+        <v>38931483.49833251</v>
       </c>
       <c r="K197">
         <v>0</v>
       </c>
       <c r="L197">
-        <v>124602441.2586375</v>
+        <v>120778060.5375524</v>
       </c>
       <c r="M197">
-        <v>101114880.8381107</v>
+        <v>98011395.92021702</v>
       </c>
       <c r="N197">
-        <v>23487560.42052675</v>
+        <v>22766664.61733542</v>
       </c>
       <c r="O197">
-        <v>124602441.2586375</v>
+        <v>120778060.5375524</v>
       </c>
       <c r="P197">
-        <v>-4.051253230418807e-11</v>
+        <v>-2.686400010507716e-12</v>
       </c>
       <c r="Q197">
-        <v>23487560.42052675</v>
+        <v>22766664.61733542</v>
       </c>
       <c r="R197">
         <v>9</v>
@@ -13252,34 +13242,34 @@
         </is>
       </c>
       <c r="H198">
-        <v>1366703.032790607</v>
+        <v>92847.08830084928</v>
       </c>
       <c r="I198">
-        <v>1109079.509010328</v>
+        <v>75345.41202267144</v>
       </c>
       <c r="J198">
-        <v>257623.5237802794</v>
+        <v>17501.67627817784</v>
       </c>
       <c r="K198">
         <v>0</v>
       </c>
       <c r="L198">
-        <v>474226.5091641049</v>
+        <v>32728.36072864148</v>
       </c>
       <c r="M198">
-        <v>384834.790966906</v>
+        <v>26559.06326332545</v>
       </c>
       <c r="N198">
-        <v>89391.71819719886</v>
+        <v>6169.297465316027</v>
       </c>
       <c r="O198">
-        <v>474226.5091641049</v>
+        <v>32728.36072864148</v>
       </c>
       <c r="P198">
-        <v>-5.727633870042965e-11</v>
+        <v>-3.692228397471989e-12</v>
       </c>
       <c r="Q198">
-        <v>89391.71819719883</v>
+        <v>6169.297465316025</v>
       </c>
       <c r="R198">
         <v>3</v>
@@ -13388,34 +13378,34 @@
         </is>
       </c>
       <c r="H200">
-        <v>15763279.79132719</v>
+        <v>1145990.441005943</v>
       </c>
       <c r="I200">
-        <v>13398787.82262811</v>
+        <v>974091.8748550513</v>
       </c>
       <c r="J200">
-        <v>2364491.968699078</v>
+        <v>171898.5661508914</v>
       </c>
       <c r="K200">
         <v>0</v>
       </c>
       <c r="L200">
-        <v>3062150.802053501</v>
+        <v>222618.3633435677</v>
       </c>
       <c r="M200">
-        <v>2602828.140233776</v>
+        <v>189225.605824132</v>
       </c>
       <c r="N200">
-        <v>459322.6618197252</v>
+        <v>33392.75751943575</v>
       </c>
       <c r="O200">
-        <v>3062150.802053501</v>
+        <v>222618.3633435677</v>
       </c>
       <c r="P200">
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>459322.661819725</v>
+        <v>33392.75751943573</v>
       </c>
       <c r="R200">
         <v>1</v>
@@ -13592,34 +13582,34 @@
         </is>
       </c>
       <c r="H203">
-        <v>202477069.6</v>
+        <v>101238534.85</v>
       </c>
       <c r="I203">
-        <v>101238534.8</v>
+        <v>50619267.42500001</v>
       </c>
       <c r="J203">
-        <v>101238534.8</v>
+        <v>50619267.42500001</v>
       </c>
       <c r="K203">
         <v>0</v>
       </c>
       <c r="L203">
-        <v>121980541.0002441</v>
+        <v>60990270.53024413</v>
       </c>
       <c r="M203">
-        <v>60990270.48512206</v>
+        <v>30495135.25762206</v>
       </c>
       <c r="N203">
-        <v>60990270.51512206</v>
+        <v>30495135.27262206</v>
       </c>
       <c r="O203">
-        <v>121980541.0002441</v>
+        <v>60990270.53024413</v>
       </c>
       <c r="P203">
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>60990270.51512206</v>
+        <v>30495135.27262206</v>
       </c>
       <c r="R203">
         <v>1</v>
@@ -13660,34 +13650,34 @@
         </is>
       </c>
       <c r="H204">
-        <v>121161963.5900013</v>
+        <v>111700026.6055257</v>
       </c>
       <c r="I204">
-        <v>102987669.0262761</v>
+        <v>94945022.59303807</v>
       </c>
       <c r="J204">
-        <v>18174294.5637252</v>
+        <v>16755004.0124876</v>
       </c>
       <c r="K204">
         <v>0</v>
       </c>
       <c r="L204">
-        <v>84226581.78167167</v>
+        <v>77045810.88620149</v>
       </c>
       <c r="M204">
-        <v>71592593.86799595</v>
+        <v>65488938.66355001</v>
       </c>
       <c r="N204">
-        <v>12633987.91367575</v>
+        <v>11556872.22265147</v>
       </c>
       <c r="O204">
-        <v>84226581.78167167</v>
+        <v>77045810.88620149</v>
       </c>
       <c r="P204">
-        <v>2.142041921905845e-09</v>
+        <v>-3.073364494779857e-10</v>
       </c>
       <c r="Q204">
-        <v>12633987.91367576</v>
+        <v>11556872.22265147</v>
       </c>
       <c r="R204">
         <v>17</v>
@@ -13728,34 +13718,34 @@
         </is>
       </c>
       <c r="H205">
-        <v>37962374.88</v>
+        <v>36690648.16</v>
       </c>
       <c r="I205">
-        <v>32268018.63</v>
+        <v>31187050.918</v>
       </c>
       <c r="J205">
-        <v>5694356.25</v>
+        <v>5503597.242</v>
       </c>
       <c r="K205">
         <v>0</v>
       </c>
       <c r="L205">
-        <v>30390473.344</v>
+        <v>29443546.3568</v>
       </c>
       <c r="M205">
-        <v>25831902.288</v>
+        <v>25027014.3536</v>
       </c>
       <c r="N205">
-        <v>4558571.056</v>
+        <v>4416532.0032</v>
       </c>
       <c r="O205">
-        <v>30390473.344</v>
+        <v>29443546.3568</v>
       </c>
       <c r="P205">
-        <v>1.885928213596344e-09</v>
+        <v>9.778887033462524e-11</v>
       </c>
       <c r="Q205">
-        <v>4558571.056000002</v>
+        <v>4416532.0032</v>
       </c>
       <c r="R205">
         <v>9</v>
@@ -13922,34 +13912,34 @@
         </is>
       </c>
       <c r="H208">
-        <v>6693606.62160269</v>
+        <v>1380204.808324281</v>
       </c>
       <c r="I208">
-        <v>5431861.760738432</v>
+        <v>1120036.199643951</v>
       </c>
       <c r="J208">
-        <v>1261744.860864257</v>
+        <v>260168.6086803297</v>
       </c>
       <c r="K208">
         <v>0</v>
       </c>
       <c r="L208">
-        <v>2188111.009063119</v>
+        <v>426012.9756595565</v>
       </c>
       <c r="M208">
-        <v>1775651.961211888</v>
+        <v>345709.5074334556</v>
       </c>
       <c r="N208">
-        <v>412459.0478512308</v>
+        <v>80303.46822610102</v>
       </c>
       <c r="O208">
-        <v>2188111.009063119</v>
+        <v>426012.9756595566</v>
       </c>
       <c r="P208">
-        <v>-1.939770295452899e-10</v>
+        <v>-4.166649865486974e-11</v>
       </c>
       <c r="Q208">
-        <v>412459.0478512308</v>
+        <v>80303.468226101</v>
       </c>
       <c r="R208">
         <v>6</v>
@@ -13990,34 +13980,34 @@
         </is>
       </c>
       <c r="H209">
-        <v>78501409.36072651</v>
+        <v>73668268.20181794</v>
       </c>
       <c r="I209">
-        <v>63703893.65853671</v>
+        <v>59781799.61671523</v>
       </c>
       <c r="J209">
-        <v>14797515.7021898</v>
+        <v>13886468.58510271</v>
       </c>
       <c r="K209">
         <v>0</v>
       </c>
       <c r="L209">
-        <v>57930566.13432995</v>
+        <v>56422091.71709456</v>
       </c>
       <c r="M209">
-        <v>47010654.20401189</v>
+        <v>45786527.28653695</v>
       </c>
       <c r="N209">
-        <v>10919911.93031806</v>
+        <v>10635564.4305576</v>
       </c>
       <c r="O209">
-        <v>57930566.13432995</v>
+        <v>56422091.71709456</v>
       </c>
       <c r="P209">
-        <v>-4.157482175297085e-10</v>
+        <v>-2.199565638786252e-10</v>
       </c>
       <c r="Q209">
-        <v>10919911.93031806</v>
+        <v>10635564.4305576</v>
       </c>
       <c r="R209">
         <v>8</v>
@@ -14058,34 +14048,34 @@
         </is>
       </c>
       <c r="H210">
-        <v>116905747.9975705</v>
+        <v>107631474.7995141</v>
       </c>
       <c r="I210">
-        <v>96239734.39</v>
+        <v>88604920.83679999</v>
       </c>
       <c r="J210">
-        <v>20666013.60757053</v>
+        <v>19026553.96271411</v>
       </c>
       <c r="K210">
         <v>0</v>
       </c>
       <c r="L210">
-        <v>21474609.72577037</v>
+        <v>20598011.11555407</v>
       </c>
       <c r="M210">
-        <v>17678435.44081096</v>
+        <v>16956797.55706219</v>
       </c>
       <c r="N210">
-        <v>3796174.284959407</v>
+        <v>3641213.558491881</v>
       </c>
       <c r="O210">
-        <v>21474609.72577037</v>
+        <v>20598011.11555407</v>
       </c>
       <c r="P210">
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>3796174.284959406</v>
+        <v>3641213.558491881</v>
       </c>
       <c r="R210">
         <v>2</v>
@@ -14126,34 +14116,34 @@
         </is>
       </c>
       <c r="H211">
-        <v>49167389.97223071</v>
+        <v>9870673.542033385</v>
       </c>
       <c r="I211">
-        <v>41792281.47637571</v>
+        <v>8390072.510728274</v>
       </c>
       <c r="J211">
-        <v>7375108.495855007</v>
+        <v>1480601.031305112</v>
       </c>
       <c r="K211">
         <v>0</v>
       </c>
       <c r="L211">
-        <v>10037880.72879545</v>
+        <v>1919944.218409765</v>
       </c>
       <c r="M211">
-        <v>8532198.497211084</v>
+        <v>1631952.559691238</v>
       </c>
       <c r="N211">
-        <v>1505682.231584368</v>
+        <v>287991.6587185279</v>
       </c>
       <c r="O211">
-        <v>10037880.72879545</v>
+        <v>1919944.218409765</v>
       </c>
       <c r="P211">
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>1505682.231584367</v>
+        <v>287991.6587185278</v>
       </c>
       <c r="R211">
         <v>2</v>
@@ -14206,16 +14196,16 @@
         <v>0</v>
       </c>
       <c r="L212">
-        <v>42497832.17000001</v>
+        <v>42497832.17</v>
       </c>
       <c r="M212">
         <v>36123157.27</v>
       </c>
       <c r="N212">
-        <v>6374674.899999999</v>
+        <v>6374674.9</v>
       </c>
       <c r="O212">
-        <v>42497832.17000001</v>
+        <v>42497832.17</v>
       </c>
       <c r="P212">
         <v>0</v>
@@ -14398,13 +14388,13 @@
         </is>
       </c>
       <c r="H215">
-        <v>384039385.51</v>
+        <v>324923585.51</v>
       </c>
       <c r="I215">
-        <v>326433477.68</v>
+        <v>276185047.68</v>
       </c>
       <c r="J215">
-        <v>57605907.83</v>
+        <v>48738537.83</v>
       </c>
       <c r="K215">
         <v>0</v>
@@ -14428,75 +14418,65 @@
         <v>24945352.53</v>
       </c>
       <c r="R215">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Access to employment for job-seekers and inactive people, including the long-term unemployed and people far from the labour market, also through local employment initiatives and support for labour mobility</t>
+          <t>Information and communication</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>V.0.102</t>
+          <t>IX.0.123</t>
         </is>
       </c>
       <c r="C216">
         <v>0</v>
       </c>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>03.1.48.1</t>
-        </is>
-      </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>Zvýšit zaměstnanost podpořených osob, zejména starších, nízkokvalifikovaných a znevýhodněných</t>
-        </is>
-      </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>OP Z</t>
+          <t>OP TP</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>08</t>
         </is>
       </c>
       <c r="H216">
-        <v>20513392150.88</v>
+        <v>0</v>
       </c>
       <c r="I216">
-        <v>17033813653.95005</v>
+        <v>0</v>
       </c>
       <c r="J216">
-        <v>3444457166.25001</v>
+        <v>0</v>
       </c>
       <c r="K216">
-        <v>35121330.68</v>
+        <v>0</v>
       </c>
       <c r="L216">
-        <v>15363477111.87999</v>
+        <v>0</v>
       </c>
       <c r="M216">
-        <v>12751051799.32</v>
+        <v>0</v>
       </c>
       <c r="N216">
-        <v>2585314578.600004</v>
+        <v>0</v>
       </c>
       <c r="O216">
-        <v>15336366377.91999</v>
+        <v>0</v>
       </c>
       <c r="P216">
-        <v>27110733.96000012</v>
+        <v>0</v>
       </c>
       <c r="Q216">
-        <v>2612425312.560006</v>
+        <v>0</v>
       </c>
       <c r="R216">
-        <v>463</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
@@ -14515,12 +14495,12 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>03.1.48.2</t>
+          <t>03.1.48.1</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Zvýšit zaměstnanost podpořených mladých osob prostřednictvím programu Záruky pro mládež</t>
+          <t>Zvýšit zaměstnanost podpořených osob, zejména starších, nízkokvalifikovaných a znevýhodněných</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
@@ -14534,37 +14514,37 @@
         </is>
       </c>
       <c r="H217">
-        <v>1339000000</v>
+        <v>20513392150.88</v>
       </c>
       <c r="I217">
-        <v>1138150000</v>
+        <v>17033813653.95</v>
       </c>
       <c r="J217">
-        <v>200850000</v>
+        <v>3444457166.25</v>
       </c>
       <c r="K217">
-        <v>0</v>
+        <v>35121330.68</v>
       </c>
       <c r="L217">
-        <v>1020410774.34</v>
+        <v>15363477111.88</v>
       </c>
       <c r="M217">
-        <v>867349157.8599999</v>
+        <v>12751051799.32</v>
       </c>
       <c r="N217">
-        <v>153061616.48</v>
+        <v>2585314578.6</v>
       </c>
       <c r="O217">
-        <v>1020410774.34</v>
+        <v>15336366377.92</v>
       </c>
       <c r="P217">
-        <v>7.450580596923828e-09</v>
+        <v>27110733.96000039</v>
       </c>
       <c r="Q217">
-        <v>153061616.48</v>
+        <v>2612425312.56</v>
       </c>
       <c r="R217">
-        <v>13</v>
+        <v>463</v>
       </c>
     </row>
     <row r="218">
@@ -14583,12 +14563,12 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>03.3.48.1</t>
+          <t>03.1.48.2</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Zvýšit kvalitu a kvantitu využívání sociálních inovací a mezinárodní spolupráce v tematických oblastech OPZ (TC8)</t>
+          <t>Zvýšit zaměstnanost podpořených mladých osob prostřednictvím programu Záruky pro mládež</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -14602,37 +14582,37 @@
         </is>
       </c>
       <c r="H218">
-        <v>343461988.312134</v>
+        <v>1339000000</v>
       </c>
       <c r="I218">
-        <v>311404625.786813</v>
+        <v>1138150000</v>
       </c>
       <c r="J218">
-        <v>25952337.11531892</v>
+        <v>200850000</v>
       </c>
       <c r="K218">
-        <v>6105025.410002059</v>
+        <v>0</v>
       </c>
       <c r="L218">
-        <v>264827052.3702224</v>
+        <v>1020410774.34</v>
       </c>
       <c r="M218">
-        <v>240003118.7035861</v>
+        <v>867349157.86</v>
       </c>
       <c r="N218">
-        <v>19507523.62383906</v>
+        <v>153061616.48</v>
       </c>
       <c r="O218">
-        <v>259510642.3274251</v>
+        <v>1020410774.34</v>
       </c>
       <c r="P218">
-        <v>5316410.042797289</v>
+        <v>7.450580596923828e-09</v>
       </c>
       <c r="Q218">
-        <v>24823933.66663635</v>
+        <v>153061616.48</v>
       </c>
       <c r="R218">
-        <v>155</v>
+        <v>13</v>
       </c>
     </row>
     <row r="219">
@@ -14651,12 +14631,12 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>03.3.60.1</t>
+          <t>03.3.48.1</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Zvýšit kvalitu a kvantitu využívání sociálních inovací a mezinárodní spolupráce v tematických oblastech OPZ (TC9)</t>
+          <t>Zvýšit kvalitu a kvantitu využívání sociálních inovací a mezinárodní spolupráce v tematických oblastech OPZ (TC8)</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
@@ -14670,37 +14650,37 @@
         </is>
       </c>
       <c r="H219">
-        <v>210186495.5631032</v>
+        <v>187031118.5359388</v>
       </c>
       <c r="I219">
-        <v>190756674.9875731</v>
+        <v>169562262.424247</v>
       </c>
       <c r="J219">
-        <v>17253492.91868484</v>
+        <v>12991951.31188122</v>
       </c>
       <c r="K219">
-        <v>2176327.656845271</v>
+        <v>4476904.799810648</v>
       </c>
       <c r="L219">
-        <v>140191099.4781385</v>
+        <v>159081695.4421912</v>
       </c>
       <c r="M219">
-        <v>127172942.1384259</v>
+        <v>144193890.4624178</v>
       </c>
       <c r="N219">
-        <v>11148141.89835667</v>
+        <v>10958841.04400535</v>
       </c>
       <c r="O219">
-        <v>138321084.0367825</v>
+        <v>155152731.5064231</v>
       </c>
       <c r="P219">
-        <v>1870015.441356039</v>
+        <v>3928963.935768119</v>
       </c>
       <c r="Q219">
-        <v>13018157.33971272</v>
+        <v>14887804.97977346</v>
       </c>
       <c r="R219">
-        <v>138</v>
+        <v>155</v>
       </c>
     </row>
     <row r="220">
@@ -14719,12 +14699,12 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>03.3.74.1</t>
+          <t>03.3.60.1</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Zvýšit kvalitu a kvantitu využívání sociálních inovací a mezinárodní spolupráce v tematických oblastech OPZ (TC11)</t>
+          <t>Zvýšit kvalitu a kvantitu využívání sociálních inovací a mezinárodní spolupráce v tematických oblastech OPZ (TC9)</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
@@ -14738,48 +14718,48 @@
         </is>
       </c>
       <c r="H220">
-        <v>71530637.76782154</v>
+        <v>53286076.11333175</v>
       </c>
       <c r="I220">
-        <v>64994883.23931402</v>
+        <v>48375124.7080034</v>
       </c>
       <c r="J220">
-        <v>5801308.260990606</v>
+        <v>4326933.541963235</v>
       </c>
       <c r="K220">
-        <v>734446.2675169229</v>
+        <v>584017.8633651129</v>
       </c>
       <c r="L220">
-        <v>44902234.88006561</v>
+        <v>38159521.92552686</v>
       </c>
       <c r="M220">
-        <v>40799516.93760052</v>
+        <v>34633718.11121662</v>
       </c>
       <c r="N220">
-        <v>3478967.534920952</v>
+        <v>2995483.190936255</v>
       </c>
       <c r="O220">
-        <v>44278484.47252146</v>
+        <v>37629201.30215288</v>
       </c>
       <c r="P220">
-        <v>623750.4075441303</v>
+        <v>530320.6233739813</v>
       </c>
       <c r="Q220">
-        <v>4102717.942465083</v>
+        <v>3525803.814310236</v>
       </c>
       <c r="R220">
-        <v>75</v>
+        <v>138</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Sustainable integration into the labour market of young people, in particular those not in employment, education or training, including young people at risk of social exclusion and young people from marginalised communities, including through the implementation of the Youth Guarantee</t>
+          <t>Access to employment for job-seekers and inactive people, including the long-term unemployed and people far from the labour market, also through local employment initiatives and support for labour mobility</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>V.0.103</t>
+          <t>V.0.102</t>
         </is>
       </c>
       <c r="C221">
@@ -14787,12 +14767,12 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>03.1.49.1</t>
+          <t>03.3.74.1</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t xml:space="preserve">Zvýšit zaměstnanost podpořených mladých lidí, kteří nejsou v zaměstnání, ve vzdělávání nebo v profesní přípravě v regionu NUTS II Severozápad </t>
+          <t>Zvýšit kvalitu a kvantitu využívání sociálních inovací a mezinárodní spolupráce v tematických oblastech OPZ (TC11)</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
@@ -14806,48 +14786,48 @@
         </is>
       </c>
       <c r="H221">
-        <v>872385691.8</v>
+        <v>7007992.366047078</v>
       </c>
       <c r="I221">
-        <v>801640767.7200001</v>
+        <v>6367672.087518214</v>
       </c>
       <c r="J221">
-        <v>70744924.08</v>
+        <v>560848.4311153321</v>
       </c>
       <c r="K221">
-        <v>0</v>
+        <v>79471.84741353088</v>
       </c>
       <c r="L221">
-        <v>743602746.4900001</v>
+        <v>4786750.027189132</v>
       </c>
       <c r="M221">
-        <v>683300846.3200001</v>
+        <v>4349384.60268515</v>
       </c>
       <c r="N221">
-        <v>60301900.17</v>
+        <v>365354.9942078908</v>
       </c>
       <c r="O221">
-        <v>743602746.4900001</v>
+        <v>4714739.59689304</v>
       </c>
       <c r="P221">
-        <v>3.073364496231079e-08</v>
+        <v>72010.43029609135</v>
       </c>
       <c r="Q221">
-        <v>60301900.17000005</v>
+        <v>437365.4245039821</v>
       </c>
       <c r="R221">
-        <v>8</v>
+        <v>75</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Equality between men and women in all areas, including in access to employment, career progression, reconciliation of work and private life and promotion of equal pay for equal work</t>
+          <t>Sustainable integration into the labour market of young people, in particular those not in employment, education or training, including young people at risk of social exclusion and young people from marginalised communities, including through the implementation of the Youth Guarantee</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>V.0.105</t>
+          <t>V.0.103</t>
         </is>
       </c>
       <c r="C222">
@@ -14855,12 +14835,12 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>03.1.51.1</t>
+          <t>03.1.49.1</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Snížit rozdíly v postavení žen a mužů na trhu práce</t>
+          <t xml:space="preserve">Zvýšit zaměstnanost podpořených mladých lidí, kteří nejsou v zaměstnání, ve vzdělávání nebo v profesní přípravě v regionu NUTS II Severozápad </t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
@@ -14874,37 +14854,37 @@
         </is>
       </c>
       <c r="H222">
-        <v>8721546489.579994</v>
+        <v>872385691.8</v>
       </c>
       <c r="I222">
-        <v>7036685505.660007</v>
+        <v>801640767.72</v>
       </c>
       <c r="J222">
-        <v>1525697571.930004</v>
+        <v>70744924.08</v>
       </c>
       <c r="K222">
-        <v>159163411.9899999</v>
+        <v>0</v>
       </c>
       <c r="L222">
-        <v>6481491235.439994</v>
+        <v>743602746.49</v>
       </c>
       <c r="M222">
-        <v>5238806555.400002</v>
+        <v>683300846.3199999</v>
       </c>
       <c r="N222">
-        <v>1120660681.920002</v>
+        <v>60301900.17</v>
       </c>
       <c r="O222">
-        <v>6359467237.319998</v>
+        <v>743602746.49</v>
       </c>
       <c r="P222">
-        <v>122023998.1200001</v>
+        <v>-9.313225746154785e-10</v>
       </c>
       <c r="Q222">
-        <v>1242684680.040004</v>
+        <v>60301900.17000002</v>
       </c>
       <c r="R222">
-        <v>2953</v>
+        <v>8</v>
       </c>
     </row>
     <row r="223">
@@ -14923,67 +14903,67 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>07.4.51.4.3</t>
+          <t>03.1.51.1</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Zvýšení dostupnosti zařízení péče o děti</t>
+          <t>Snížit rozdíly v postavení žen a mužů na trhu práce</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>OP PPR</t>
+          <t>OP Z</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H223">
-        <v>221087092.5</v>
+        <v>8721546489.58</v>
       </c>
       <c r="I223">
-        <v>110543546.25</v>
+        <v>7036685505.66</v>
       </c>
       <c r="J223">
-        <v>96841132.64</v>
+        <v>1525697571.93</v>
       </c>
       <c r="K223">
-        <v>13702413.61</v>
+        <v>159163411.99</v>
       </c>
       <c r="L223">
-        <v>133283853.82</v>
+        <v>6481491235.44</v>
       </c>
       <c r="M223">
-        <v>66641926.82</v>
+        <v>5238806555.4</v>
       </c>
       <c r="N223">
-        <v>58950270.41000001</v>
+        <v>1120660681.92</v>
       </c>
       <c r="O223">
-        <v>125592197.23</v>
+        <v>6359467237.32</v>
       </c>
       <c r="P223">
-        <v>7691656.589999999</v>
+        <v>122023998.12</v>
       </c>
       <c r="Q223">
-        <v>66641927</v>
+        <v>1242684680.04</v>
       </c>
       <c r="R223">
-        <v>54</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Adaptation of workers, enterprises and entrepreneurs to change</t>
+          <t>Equality between men and women in all areas, including in access to employment, career progression, reconciliation of work and private life and promotion of equal pay for equal work</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>V.0.106</t>
+          <t>V.0.105</t>
         </is>
       </c>
       <c r="C224">
@@ -14991,56 +14971,56 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>03.1.52.1</t>
+          <t>07.4.51.4.3</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Zvýšit odbornou úroveň znalostí, dovedností a kompetencí pracovníků a soulad kvalifikační úrovně pracovní síly s požadavky trhu práce</t>
+          <t>Zvýšení dostupnosti zařízení péče o děti</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>OP Z</t>
+          <t>OP PPR</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>07</t>
         </is>
       </c>
       <c r="H224">
-        <v>14019347800.74602</v>
+        <v>221087092.5</v>
       </c>
       <c r="I224">
-        <v>11560197687.31748</v>
+        <v>110543546.25</v>
       </c>
       <c r="J224">
-        <v>1843289813.823</v>
+        <v>96841132.64</v>
       </c>
       <c r="K224">
-        <v>615860299.605499</v>
+        <v>13702413.61</v>
       </c>
       <c r="L224">
-        <v>8744071069.033493</v>
+        <v>133283853.82</v>
       </c>
       <c r="M224">
-        <v>7209155381.821507</v>
+        <v>66641926.82</v>
       </c>
       <c r="N224">
-        <v>1184916301.176</v>
+        <v>58950270.41</v>
       </c>
       <c r="O224">
-        <v>8394071682.997503</v>
+        <v>125592197.23</v>
       </c>
       <c r="P224">
-        <v>349999386.0359998</v>
+        <v>7691656.59</v>
       </c>
       <c r="Q224">
-        <v>1534915687.211999</v>
+        <v>66641927</v>
       </c>
       <c r="R224">
-        <v>2886</v>
+        <v>54</v>
       </c>
     </row>
     <row r="225">
@@ -15059,12 +15039,12 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>03.1.52.2</t>
+          <t>03.1.52.1</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Zvýšit adaptabilitu starších pracovníků</t>
+          <t>Zvýšit odbornou úroveň znalostí, dovedností a kompetencí pracovníků a soulad kvalifikační úrovně pracovní síly s požadavky trhu práce</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
@@ -15078,48 +15058,48 @@
         </is>
       </c>
       <c r="H225">
-        <v>2983952480.684005</v>
+        <v>11579260458.0709</v>
       </c>
       <c r="I225">
-        <v>2462074276.667506</v>
+        <v>9546901391.739574</v>
       </c>
       <c r="J225">
-        <v>411290092.722</v>
+        <v>1510174491.39425</v>
       </c>
       <c r="K225">
-        <v>110588111.2944998</v>
+        <v>522184574.937075</v>
       </c>
       <c r="L225">
-        <v>1388529929.116498</v>
+        <v>7569463267.174425</v>
       </c>
       <c r="M225">
-        <v>1154204669.2985</v>
+        <v>6233738236.394225</v>
       </c>
       <c r="N225">
-        <v>171227006.3639999</v>
+        <v>1039132438.674</v>
       </c>
       <c r="O225">
-        <v>1325431675.662501</v>
+        <v>7272870675.068225</v>
       </c>
       <c r="P225">
-        <v>63098253.45399995</v>
+        <v>296592592.1062</v>
       </c>
       <c r="Q225">
-        <v>234325259.8180002</v>
+        <v>1335725030.7802</v>
       </c>
       <c r="R225">
-        <v>2864</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Modernisation of labour market institutions, such as public and private employment services, and improving the matching of labour market needs, including throughactions that enhance transnational labour mobility as well as through mobility schemes and better cooperation between institutions and relevant stakeholders</t>
+          <t>Adaptation of workers, enterprises and entrepreneurs to change</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>V.0.108</t>
+          <t>V.0.106</t>
         </is>
       </c>
       <c r="C226">
@@ -15127,12 +15107,12 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>03.1.54.1</t>
+          <t>03.1.52.2</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Zvýšit kapacitu, komplexnost a kvalitu služeb poskytovaných institucemi veřejných služeb zaměstnanosti</t>
+          <t>Zvýšit adaptabilitu starších pracovníků</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
@@ -15146,37 +15126,37 @@
         </is>
       </c>
       <c r="H226">
-        <v>2245239883.95</v>
+        <v>543865138.0089</v>
       </c>
       <c r="I226">
-        <v>1849830687.93</v>
+        <v>448777981.089575</v>
       </c>
       <c r="J226">
-        <v>395409196.0199999</v>
+        <v>78174770.29324999</v>
       </c>
       <c r="K226">
-        <v>0</v>
+        <v>16912386.626075</v>
       </c>
       <c r="L226">
-        <v>1434982032.37</v>
+        <v>213922127.257425</v>
       </c>
       <c r="M226">
-        <v>1182267346.18</v>
+        <v>178787523.871225</v>
       </c>
       <c r="N226">
-        <v>252714686.19</v>
+        <v>25443143.862</v>
       </c>
       <c r="O226">
-        <v>1434982032.37</v>
+        <v>204230667.733225</v>
       </c>
       <c r="P226">
-        <v>0</v>
+        <v>9691459.5242</v>
       </c>
       <c r="Q226">
-        <v>252714686.19</v>
+        <v>35134603.3862</v>
       </c>
       <c r="R226">
-        <v>7</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="227">
@@ -15195,12 +15175,12 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>03.1.54.2</t>
+          <t>03.1.54.1</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Zvýšit kvalitu systému dalšího vzdělávání</t>
+          <t>Zvýšit kapacitu, komplexnost a kvalitu služeb poskytovaných institucemi veřejných služeb zaměstnanosti</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
@@ -15214,34 +15194,34 @@
         </is>
       </c>
       <c r="H227">
-        <v>560048649.59</v>
+        <v>2245239883.95</v>
       </c>
       <c r="I227">
-        <v>461418481.8499999</v>
+        <v>1849830687.93</v>
       </c>
       <c r="J227">
-        <v>98630167.73999999</v>
+        <v>395409196.02</v>
       </c>
       <c r="K227">
         <v>0</v>
       </c>
       <c r="L227">
-        <v>341578060.83</v>
+        <v>1434982032.37</v>
       </c>
       <c r="M227">
-        <v>281422748.18</v>
+        <v>1182267346.18</v>
       </c>
       <c r="N227">
-        <v>60155312.65000001</v>
+        <v>252714686.19</v>
       </c>
       <c r="O227">
-        <v>341578060.83</v>
+        <v>1434982032.37</v>
       </c>
       <c r="P227">
-        <v>-1.117587089538574e-08</v>
+        <v>0</v>
       </c>
       <c r="Q227">
-        <v>60155312.65000001</v>
+        <v>252714686.19</v>
       </c>
       <c r="R227">
         <v>7</v>
@@ -15250,12 +15230,12 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Active inclusion, including with a view to promoting equal opportunities and active participation, and improving employability</t>
+          <t>Modernisation of labour market institutions, such as public and private employment services, and improving the matching of labour market needs, including throughactions that enhance transnational labour mobility as well as through mobility schemes and better cooperation between institutions and relevant stakeholders</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>VI.0.109</t>
+          <t>V.0.108</t>
         </is>
       </c>
       <c r="C228">
@@ -15263,12 +15243,12 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>03.2.60.1</t>
+          <t>03.1.54.2</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Zvýšit uplatnitelnost osob ohrožených sociálním vyloučením nebo sociálně vyloučených ve společnosti a na trhu práce</t>
+          <t>Zvýšit kvalitu systému dalšího vzdělávání</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
@@ -15282,37 +15262,37 @@
         </is>
       </c>
       <c r="H228">
-        <v>12369145517.42864</v>
+        <v>560048649.59</v>
       </c>
       <c r="I228">
-        <v>10168139220.79811</v>
+        <v>461418481.85</v>
       </c>
       <c r="J228">
-        <v>2198843067.500546</v>
+        <v>98630167.74000001</v>
       </c>
       <c r="K228">
-        <v>2163229.13</v>
+        <v>0</v>
       </c>
       <c r="L228">
-        <v>9338245340.348726</v>
+        <v>341578060.83</v>
       </c>
       <c r="M228">
-        <v>7717342032.237704</v>
+        <v>281422748.18</v>
       </c>
       <c r="N228">
-        <v>1619441977.851017</v>
+        <v>60155312.65</v>
       </c>
       <c r="O228">
-        <v>9336784010.088726</v>
+        <v>341578060.83</v>
       </c>
       <c r="P228">
-        <v>1461330.260000009</v>
+        <v>-1.117587089538574e-08</v>
       </c>
       <c r="Q228">
-        <v>1620903308.111017</v>
+        <v>60155312.65</v>
       </c>
       <c r="R228">
-        <v>757</v>
+        <v>7</v>
       </c>
     </row>
     <row r="229">
@@ -15336,7 +15316,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t xml:space="preserve">Zvýšit uplatnitelnost osob ohrožených sociálním vyloučením nebo sociálně vyloučených ve společnosti a na trhu práce </t>
+          <t>Zvýšit uplatnitelnost osob ohrožených sociálním vyloučením nebo sociálně vyloučených ve společnosti a na trhu práce</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
@@ -15350,37 +15330,37 @@
         </is>
       </c>
       <c r="H229">
-        <v>1178748.75</v>
+        <v>12205477206.79117</v>
       </c>
       <c r="I229">
-        <v>589374.375</v>
+        <v>10057151806.58095</v>
       </c>
       <c r="J229">
-        <v>589374.375</v>
+        <v>2146162171.080219</v>
       </c>
       <c r="K229">
-        <v>0</v>
+        <v>2163229.13</v>
       </c>
       <c r="L229">
-        <v>0</v>
+        <v>9243161567.629341</v>
       </c>
       <c r="M229">
-        <v>0</v>
+        <v>7647892874.311831</v>
       </c>
       <c r="N229">
-        <v>0</v>
+        <v>1593807363.05751</v>
       </c>
       <c r="O229">
-        <v>0</v>
+        <v>9241700237.369341</v>
       </c>
       <c r="P229">
-        <v>0</v>
+        <v>1461330.260000015</v>
       </c>
       <c r="Q229">
-        <v>0</v>
+        <v>1595268693.31751</v>
       </c>
       <c r="R229">
-        <v>1</v>
+        <v>757</v>
       </c>
     </row>
     <row r="230">
@@ -15399,12 +15379,12 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>03.2.60.2</t>
+          <t>03.2.60.1</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Rozvoj sektoru sociální ekonomiky</t>
+          <t xml:space="preserve">Zvýšit uplatnitelnost osob ohrožených sociálním vyloučením nebo sociálně vyloučených ve společnosti a na trhu práce </t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
@@ -15418,37 +15398,37 @@
         </is>
       </c>
       <c r="H230">
-        <v>499566609.6259999</v>
+        <v>294687.1875</v>
       </c>
       <c r="I230">
-        <v>420098116.88</v>
+        <v>147343.59375</v>
       </c>
       <c r="J230">
-        <v>14647400.56600001</v>
+        <v>147343.59375</v>
       </c>
       <c r="K230">
-        <v>64821092.18000001</v>
+        <v>0</v>
       </c>
       <c r="L230">
-        <v>412458789.3849999</v>
+        <v>0</v>
       </c>
       <c r="M230">
-        <v>348029711.5890002</v>
+        <v>0</v>
       </c>
       <c r="N230">
-        <v>10775153.736</v>
+        <v>0</v>
       </c>
       <c r="O230">
-        <v>358804865.3250002</v>
+        <v>0</v>
       </c>
       <c r="P230">
-        <v>53653924.05999999</v>
+        <v>0</v>
       </c>
       <c r="Q230">
-        <v>64429077.796</v>
+        <v>0</v>
       </c>
       <c r="R230">
-        <v>188</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231">
@@ -15467,12 +15447,12 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>03.2.63.1</t>
+          <t>03.2.60.2</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Zvýšit kvalitu a udržitelnost systému sociálních služeb, služeb pro rodiny a děti a dalších navazujících služeb podporujících sociální začleňování</t>
+          <t>Rozvoj sektoru sociální ekonomiky</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
@@ -15486,37 +15466,37 @@
         </is>
       </c>
       <c r="H231">
-        <v>146395756.9737118</v>
+        <v>451009190.2316</v>
       </c>
       <c r="I231">
-        <v>95020780.76090001</v>
+        <v>378824310.443</v>
       </c>
       <c r="J231">
-        <v>51374976.21281177</v>
+        <v>7363787.6086</v>
       </c>
       <c r="K231">
-        <v>0</v>
+        <v>64821092.18</v>
       </c>
       <c r="L231">
-        <v>65262614.25270826</v>
+        <v>370223876.0755</v>
       </c>
       <c r="M231">
-        <v>45411794.11399908</v>
+        <v>312130035.6339</v>
       </c>
       <c r="N231">
-        <v>19850820.13870919</v>
+        <v>4439916.3816</v>
       </c>
       <c r="O231">
-        <v>65262614.25270826</v>
+        <v>316569952.0155</v>
       </c>
       <c r="P231">
-        <v>-1.665903254994621e-09</v>
+        <v>53653924.06</v>
       </c>
       <c r="Q231">
-        <v>19850820.13870919</v>
+        <v>58093840.44159999</v>
       </c>
       <c r="R231">
-        <v>123</v>
+        <v>188</v>
       </c>
     </row>
     <row r="232">
@@ -15540,7 +15520,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t xml:space="preserve">Zvýšit kvalitu a udržitelnost systému sociálních služeb, služeb pro rodiny a děti a dalších navazujících služeb podporujících sociální začleňování </t>
+          <t>Zvýšit kvalitu a udržitelnost systému sociálních služeb, služeb pro rodiny a děti a dalších navazujících služeb podporujících sociální začleňování</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
@@ -15554,37 +15534,37 @@
         </is>
       </c>
       <c r="H232">
-        <v>1178748.75</v>
+        <v>35875100.96528865</v>
       </c>
       <c r="I232">
-        <v>589374.375</v>
+        <v>23316038.983993</v>
       </c>
       <c r="J232">
-        <v>589374.375</v>
+        <v>12559061.98129565</v>
       </c>
       <c r="K232">
         <v>0</v>
       </c>
       <c r="L232">
-        <v>0</v>
+        <v>15236416.54836789</v>
       </c>
       <c r="M232">
-        <v>0</v>
+        <v>10757570.96324302</v>
       </c>
       <c r="N232">
-        <v>0</v>
+        <v>4478845.585124873</v>
       </c>
       <c r="O232">
-        <v>0</v>
+        <v>15236416.54836789</v>
       </c>
       <c r="P232">
-        <v>0</v>
+        <v>-2.790126016620369e-10</v>
       </c>
       <c r="Q232">
-        <v>0</v>
+        <v>4478845.585124873</v>
       </c>
       <c r="R232">
-        <v>1</v>
+        <v>123</v>
       </c>
     </row>
     <row r="233">
@@ -15603,12 +15583,12 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>03.3.48.1</t>
+          <t>03.2.63.1</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Zvýšit kvalitu a kvantitu využívání sociálních inovací a mezinárodní spolupráce v tematických oblastech OPZ (TC8)</t>
+          <t xml:space="preserve">Zvýšit kvalitu a udržitelnost systému sociálních služeb, služeb pro rodiny a děti a dalších navazujících služeb podporujících sociální začleňování </t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
@@ -15622,37 +15602,37 @@
         </is>
       </c>
       <c r="H233">
-        <v>194531155.9971838</v>
+        <v>294687.1875</v>
       </c>
       <c r="I233">
-        <v>176531763.7470621</v>
+        <v>147343.59375</v>
       </c>
       <c r="J233">
-        <v>16603540.19072656</v>
+        <v>147343.59375</v>
       </c>
       <c r="K233">
-        <v>1395852.059395237</v>
+        <v>0</v>
       </c>
       <c r="L233">
-        <v>122022156.5256676</v>
+        <v>0</v>
       </c>
       <c r="M233">
-        <v>110664095.3115454</v>
+        <v>0</v>
       </c>
       <c r="N233">
-        <v>10264199.70518012</v>
+        <v>0</v>
       </c>
       <c r="O233">
-        <v>120928295.0167256</v>
+        <v>0</v>
       </c>
       <c r="P233">
-        <v>1093861.50894203</v>
+        <v>0</v>
       </c>
       <c r="Q233">
-        <v>11358061.21412215</v>
+        <v>0</v>
       </c>
       <c r="R233">
-        <v>139</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
@@ -15671,12 +15651,12 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>03.3.60.1</t>
+          <t>03.3.48.1</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Zvýšit kvalitu a kvantitu využívání sociálních inovací a mezinárodní spolupráce v tematických oblastech OPZ (TC9)</t>
+          <t>Zvýšit kvalitu a kvantitu využívání sociálních inovací a mezinárodní spolupráce v tematických oblastech OPZ (TC8)</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
@@ -15690,37 +15670,37 @@
         </is>
       </c>
       <c r="H234">
-        <v>257189748.4201581</v>
+        <v>44292055.63577247</v>
       </c>
       <c r="I234">
-        <v>233615293.8875519</v>
+        <v>40202887.8522846</v>
       </c>
       <c r="J234">
-        <v>22218561.05525953</v>
+        <v>3846682.725790807</v>
       </c>
       <c r="K234">
-        <v>1355893.47734655</v>
+        <v>242485.0576970613</v>
       </c>
       <c r="L234">
-        <v>175637824.7584428</v>
+        <v>29723708.72368734</v>
       </c>
       <c r="M234">
-        <v>159520162.6309954</v>
+        <v>26968685.05992695</v>
       </c>
       <c r="N234">
-        <v>15086733.27645637</v>
+        <v>2564528.168455545</v>
       </c>
       <c r="O234">
-        <v>174606895.907452</v>
+        <v>29533213.2283825</v>
       </c>
       <c r="P234">
-        <v>1030928.850990883</v>
+        <v>190495.4953048373</v>
       </c>
       <c r="Q234">
-        <v>16117662.12744725</v>
+        <v>2755023.663760383</v>
       </c>
       <c r="R234">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="235">
@@ -15739,12 +15719,12 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>03.3.74.1</t>
+          <t>03.3.60.1</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Zvýšit kvalitu a kvantitu využívání sociálních inovací a mezinárodní spolupráce v tematických oblastech OPZ (TC11)</t>
+          <t>Zvýšit kvalitu a kvantitu využívání sociálních inovací a mezinárodní spolupráce v tematických oblastech OPZ (TC9)</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
@@ -15758,37 +15738,37 @@
         </is>
       </c>
       <c r="H235">
-        <v>69703342.85161845</v>
+        <v>106428113.4876006</v>
       </c>
       <c r="I235">
-        <v>63334548.24818601</v>
+        <v>96699087.4070061</v>
       </c>
       <c r="J235">
-        <v>5880395.868647997</v>
+        <v>9480370.596427126</v>
       </c>
       <c r="K235">
-        <v>488398.7347844625</v>
+        <v>248655.4841674031</v>
       </c>
       <c r="L235">
-        <v>38943184.4166389</v>
+        <v>87635907.87483832</v>
       </c>
       <c r="M235">
-        <v>35384944.86200439</v>
+        <v>79624262.12614268</v>
       </c>
       <c r="N235">
-        <v>3192844.654112801</v>
+        <v>7824850.918577075</v>
       </c>
       <c r="O235">
-        <v>38577789.51611716</v>
+        <v>87449113.04471976</v>
       </c>
       <c r="P235">
-        <v>365394.9005217258</v>
+        <v>186794.8301185742</v>
       </c>
       <c r="Q235">
-        <v>3558239.554634528</v>
+        <v>8011645.748695651</v>
       </c>
       <c r="R235">
-        <v>74</v>
+        <v>145</v>
       </c>
     </row>
     <row r="236">
@@ -15805,6 +15785,16 @@
       <c r="C236">
         <v>0</v>
       </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>03.3.74.1</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>Zvýšit kvalitu a kvantitu využívání sociálních inovací a mezinárodní spolupráce v tematických oblastech OPZ (TC11)</t>
+        </is>
+      </c>
       <c r="F236" t="inlineStr">
         <is>
           <t>OP Z</t>
@@ -15816,105 +15806,95 @@
         </is>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>6162931.476112922</v>
       </c>
       <c r="I236">
-        <v>0</v>
+        <v>5599824.410152652</v>
       </c>
       <c r="J236">
-        <v>0</v>
+        <v>526845.0567390551</v>
       </c>
       <c r="K236">
-        <v>0</v>
+        <v>36262.00922121391</v>
       </c>
       <c r="L236">
-        <v>0</v>
+        <v>3549395.41139243</v>
       </c>
       <c r="M236">
-        <v>0</v>
+        <v>3225087.073688666</v>
       </c>
       <c r="N236">
-        <v>0</v>
+        <v>297219.0995100077</v>
       </c>
       <c r="O236">
-        <v>0</v>
+        <v>3522306.173198674</v>
       </c>
       <c r="P236">
-        <v>0</v>
+        <v>27089.23819375668</v>
       </c>
       <c r="Q236">
-        <v>0</v>
+        <v>324308.3377037644</v>
       </c>
       <c r="R236">
-        <v>2</v>
+        <v>74</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Socio-economic integration of marginalised communities such as the Roma</t>
+          <t>Active inclusion, including with a view to promoting equal opportunities and active participation, and improving employability</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>VI.0.110</t>
+          <t>VI.0.109</t>
         </is>
       </c>
       <c r="C237">
         <v>0</v>
       </c>
-      <c r="D237" t="inlineStr">
-        <is>
-          <t>02.3.61.1</t>
-        </is>
-      </c>
-      <c r="E237" t="inlineStr">
-        <is>
-          <t>Sociální integrace dětí a žáků včetně začleňování romských dětí do vzdělávání</t>
-        </is>
-      </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>OP VVV</t>
+          <t>OP Z</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H237">
-        <v>4915149068.792872</v>
+        <v>0</v>
       </c>
       <c r="I237">
-        <v>4087295183.185261</v>
+        <v>0</v>
       </c>
       <c r="J237">
-        <v>782480141.8376132</v>
+        <v>0</v>
       </c>
       <c r="K237">
-        <v>45373743.77</v>
+        <v>0</v>
       </c>
       <c r="L237">
-        <v>2732066389.035694</v>
+        <v>0</v>
       </c>
       <c r="M237">
-        <v>2281987305.831583</v>
+        <v>0</v>
       </c>
       <c r="N237">
-        <v>407656132.7741097</v>
+        <v>0</v>
       </c>
       <c r="O237">
-        <v>2689643438.605694</v>
+        <v>0</v>
       </c>
       <c r="P237">
-        <v>42422950.43000001</v>
+        <v>0</v>
       </c>
       <c r="Q237">
-        <v>450079083.2041097</v>
+        <v>0</v>
       </c>
       <c r="R237">
-        <v>6464</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238">
@@ -15933,12 +15913,12 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>02.3.62.1</t>
+          <t>02.3.61.1</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Kvalitní podmínky pro inkluzívní vzdělávání</t>
+          <t>Sociální integrace dětí a žáků včetně začleňování romských dětí do vzdělávání</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
@@ -15952,37 +15932,37 @@
         </is>
       </c>
       <c r="H238">
-        <v>64059631.7731543</v>
+        <v>4678379857.061232</v>
       </c>
       <c r="I238">
-        <v>53209890.78562428</v>
+        <v>3891257045.165178</v>
       </c>
       <c r="J238">
-        <v>10849740.98752995</v>
+        <v>741749068.1260536</v>
       </c>
       <c r="K238">
-        <v>0</v>
+        <v>45373743.77</v>
       </c>
       <c r="L238">
-        <v>7369898.784861159</v>
+        <v>2692020146.513013</v>
       </c>
       <c r="M238">
-        <v>6092702.036624765</v>
+        <v>2248904277.566449</v>
       </c>
       <c r="N238">
-        <v>1277196.748236404</v>
+        <v>400692918.5165645</v>
       </c>
       <c r="O238">
-        <v>7369898.784861159</v>
+        <v>2649597196.083014</v>
       </c>
       <c r="P238">
-        <v>1.579391501657617e-11</v>
+        <v>42422950.43</v>
       </c>
       <c r="Q238">
-        <v>1277196.748236404</v>
+        <v>443115868.9465645</v>
       </c>
       <c r="R238">
-        <v>2183</v>
+        <v>6433</v>
       </c>
     </row>
     <row r="239">
@@ -16001,12 +15981,12 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>02.3.68.1</t>
+          <t>02.3.62.1</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t xml:space="preserve">Zvýšení kvality předškolního vzdělávání včetně usnadnění přechodu dětí na ZŠ</t>
+          <t>Kvalitní podmínky pro inkluzívní vzdělávání</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
@@ -16020,37 +16000,37 @@
         </is>
       </c>
       <c r="H239">
-        <v>13306117.00218009</v>
+        <v>6811525.428550619</v>
       </c>
       <c r="I239">
-        <v>10901097.2590587</v>
+        <v>5653267.855987992</v>
       </c>
       <c r="J239">
-        <v>2405019.743121433</v>
+        <v>1158257.572562627</v>
       </c>
       <c r="K239">
         <v>0</v>
       </c>
       <c r="L239">
-        <v>10501385.98737201</v>
+        <v>740403.2315715394</v>
       </c>
       <c r="M239">
-        <v>8612282.31266382</v>
+        <v>611878.7429413871</v>
       </c>
       <c r="N239">
-        <v>1889103.674708195</v>
+        <v>128524.4886301524</v>
       </c>
       <c r="O239">
-        <v>10501385.98737201</v>
+        <v>740403.2315715394</v>
       </c>
       <c r="P239">
-        <v>4.606147248159068e-13</v>
+        <v>0</v>
       </c>
       <c r="Q239">
-        <v>1889103.674708195</v>
+        <v>128524.4886301524</v>
       </c>
       <c r="R239">
-        <v>1030</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="240">
@@ -16069,12 +16049,12 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>02.3.68.2</t>
+          <t>02.3.68.1</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Zlepšení kvality vzdělávání a výsledků žáků v klíčových kompetencích</t>
+          <t xml:space="preserve">Zvýšení kvality předškolního vzdělávání včetně usnadnění přechodu dětí na ZŠ</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
@@ -16088,37 +16068,37 @@
         </is>
       </c>
       <c r="H240">
-        <v>61408163.48528119</v>
+        <v>701679.7163007804</v>
       </c>
       <c r="I240">
-        <v>50428982.22701981</v>
+        <v>577688.3773463224</v>
       </c>
       <c r="J240">
-        <v>10979181.25826139</v>
+        <v>123991.3389544581</v>
       </c>
       <c r="K240">
         <v>0</v>
       </c>
       <c r="L240">
-        <v>49226350.80949632</v>
+        <v>560113.0600768948</v>
       </c>
       <c r="M240">
-        <v>40468093.37858041</v>
+        <v>462697.3279004053</v>
       </c>
       <c r="N240">
-        <v>8758257.430915954</v>
+        <v>97415.73217648946</v>
       </c>
       <c r="O240">
-        <v>49226350.80949632</v>
+        <v>560113.0600768948</v>
       </c>
       <c r="P240">
-        <v>3.421550852109652e-13</v>
+        <v>0</v>
       </c>
       <c r="Q240">
-        <v>8758257.430915954</v>
+        <v>97415.73217648946</v>
       </c>
       <c r="R240">
-        <v>1961</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="241">
@@ -16137,12 +16117,12 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>02.3.68.5</t>
+          <t>02.3.68.2</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Zvyšení kvality vzdělávání a odborné přípravy včetně posílení jejich relevance pro trh práce</t>
+          <t>Zlepšení kvality vzdělávání a výsledků žáků v klíčových kompetencích</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
@@ -16156,37 +16136,37 @@
         </is>
       </c>
       <c r="H241">
-        <v>132816630.8604825</v>
+        <v>5075275.976182978</v>
       </c>
       <c r="I241">
-        <v>110397522.832576</v>
+        <v>4166864.086466817</v>
       </c>
       <c r="J241">
-        <v>22419108.02790635</v>
+        <v>908411.8897161609</v>
       </c>
       <c r="K241">
         <v>0</v>
       </c>
       <c r="L241">
-        <v>20412575.75476548</v>
+        <v>4430233.202447861</v>
       </c>
       <c r="M241">
-        <v>16977063.52614852</v>
+        <v>3640024.597427303</v>
       </c>
       <c r="N241">
-        <v>3435512.228616858</v>
+        <v>790208.6050205568</v>
       </c>
       <c r="O241">
-        <v>20412575.75476548</v>
+        <v>4430233.202447861</v>
       </c>
       <c r="P241">
-        <v>3.842895592731619e-11</v>
+        <v>0</v>
       </c>
       <c r="Q241">
-        <v>3435512.228616858</v>
+        <v>790208.6050205568</v>
       </c>
       <c r="R241">
-        <v>5273</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="242">
@@ -16203,6 +16183,16 @@
       <c r="C242">
         <v>0</v>
       </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>02.3.68.5</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>Zvyšení kvality vzdělávání a odborné přípravy včetně posílení jejich relevance pro trh práce</t>
+        </is>
+      </c>
       <c r="F242" t="inlineStr">
         <is>
           <t>OP VVV</t>
@@ -16214,63 +16204,53 @@
         </is>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>16115820.33511859</v>
       </c>
       <c r="I242">
-        <v>0</v>
+        <v>13432413.26344709</v>
       </c>
       <c r="J242">
-        <v>0</v>
+        <v>2683407.071671505</v>
       </c>
       <c r="K242">
         <v>0</v>
       </c>
       <c r="L242">
-        <v>0</v>
+        <v>1598131.150454668</v>
       </c>
       <c r="M242">
-        <v>0</v>
+        <v>1332144.782285102</v>
       </c>
       <c r="N242">
-        <v>0</v>
+        <v>265986.3681695662</v>
       </c>
       <c r="O242">
-        <v>0</v>
+        <v>1598131.150454668</v>
       </c>
       <c r="P242">
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>0</v>
+        <v>265986.3681695662</v>
       </c>
       <c r="R242">
-        <v>1509</v>
+        <v>5242</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Combating all forms of discrimination and promoting equal opportunities</t>
+          <t>Socio-economic integration of marginalised communities such as the Roma</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>VI.0.111</t>
+          <t>VI.0.110</t>
         </is>
       </c>
       <c r="C243">
         <v>0</v>
       </c>
-      <c r="D243" t="inlineStr">
-        <is>
-          <t>02.3.61.1</t>
-        </is>
-      </c>
-      <c r="E243" t="inlineStr">
-        <is>
-          <t>Sociální integrace dětí a žáků včetně začleňování romských dětí do vzdělávání</t>
-        </is>
-      </c>
       <c r="F243" t="inlineStr">
         <is>
           <t>OP VVV</t>
@@ -16282,37 +16262,37 @@
         </is>
       </c>
       <c r="H243">
-        <v>62440726.60526144</v>
+        <v>0</v>
       </c>
       <c r="I243">
-        <v>51833821.47176971</v>
+        <v>0</v>
       </c>
       <c r="J243">
-        <v>10606905.13349159</v>
+        <v>0</v>
       </c>
       <c r="K243">
         <v>0</v>
       </c>
       <c r="L243">
-        <v>7346461.562429223</v>
+        <v>0</v>
       </c>
       <c r="M243">
-        <v>6072780.407739297</v>
+        <v>0</v>
       </c>
       <c r="N243">
-        <v>1273681.154689925</v>
+        <v>0</v>
       </c>
       <c r="O243">
-        <v>7346461.562429223</v>
+        <v>0</v>
       </c>
       <c r="P243">
-        <v>1.579391529341004e-11</v>
+        <v>0</v>
       </c>
       <c r="Q243">
-        <v>1273681.154689925</v>
+        <v>0</v>
       </c>
       <c r="R243">
-        <v>2157</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="244">
@@ -16331,12 +16311,12 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>02.3.62.1</t>
+          <t>02.3.61.1</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Kvalitní podmínky pro inkluzívní vzdělávání</t>
+          <t>Sociální integrace dětí a žáků včetně začleňování romských dětí do vzdělávání</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
@@ -16350,37 +16330,37 @@
         </is>
       </c>
       <c r="H244">
-        <v>653230049.9690337</v>
+        <v>6744665.989060828</v>
       </c>
       <c r="I244">
-        <v>537336742.0445462</v>
+        <v>5596437.339795205</v>
       </c>
       <c r="J244">
-        <v>115893307.9244879</v>
+        <v>1148228.649265623</v>
       </c>
       <c r="K244">
         <v>0</v>
       </c>
       <c r="L244">
-        <v>492521066.5138685</v>
+        <v>737799.092043819</v>
       </c>
       <c r="M244">
-        <v>404541374.4988801</v>
+        <v>609665.2256916327</v>
       </c>
       <c r="N244">
-        <v>87979692.01498884</v>
+        <v>128133.8663521863</v>
       </c>
       <c r="O244">
-        <v>492521066.5138685</v>
+        <v>737799.092043819</v>
       </c>
       <c r="P244">
-        <v>2.797073228011588e-09</v>
+        <v>0</v>
       </c>
       <c r="Q244">
-        <v>87979692.01498884</v>
+        <v>128133.8663521863</v>
       </c>
       <c r="R244">
-        <v>2269</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="245">
@@ -16399,12 +16379,12 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>02.3.68.5</t>
+          <t>02.3.62.1</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Zvyšení kvality vzdělávání a odborné přípravy včetně posílení jejich relevance pro trh práce</t>
+          <t>Kvalitní podmínky pro inkluzívní vzdělávání</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
@@ -16418,37 +16398,37 @@
         </is>
       </c>
       <c r="H245">
-        <v>23626299.97052041</v>
+        <v>627883766.2229404</v>
       </c>
       <c r="I245">
-        <v>19727215.52064231</v>
+        <v>516263722.9353107</v>
       </c>
       <c r="J245">
-        <v>3899084.449878109</v>
+        <v>111620043.2876298</v>
       </c>
       <c r="K245">
         <v>0</v>
       </c>
       <c r="L245">
-        <v>1350318.248378673</v>
+        <v>490477490.4372113</v>
       </c>
       <c r="M245">
-        <v>1112015.613122844</v>
+        <v>402857732.0478299</v>
       </c>
       <c r="N245">
-        <v>238302.6352558288</v>
+        <v>87619758.38938145</v>
       </c>
       <c r="O245">
-        <v>1350318.248378673</v>
+        <v>490477490.4372113</v>
       </c>
       <c r="P245">
-        <v>5.626378680650535e-12</v>
+        <v>9.313225746154785e-10</v>
       </c>
       <c r="Q245">
-        <v>238302.6352558287</v>
+        <v>87619758.38938145</v>
       </c>
       <c r="R245">
-        <v>2234</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="246">
@@ -16465,6 +16445,16 @@
       <c r="C246">
         <v>0</v>
       </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>02.3.68.5</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>Zvyšení kvality vzdělávání a odborné přípravy včetně posílení jejich relevance pro trh práce</t>
+        </is>
+      </c>
       <c r="F246" t="inlineStr">
         <is>
           <t>OP VVV</t>
@@ -16476,105 +16466,95 @@
         </is>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2557373.113135404</v>
       </c>
       <c r="I246">
-        <v>0</v>
+        <v>2129252.135968672</v>
       </c>
       <c r="J246">
-        <v>0</v>
+        <v>428120.9771667324</v>
       </c>
       <c r="K246">
         <v>0</v>
       </c>
       <c r="L246">
-        <v>0</v>
+        <v>119422.4240750325</v>
       </c>
       <c r="M246">
-        <v>0</v>
+        <v>96592.13219476433</v>
       </c>
       <c r="N246">
-        <v>0</v>
+        <v>22830.29188026811</v>
       </c>
       <c r="O246">
-        <v>0</v>
+        <v>119422.4240750325</v>
       </c>
       <c r="P246">
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>0</v>
+        <v>22830.29188026811</v>
       </c>
       <c r="R246">
-        <v>63</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Enhancing access to affordable, sustainable and high-quality services, including health care and social services of general interest</t>
+          <t>Combating all forms of discrimination and promoting equal opportunities</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>VI.0.112</t>
+          <t>VI.0.111</t>
         </is>
       </c>
       <c r="C247">
         <v>0</v>
       </c>
-      <c r="D247" t="inlineStr">
-        <is>
-          <t>03.2.60.1</t>
-        </is>
-      </c>
-      <c r="E247" t="inlineStr">
-        <is>
-          <t>Zvýšit uplatnitelnost osob ohrožených sociálním vyloučením nebo sociálně vyloučených ve společnosti a na trhu práce</t>
-        </is>
-      </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>OP Z</t>
+          <t>OP VVV</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H247">
-        <v>141974135.4173588</v>
+        <v>0</v>
       </c>
       <c r="I247">
-        <v>93302518.64490001</v>
+        <v>0</v>
       </c>
       <c r="J247">
-        <v>48671616.77245883</v>
+        <v>0</v>
       </c>
       <c r="K247">
         <v>0</v>
       </c>
       <c r="L247">
-        <v>65608283.45627567</v>
+        <v>0</v>
       </c>
       <c r="M247">
-        <v>45742210.7242912</v>
+        <v>0</v>
       </c>
       <c r="N247">
-        <v>19866072.73198447</v>
+        <v>0</v>
       </c>
       <c r="O247">
-        <v>65608283.45627567</v>
+        <v>0</v>
       </c>
       <c r="P247">
-        <v>-1.64262019140098e-09</v>
+        <v>0</v>
       </c>
       <c r="Q247">
-        <v>19866072.73198447</v>
+        <v>0</v>
       </c>
       <c r="R247">
-        <v>121</v>
+        <v>63</v>
       </c>
     </row>
     <row r="248">
@@ -16593,12 +16573,12 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>03.2.63.1</t>
+          <t>03.2.60.1</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Zvýšit kvalitu a udržitelnost systému sociálních služeb, služeb pro rodiny a děti a dalších navazujících služeb podporujících sociální začleňování</t>
+          <t>Zvýšit uplatnitelnost osob ohrožených sociálním vyloučením nebo sociálně vyloučených ve společnosti a na trhu práce</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
@@ -16612,37 +16592,37 @@
         </is>
       </c>
       <c r="H248">
-        <v>4272520240.774289</v>
+        <v>34522819.22143923</v>
       </c>
       <c r="I248">
-        <v>3353010089.56609</v>
+        <v>22758588.712873</v>
       </c>
       <c r="J248">
-        <v>916246685.0381894</v>
+        <v>11764230.50856623</v>
       </c>
       <c r="K248">
-        <v>3263466.169999999</v>
+        <v>0</v>
       </c>
       <c r="L248">
-        <v>2764472995.217292</v>
+        <v>15878704.14505051</v>
       </c>
       <c r="M248">
-        <v>2230487818.085001</v>
+        <v>11101722.10586837</v>
       </c>
       <c r="N248">
-        <v>531878609.4722898</v>
+        <v>4776982.039182135</v>
       </c>
       <c r="O248">
-        <v>2762366427.557291</v>
+        <v>15878704.14505051</v>
       </c>
       <c r="P248">
-        <v>2106567.660000036</v>
+        <v>-2.813409084461673e-10</v>
       </c>
       <c r="Q248">
-        <v>533985177.1322899</v>
+        <v>4776982.039182135</v>
       </c>
       <c r="R248">
-        <v>711</v>
+        <v>121</v>
       </c>
     </row>
     <row r="249">
@@ -16661,12 +16641,12 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>03.2.63.2</t>
+          <t>03.2.63.1</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Zvýšit dostupnost a efektivitu zdravotních služeb a umožnit přesun těžiště psychiatrické péče do komunity</t>
+          <t>Zvýšit kvalitu a udržitelnost systému sociálních služeb, služeb pro rodiny a děti a dalších navazujících služeb podporujících sociální začleňování</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
@@ -16680,37 +16660,37 @@
         </is>
       </c>
       <c r="H249">
-        <v>2269485773.579999</v>
+        <v>4169659159.813015</v>
       </c>
       <c r="I249">
-        <v>1760269902.95</v>
+        <v>3280475025.637313</v>
       </c>
       <c r="J249">
-        <v>509215870.63</v>
+        <v>885920668.0057015</v>
       </c>
       <c r="K249">
-        <v>0</v>
+        <v>3263466.17</v>
       </c>
       <c r="L249">
-        <v>1207219541.9</v>
+        <v>2717566077.611609</v>
       </c>
       <c r="M249">
-        <v>936349655.3999997</v>
+        <v>2194742588.2866</v>
       </c>
       <c r="N249">
-        <v>270869886.5</v>
+        <v>520716921.6650093</v>
       </c>
       <c r="O249">
-        <v>1207219541.9</v>
+        <v>2715459509.951609</v>
       </c>
       <c r="P249">
-        <v>3.259629011154175e-08</v>
+        <v>2106567.66000003</v>
       </c>
       <c r="Q249">
-        <v>270869886.5</v>
+        <v>522823489.3250092</v>
       </c>
       <c r="R249">
-        <v>38</v>
+        <v>711</v>
       </c>
     </row>
     <row r="250">
@@ -16729,67 +16709,67 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>07.3.63.3.3</t>
+          <t>03.2.63.2</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Posílení aktivit pro integraci, komunitní služby a prevenci</t>
+          <t>Zvýšit dostupnost a efektivitu zdravotních služeb a umožnit přesun těžiště psychiatrické péče do komunity</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>OP PPR</t>
+          <t>OP Z</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H250">
-        <v>776961377.01</v>
+        <v>2269485773.58</v>
       </c>
       <c r="I250">
-        <v>388480688.2600002</v>
+        <v>1760269902.95</v>
       </c>
       <c r="J250">
-        <v>385577617.2499999</v>
+        <v>509215870.63</v>
       </c>
       <c r="K250">
-        <v>2903071.5</v>
+        <v>0</v>
       </c>
       <c r="L250">
-        <v>615636094.5800004</v>
+        <v>1207219541.9</v>
       </c>
       <c r="M250">
-        <v>307818045.8200002</v>
+        <v>936349655.4</v>
       </c>
       <c r="N250">
-        <v>305803900.4500001</v>
+        <v>270869886.5</v>
       </c>
       <c r="O250">
-        <v>613621946.2700005</v>
+        <v>1207219541.9</v>
       </c>
       <c r="P250">
-        <v>2014148.309999988</v>
+        <v>3.445893526077271e-08</v>
       </c>
       <c r="Q250">
-        <v>307818048.76</v>
+        <v>270869886.5</v>
       </c>
       <c r="R250">
-        <v>177</v>
+        <v>38</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Community-led local development strategies</t>
+          <t>Enhancing access to affordable, sustainable and high-quality services, including health care and social services of general interest</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>VI.0.114</t>
+          <t>VI.0.112</t>
         </is>
       </c>
       <c r="C251">
@@ -16797,67 +16777,67 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>03.2.65.1</t>
+          <t>07.3.63.3.3</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Zvýšit zapojení lokálních aktérů do řešení problémů nezaměstnanosti a sociálního začleňování ve venkovských oblastech</t>
+          <t>Posílení aktivit pro integraci, komunitní služby a prevenci</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>OP Z</t>
+          <t>OP PPR</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>07</t>
         </is>
       </c>
       <c r="H251">
-        <v>1991915741.780001</v>
+        <v>776961377.01</v>
       </c>
       <c r="I251">
-        <v>1693089963.45999</v>
+        <v>388480688.26</v>
       </c>
       <c r="J251">
-        <v>262256616.259999</v>
+        <v>385577617.25</v>
       </c>
       <c r="K251">
-        <v>36569162.05999999</v>
+        <v>2903071.5</v>
       </c>
       <c r="L251">
-        <v>1185066337.369999</v>
+        <v>615636094.58</v>
       </c>
       <c r="M251">
-        <v>1007306372.299999</v>
+        <v>307818045.82</v>
       </c>
       <c r="N251">
-        <v>155370143.4499999</v>
+        <v>305803900.45</v>
       </c>
       <c r="O251">
-        <v>1162676515.749998</v>
+        <v>613621946.27</v>
       </c>
       <c r="P251">
-        <v>22389821.62000001</v>
+        <v>2014148.30999999</v>
       </c>
       <c r="Q251">
-        <v>177759965.0699996</v>
+        <v>307818048.76</v>
       </c>
       <c r="R251">
-        <v>1293</v>
+        <v>177</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Reducing and preventing early school-leaving and promoting equal access to good quality early-childhood, primary and secondary education including formal, non-formal and informal learning pathways for reintegrating into education and training</t>
+          <t>Community-led local development strategies</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>VII.0.115</t>
+          <t>VI.0.114</t>
         </is>
       </c>
       <c r="C252">
@@ -16865,56 +16845,56 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>02.3.61.1</t>
+          <t>03.2.65.1</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Sociální integrace dětí a žáků včetně začleňování romských dětí do vzdělávání</t>
+          <t>Zvýšit zapojení lokálních aktérů do řešení problémů nezaměstnanosti a sociálního začleňování ve venkovských oblastech</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>OP VVV</t>
+          <t>OP Z</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>03</t>
         </is>
       </c>
       <c r="H252">
-        <v>204375064.8464181</v>
+        <v>1991915741.78</v>
       </c>
       <c r="I252">
-        <v>169180510.1834942</v>
+        <v>1693089963.46</v>
       </c>
       <c r="J252">
-        <v>35194554.66292339</v>
+        <v>262256616.26</v>
       </c>
       <c r="K252">
-        <v>0</v>
+        <v>36569162.06</v>
       </c>
       <c r="L252">
-        <v>80103978.42801316</v>
+        <v>1185066337.37</v>
       </c>
       <c r="M252">
-        <v>66028812.21042784</v>
+        <v>1007306372.3</v>
       </c>
       <c r="N252">
-        <v>14075166.21758514</v>
+        <v>155370143.45</v>
       </c>
       <c r="O252">
-        <v>80103978.42801316</v>
+        <v>1162676515.75</v>
       </c>
       <c r="P252">
-        <v>3.923172599260167e-11</v>
+        <v>22389821.62</v>
       </c>
       <c r="Q252">
-        <v>14075166.21758514</v>
+        <v>177759965.07</v>
       </c>
       <c r="R252">
-        <v>6291</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="253">
@@ -16933,12 +16913,12 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>02.3.62.1</t>
+          <t>02.3.61.1</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Kvalitní podmínky pro inkluzívní vzdělávání</t>
+          <t>Sociální integrace dětí a žáků včetně začleňování romských dětí do vzdělávání</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
@@ -16952,37 +16932,37 @@
         </is>
       </c>
       <c r="H253">
-        <v>23460507.41115658</v>
+        <v>23655240.76833375</v>
       </c>
       <c r="I253">
-        <v>19586291.84316562</v>
+        <v>19646028.8199181</v>
       </c>
       <c r="J253">
-        <v>3874215.567990952</v>
+        <v>4009211.948415658</v>
       </c>
       <c r="K253">
         <v>0</v>
       </c>
       <c r="L253">
-        <v>1350318.244592386</v>
+        <v>7969250.566440709</v>
       </c>
       <c r="M253">
-        <v>1112015.610501772</v>
+        <v>6583206.666659646</v>
       </c>
       <c r="N253">
-        <v>238302.6340906168</v>
+        <v>1386043.899781063</v>
       </c>
       <c r="O253">
-        <v>1350318.244592386</v>
+        <v>7969250.566440709</v>
       </c>
       <c r="P253">
-        <v>5.626378744160856e-12</v>
+        <v>0</v>
       </c>
       <c r="Q253">
-        <v>238302.6340906168</v>
+        <v>1386043.899781063</v>
       </c>
       <c r="R253">
-        <v>2232</v>
+        <v>6291</v>
       </c>
     </row>
     <row r="254">
@@ -17001,12 +16981,12 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>02.3.68.1</t>
+          <t>02.3.62.1</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t xml:space="preserve">Zvýšení kvality předškolního vzdělávání včetně usnadnění přechodu dětí na ZŠ</t>
+          <t>Kvalitní podmínky pro inkluzívní vzdělávání</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
@@ -17020,37 +17000,37 @@
         </is>
       </c>
       <c r="H254">
-        <v>3765003405.195431</v>
+        <v>2514790.630871851</v>
       </c>
       <c r="I254">
-        <v>3084466689.215766</v>
+        <v>2093057.025158866</v>
       </c>
       <c r="J254">
-        <v>671096924.1870521</v>
+        <v>421733.6057129859</v>
       </c>
       <c r="K254">
-        <v>9439791.792599998</v>
+        <v>0</v>
       </c>
       <c r="L254">
-        <v>3315485991.895416</v>
+        <v>119422.423821236</v>
       </c>
       <c r="M254">
-        <v>2718926796.409782</v>
+        <v>96592.13195102107</v>
       </c>
       <c r="N254">
-        <v>585487496.1044248</v>
+        <v>22830.29187021491</v>
       </c>
       <c r="O254">
-        <v>3304414292.514215</v>
+        <v>119422.423821236</v>
       </c>
       <c r="P254">
-        <v>11071699.38120001</v>
+        <v>0</v>
       </c>
       <c r="Q254">
-        <v>596559195.4856248</v>
+        <v>22830.29187021491</v>
       </c>
       <c r="R254">
-        <v>7669</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="255">
@@ -17069,12 +17049,12 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>02.3.68.2</t>
+          <t>02.3.68.1</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Zlepšení kvality vzdělávání a výsledků žáků v klíčových kompetencích</t>
+          <t xml:space="preserve">Zvýšení kvality předškolního vzdělávání včetně usnadnění přechodu dětí na ZŠ</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
@@ -17088,37 +17068,37 @@
         </is>
       </c>
       <c r="H255">
-        <v>10031369263.99837</v>
+        <v>2635375748.632382</v>
       </c>
       <c r="I255">
-        <v>8248119554.37575</v>
+        <v>2148712270.81651</v>
       </c>
       <c r="J255">
-        <v>1756083113.301241</v>
+        <v>480214433.2389586</v>
       </c>
       <c r="K255">
-        <v>27166596.3214</v>
+        <v>6449044.576913999</v>
       </c>
       <c r="L255">
-        <v>7262100706.296362</v>
+        <v>2426238770.440504</v>
       </c>
       <c r="M255">
-        <v>5966844281.156894</v>
+        <v>1981047433.937703</v>
       </c>
       <c r="N255">
-        <v>1270308781.206188</v>
+        <v>436694389.815923</v>
       </c>
       <c r="O255">
-        <v>7237153062.363062</v>
+        <v>2417741823.753626</v>
       </c>
       <c r="P255">
-        <v>24947643.93329999</v>
+        <v>8496946.686877999</v>
       </c>
       <c r="Q255">
-        <v>1295256425.139489</v>
+        <v>445191336.5028009</v>
       </c>
       <c r="R255">
-        <v>9411</v>
+        <v>7669</v>
       </c>
     </row>
     <row r="256">
@@ -17137,12 +17117,12 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>02.3.68.3</t>
+          <t>02.3.68.2</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Rozvoj systému strategického řízení a hodnocení kvality ve vzdělávání</t>
+          <t>Zlepšení kvality vzdělávání a výsledků žáků v klíčových kompetencích</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
@@ -17156,37 +17136,37 @@
         </is>
       </c>
       <c r="H256">
-        <v>2455761494.3663</v>
+        <v>7763930476.405583</v>
       </c>
       <c r="I256">
-        <v>2008759131.9742</v>
+        <v>6366837928.705415</v>
       </c>
       <c r="J256">
-        <v>418271344.7020997</v>
+        <v>1375363185.727554</v>
       </c>
       <c r="K256">
-        <v>28731017.69000001</v>
+        <v>21729361.972614</v>
       </c>
       <c r="L256">
-        <v>1836448735.929999</v>
+        <v>5819775047.515848</v>
       </c>
       <c r="M256">
-        <v>1503942735.361502</v>
+        <v>4768326728.239225</v>
       </c>
       <c r="N256">
-        <v>307030626.2685</v>
+        <v>1031460326.80897</v>
       </c>
       <c r="O256">
-        <v>1810973361.629999</v>
+        <v>5799787055.048195</v>
       </c>
       <c r="P256">
-        <v>25475374.29999996</v>
+        <v>19987992.46765298</v>
       </c>
       <c r="Q256">
-        <v>332506000.5685</v>
+        <v>1051448319.276623</v>
       </c>
       <c r="R256">
-        <v>461</v>
+        <v>9411</v>
       </c>
     </row>
     <row r="257">
@@ -17205,12 +17185,12 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>02.3.68.4</t>
+          <t>02.3.68.3</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Zkvalitnění přípravy budoucích a začínajících pedagogických pracovníků</t>
+          <t>Rozvoj systému strategického řízení a hodnocení kvality ve vzdělávání</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
@@ -17224,37 +17204,37 @@
         </is>
       </c>
       <c r="H257">
-        <v>955830170.782352</v>
+        <v>2018927380.443321</v>
       </c>
       <c r="I257">
-        <v>790350600.4451829</v>
+        <v>1648157782.370624</v>
       </c>
       <c r="J257">
-        <v>151044132.2371689</v>
+        <v>345006563.240197</v>
       </c>
       <c r="K257">
-        <v>14435438.1</v>
+        <v>25763034.8325</v>
       </c>
       <c r="L257">
-        <v>488111045.6855001</v>
+        <v>1533542158.67268</v>
       </c>
       <c r="M257">
-        <v>408504969.8525</v>
+        <v>1253986096.850855</v>
       </c>
       <c r="N257">
-        <v>67413096.73300001</v>
+        <v>256433243.480575</v>
       </c>
       <c r="O257">
-        <v>475918066.5855001</v>
+        <v>1510419340.33143</v>
       </c>
       <c r="P257">
-        <v>12192979.10000001</v>
+        <v>23122818.34124996</v>
       </c>
       <c r="Q257">
-        <v>79606075.833</v>
+        <v>279556061.821825</v>
       </c>
       <c r="R257">
-        <v>40</v>
+        <v>459</v>
       </c>
     </row>
     <row r="258">
@@ -17273,12 +17253,12 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>02.3.68.5</t>
+          <t>02.3.68.4</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Zvyšení kvality vzdělávání a odborné přípravy včetně posílení jejich relevance pro trh práce</t>
+          <t>Zkvalitnění přípravy budoucích a začínajících pedagogických pracovníků</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
@@ -17292,37 +17272,37 @@
         </is>
       </c>
       <c r="H258">
-        <v>7715797608.414529</v>
+        <v>860660943.6698501</v>
       </c>
       <c r="I258">
-        <v>6248933536.804254</v>
+        <v>716349412.6277578</v>
       </c>
       <c r="J258">
-        <v>1446407830.97423</v>
+        <v>129876092.9420923</v>
       </c>
       <c r="K258">
-        <v>20456240.636</v>
+        <v>14435438.1</v>
       </c>
       <c r="L258">
-        <v>4123547094.839908</v>
+        <v>482849846.213375</v>
       </c>
       <c r="M258">
-        <v>3377076719.171383</v>
+        <v>404032950.307525</v>
       </c>
       <c r="N258">
-        <v>728907747.1630224</v>
+        <v>66623916.80585</v>
       </c>
       <c r="O258">
-        <v>4105984466.334407</v>
+        <v>470656867.113375</v>
       </c>
       <c r="P258">
-        <v>17562628.5055</v>
+        <v>12192979.10000001</v>
       </c>
       <c r="Q258">
-        <v>746470375.6685215</v>
+        <v>78816895.90585001</v>
       </c>
       <c r="R258">
-        <v>9149</v>
+        <v>40</v>
       </c>
     </row>
     <row r="259">
@@ -17341,56 +17321,56 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>07.4.68.4.2</t>
+          <t>02.3.68.5</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Zvýšení kvality vzdělávání prostřednictvím posílení inkluze v multikulturní společnosti</t>
+          <t>Zvyšení kvality vzdělávání a odborné přípravy včetně posílení jejich relevance pro trh práce</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>OP PPR</t>
+          <t>OP VVV</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H259">
-        <v>1306387489.02</v>
+        <v>5888680980.699636</v>
       </c>
       <c r="I259">
-        <v>653193744.2500002</v>
+        <v>4732077470.985261</v>
       </c>
       <c r="J259">
-        <v>647724407.2399999</v>
+        <v>1142431968.026575</v>
       </c>
       <c r="K259">
-        <v>5469337.53</v>
+        <v>14171541.6878</v>
       </c>
       <c r="L259">
-        <v>609563874.7500002</v>
+        <v>3124002088.869528</v>
       </c>
       <c r="M259">
-        <v>304781936.39</v>
+        <v>2546204409.351175</v>
       </c>
       <c r="N259">
-        <v>301929974.23</v>
+        <v>565691120.0582289</v>
       </c>
       <c r="O259">
-        <v>606711910.6200002</v>
+        <v>3111895529.409403</v>
       </c>
       <c r="P259">
-        <v>2851964.129999999</v>
+        <v>12106559.460125</v>
       </c>
       <c r="Q259">
-        <v>304781938.3599999</v>
+        <v>577797679.5183538</v>
       </c>
       <c r="R259">
-        <v>801</v>
+        <v>9149</v>
       </c>
     </row>
     <row r="260">
@@ -17407,74 +17387,74 @@
       <c r="C260">
         <v>0</v>
       </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>07.4.68.4.2</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>Zvýšení kvality vzdělávání prostřednictvím posílení inkluze v multikulturní společnosti</t>
+        </is>
+      </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>OP VVV</t>
+          <t>OP PPR</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>07</t>
         </is>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>1306387489.02</v>
       </c>
       <c r="I260">
-        <v>0</v>
+        <v>653193744.25</v>
       </c>
       <c r="J260">
-        <v>0</v>
+        <v>647724407.24</v>
       </c>
       <c r="K260">
-        <v>0</v>
+        <v>5469337.53</v>
       </c>
       <c r="L260">
-        <v>0</v>
+        <v>609563874.75</v>
       </c>
       <c r="M260">
-        <v>0</v>
+        <v>304781936.39</v>
       </c>
       <c r="N260">
-        <v>0</v>
+        <v>301929974.23</v>
       </c>
       <c r="O260">
-        <v>0</v>
+        <v>606711910.62</v>
       </c>
       <c r="P260">
-        <v>0</v>
+        <v>2851964.129999999</v>
       </c>
       <c r="Q260">
-        <v>0</v>
+        <v>304781938.36</v>
       </c>
       <c r="R260">
-        <v>31</v>
+        <v>801</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Improving the quality and efficiency of, and access to, tertiary and equivalent education with a view to increasing participation and attainment levels, especially for disadvantaged groups</t>
+          <t>Reducing and preventing early school-leaving and promoting equal access to good quality early-childhood, primary and secondary education including formal, non-formal and informal learning pathways for reintegrating into education and training</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>VII.0.116</t>
+          <t>VII.0.115</t>
         </is>
       </c>
       <c r="C261">
         <v>0</v>
       </c>
-      <c r="D261" t="inlineStr">
-        <is>
-          <t>02.2.69.1</t>
-        </is>
-      </c>
-      <c r="E261" t="inlineStr">
-        <is>
-          <t>Zvýšení kvality vzdělávání na vysokých školách a jeho relevance pro potřeby trhu práce</t>
-        </is>
-      </c>
       <c r="F261" t="inlineStr">
         <is>
           <t>OP VVV</t>
@@ -17486,37 +17466,37 @@
         </is>
       </c>
       <c r="H261">
-        <v>2875973999.650123</v>
+        <v>0</v>
       </c>
       <c r="I261">
-        <v>2350010814.382798</v>
+        <v>0</v>
       </c>
       <c r="J261">
-        <v>416934119.3100819</v>
+        <v>0</v>
       </c>
       <c r="K261">
-        <v>109029065.957243</v>
+        <v>0</v>
       </c>
       <c r="L261">
-        <v>2212202114.707729</v>
+        <v>0</v>
       </c>
       <c r="M261">
-        <v>1808330644.364288</v>
+        <v>0</v>
       </c>
       <c r="N261">
-        <v>313054003.2844749</v>
+        <v>0</v>
       </c>
       <c r="O261">
-        <v>2121384647.648764</v>
+        <v>0</v>
       </c>
       <c r="P261">
-        <v>90817467.05896598</v>
+        <v>0</v>
       </c>
       <c r="Q261">
-        <v>403871470.3434408</v>
+        <v>0</v>
       </c>
       <c r="R261">
-        <v>59</v>
+        <v>33</v>
       </c>
     </row>
     <row r="262">
@@ -17535,12 +17515,12 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>02.2.69.2</t>
+          <t>02.2.69.1</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Zvýšení účasti studentů se specifickými potřebami, ze socio-ekonomicky znevýhodněných skupin a z etnických minorit na vysokoškolském vzdělávání, a snížení studijní neúspěšnosti studentů</t>
+          <t>Zvýšení kvality vzdělávání na vysokých školách a jeho relevance pro potřeby trhu práce</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
@@ -17554,37 +17534,37 @@
         </is>
       </c>
       <c r="H262">
-        <v>573637777.0843242</v>
+        <v>2137883436.611311</v>
       </c>
       <c r="I262">
-        <v>468900666.332028</v>
+        <v>1747014860.381849</v>
       </c>
       <c r="J262">
-        <v>83875325.683093</v>
+        <v>313036395.7294301</v>
       </c>
       <c r="K262">
-        <v>20861785.069203</v>
+        <v>77832180.50003143</v>
       </c>
       <c r="L262">
-        <v>433318020.9274319</v>
+        <v>1630945035.514077</v>
       </c>
       <c r="M262">
-        <v>354645819.517549</v>
+        <v>1333353517.441399</v>
       </c>
       <c r="N262">
-        <v>61401989.570601</v>
+        <v>232726798.0522246</v>
       </c>
       <c r="O262">
-        <v>416047809.0881501</v>
+        <v>1566080315.493624</v>
       </c>
       <c r="P262">
-        <v>17270211.83928199</v>
+        <v>64864720.02045357</v>
       </c>
       <c r="Q262">
-        <v>78672201.40988301</v>
+        <v>297591518.0726782</v>
       </c>
       <c r="R262">
-        <v>39</v>
+        <v>59</v>
       </c>
     </row>
     <row r="263">
@@ -17603,12 +17583,12 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>02.2.69.3</t>
+          <t>02.2.69.2</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Zkvalitnění podmínek pro celoživotní vzdělávání na vysokých školách</t>
+          <t>Zvýšení účasti studentů se specifickými potřebami, ze socio-ekonomicky znevýhodněných skupin a z etnických minorit na vysokoškolském vzdělávání, a snížení studijní neúspěšnosti studentů</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
@@ -17622,37 +17602,37 @@
         </is>
       </c>
       <c r="H263">
-        <v>25984151.63</v>
+        <v>126880911.3650893</v>
       </c>
       <c r="I263">
-        <v>21320671.48</v>
+        <v>102811690.5943561</v>
       </c>
       <c r="J263">
-        <v>4368439.52</v>
+        <v>20070494.76476751</v>
       </c>
       <c r="K263">
-        <v>295040.63</v>
+        <v>3998726.005965749</v>
       </c>
       <c r="L263">
-        <v>19841830.02</v>
+        <v>91507590.17560835</v>
       </c>
       <c r="M263">
-        <v>16145809.63</v>
+        <v>74273342.02882598</v>
       </c>
       <c r="N263">
-        <v>3401862.11</v>
+        <v>13900716.04125039</v>
       </c>
       <c r="O263">
-        <v>19547671.74</v>
+        <v>88174058.07007638</v>
       </c>
       <c r="P263">
-        <v>294158.2799999991</v>
+        <v>3333532.105531972</v>
       </c>
       <c r="Q263">
-        <v>3696020.389999999</v>
+        <v>17234248.14678237</v>
       </c>
       <c r="R263">
-        <v>8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="264">
@@ -17671,12 +17651,12 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>02.2.69.4</t>
+          <t>02.2.69.3</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Nastavení a rozvoj systému hodnocení a zabezpečení kvality a strategického řízení vysokých škol</t>
+          <t>Zkvalitnění podmínek pro celoživotní vzdělávání na vysokých školách</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
@@ -17690,37 +17670,37 @@
         </is>
       </c>
       <c r="H264">
-        <v>646311535.785553</v>
+        <v>25984151.63</v>
       </c>
       <c r="I264">
-        <v>524443611.515174</v>
+        <v>21320671.48</v>
       </c>
       <c r="J264">
-        <v>90128700.32682501</v>
+        <v>4368439.52</v>
       </c>
       <c r="K264">
-        <v>31739223.943554</v>
+        <v>295040.63</v>
       </c>
       <c r="L264">
-        <v>533763467.7648389</v>
+        <v>19841830.02</v>
       </c>
       <c r="M264">
-        <v>432672527.2281631</v>
+        <v>16145809.63</v>
       </c>
       <c r="N264">
-        <v>74505603.414924</v>
+        <v>3401862.11</v>
       </c>
       <c r="O264">
-        <v>507178130.6430871</v>
+        <v>19547671.74</v>
       </c>
       <c r="P264">
-        <v>26585337.12175199</v>
+        <v>294158.2799999991</v>
       </c>
       <c r="Q264">
-        <v>101090940.536676</v>
+        <v>3696020.39</v>
       </c>
       <c r="R264">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="265">
@@ -17739,12 +17719,12 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>02.2.69.5</t>
+          <t>02.2.69.4</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Zlepšení podmínek pro výuku spojenou s výzkumem a pro rozvoj lidských zdrojů v oblasti výzkumu a vývoje</t>
+          <t>Nastavení a rozvoj systému hodnocení a zabezpečení kvality a strategického řízení vysokých škol</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
@@ -17758,37 +17738,37 @@
         </is>
       </c>
       <c r="H265">
-        <v>6538110815.910001</v>
+        <v>172858469.1109808</v>
       </c>
       <c r="I265">
-        <v>5317682002.039998</v>
+        <v>137840863.6213884</v>
       </c>
       <c r="J265">
-        <v>1095113134.409999</v>
+        <v>26275653.94060981</v>
       </c>
       <c r="K265">
-        <v>125315679.46</v>
+        <v>8741951.548982617</v>
       </c>
       <c r="L265">
-        <v>3632120176.839999</v>
+        <v>145478259.2025524</v>
       </c>
       <c r="M265">
-        <v>2967772456.699996</v>
+        <v>115732506.4753267</v>
       </c>
       <c r="N265">
-        <v>561583245.1799996</v>
+        <v>22323608.78450434</v>
       </c>
       <c r="O265">
-        <v>3529355701.879999</v>
+        <v>138056115.2598311</v>
       </c>
       <c r="P265">
-        <v>102764474.96</v>
+        <v>7422143.942721368</v>
       </c>
       <c r="Q265">
-        <v>664347720.14</v>
+        <v>29745752.72722571</v>
       </c>
       <c r="R265">
-        <v>350</v>
+        <v>31</v>
       </c>
     </row>
     <row r="266">
@@ -17805,6 +17785,16 @@
       <c r="C266">
         <v>0</v>
       </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>02.2.69.5</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>Zlepšení podmínek pro výuku spojenou s výzkumem a pro rozvoj lidských zdrojů v oblasti výzkumu a vývoje</t>
+        </is>
+      </c>
       <c r="F266" t="inlineStr">
         <is>
           <t>OP VVV</t>
@@ -17816,105 +17806,95 @@
         </is>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>6538110815.91</v>
       </c>
       <c r="I266">
-        <v>0</v>
+        <v>5317682002.04</v>
       </c>
       <c r="J266">
-        <v>0</v>
+        <v>1095113134.41</v>
       </c>
       <c r="K266">
-        <v>0</v>
+        <v>125315679.46</v>
       </c>
       <c r="L266">
-        <v>0</v>
+        <v>3632120176.84</v>
       </c>
       <c r="M266">
-        <v>0</v>
+        <v>2967772456.7</v>
       </c>
       <c r="N266">
-        <v>0</v>
+        <v>561583245.1799999</v>
       </c>
       <c r="O266">
-        <v>0</v>
+        <v>3529355701.88</v>
       </c>
       <c r="P266">
-        <v>0</v>
+        <v>102764474.96</v>
       </c>
       <c r="Q266">
-        <v>0</v>
+        <v>664347720.14</v>
       </c>
       <c r="R266">
-        <v>2</v>
+        <v>350</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Investment in institutional capacity and in the efficiency of public administrations and public services at the national, regional and local levels with a view to reforms, better regulation and good governance</t>
+          <t>Improving the quality and efficiency of, and access to, tertiary and equivalent education with a view to increasing participation and attainment levels, especially for disadvantaged groups</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>VIII.0.119</t>
+          <t>VII.0.116</t>
         </is>
       </c>
       <c r="C267">
         <v>0</v>
       </c>
-      <c r="D267" t="inlineStr">
-        <is>
-          <t>03.3.48.1</t>
-        </is>
-      </c>
-      <c r="E267" t="inlineStr">
-        <is>
-          <t>Zvýšit kvalitu a kvantitu využívání sociálních inovací a mezinárodní spolupráce v tematických oblastech OPZ (TC8)</t>
-        </is>
-      </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>OP Z</t>
+          <t>OP VVV</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="H267">
-        <v>84706434.14698221</v>
+        <v>0</v>
       </c>
       <c r="I267">
-        <v>76966807.078725</v>
+        <v>0</v>
       </c>
       <c r="J267">
-        <v>6521983.196354499</v>
+        <v>0</v>
       </c>
       <c r="K267">
-        <v>1217643.871902704</v>
+        <v>0</v>
       </c>
       <c r="L267">
-        <v>48136789.81021003</v>
+        <v>0</v>
       </c>
       <c r="M267">
-        <v>43738530.44376853</v>
+        <v>0</v>
       </c>
       <c r="N267">
-        <v>3517287.407880817</v>
+        <v>0</v>
       </c>
       <c r="O267">
-        <v>47255817.85164935</v>
+        <v>0</v>
       </c>
       <c r="P267">
-        <v>880971.9585606827</v>
+        <v>0</v>
       </c>
       <c r="Q267">
-        <v>4398259.366441499</v>
+        <v>0</v>
       </c>
       <c r="R267">
-        <v>65</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268">
@@ -17933,12 +17913,12 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>03.3.60.1</t>
+          <t>03.3.48.1</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Zvýšit kvalitu a kvantitu využívání sociálních inovací a mezinárodní spolupráce v tematických oblastech OPZ (TC9)</t>
+          <t>Zvýšit kvalitu a kvantitu využívání sociálních inovací a mezinárodní spolupráce v tematických oblastech OPZ (TC8)</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
@@ -17952,34 +17932,34 @@
         </is>
       </c>
       <c r="H268">
-        <v>92269841.54153877</v>
+        <v>14913367.16473869</v>
       </c>
       <c r="I268">
-        <v>83839145.93397498</v>
+        <v>13550732.76949912</v>
       </c>
       <c r="J268">
-        <v>7056943.54695562</v>
+        <v>1029052.023373791</v>
       </c>
       <c r="K268">
-        <v>1373752.060608179</v>
+        <v>333582.3718657792</v>
       </c>
       <c r="L268">
-        <v>51100312.06201868</v>
+        <v>9533171.961486114</v>
       </c>
       <c r="M268">
-        <v>46431275.62497864</v>
+        <v>8662125.857383139</v>
       </c>
       <c r="N268">
-        <v>3675119.355586954</v>
+        <v>633353.2148569815</v>
       </c>
       <c r="O268">
-        <v>50106394.9805656</v>
+        <v>9295479.07224012</v>
       </c>
       <c r="P268">
-        <v>993917.0814530776</v>
+        <v>237692.8892459949</v>
       </c>
       <c r="Q268">
-        <v>4669036.43704003</v>
+        <v>871046.1041029763</v>
       </c>
       <c r="R268">
         <v>65</v>
@@ -18001,12 +17981,12 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>03.3.74.1</t>
+          <t>03.3.60.1</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Zvýšit kvalitu a kvantitu využívání sociálních inovací a mezinárodní spolupráce v tematických oblastech OPZ (TC11)</t>
+          <t>Zvýšit kvalitu a kvantitu využívání sociálních inovací a mezinárodní spolupráce v tematických oblastech OPZ (TC9)</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
@@ -18020,37 +18000,37 @@
         </is>
       </c>
       <c r="H269">
-        <v>35115618.68946002</v>
+        <v>16302048.21412192</v>
       </c>
       <c r="I269">
-        <v>31907104.54080001</v>
+        <v>14812530.03544388</v>
       </c>
       <c r="J269">
-        <v>2677746.3070614</v>
+        <v>1064918.92034</v>
       </c>
       <c r="K269">
-        <v>530767.8415986147</v>
+        <v>424599.2583380332</v>
       </c>
       <c r="L269">
-        <v>19223553.6385955</v>
+        <v>9529601.226884808</v>
       </c>
       <c r="M269">
-        <v>17467097.19709511</v>
+        <v>8658881.391912876</v>
       </c>
       <c r="N269">
-        <v>1372443.023666245</v>
+        <v>568173.198824498</v>
       </c>
       <c r="O269">
-        <v>18839540.22076136</v>
+        <v>9227054.590737374</v>
       </c>
       <c r="P269">
-        <v>384013.4178341436</v>
+        <v>302546.6361474334</v>
       </c>
       <c r="Q269">
-        <v>1756456.441500388</v>
+        <v>870719.8349719313</v>
       </c>
       <c r="R269">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="270">
@@ -18069,12 +18049,12 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>03.4.74.1</t>
+          <t>03.3.74.1</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Optimalizovat procesy a postupy ve veřejné správě zejména prostřednictvím posílení strategického řízení organizací, zvýšení kvality jejich fungování a snížení administrativní zátěže</t>
+          <t>Zvýšit kvalitu a kvantitu využívání sociálních inovací a mezinárodní spolupráce v tematických oblastech OPZ (TC11)</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
@@ -18088,37 +18068,37 @@
         </is>
       </c>
       <c r="H270">
-        <v>2803256705.259124</v>
+        <v>2395250.222871259</v>
       </c>
       <c r="I270">
-        <v>2290853901.723938</v>
+        <v>2176396.205231987</v>
       </c>
       <c r="J270">
-        <v>498374308.446782</v>
+        <v>155471.1738067859</v>
       </c>
       <c r="K270">
-        <v>14028495.0884</v>
+        <v>63382.84383248533</v>
       </c>
       <c r="L270">
-        <v>1656144198.701383</v>
+        <v>1385361.635808206</v>
       </c>
       <c r="M270">
-        <v>1352622791.660072</v>
+        <v>1258781.118504789</v>
       </c>
       <c r="N270">
-        <v>291647271.552509</v>
+        <v>81417.30560578834</v>
       </c>
       <c r="O270">
-        <v>1644270063.212583</v>
+        <v>1340198.424110578</v>
       </c>
       <c r="P270">
-        <v>11874135.48880003</v>
+        <v>45163.21169762823</v>
       </c>
       <c r="Q270">
-        <v>303521407.0413089</v>
+        <v>126580.5173034166</v>
       </c>
       <c r="R270">
-        <v>554</v>
+        <v>61</v>
       </c>
     </row>
     <row r="271">
@@ -18137,55 +18117,123 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
+          <t>03.4.74.1</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>Optimalizovat procesy a postupy ve veřejné správě zejména prostřednictvím posílení strategického řízení organizací, zvýšení kvality jejich fungování a snížení administrativní zátěže</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>OP Z</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="H271">
+        <v>1684121904.57228</v>
+      </c>
+      <c r="I271">
+        <v>1374340840.387751</v>
+      </c>
+      <c r="J271">
+        <v>302486246.7385608</v>
+      </c>
+      <c r="K271">
+        <v>7294817.445968</v>
+      </c>
+      <c r="L271">
+        <v>1012022393.850686</v>
+      </c>
+      <c r="M271">
+        <v>825327420.347991</v>
+      </c>
+      <c r="N271">
+        <v>180520423.0485194</v>
+      </c>
+      <c r="O271">
+        <v>1005847843.39651</v>
+      </c>
+      <c r="P271">
+        <v>6174550.454176022</v>
+      </c>
+      <c r="Q271">
+        <v>186694973.5026954</v>
+      </c>
+      <c r="R271">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Investment in institutional capacity and in the efficiency of public administrations and public services at the national, regional and local levels with a view to reforms, better regulation and good governance</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>VIII.0.119</t>
+        </is>
+      </c>
+      <c r="C272">
+        <v>0</v>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
           <t>03.4.74.2</t>
         </is>
       </c>
-      <c r="E271" t="inlineStr">
+      <c r="E272" t="inlineStr">
         <is>
           <t>Profesionalizovat veřejnou správu zejména prostřednictvím zvyšování znalostí a dovedností jejích pracovníků, rozvoje politik a strategií v oblasti lidských zdrojů a implementace služebního zákona</t>
         </is>
       </c>
-      <c r="F271" t="inlineStr">
+      <c r="F272" t="inlineStr">
         <is>
           <t>OP Z</t>
         </is>
       </c>
-      <c r="G271" t="inlineStr">
+      <c r="G272" t="inlineStr">
         <is>
           <t>03</t>
         </is>
       </c>
-      <c r="H271">
-        <v>2152273826.34088</v>
-      </c>
-      <c r="I271">
-        <v>1762599121.606061</v>
-      </c>
-      <c r="J271">
-        <v>376725324.6532179</v>
-      </c>
-      <c r="K271">
-        <v>12949380.0816</v>
-      </c>
-      <c r="L271">
-        <v>1236639914.708616</v>
-      </c>
-      <c r="M271">
-        <v>1012367127.079925</v>
-      </c>
-      <c r="N271">
-        <v>213312047.1774909</v>
-      </c>
-      <c r="O271">
-        <v>1225679174.257417</v>
-      </c>
-      <c r="P271">
-        <v>10960740.45120001</v>
-      </c>
-      <c r="Q271">
-        <v>224272787.6286908</v>
-      </c>
-      <c r="R271">
+      <c r="H272">
+        <v>1033139025.65404</v>
+      </c>
+      <c r="I272">
+        <v>846086060.2698752</v>
+      </c>
+      <c r="J272">
+        <v>180837262.9449968</v>
+      </c>
+      <c r="K272">
+        <v>6215702.439168</v>
+      </c>
+      <c r="L272">
+        <v>592518109.8579203</v>
+      </c>
+      <c r="M272">
+        <v>485071755.7678428</v>
+      </c>
+      <c r="N272">
+        <v>102185198.6735014</v>
+      </c>
+      <c r="O272">
+        <v>587256954.4413443</v>
+      </c>
+      <c r="P272">
+        <v>5261155.416576005</v>
+      </c>
+      <c r="Q272">
+        <v>107446354.0900774</v>
+      </c>
+      <c r="R272">
         <v>555</v>
       </c>
     </row>
